--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1144.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1144.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8781306565948526</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04390653282974263</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04390653282974263</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.07025045252758821</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.0618547638640305</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.0118547638640305</v>
+        <v>0.0137209013141928</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01316208087903608</v>
+        <v>0.01523401182023018</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001458155186804137</v>
+        <v>0.001551894844859417</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0008141512373830215</v>
+        <v>0.00079654148390475</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001389042628917855</v>
+        <v>0.004242398169300277</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007810332370237615</v>
+        <v>0.0007791163065784836</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.003848358005243718</v>
+        <v>0.0075706980376537</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007521498560317482</v>
+        <v>0.0007761023399200633</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.005668659363869455</v>
+        <v>0.001551894844859417</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007359787850001232</v>
+        <v>0.00079654148390475</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.001865808555992651</v>
+        <v>0.002857076290852467</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001628302474766043</v>
+        <v>0.0015930829678095</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003028486953933381</v>
+        <v>0.008910711736874993</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001562066474047523</v>
+        <v>0.001558232613156967</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.007527126955634511</v>
+        <v>0.01516901265026327</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001504299712063496</v>
+        <v>0.001552204679840127</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01092399814643025</v>
+        <v>0.002857076290852467</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001471957570000246</v>
+        <v>0.0015930829678095</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.0021724582899499</v>
+        <v>0.004391955569193605</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002442453712149064</v>
+        <v>0.002389624451714251</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004498092885693201</v>
+        <v>0.01295138993947451</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002343099711071285</v>
+        <v>0.002337348919735451</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.009999999999999981</v>
+        <v>0.02280754630650889</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002018686868686864</v>
+        <v>0.00232830701976019</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.01400000000000001</v>
+        <v>0.004391955569193605</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.001846798679867989</v>
+        <v>0.002389624451714251</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.003327602571060267</v>
+        <v>0.005732943911097341</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003256604949532086</v>
+        <v>0.003186165935619</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.005877620334843993</v>
+        <v>0.01671088201384924</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003124132948095046</v>
+        <v>0.003116465226313934</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01293834301562416</v>
+        <v>0.0282989014750703</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003008599424126993</v>
+        <v>0.003104409359680253</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.01945677959008824</v>
+        <v>0.005732943911097341</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002943915140000493</v>
+        <v>0.003186165935619</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.004387360293012029</v>
+        <v>0.006661666666666664</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006585979924461388</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006585979924461388</v>
+        <v>0.007056452547778119</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.004387360293012029</v>
+        <v>0.00398270741952375</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.007046829212032368</v>
+        <v>0.01903563719674958</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003905166185118808</v>
+        <v>0.003895581532892418</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01534828619327938</v>
+        <v>0.03255568062462766</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003760749280158742</v>
+        <v>0.003880511699600317</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.02240378760562051</v>
+        <v>0.007056452547778119</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003679893925000616</v>
+        <v>0.00398270741952375</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.007015298791095997</v>
+        <v>0.008138892710450436</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004884907424298129</v>
+        <v>0.004779248903428501</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.00838547942790497</v>
+        <v>0.02099999999999999</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004686199422142569</v>
+        <v>0.004527346278317149</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.0173703942069455</v>
+        <v>0.03499999999999998</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004512899136190489</v>
+        <v>0.004527346278317149</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.0253829053203421</v>
+        <v>0.008138892710450436</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004415872710000739</v>
+        <v>0.004779248903428501</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.007643731571630924</v>
+        <v>0.009056675630328762</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.00569905866168115</v>
+        <v>0.00557579038733325</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.009173330893108442</v>
+        <v>0.02213370303278431</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005467232659166331</v>
+        <v>0.005453814146049385</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.01913050379095269</v>
+        <v>0.03641229786040162</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005265048992222237</v>
+        <v>0.005432716379440443</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.02802658964841442</v>
+        <v>0.009056675630328762</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005151851495000862</v>
+        <v>0.00557579038733325</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.006194431468426659</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006513209899064172</v>
+        <v>0.006661666666666664</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.009990143518289439</v>
+        <v>0.02355348634460555</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006248265896190092</v>
+        <v>0.006232930452627869</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02095445167963109</v>
+        <v>0.03805038776575886</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006017198848253986</v>
+        <v>0.006208818719360507</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.03146729750399874</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005887830280000985</v>
+        <v>0.006661666666666664</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.007683737377148891</v>
+        <v>0.01033417426559596</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007327361136447193</v>
+        <v>0.007168873355142751</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.011</v>
+        <v>0.02469883128281844</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.00732783333333333</v>
+        <v>0.007012046759206352</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02226807460731081</v>
+        <v>0.03845206880461799</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006769348704285734</v>
+        <v>0.006984921059280569</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.03383748580125645</v>
+        <v>0.01033417426559596</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006623809065001109</v>
+        <v>0.007168873355142751</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.008127988193463283</v>
+        <v>0.01080173282795419</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.008141512373830215</v>
+        <v>0.0079654148390475</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01105516408879782</v>
+        <v>0.0254240114587356</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007810332370237615</v>
+        <v>0.007791163065784835</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02409720930832207</v>
+        <v>0.03934421878829425</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007521498560317483</v>
+        <v>0.007761023399200633</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.03546961145434885</v>
+        <v>0.01080173282795419</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007359787850001232</v>
+        <v>0.0079654148390475</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.007543522813035532</v>
+        <v>0.0110093347911542</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008955663611213235</v>
+        <v>0.00876195632295225</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01150315975795538</v>
+        <v>0.02588330048366977</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008591365607261377</v>
+        <v>0.008570279372363319</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02556769251699492</v>
+        <v>0.04045371552810267</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008273648416349231</v>
+        <v>0.008537125739120697</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.03809613137743745</v>
+        <v>0.0110093347911542</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008095766635001356</v>
+        <v>0.00876195632295225</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.008946680131531326</v>
+        <v>0.01146834865803954</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009769814848596257</v>
+        <v>0.009558497806857002</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01168615083225014</v>
+        <v>0.02683097196893364</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009372398844285139</v>
+        <v>0.009349395678941804</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0275991713062374</v>
+        <v>0.04147744129828196</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009285680783756807</v>
+        <v>0.008942035214090236</v>
       </c>
       <c r="N77" t="n">
-        <v>0.04147744129828196</v>
+        <v>0.01146834865803954</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009119105218329648</v>
+        <v>0.009558497806857002</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.008353799044616333</v>
+        <v>0.0116901429314538</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01058396608597928</v>
+        <v>0.01035503929076175</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01212179546065015</v>
+        <v>0.0275991713062374</v>
       </c>
       <c r="K78" t="n">
-        <v>0.0101534320813089</v>
+        <v>0.009916746468089795</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0283434777666616</v>
+        <v>0.04226691895982493</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009777948128412728</v>
+        <v>0.01008933041896082</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04217552951027703</v>
+        <v>0.0116901429314538</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009567724205001602</v>
+        <v>0.01035503929076175</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.008781218447956249</v>
+        <v>0.01198608611424057</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0113981173233623</v>
+        <v>0.0111515807746665</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01232775179212356</v>
+        <v>0.02843480654259883</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01093446531833266</v>
+        <v>0.01090762829209877</v>
       </c>
       <c r="L79" t="n">
-        <v>0.02981676654535947</v>
+        <v>0.04417690077434022</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01053009798444447</v>
+        <v>0.01086543275888089</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0446401556721574</v>
+        <v>0.01198608611424057</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01030370299000172</v>
+        <v>0.0111515807746665</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01024527723721676</v>
+        <v>0.01236754670924338</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01221226856074532</v>
+        <v>0.01194812225857125</v>
       </c>
       <c r="J80" t="n">
-        <v>0.0123216779756385</v>
+        <v>0.02906367277271321</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01171549855535642</v>
+        <v>0.01168674459867725</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03101813404085862</v>
+        <v>0.04511206122109357</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01128224784047622</v>
+        <v>0.01164153509880095</v>
       </c>
       <c r="N80" t="n">
-        <v>0.04693721515709004</v>
+        <v>0.01236754670924338</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01103968177500185</v>
+        <v>0.01194812225857125</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.0118547638640305</v>
+        <v>0.01264589321930584</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01316208087903608</v>
+        <v>0.012744663742476</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01252123216016304</v>
+        <v>0.03000366405047955</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01249653179238018</v>
+        <v>0.01246586090525574</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03273770664923778</v>
+        <v>0.04636992256651462</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01203439769650797</v>
+        <v>0.01241763743872101</v>
       </c>
       <c r="N81" t="n">
-        <v>0.04875391591693562</v>
+        <v>0.01264589321930584</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01177566056000197</v>
+        <v>0.012744663742476</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01135904542178465</v>
+        <v>0.01283249414727154</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01384057103551137</v>
+        <v>0.01354120522638075</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01294407249466537</v>
+        <v>0.03095322728053726</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01327756502940395</v>
+        <v>0.01324497721183422</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03446561076657575</v>
+        <v>0.04754800707703327</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01278654755253972</v>
+        <v>0.01319373977864107</v>
       </c>
       <c r="N82" t="n">
-        <v>0.05147746590355545</v>
+        <v>0.01283249414727154</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01251163934500209</v>
+        <v>0.01354120522638075</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01205160692730171</v>
+        <v>0.01313871799598401</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01465472227289439</v>
+        <v>0.0143377467102855</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01320785712811354</v>
+        <v>0.03171080936752585</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01405859826642771</v>
+        <v>0.0140240935184127</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03609197278895118</v>
+        <v>0.04814383701907948</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01353869740857147</v>
+        <v>0.01396984211856114</v>
       </c>
       <c r="N83" t="n">
-        <v>0.05339507306881042</v>
+        <v>0.01313871799598401</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01324761813000222</v>
+        <v>0.0143377467102855</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01382247208454902</v>
+        <v>0.0137209013141928</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01546887351027741</v>
+        <v>0.01523401182023018</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01353024420947568</v>
+        <v>0.03247485721608467</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01483963150345147</v>
+        <v>0.01480320982499119</v>
       </c>
       <c r="L84" t="n">
-        <v>0.037506919112443</v>
+        <v>0.04935493465908308</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01429084726460322</v>
+        <v>0.0147459444584812</v>
       </c>
       <c r="N84" t="n">
-        <v>0.05559394536456169</v>
+        <v>0.0137209013141928</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01398359691500234</v>
+        <v>0.01523401182023018</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01465353993343278</v>
+        <v>0.01384677775046539</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01628302474766043</v>
+        <v>0.015930829678095</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0137209013141928</v>
+        <v>0.03334381773085324</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01523401182023018</v>
+        <v>0.01558232613156967</v>
       </c>
       <c r="L85" t="n">
-        <v>0.03910057613312987</v>
+        <v>0.0512788222634738</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01504299712063497</v>
+        <v>0.01552204679840127</v>
       </c>
       <c r="N85" t="n">
-        <v>0.05766129074267029</v>
+        <v>0.01384677775046539</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01471957570000246</v>
+        <v>0.015930829678095</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01352670951385909</v>
+        <v>0.0143408905791413</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01709717598504345</v>
+        <v>0.01672737116199975</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01437513313866</v>
+        <v>0.03441613781647102</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01640169797749899</v>
+        <v>0.01636144243814816</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04026307024709058</v>
+        <v>0.05201302209868158</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01579514697666671</v>
+        <v>0.01629814913832133</v>
       </c>
       <c r="N86" t="n">
-        <v>0.06008431715499718</v>
+        <v>0.0143408905791413</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01545555448500259</v>
+        <v>0.01672737116199975</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01542387986573408</v>
+        <v>0.01475614412201967</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01791132722242647</v>
+        <v>0.0175239126459045</v>
       </c>
       <c r="J87" t="n">
-        <v>0.0153954495407953</v>
+        <v>0.03519026437757741</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01718273121452275</v>
+        <v>0.01714055874472664</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04178452785040387</v>
+        <v>0.05335505643113636</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01654729683269846</v>
+        <v>0.01707425147824139</v>
       </c>
       <c r="N87" t="n">
-        <v>0.06155023255340342</v>
+        <v>0.01475614412201967</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01619153327000271</v>
+        <v>0.0175239126459045</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01732695002896392</v>
+        <v>0.01519055468290216</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0187254784598095</v>
+        <v>0.01832045412980925</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01627058587352462</v>
+        <v>0.03626464431881182</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01796376445154652</v>
+        <v>0.01791967505130512</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04305507533914857</v>
+        <v>0.05480244752726782</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01729944668873021</v>
+        <v>0.01785035381816146</v>
       </c>
       <c r="N88" t="n">
-        <v>0.06384624488975021</v>
+        <v>0.01519055468290216</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01692751205500283</v>
+        <v>0.01832045412980925</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01621781904345472</v>
+        <v>0.01574213856559037</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01953962969719251</v>
+        <v>0.019116995613714</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01736214764094314</v>
+        <v>0.03713772454481382</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01874479768857028</v>
+        <v>0.01869879135788361</v>
       </c>
       <c r="L89" t="n">
-        <v>0.04416483910940339</v>
+        <v>0.05605271765350589</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01805159654476196</v>
+        <v>0.01862645615808152</v>
       </c>
       <c r="N89" t="n">
-        <v>0.06595956211589848</v>
+        <v>0.01574213856559037</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01766349084000296</v>
+        <v>0.019116995613714</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01807838594911261</v>
+        <v>0.01600891207388591</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02035378093457554</v>
+        <v>0.01991353709761875</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01843174034714613</v>
+        <v>0.03810795196022274</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01952583092559404</v>
+        <v>0.01947790766446209</v>
       </c>
       <c r="L90" t="n">
-        <v>0.04570394555724708</v>
+        <v>0.05710338907628043</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01880374640079371</v>
+        <v>0.01940255849800158</v>
       </c>
       <c r="N90" t="n">
-        <v>0.06807739218370923</v>
+        <v>0.01600891207388591</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01839946962500308</v>
+        <v>0.01991353709761875</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01989054978584374</v>
+        <v>0.01658889151159047</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02116793217195856</v>
+        <v>0.0207100785815235</v>
       </c>
       <c r="J91" t="n">
-        <v>0.01964096949622886</v>
+        <v>0.03847377346967812</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0203068641626178</v>
+        <v>0.02025702397104057</v>
       </c>
       <c r="L91" t="n">
-        <v>0.04696252107875845</v>
+        <v>0.05805198406202128</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01955589625682546</v>
+        <v>0.02017866083792165</v>
       </c>
       <c r="N91" t="n">
-        <v>0.06958694304504359</v>
+        <v>0.01658889151159047</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0191354484100032</v>
+        <v>0.0207100785815235</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02063620959355428</v>
+        <v>0.01698009318250562</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02198208340934158</v>
+        <v>0.02150662006542825</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02095144059228653</v>
+        <v>0.03933363597781936</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02108789739964156</v>
+        <v>0.02103614027761905</v>
       </c>
       <c r="L92" t="n">
-        <v>0.04813069207001622</v>
+        <v>0.05959602487715826</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0203080461128572</v>
+        <v>0.02095476317784171</v>
       </c>
       <c r="N92" t="n">
-        <v>0.07097542265176249</v>
+        <v>0.01698009318250562</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01987142719500333</v>
+        <v>0.02150662006542825</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01929726441215028</v>
+        <v>0.01768053339043303</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0227962346467246</v>
+        <v>0.022303161549333</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02212475913941435</v>
+        <v>0.04058598638928593</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02186893063666532</v>
+        <v>0.02181525658419754</v>
       </c>
       <c r="L93" t="n">
-        <v>0.04899858492709919</v>
+        <v>0.06063303378812129</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02106019596888895</v>
+        <v>0.02173086551776177</v>
       </c>
       <c r="N93" t="n">
-        <v>0.07273003895572716</v>
+        <v>0.01768053339043303</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02060740598000345</v>
+        <v>0.022303161549333</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02085561328153797</v>
+        <v>0.01818822843917429</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02361038588410762</v>
+        <v>0.02309970303323775</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02322253064170761</v>
+        <v>0.04142927160871729</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02264996387368909</v>
+        <v>0.02259437289077602</v>
       </c>
       <c r="L94" t="n">
-        <v>0.04985632604608609</v>
+        <v>0.06196053306134014</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0218123458249207</v>
+        <v>0.02250696785768183</v>
       </c>
       <c r="N94" t="n">
-        <v>0.07383799990879858</v>
+        <v>0.01818822843917429</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02134338476500357</v>
+        <v>0.02309970303323775</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02029315524162342</v>
+        <v>0.01870119463253103</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02442453712149065</v>
+        <v>0.0238962445171425</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02430636060326154</v>
+        <v>0.04196193854075275</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02343099711071285</v>
+        <v>0.02337348919735451</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05019404182305565</v>
+        <v>0.06287604496324467</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02256449568095245</v>
+        <v>0.0232830701976019</v>
       </c>
       <c r="N95" t="n">
-        <v>0.07508651346283773</v>
+        <v>0.01870119463253103</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0220793635500037</v>
+        <v>0.0238962445171425</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02159178933231279</v>
+        <v>0.01901744827430489</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02523868835887367</v>
+        <v>0.02469278600104725</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02493785452817134</v>
+        <v>0.04308243409003198</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02421203034773661</v>
+        <v>0.02415260550393299</v>
       </c>
       <c r="L96" t="n">
-        <v>0.0509018586540867</v>
+        <v>0.06407709176026471</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02331664553698419</v>
+        <v>0.02405917253752196</v>
       </c>
       <c r="N96" t="n">
-        <v>0.07546278756970565</v>
+        <v>0.01901744827430489</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02281534233500382</v>
+        <v>0.02469278600104725</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02073341459351223</v>
+        <v>0.01953500566829748</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02605283959625669</v>
+        <v>0.025489327484952</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02567861792053229</v>
+        <v>0.0435892051611943</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02499306358476037</v>
+        <v>0.02493172181051147</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05136990293525803</v>
+        <v>0.06526119571883032</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02406879539301594</v>
+        <v>0.02483527487744203</v>
       </c>
       <c r="N97" t="n">
-        <v>0.07645403018126345</v>
+        <v>0.01953500566829748</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02355132112000394</v>
+        <v>0.025489327484952</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02272248554380886</v>
+        <v>0.02025188311831046</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02686699083363971</v>
+        <v>0.02628586896885675</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02619025628443959</v>
+        <v>0.04438069865887914</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02577409682178413</v>
+        <v>0.02571083811708996</v>
       </c>
       <c r="L98" t="n">
-        <v>0.05208830106264833</v>
+        <v>0.0671258791053711</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02482094524904769</v>
+        <v>0.02561137721736209</v>
       </c>
       <c r="N98" t="n">
-        <v>0.07754744924937218</v>
+        <v>0.02025188311831046</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02428729990500407</v>
+        <v>0.02628586896885675</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02162488231228621</v>
+        <v>0.02066609692814542</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02768114207102273</v>
+        <v>0.0270824104527615</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0261343831479434</v>
+        <v>0.04535536148772604</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0265551300588079</v>
+        <v>0.02648995442366844</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05174717943233637</v>
+        <v>0.06806866418631696</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02557309510507944</v>
+        <v>0.02638747955728215</v>
       </c>
       <c r="N99" t="n">
-        <v>0.07743025272589288</v>
+        <v>0.02066609692814542</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02502327869000419</v>
+        <v>0.0270824104527615</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02145640124368813</v>
+        <v>0.02117566340160401</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02849529330840575</v>
+        <v>0.02787895193666625</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02630801704383857</v>
+        <v>0.04581164055237438</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02733616329583165</v>
+        <v>0.02726907073024692</v>
       </c>
       <c r="L100" t="n">
-        <v>0.05224315602776933</v>
+        <v>0.06908707322809782</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02632524496111119</v>
+        <v>0.02716358189720221</v>
       </c>
       <c r="N100" t="n">
-        <v>0.07808964856268652</v>
+        <v>0.02117566340160401</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02575925747500431</v>
+        <v>0.02787895193666625</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02122831530647336</v>
+        <v>0.02177859884248784</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02930944454578877</v>
+        <v>0.028675493420571</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0260330042630014</v>
+        <v>0.0468479827574636</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02811719653285542</v>
+        <v>0.02804818703682541</v>
       </c>
       <c r="L101" t="n">
-        <v>0.05200636594112776</v>
+        <v>0.0702786284971435</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02707739481714294</v>
+        <v>0.02793968423712228</v>
       </c>
       <c r="N101" t="n">
-        <v>0.07794733981643587</v>
+        <v>0.02177859884248784</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02649523626000444</v>
+        <v>0.028675493420571</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.01995189746910063</v>
+        <v>0.02227291955459855</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0301235957831718</v>
+        <v>0.02947203490447576</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02611419244981567</v>
+        <v>0.04736283500763322</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02889822976987918</v>
+        <v>0.02882730334340389</v>
       </c>
       <c r="L102" t="n">
-        <v>0.05155224488176915</v>
+        <v>0.07114085225988381</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02782954467317468</v>
+        <v>0.02871578657704234</v>
       </c>
       <c r="N102" t="n">
-        <v>0.07717021859182754</v>
+        <v>0.02227291955459855</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02723121504500456</v>
+        <v>0.02947203490447576</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02163842070002867</v>
+        <v>0.02255664184173775</v>
       </c>
       <c r="G103" t="n">
-        <v>0.03093774702055482</v>
+        <v>0.0302685763883805</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02575642924866509</v>
+        <v>0.04805464420752262</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02967926300690294</v>
+        <v>0.02960641964998238</v>
       </c>
       <c r="L103" t="n">
-        <v>0.05139287178118412</v>
+        <v>0.07237126678274863</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02858169452920644</v>
+        <v>0.02949188891696241</v>
       </c>
       <c r="N103" t="n">
-        <v>0.0771699245131286</v>
+        <v>0.02255664184173775</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02796719383000468</v>
+        <v>0.0302685763883805</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.01929915796771618</v>
+        <v>0.02302778200770708</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03175189825793784</v>
+        <v>0.03106511787228525</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02566456230393345</v>
+        <v>0.04892185726177128</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0304602962439267</v>
+        <v>0.03038553595656086</v>
       </c>
       <c r="L104" t="n">
-        <v>0.05094032557086309</v>
+        <v>0.07356739433216786</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02933384438523818</v>
+        <v>0.03026799125688247</v>
       </c>
       <c r="N104" t="n">
-        <v>0.07645649493114015</v>
+        <v>0.02302778200770708</v>
       </c>
       <c r="O104" t="n">
-        <v>0.0287031726150048</v>
+        <v>0.03106511787228525</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02094538224062194</v>
+        <v>0.02368435635630818</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03256604949532086</v>
+        <v>0.03186165935619</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02554343926000451</v>
+        <v>0.04966292107501863</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03124132948095046</v>
+        <v>0.03116465226313934</v>
       </c>
       <c r="L105" t="n">
-        <v>0.05050668518229656</v>
+        <v>0.07392675717457131</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03008599424126993</v>
+        <v>0.03104409359680253</v>
       </c>
       <c r="N105" t="n">
-        <v>0.07593996719666357</v>
+        <v>0.02368435635630818</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02943915140000493</v>
+        <v>0.03186165935619</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.01858836648720461</v>
+        <v>0.02392438119134264</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03338020073270388</v>
+        <v>0.03265820084009476</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02529790776126199</v>
+        <v>0.05017628255190409</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03202236271797423</v>
+        <v>0.03194376856971783</v>
       </c>
       <c r="L106" t="n">
-        <v>0.04950402954697508</v>
+        <v>0.07484687757638875</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03083814409730168</v>
+        <v>0.0318201959367226</v>
       </c>
       <c r="N106" t="n">
-        <v>0.07553037866050022</v>
+        <v>0.02392438119134264</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03017513018500505</v>
+        <v>0.03265820084009476</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.01923938367592296</v>
+        <v>0.0244458728166121</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0341943519700869</v>
+        <v>0.0334547423239995</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02493281545208968</v>
+        <v>0.05076038859706719</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03280339595499798</v>
+        <v>0.03272288487629631</v>
       </c>
       <c r="L107" t="n">
-        <v>0.04914443759638917</v>
+        <v>0.07602527780405011</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03159029395333342</v>
+        <v>0.03259629827664266</v>
       </c>
       <c r="N107" t="n">
-        <v>0.07533776667345127</v>
+        <v>0.0244458728166121</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03091110897000518</v>
+        <v>0.0334547423239995</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.01990970677523568</v>
+        <v>0.02474684753591821</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03500850320746993</v>
+        <v>0.03425128380790426</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02455300997687133</v>
+        <v>0.05141368611514735</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03358442919202174</v>
+        <v>0.0335020011828748</v>
       </c>
       <c r="L108" t="n">
-        <v>0.04823998826202927</v>
+        <v>0.0772594801239852</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03234244380936518</v>
+        <v>0.03337240061656272</v>
       </c>
       <c r="N108" t="n">
-        <v>0.0746721685863182</v>
+        <v>0.02474684753591821</v>
       </c>
       <c r="O108" t="n">
-        <v>0.0316470877550053</v>
+        <v>0.03425128380790426</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.01761060875360153</v>
+        <v>0.02532532165306256</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03582265444485294</v>
+        <v>0.035047825291809</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0243633389799907</v>
+        <v>0.05203462201078396</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03436546242904551</v>
+        <v>0.03428111748945328</v>
       </c>
       <c r="L109" t="n">
-        <v>0.0473027604753859</v>
+        <v>0.07804700680262405</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03309459366539692</v>
+        <v>0.03414850295648279</v>
       </c>
       <c r="N109" t="n">
-        <v>0.07334362174990228</v>
+        <v>0.02532532165306256</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03238306654000542</v>
+        <v>0.035047825291809</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.01835336257947921</v>
+        <v>0.02557931147184681</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03663680568223596</v>
+        <v>0.03584436677571375</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02416865010583152</v>
+        <v>0.05212164318861651</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03514649566606927</v>
+        <v>0.03506023379603176</v>
       </c>
       <c r="L110" t="n">
-        <v>0.04654483316794958</v>
+        <v>0.07858538010639621</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03384674352142867</v>
+        <v>0.03492460529640285</v>
       </c>
       <c r="N110" t="n">
-        <v>0.07276216351500486</v>
+        <v>0.02557931147184681</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03311904532500554</v>
+        <v>0.03584436677571375</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.01714924122132745</v>
+        <v>0.02600683329607256</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03745095691961899</v>
+        <v>0.0366409082596185</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02387379099877759</v>
+        <v>0.05277319655328447</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03592752890309303</v>
+        <v>0.03583935010261025</v>
       </c>
       <c r="L111" t="n">
-        <v>0.04617828527121082</v>
+        <v>0.07907212230173172</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03459889337746042</v>
+        <v>0.03570070763632292</v>
       </c>
       <c r="N111" t="n">
-        <v>0.07133783123242721</v>
+        <v>0.02600683329607256</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03385502411000567</v>
+        <v>0.0366409082596185</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.018009517647605</v>
+        <v>0.02610590342954146</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03826510815700201</v>
+        <v>0.03743744974352325</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02358360930321264</v>
+        <v>0.05298772900942725</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03670856214011679</v>
+        <v>0.03661846640918873</v>
       </c>
       <c r="L112" t="n">
-        <v>0.04531519571666009</v>
+        <v>0.07970475565506041</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03535104323349217</v>
+        <v>0.03647680997624297</v>
       </c>
       <c r="N112" t="n">
-        <v>0.07068066225297059</v>
+        <v>0.02610590342954146</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03459100289500579</v>
+        <v>0.03743744974352325</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.01794546482677056</v>
+        <v>0.02657453817605512</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03907925939438503</v>
+        <v>0.03823399122742801</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02310295266352042</v>
+        <v>0.05336368746168432</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03748959537714056</v>
+        <v>0.03739758271576721</v>
       </c>
       <c r="L113" t="n">
-        <v>0.04436764343578795</v>
+        <v>0.08008080243281218</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03610319308952391</v>
+        <v>0.03725291231616304</v>
       </c>
       <c r="N113" t="n">
-        <v>0.06960069392743645</v>
+        <v>0.02657453817605512</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03532698168000591</v>
+        <v>0.03823399122742801</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01695044314103739</v>
+        <v>0.02671075383941518</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03989341063176805</v>
+        <v>0.03903053271133276</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0228366687240847</v>
+        <v>0.05369951881469517</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03827062861416432</v>
+        <v>0.0381766990223457</v>
       </c>
       <c r="L114" t="n">
-        <v>0.04364770736008483</v>
+        <v>0.08119778490141666</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03685534294555566</v>
+        <v>0.0380290146560831</v>
       </c>
       <c r="N114" t="n">
-        <v>0.06910796360662613</v>
+        <v>0.02671075383941518</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03606296046500603</v>
+        <v>0.03903053271133276</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.01798471276008769</v>
+        <v>0.02691256672342324</v>
       </c>
       <c r="G115" t="n">
-        <v>0.04070756186915107</v>
+        <v>0.0398270741952375</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02278960512928924</v>
+        <v>0.05409366997309917</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03905166185118808</v>
+        <v>0.03895581532892418</v>
       </c>
       <c r="L115" t="n">
-        <v>0.04326746642104135</v>
+        <v>0.08085322532730393</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03760749280158741</v>
+        <v>0.03880511699600317</v>
       </c>
       <c r="N115" t="n">
-        <v>0.06811250864134083</v>
+        <v>0.02691256672342324</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03679893925000616</v>
+        <v>0.0398270741952375</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.01704460113840038</v>
+        <v>0.02717799313188096</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0415217131065341</v>
+        <v>0.04062361567914225</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02236660952351778</v>
+        <v>0.0542445878415358</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03983269508821183</v>
+        <v>0.03973493163550266</v>
       </c>
       <c r="L116" t="n">
-        <v>0.04273899955014787</v>
+        <v>0.08144464597690387</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03835964265761916</v>
+        <v>0.03958121933592323</v>
       </c>
       <c r="N116" t="n">
-        <v>0.06672436638238194</v>
+        <v>0.02717799313188096</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03753491803500628</v>
+        <v>0.04062361567914225</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01812837534458478</v>
+        <v>0.02730504936858993</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04233586434391712</v>
+        <v>0.04142015716304701</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02227252955115408</v>
+        <v>0.05455071932464453</v>
       </c>
       <c r="K117" t="n">
-        <v>0.0406137283252356</v>
+        <v>0.04051404794208115</v>
       </c>
       <c r="L117" t="n">
-        <v>0.041674385678895</v>
+        <v>0.08196956911664605</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03911179251365091</v>
+        <v>0.04035732167584329</v>
       </c>
       <c r="N117" t="n">
-        <v>0.06545357418055081</v>
+        <v>0.02730504936858993</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03827089682000641</v>
+        <v>0.04142015716304701</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.01723430244725024</v>
+        <v>0.02719175173735182</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04315001558130014</v>
+        <v>0.04221669864695175</v>
       </c>
       <c r="J118" t="n">
-        <v>0.0222122128565819</v>
+        <v>0.05491051132706473</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04139476156225936</v>
+        <v>0.04129316424865963</v>
       </c>
       <c r="L118" t="n">
-        <v>0.04158570373877321</v>
+        <v>0.08192551701296064</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03986394236968266</v>
+        <v>0.04113342401576336</v>
       </c>
       <c r="N118" t="n">
-        <v>0.06491016938664856</v>
+        <v>0.02719175173735182</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03900687560500653</v>
+        <v>0.04221669864695175</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01736064951500611</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04396416681868316</v>
+        <v>0.04301324013085651</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02209050708418502</v>
+        <v>0.05462241075343596</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04217579479928312</v>
+        <v>0.04207228055523811</v>
       </c>
       <c r="L119" t="n">
-        <v>0.04098503266127299</v>
+        <v>0.08251001193227719</v>
       </c>
       <c r="M119" t="n">
-        <v>0.0406160922257144</v>
+        <v>0.04190952635568342</v>
       </c>
       <c r="N119" t="n">
-        <v>0.06420418935147681</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03974285439000665</v>
+        <v>0.04301324013085651</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.01750568361646175</v>
+        <v>0.02724149072560204</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04477831805606618</v>
+        <v>0.04380978161476125</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02191225987834715</v>
+        <v>0.05519834261247478</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04295682803630688</v>
+        <v>0.0428513968618166</v>
       </c>
       <c r="L120" t="n">
-        <v>0.04078445137788483</v>
+        <v>0.08295488259656392</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04136824208174615</v>
+        <v>0.04268562869560348</v>
       </c>
       <c r="N120" t="n">
-        <v>0.06284567142583675</v>
+        <v>0.02724149072560204</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04047883317500677</v>
+        <v>0.04380978161476125</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01866767182022647</v>
+        <v>0.02723898350912245</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0455924692934492</v>
+        <v>0.044606323098666</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02198231888345209</v>
+        <v>0.05479685478336976</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04373786127333065</v>
+        <v>0.04363051316839508</v>
       </c>
       <c r="L121" t="n">
-        <v>0.04039603882009929</v>
+        <v>0.08235486199484721</v>
       </c>
       <c r="M121" t="n">
-        <v>0.0421203919377779</v>
+        <v>0.04346173103552355</v>
       </c>
       <c r="N121" t="n">
-        <v>0.06254465296052958</v>
+        <v>0.02723898350912245</v>
       </c>
       <c r="O121" t="n">
-        <v>0.0412148119600069</v>
+        <v>0.044606323098666</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01884488119490964</v>
+        <v>0.02723398514473763</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04640662053083223</v>
+        <v>0.04540286458257076</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02190810354070347</v>
+        <v>0.0548674678852592</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04451889451035441</v>
+        <v>0.04440962947497357</v>
       </c>
       <c r="L122" t="n">
-        <v>0.04023187259489333</v>
+        <v>0.08254882421815485</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04287254179380965</v>
+        <v>0.0442378333754436</v>
       </c>
       <c r="N122" t="n">
-        <v>0.0615111713063568</v>
+        <v>0.02723398514473763</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04195079074500702</v>
+        <v>0.04540286458257076</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0190355788091206</v>
+        <v>0.02722651974378139</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04722077176821524</v>
+        <v>0.0461994060664755</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02209156014021356</v>
+        <v>0.055101932318039</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04529992774737817</v>
+        <v>0.04518874578155205</v>
       </c>
       <c r="L123" t="n">
-        <v>0.04059395378162747</v>
+        <v>0.08293209242528427</v>
       </c>
       <c r="M123" t="n">
-        <v>0.0436246916498414</v>
+        <v>0.04501393571536367</v>
       </c>
       <c r="N123" t="n">
-        <v>0.06085526381411965</v>
+        <v>0.02722651974378139</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04268676953000714</v>
+        <v>0.0461994060664755</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02023803173146869</v>
+        <v>0.02741661141758756</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04803492300559827</v>
+        <v>0.04699594755038026</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02222722578875054</v>
+        <v>0.05450217712623726</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04608096098440193</v>
+        <v>0.04596786208813053</v>
       </c>
       <c r="L124" t="n">
-        <v>0.04067041855179285</v>
+        <v>0.08250474051274337</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04437684150587315</v>
+        <v>0.04579003805528373</v>
       </c>
       <c r="N124" t="n">
-        <v>0.06018696783461946</v>
+        <v>0.02741661141758756</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04342274831500727</v>
+        <v>0.04699594755038026</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02045050703056327</v>
+        <v>0.02720428427748994</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04884907424298129</v>
+        <v>0.04779248903428501</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02240960853805778</v>
+        <v>0.05457013135438193</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04686199422142569</v>
+        <v>0.04674697839470901</v>
       </c>
       <c r="L125" t="n">
-        <v>0.04075200679500751</v>
+        <v>0.08206684237704009</v>
       </c>
       <c r="M125" t="n">
-        <v>0.0451289913619049</v>
+        <v>0.0465661403952038</v>
       </c>
       <c r="N125" t="n">
-        <v>0.06021632071865762</v>
+        <v>0.02720428427748994</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04415872710000739</v>
+        <v>0.04779248903428501</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01867127177501365</v>
+        <v>0.02718956243482236</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04966322548036431</v>
+        <v>0.04858903051818976</v>
       </c>
       <c r="J126" t="n">
-        <v>0.0224332164398786</v>
+        <v>0.05470772404700111</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04764302745844945</v>
+        <v>0.0475260947012875</v>
       </c>
       <c r="L126" t="n">
-        <v>0.04162945840088969</v>
+        <v>0.08261847191468247</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04588114121793665</v>
+        <v>0.04734224273512386</v>
       </c>
       <c r="N126" t="n">
-        <v>0.05915335981703534</v>
+        <v>0.02718956243482236</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04489470588500751</v>
+        <v>0.04858903051818976</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.0208985930334292</v>
+        <v>0.02717247000091862</v>
       </c>
       <c r="G127" t="n">
-        <v>0.05047737671774733</v>
+        <v>0.0493855720020945</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02279255754595637</v>
+        <v>0.05411688424862279</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04842406069547321</v>
+        <v>0.04830521100786598</v>
       </c>
       <c r="L127" t="n">
-        <v>0.04179351325905753</v>
+        <v>0.0820597030221783</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04663329107396839</v>
+        <v>0.04811834507504392</v>
       </c>
       <c r="N127" t="n">
-        <v>0.05880812248055389</v>
+        <v>0.02717247000091862</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04563068467000764</v>
+        <v>0.0493855720020945</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02013073787441927</v>
+        <v>0.02735303108711255</v>
       </c>
       <c r="G128" t="n">
-        <v>0.05129152795513035</v>
+        <v>0.05018211348599926</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02308213990803443</v>
+        <v>0.05389954100377509</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04920509393249697</v>
+        <v>0.04908432731444447</v>
       </c>
       <c r="L128" t="n">
-        <v>0.04223491125912909</v>
+        <v>0.08249060959603549</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04738544093000014</v>
+        <v>0.04889444741496399</v>
       </c>
       <c r="N128" t="n">
-        <v>0.05889064606001487</v>
+        <v>0.02735303108711255</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04636666345500776</v>
+        <v>0.05018211348599926</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.0203659733665932</v>
+        <v>0.02733126980473795</v>
       </c>
       <c r="G129" t="n">
-        <v>0.05210567919251338</v>
+        <v>0.050978654969904</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02349647157785614</v>
+        <v>0.05395762335698595</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04998612716952074</v>
+        <v>0.04986344362102295</v>
       </c>
       <c r="L129" t="n">
-        <v>0.04314439229072267</v>
+        <v>0.08251126553276206</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04813759078603189</v>
+        <v>0.04967054975488405</v>
       </c>
       <c r="N129" t="n">
-        <v>0.05935233140124618</v>
+        <v>0.02733126980473795</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04710264224000788</v>
+        <v>0.050978654969904</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01960256657856034</v>
+        <v>0.02730721026512863</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0529198304298964</v>
+        <v>0.05177519645380876</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02383006060716483</v>
+        <v>0.05329306035278342</v>
       </c>
       <c r="K130" t="n">
-        <v>0.0507671604065445</v>
+        <v>0.05064255992760143</v>
       </c>
       <c r="L130" t="n">
-        <v>0.04381269624345629</v>
+        <v>0.08242174472886593</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04888974064206363</v>
+        <v>0.05044665209480412</v>
       </c>
       <c r="N130" t="n">
-        <v>0.05993036016062969</v>
+        <v>0.02730721026512863</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04783862102500801</v>
+        <v>0.05177519645380876</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02083878457893</v>
+        <v>0.02728087657961842</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05373398166727941</v>
+        <v>0.0525717379377135</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02417741504770386</v>
+        <v>0.05330778103569556</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05154819364356826</v>
+        <v>0.05142167623417991</v>
       </c>
       <c r="L131" t="n">
-        <v>0.04433056300694815</v>
+        <v>0.08212212108085493</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04964189049809539</v>
+        <v>0.05122275443472418</v>
       </c>
       <c r="N131" t="n">
-        <v>0.05990344423875599</v>
+        <v>0.02728087657961842</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04857459981000813</v>
+        <v>0.0525717379377135</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02007289443631158</v>
+        <v>0.02725229285954113</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05454813290466244</v>
+        <v>0.05336827942161825</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02433304295121658</v>
+        <v>0.0530037144502504</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05232922688059202</v>
+        <v>0.0522007925407584</v>
       </c>
       <c r="L132" t="n">
-        <v>0.04528873247081647</v>
+        <v>0.08211246848523707</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05039404035412713</v>
+        <v>0.05199885677464424</v>
       </c>
       <c r="N132" t="n">
-        <v>0.06103623391906299</v>
+        <v>0.02725229285954113</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04931057859500826</v>
+        <v>0.05336827942161825</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02030316321931437</v>
+        <v>0.02722148321623057</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05536228414204546</v>
+        <v>0.05416482090552301</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02489145236944633</v>
+        <v>0.05278278964097599</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05311026011761579</v>
+        <v>0.05297990884733688</v>
       </c>
       <c r="L133" t="n">
-        <v>0.04587794452467928</v>
+        <v>0.08199286083852025</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05114619021015888</v>
+        <v>0.0527749591145643</v>
       </c>
       <c r="N133" t="n">
-        <v>0.06269337948498888</v>
+        <v>0.02722148321623057</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05004655738000838</v>
+        <v>0.05416482090552301</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02252785799654776</v>
+        <v>0.02718847176102054</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05617643537942848</v>
+        <v>0.05496136238942775</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02524715135413645</v>
+        <v>0.05224693565240029</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05389129335463955</v>
+        <v>0.05375902515391537</v>
       </c>
       <c r="L134" t="n">
-        <v>0.04648893905815479</v>
+        <v>0.08206337203721237</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05189834006619063</v>
+        <v>0.05355106145448436</v>
       </c>
       <c r="N134" t="n">
-        <v>0.06343953121997176</v>
+        <v>0.02718847176102054</v>
       </c>
       <c r="O134" t="n">
-        <v>0.0507825361650085</v>
+        <v>0.05496136238942775</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02074524583662106</v>
+        <v>0.0271532826052449</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0569905866168115</v>
+        <v>0.05575790387333251</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02549464795703031</v>
+        <v>0.05179808152905144</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05467232659166331</v>
+        <v>0.05453814146049384</v>
       </c>
       <c r="L135" t="n">
-        <v>0.04741245596086116</v>
+        <v>0.08172407597782144</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05265048992222238</v>
+        <v>0.05432716379440443</v>
       </c>
       <c r="N135" t="n">
-        <v>0.06533933940744951</v>
+        <v>0.0271532826052449</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05151851495000862</v>
+        <v>0.05575790387333251</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02295359380814366</v>
+        <v>0.02711593986023743</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05780473785419453</v>
+        <v>0.05655444535723726</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02592845022987125</v>
+        <v>0.0516381563154574</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05545335982868706</v>
+        <v>0.05531725776707233</v>
       </c>
       <c r="L136" t="n">
-        <v>0.04843923512241655</v>
+        <v>0.08177504655685525</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05340263977825412</v>
+        <v>0.05510326613432449</v>
       </c>
       <c r="N136" t="n">
-        <v>0.06665745433086034</v>
+        <v>0.02711593986023743</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05225449373500875</v>
+        <v>0.05655444535723726</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02215116897972484</v>
+        <v>0.02707646763733193</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05861888909157754</v>
+        <v>0.05735098684114201</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02624306622440262</v>
+        <v>0.05126908905614624</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05623439306571083</v>
+        <v>0.05609637407365082</v>
       </c>
       <c r="L137" t="n">
-        <v>0.04936001643243906</v>
+        <v>0.08111635767082181</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05415478963428588</v>
+        <v>0.05587936847424455</v>
       </c>
       <c r="N137" t="n">
-        <v>0.06865852627364238</v>
+        <v>0.02707646763733193</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05299047252000887</v>
+        <v>0.05735098684114201</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02133623841997401</v>
+        <v>0.02693489004786226</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05943304032896057</v>
+        <v>0.05814752832504676</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02653300399236774</v>
+        <v>0.05089280879564601</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05701542630273459</v>
+        <v>0.0568754903802293</v>
       </c>
       <c r="L138" t="n">
-        <v>0.0502655397805469</v>
+        <v>0.08094808321622904</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05490693949031761</v>
+        <v>0.05665547081416462</v>
       </c>
       <c r="N138" t="n">
-        <v>0.06980720551923342</v>
+        <v>0.02693489004786226</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05372645130500899</v>
+        <v>0.05814752832504676</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02150706919750046</v>
+        <v>0.02679123120316219</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0602471915663436</v>
+        <v>0.05894406980895151</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02669277158550999</v>
+        <v>0.05051124457848469</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05779645953975836</v>
+        <v>0.05765460668680779</v>
       </c>
       <c r="L139" t="n">
-        <v>0.05054654505635819</v>
+        <v>0.08077029708958489</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05565908934634937</v>
+        <v>0.05743157315408468</v>
       </c>
       <c r="N139" t="n">
-        <v>0.07166814235107177</v>
+        <v>0.02679123120316219</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05446243009000912</v>
+        <v>0.05894406980895151</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02370952772806099</v>
+        <v>0.02694551521456556</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0610613428037266</v>
+        <v>0.05974061129285626</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02701687705557272</v>
+        <v>0.04982632544919033</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05857749277678211</v>
+        <v>0.05843372299338626</v>
       </c>
       <c r="L140" t="n">
-        <v>0.05169377214949109</v>
+        <v>0.0806830731873972</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05641123920238112</v>
+        <v>0.05820767549400475</v>
       </c>
       <c r="N140" t="n">
-        <v>0.07340598705259543</v>
+        <v>0.02694551521456556</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05519840887500924</v>
+        <v>0.05974061129285626</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02380414788124584</v>
+        <v>0.02669776619340619</v>
       </c>
       <c r="G141" t="n">
-        <v>0.06187549404110963</v>
+        <v>0.060537152776761</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02699982845429925</v>
+        <v>0.04973998045229097</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05935852601380588</v>
+        <v>0.05921283929996475</v>
       </c>
       <c r="L141" t="n">
-        <v>0.05229796094956377</v>
+        <v>0.08058648540617402</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05716338905841287</v>
+        <v>0.05898377783392481</v>
       </c>
       <c r="N141" t="n">
-        <v>0.07508538990724245</v>
+        <v>0.02669776619340619</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05593438766000937</v>
+        <v>0.060537152776761</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02294893896053724</v>
+        <v>0.02674800825101788</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06268964527849266</v>
+        <v>0.06133369426066575</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02733613383343296</v>
+        <v>0.04905413863231467</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06013955925082964</v>
+        <v>0.05999195560654324</v>
       </c>
       <c r="L142" t="n">
-        <v>0.05314985134619432</v>
+        <v>0.08018060764242319</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05791553891444461</v>
+        <v>0.05975988017384487</v>
       </c>
       <c r="N142" t="n">
-        <v>0.07657100119845084</v>
+        <v>0.02674800825101788</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05667036644500948</v>
+        <v>0.06133369426066575</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02409699179175563</v>
+        <v>0.02659626549873444</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06350379651587568</v>
+        <v>0.0621302357445705</v>
       </c>
       <c r="J143" t="n">
-        <v>0.0273203012447172</v>
+        <v>0.04897072903378946</v>
       </c>
       <c r="K143" t="n">
-        <v>0.0609205924878534</v>
+        <v>0.06077107191312172</v>
       </c>
       <c r="L143" t="n">
-        <v>0.05344018322900099</v>
+        <v>0.08026551379265268</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05866768877047637</v>
+        <v>0.06053598251376494</v>
       </c>
       <c r="N143" t="n">
-        <v>0.07812747120965885</v>
+        <v>0.02659626549873444</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05740634523000961</v>
+        <v>0.0621302357445705</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02224776613748528</v>
+        <v>0.0267425620478897</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06431794775325869</v>
+        <v>0.06292677722847526</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02744180262838562</v>
+        <v>0.04849168070124332</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06170162572487716</v>
+        <v>0.06155018821970021</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05405969648760184</v>
+        <v>0.08024127775337031</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05941983862650811</v>
+        <v>0.061312084853685</v>
       </c>
       <c r="N144" t="n">
-        <v>0.08001945022430429</v>
+        <v>0.0267425620478897</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05814232401500973</v>
+        <v>0.06292677722847526</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02240072176031044</v>
+        <v>0.02668692200981745</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06513209899064172</v>
+        <v>0.06372331871238</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02737805263940261</v>
+        <v>0.04831892267920435</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06248265896190092</v>
+        <v>0.06232930452627868</v>
       </c>
       <c r="L145" t="n">
-        <v>0.05459913101161504</v>
+        <v>0.07960797342108411</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06017198848253986</v>
+        <v>0.06208818719360507</v>
       </c>
       <c r="N145" t="n">
-        <v>0.08041158852582536</v>
+        <v>0.02668692200981745</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05887830280000986</v>
+        <v>0.06372331871238</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02255531842281536</v>
+        <v>0.02642936949585152</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06594625022802474</v>
+        <v>0.06451986019628475</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02750169607621544</v>
+        <v>0.04775438401220056</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06326369219892468</v>
+        <v>0.06310842083285717</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05474922669065879</v>
+        <v>0.07956567469230202</v>
       </c>
       <c r="M146" t="n">
-        <v>0.0609241383385716</v>
+        <v>0.06286428953352513</v>
       </c>
       <c r="N146" t="n">
-        <v>0.08126853639766013</v>
+        <v>0.02642936949585152</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05961428158500998</v>
+        <v>0.06451986019628475</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02271101588758434</v>
+        <v>0.02646992861732574</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06676040146540776</v>
+        <v>0.06531640168018951</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02742456820099995</v>
+        <v>0.04749999374475997</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06404472543594845</v>
+        <v>0.06388753713943565</v>
       </c>
       <c r="L147" t="n">
-        <v>0.05519834261247478</v>
+        <v>0.07871445546353184</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06167628819460336</v>
+        <v>0.0636403918734452</v>
       </c>
       <c r="N147" t="n">
-        <v>0.08245494412324672</v>
+        <v>0.02646992861732574</v>
       </c>
       <c r="O147" t="n">
-        <v>0.0603502603700101</v>
+        <v>0.06531640168018951</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02386727391720163</v>
+        <v>0.0263086234855739</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06757455270279078</v>
+        <v>0.06611294316409426</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02734667060804688</v>
+        <v>0.04735768092141063</v>
       </c>
       <c r="K148" t="n">
-        <v>0.0648257586729722</v>
+        <v>0.06466665344601413</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05515659519123609</v>
+        <v>0.0789543896312816</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06242843805063511</v>
+        <v>0.06441649421336526</v>
       </c>
       <c r="N148" t="n">
-        <v>0.08295488259656392</v>
+        <v>0.0263086234855739</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06108623915501023</v>
+        <v>0.06611294316409426</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.0240235522742515</v>
+        <v>0.02644547821192983</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0683887039401738</v>
+        <v>0.06690948464799901</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02746800489164689</v>
+        <v>0.04652937458668055</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06560679190999597</v>
+        <v>0.06544576975259263</v>
       </c>
       <c r="L149" t="n">
-        <v>0.05549869030555196</v>
+        <v>0.07848555109205924</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06318058790666685</v>
+        <v>0.06519259655328531</v>
       </c>
       <c r="N149" t="n">
-        <v>0.08245420594152159</v>
+        <v>0.02644547821192983</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06182221794001035</v>
+        <v>0.06690948464799901</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02417931072131821</v>
+        <v>0.02628051690772734</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06920285517755682</v>
+        <v>0.06770602613190375</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02738857264609069</v>
+        <v>0.0464170037850978</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06638782514701973</v>
+        <v>0.0662248860591711</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05553729847094502</v>
+        <v>0.07790801374237266</v>
       </c>
       <c r="M150" t="n">
-        <v>0.0639327377626986</v>
+        <v>0.06596869889320538</v>
       </c>
       <c r="N150" t="n">
-        <v>0.08275066982075907</v>
+        <v>0.02628051690772734</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06255819672501046</v>
+        <v>0.06770602613190375</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02533400902098604</v>
+        <v>0.02611376368430023</v>
       </c>
       <c r="G151" t="n">
-        <v>0.07001700641493985</v>
+        <v>0.06850256761580852</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02750837546566896</v>
+        <v>0.04632249756119042</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06716885838404349</v>
+        <v>0.06700400236574959</v>
       </c>
       <c r="L151" t="n">
-        <v>0.05587193830343684</v>
+        <v>0.07792185147872976</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06468488761873036</v>
+        <v>0.06674480123312544</v>
       </c>
       <c r="N151" t="n">
-        <v>0.08244414295857705</v>
+        <v>0.02611376368430023</v>
       </c>
       <c r="O151" t="n">
-        <v>0.0632941755100106</v>
+        <v>0.06850256761580852</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02348710693583923</v>
+        <v>0.02614524265298235</v>
       </c>
       <c r="G152" t="n">
-        <v>0.07083115765232287</v>
+        <v>0.06929910909971326</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02752741494467244</v>
+        <v>0.04604778495948639</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06794989162106725</v>
+        <v>0.06778311867232807</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05620212841904904</v>
+        <v>0.07732713819763842</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06543703747476211</v>
+        <v>0.06752090357304551</v>
       </c>
       <c r="N152" t="n">
-        <v>0.08253466430760359</v>
+        <v>0.02614524265298235</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06403015429501072</v>
+        <v>0.06929910909971326</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02363806422846208</v>
+        <v>0.02607497792510746</v>
       </c>
       <c r="G153" t="n">
-        <v>0.07164530888970588</v>
+        <v>0.070095650583618</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02764569267739177</v>
+        <v>0.0455911492926836</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06873092485809101</v>
+        <v>0.06856223497890655</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05632738743380314</v>
+        <v>0.07752394779560662</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06618918733079385</v>
+        <v>0.06829700591296557</v>
       </c>
       <c r="N153" t="n">
-        <v>0.08242227282046688</v>
+        <v>0.02607497792510746</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06476613308001085</v>
+        <v>0.070095650583618</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02578634066143885</v>
+        <v>0.02590299361200943</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07245946012708891</v>
+        <v>0.07089219206752276</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02746321025811768</v>
+        <v>0.04514248653378219</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06951195809511478</v>
+        <v>0.06934135128548503</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05694723396372076</v>
+        <v>0.07711235416914242</v>
       </c>
       <c r="M154" t="n">
-        <v>0.0669413371868256</v>
+        <v>0.06907310825288564</v>
       </c>
       <c r="N154" t="n">
-        <v>0.08210700744979477</v>
+        <v>0.02590299361200943</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06550211186501095</v>
+        <v>0.07089219206752276</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02493139599735378</v>
+        <v>0.02582931382502204</v>
       </c>
       <c r="G155" t="n">
-        <v>0.07327361136447193</v>
+        <v>0.07168873355142751</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02767996928114085</v>
+        <v>0.04540069765617663</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07029299133213854</v>
+        <v>0.07012046759206352</v>
       </c>
       <c r="L155" t="n">
-        <v>0.05686118662482348</v>
+        <v>0.07699243121475352</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06769348704285734</v>
+        <v>0.0698492105928057</v>
       </c>
       <c r="N155" t="n">
-        <v>0.08228890714821535</v>
+        <v>0.02582931382502204</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06623809065001109</v>
+        <v>0.07168873355142751</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02507268999879114</v>
+        <v>0.02575396267547911</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07408776260185496</v>
+        <v>0.07248527503533225</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02749597134075198</v>
+        <v>0.04506538033168286</v>
       </c>
       <c r="K156" t="n">
-        <v>0.0710740245691623</v>
+        <v>0.07089958389864201</v>
       </c>
       <c r="L156" t="n">
-        <v>0.0572687640331328</v>
+        <v>0.07606425282894791</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06844563689888909</v>
+        <v>0.07062531293272577</v>
       </c>
       <c r="N156" t="n">
-        <v>0.08226801086835656</v>
+        <v>0.02575396267547911</v>
       </c>
       <c r="O156" t="n">
-        <v>0.0669740694350112</v>
+        <v>0.07248527503533225</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02420968242833522</v>
+        <v>0.02587696427471448</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07490191383923799</v>
+        <v>0.073281816519237</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02771121803124175</v>
+        <v>0.04443613223211682</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07185505780618606</v>
+        <v>0.07167870020522049</v>
       </c>
       <c r="L157" t="n">
-        <v>0.05716948480467038</v>
+        <v>0.07602789290823353</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06919778675492083</v>
+        <v>0.07140141527264583</v>
       </c>
       <c r="N157" t="n">
-        <v>0.08214435756284649</v>
+        <v>0.02587696427471448</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06771004822001134</v>
+        <v>0.073281816519237</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02434183304857028</v>
+        <v>0.02569834273406192</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07571606507662099</v>
+        <v>0.07407835800314176</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02762571094690089</v>
+        <v>0.04451255102929449</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07263609104320982</v>
+        <v>0.07245781651179897</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05726286755545773</v>
+        <v>0.07558342534911838</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06994993661095258</v>
+        <v>0.0721775176125659</v>
       </c>
       <c r="N158" t="n">
-        <v>0.08281798618431307</v>
+        <v>0.02569834273406192</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06844602700501146</v>
+        <v>0.07407835800314176</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02646860162208059</v>
+        <v>0.02571812216485529</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07653021631400402</v>
+        <v>0.07487489948704651</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02773945168202006</v>
+        <v>0.04429423439503183</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07341712428023359</v>
+        <v>0.07323693281837745</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05754843090151646</v>
+        <v>0.07573092404811033</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07070208646698434</v>
+        <v>0.07295361995248595</v>
       </c>
       <c r="N159" t="n">
-        <v>0.08218893568538449</v>
+        <v>0.02571812216485529</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06918200579001157</v>
+        <v>0.07487489948704651</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.0245894479114504</v>
+        <v>0.02543632667842836</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07734436755138704</v>
+        <v>0.07567144097095126</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02765244183089</v>
+        <v>0.04388078000114476</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07419815751725733</v>
+        <v>0.07401604912495593</v>
       </c>
       <c r="L160" t="n">
-        <v>0.05802569345886818</v>
+        <v>0.07527046290171729</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07145423632301608</v>
+        <v>0.07372972229240601</v>
       </c>
       <c r="N160" t="n">
-        <v>0.0826572450186886</v>
+        <v>0.02543632667842836</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06991798457501171</v>
+        <v>0.07567144097095126</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02570383167926399</v>
+        <v>0.02555298038611499</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07815851878877006</v>
+        <v>0.07646798245485602</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02776468298780135</v>
+        <v>0.0439717855194493</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07497919075428111</v>
+        <v>0.07479516543153443</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05779417384353436</v>
+        <v>0.07450211580644717</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07220638617904783</v>
+        <v>0.07450582463232608</v>
       </c>
       <c r="N161" t="n">
-        <v>0.08252295313685354</v>
+        <v>0.02555298038611499</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07065396336001183</v>
+        <v>0.07646798245485602</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02581121268810563</v>
+        <v>0.02536810739924895</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07897267002615309</v>
+        <v>0.07726452393876077</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02777617674704481</v>
+        <v>0.04366684862176132</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07576022399130486</v>
+        <v>0.07557428173811291</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05845339067153665</v>
+        <v>0.07422595665880793</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07295853603507958</v>
+        <v>0.07528192697224614</v>
       </c>
       <c r="N162" t="n">
-        <v>0.08258609899250718</v>
+        <v>0.02536810739924895</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07138994214501196</v>
+        <v>0.07726452393876077</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02491105070055954</v>
+        <v>0.02538173182916409</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0797868212635361</v>
+        <v>0.07806106542266551</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02768692470291115</v>
+        <v>0.04366556697989687</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07654125722832864</v>
+        <v>0.07635339804469139</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05850286255889664</v>
+        <v>0.07424205935530748</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07371068589111132</v>
+        <v>0.07605802931216621</v>
       </c>
       <c r="N163" t="n">
-        <v>0.0819467215382777</v>
+        <v>0.02538173182916409</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07212592093001206</v>
+        <v>0.07806106542266551</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02700280547921007</v>
+        <v>0.0252938777871942</v>
       </c>
       <c r="G164" t="n">
-        <v>0.08060097250091913</v>
+        <v>0.07885760690657025</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02769692844969097</v>
+        <v>0.04336753826567186</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07732229046535238</v>
+        <v>0.07713251435126987</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05864210812163587</v>
+        <v>0.07315049779245369</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07446283574714307</v>
+        <v>0.07683413165208627</v>
       </c>
       <c r="N164" t="n">
-        <v>0.082004859726793</v>
+        <v>0.0252938777871942</v>
       </c>
       <c r="O164" t="n">
-        <v>0.0728618997150122</v>
+        <v>0.07885760690657025</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02608593678664141</v>
+        <v>0.02500456938467312</v>
       </c>
       <c r="G165" t="n">
-        <v>0.08141512373830215</v>
+        <v>0.07965414839047501</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02770618958167503</v>
+        <v>0.04327236015090224</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07810332370237616</v>
+        <v>0.07791163065784835</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05877064597577591</v>
+        <v>0.07275134586675458</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07521498560317483</v>
+        <v>0.07761023399200634</v>
       </c>
       <c r="N165" t="n">
-        <v>0.08186055251068119</v>
+        <v>0.02500456938467312</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07359787850001231</v>
+        <v>0.07965414839047501</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02615990438543786</v>
+        <v>0.02501383073293464</v>
       </c>
       <c r="G166" t="n">
-        <v>0.08222927497568518</v>
+        <v>0.08045068987437975</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02761470969315399</v>
+        <v>0.04257963030740397</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07888435693939991</v>
+        <v>0.07869074696442684</v>
       </c>
       <c r="L166" t="n">
-        <v>0.05858799473733831</v>
+        <v>0.07284467747471812</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07596713545920658</v>
+        <v>0.0783863363319264</v>
       </c>
       <c r="N166" t="n">
-        <v>0.08211383884257023</v>
+        <v>0.02501383073293464</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07433385728501245</v>
+        <v>0.08045068987437975</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.0252241680381837</v>
+        <v>0.02502168594331258</v>
       </c>
       <c r="G167" t="n">
-        <v>0.08304342621306819</v>
+        <v>0.0812472313582845</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02782249037841858</v>
+        <v>0.04238894640699303</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07966539017642367</v>
+        <v>0.07946986327100532</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05859367302234472</v>
+        <v>0.0721305665128521</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07671928531523832</v>
+        <v>0.07916243867184647</v>
       </c>
       <c r="N167" t="n">
-        <v>0.08206475767508814</v>
+        <v>0.02502168594331258</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07506983607001257</v>
+        <v>0.0812472313582845</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02627818750746316</v>
+        <v>0.02482815912714076</v>
       </c>
       <c r="G168" t="n">
-        <v>0.08385757745045121</v>
+        <v>0.08204377284218926</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02772953323175945</v>
+        <v>0.04259990612148537</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08044642341344743</v>
+        <v>0.08024897957758381</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05868719944681666</v>
+        <v>0.07230908687766446</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07747143517127007</v>
+        <v>0.07993854101176652</v>
       </c>
       <c r="N168" t="n">
-        <v>0.08211334796086295</v>
+        <v>0.02482815912714076</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07580581485501268</v>
+        <v>0.08204377284218926</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02732142255586055</v>
+        <v>0.02463327439575298</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08467172868783424</v>
+        <v>0.08284031432609401</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02773583984746734</v>
+        <v>0.04231210712269692</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08122745665047119</v>
+        <v>0.08102809588416229</v>
       </c>
       <c r="L169" t="n">
-        <v>0.05876809262677571</v>
+        <v>0.0711803124656632</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07822358502730183</v>
+        <v>0.08071464335168659</v>
       </c>
       <c r="N169" t="n">
-        <v>0.08185964865252265</v>
+        <v>0.02463327439575298</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07654179364001282</v>
+        <v>0.08284031432609401</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02735333294596011</v>
+        <v>0.02463705586048309</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08548587992521726</v>
+        <v>0.08363685580999876</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02774141181983289</v>
+        <v>0.04192514708244366</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08200848988749496</v>
+        <v>0.08180721219074077</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05913587117824345</v>
+        <v>0.07064431717335617</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07897573488333356</v>
+        <v>0.08149074569160665</v>
       </c>
       <c r="N170" t="n">
-        <v>0.08190369870269537</v>
+        <v>0.02463705586048309</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07727777242501294</v>
+        <v>0.08363685580999876</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02637337844034607</v>
+        <v>0.02463952763266487</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08630003116260028</v>
+        <v>0.08443339729390351</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02784625074314685</v>
+        <v>0.04213862367254159</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08278952312451872</v>
+        <v>0.08258632849731926</v>
       </c>
       <c r="L171" t="n">
-        <v>0.05939005371724146</v>
+        <v>0.07040117489725145</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07972788473936532</v>
+        <v>0.08226684803152672</v>
       </c>
       <c r="N171" t="n">
-        <v>0.08194553706400898</v>
+        <v>0.02463952763266487</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07801375121001305</v>
+        <v>0.08443339729390351</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02638101880160278</v>
+        <v>0.0245392153135639</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08711418239998329</v>
+        <v>0.08522993877780827</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02765035821169991</v>
+        <v>0.04195213456480662</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08357055636154248</v>
+        <v>0.08336544480389774</v>
       </c>
       <c r="L172" t="n">
-        <v>0.05903015885979129</v>
+        <v>0.07045095953385677</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08048003459539706</v>
+        <v>0.08304295037144677</v>
       </c>
       <c r="N172" t="n">
-        <v>0.08208520268909159</v>
+        <v>0.0245392153135639</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07874972999501317</v>
+        <v>0.08522993877780827</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02636811750727953</v>
+        <v>0.02441971315488077</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08792833363736632</v>
+        <v>0.08602648026171301</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02765373581978273</v>
+        <v>0.04146527743105469</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08435158959856624</v>
+        <v>0.08414456111047622</v>
       </c>
       <c r="L173" t="n">
-        <v>0.05895570522191459</v>
+        <v>0.06929374497968011</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08123218445142881</v>
+        <v>0.08381905271136683</v>
       </c>
       <c r="N173" t="n">
-        <v>0.0819227345305712</v>
+        <v>0.02441971315488077</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07948570878001331</v>
+        <v>0.08602648026171301</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02532458310767634</v>
+        <v>0.02427765072815311</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08874248487474934</v>
+        <v>0.08682302174561776</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02775638516168602</v>
+        <v>0.0414776499431018</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08513262283559</v>
+        <v>0.08492367741705471</v>
       </c>
       <c r="L174" t="n">
-        <v>0.05946621141963285</v>
+        <v>0.06912960513122945</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08198433430746055</v>
+        <v>0.0845951550512869</v>
       </c>
       <c r="N174" t="n">
-        <v>0.08145817154107582</v>
+        <v>0.02427765072815311</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08022168756501342</v>
+        <v>0.08682302174561776</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02625209548966832</v>
+        <v>0.02401448180888777</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08955663611213237</v>
+        <v>0.08761956322952251</v>
       </c>
       <c r="J175" t="n">
-        <v>0.0277583078317005</v>
+        <v>0.04128884977276384</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08591365607261377</v>
+        <v>0.08570279372363319</v>
       </c>
       <c r="L175" t="n">
-        <v>0.05924733087446415</v>
+        <v>0.06839997195080033</v>
       </c>
       <c r="M175" t="n">
-        <v>0.0827364841634923</v>
+        <v>0.08537125739120696</v>
       </c>
       <c r="N175" t="n">
-        <v>0.08119155267323341</v>
+        <v>0.02401448180888777</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08095766635001354</v>
+        <v>0.08761956322952251</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02615242573400871</v>
+        <v>0.02383166017259171</v>
       </c>
       <c r="G176" t="n">
-        <v>0.09037078734951538</v>
+        <v>0.08841610471342726</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02775950542411683</v>
+        <v>0.04069847459185685</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08669468930963753</v>
+        <v>0.08648191003021168</v>
       </c>
       <c r="L176" t="n">
-        <v>0.05887375151738375</v>
+        <v>0.06816643840319969</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08348863401952406</v>
+        <v>0.08614735973112703</v>
       </c>
       <c r="N176" t="n">
-        <v>0.08122291687967215</v>
+        <v>0.02383166017259171</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08169364513501368</v>
+        <v>0.08841610471342726</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02502734492145064</v>
+        <v>0.02363063959477178</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0911849385868984</v>
+        <v>0.089212646197332</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02775997953322572</v>
+        <v>0.04100612207219675</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08747572254666129</v>
+        <v>0.08726102633679016</v>
       </c>
       <c r="L177" t="n">
-        <v>0.0588479510566125</v>
+        <v>0.06724981851954298</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08424078387555579</v>
+        <v>0.08692346207104709</v>
       </c>
       <c r="N177" t="n">
-        <v>0.0812523031130199</v>
+        <v>0.02363063959477178</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08242962392001379</v>
+        <v>0.089212646197332</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02587862413274739</v>
+        <v>0.02351287385093488</v>
       </c>
       <c r="G178" t="n">
-        <v>0.09199908982428143</v>
+        <v>0.09000918768123675</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02775519778738501</v>
+        <v>0.04071138988559952</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08825675578368504</v>
+        <v>0.08804014264336864</v>
       </c>
       <c r="L178" t="n">
-        <v>0.05907310941841631</v>
+        <v>0.06557923076361982</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08499293373158755</v>
+        <v>0.08769956441096716</v>
       </c>
       <c r="N178" t="n">
-        <v>0.08147975032590465</v>
+        <v>0.02351287385093488</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08316560270501393</v>
+        <v>0.09000918768123675</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02570803444865211</v>
+        <v>0.02317981671658791</v>
       </c>
       <c r="G179" t="n">
-        <v>0.09281324106166446</v>
+        <v>0.09080572916514151</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02783744688588896</v>
+        <v>0.04041387570388105</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08903778902070882</v>
+        <v>0.08881925894994713</v>
       </c>
       <c r="L179" t="n">
-        <v>0.05835240652906082</v>
+        <v>0.06498379359922024</v>
       </c>
       <c r="M179" t="n">
-        <v>0.0857450835876193</v>
+        <v>0.08847566675088721</v>
       </c>
       <c r="N179" t="n">
-        <v>0.08130529747095461</v>
+        <v>0.02317981671658791</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08390158149001403</v>
+        <v>0.09080572916514151</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02451734694991803</v>
+        <v>0.02283292196723775</v>
       </c>
       <c r="G180" t="n">
-        <v>0.09362739229904747</v>
+        <v>0.09160227064904626</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02770716643782445</v>
+        <v>0.0399131771988574</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08981882225773256</v>
+        <v>0.0895983752565256</v>
       </c>
       <c r="L180" t="n">
-        <v>0.05808902231481189</v>
+        <v>0.06309262549013389</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08649723344365105</v>
+        <v>0.08925176909080727</v>
       </c>
       <c r="N180" t="n">
-        <v>0.08082898350079765</v>
+        <v>0.02283292196723775</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08463756027501416</v>
+        <v>0.09160227064904626</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02530833271729832</v>
+        <v>0.02277364337839134</v>
       </c>
       <c r="G181" t="n">
-        <v>0.09444154353643049</v>
+        <v>0.09239881213295101</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02776495437287753</v>
+        <v>0.03990889204234441</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09059985549475634</v>
+        <v>0.0903774915631041</v>
       </c>
       <c r="L181" t="n">
-        <v>0.0577861367019353</v>
+        <v>0.06203484490015043</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08724938329968279</v>
+        <v>0.09002787143072734</v>
       </c>
       <c r="N181" t="n">
-        <v>0.08145084736806185</v>
+        <v>0.02277364337839134</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08537353906001428</v>
+        <v>0.09239881213295101</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02508276283154622</v>
+        <v>0.02230343472555552</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09525569477381352</v>
+        <v>0.09319535361685576</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02751140862073427</v>
+        <v>0.03970061790615817</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09138088873178009</v>
+        <v>0.09115660786968258</v>
       </c>
       <c r="L182" t="n">
-        <v>0.05754692961669677</v>
+        <v>0.06073957029305982</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08800153315571455</v>
+        <v>0.0908039737706474</v>
       </c>
       <c r="N182" t="n">
-        <v>0.0814709280253752</v>
+        <v>0.02230343472555552</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08610951784501442</v>
+        <v>0.09319535361685576</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02484240837341492</v>
+        <v>0.0221237497842372</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09606984601119653</v>
+        <v>0.09399189510076052</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02754712711108073</v>
+        <v>0.0397879524621145</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09216192196880386</v>
+        <v>0.09193572417626106</v>
       </c>
       <c r="L183" t="n">
-        <v>0.05747458098536218</v>
+        <v>0.05923592013265172</v>
       </c>
       <c r="M183" t="n">
-        <v>0.0887536830117463</v>
+        <v>0.09158007611056747</v>
       </c>
       <c r="N183" t="n">
-        <v>0.08108926219469514</v>
+        <v>0.0221237497842372</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08684549663001453</v>
+        <v>0.09399189510076052</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02358904042365761</v>
+        <v>0.02183604232994328</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09688399724857956</v>
+        <v>0.09478843658466526</v>
       </c>
       <c r="J184" t="n">
-        <v>0.027372707773603</v>
+        <v>0.03927049338202948</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09294295520582761</v>
+        <v>0.09271484048283955</v>
       </c>
       <c r="L184" t="n">
-        <v>0.0566722707341972</v>
+        <v>0.05835301288271594</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08950583286777805</v>
+        <v>0.09235617845048753</v>
       </c>
       <c r="N184" t="n">
-        <v>0.08107752558831471</v>
+        <v>0.02183604232994328</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08758147541501465</v>
+        <v>0.09478843658466526</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02532443006302751</v>
+        <v>0.02164176613818068</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09769814848596259</v>
+        <v>0.09558497806857001</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02728874853798709</v>
+        <v>0.03934783833771896</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09372398844285139</v>
+        <v>0.09349395678941802</v>
       </c>
       <c r="L185" t="n">
-        <v>0.0564431787894677</v>
+        <v>0.05691996700704205</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09025798272380979</v>
+        <v>0.0931322807904076</v>
       </c>
       <c r="N185" t="n">
-        <v>0.08091083153763085</v>
+        <v>0.02164176613818068</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08831745420001479</v>
+        <v>0.09558497806857001</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.0230503483722778</v>
+        <v>0.02124237498445625</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09851229972334559</v>
+        <v>0.09638151955247476</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02729584733391914</v>
+        <v>0.03871958500099898</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09450502167987514</v>
+        <v>0.09427307309599652</v>
       </c>
       <c r="L186" t="n">
-        <v>0.05619048507743937</v>
+        <v>0.05496590096942006</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09101013257984154</v>
+        <v>0.09390838313032766</v>
       </c>
       <c r="N186" t="n">
-        <v>0.080792873210359</v>
+        <v>0.02124237498445625</v>
       </c>
       <c r="O186" t="n">
-        <v>0.0890534329850149</v>
+        <v>0.09638151955247476</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02476856643216171</v>
+        <v>0.02093932264427689</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09932645096072862</v>
+        <v>0.09717806103637952</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02719460209108515</v>
+        <v>0.03888533104368547</v>
       </c>
       <c r="K187" t="n">
-        <v>0.0952860549168989</v>
+        <v>0.095052189402575</v>
       </c>
       <c r="L187" t="n">
-        <v>0.05551736952437805</v>
+        <v>0.05441993323363975</v>
       </c>
       <c r="M187" t="n">
-        <v>0.0917622824358733</v>
+        <v>0.09468448547024773</v>
       </c>
       <c r="N187" t="n">
-        <v>0.08042734377421468</v>
+        <v>0.02093932264427689</v>
       </c>
       <c r="O187" t="n">
-        <v>0.08978941177001502</v>
+        <v>0.09717806103637952</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02248085532343243</v>
+        <v>0.0205340628931495</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1001406021981116</v>
+        <v>0.09797460252028425</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02708561073917122</v>
+        <v>0.03814467413759437</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09606708815392266</v>
+        <v>0.09583130570915348</v>
       </c>
       <c r="L188" t="n">
-        <v>0.05482701205654955</v>
+        <v>0.05321118226349059</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09251443229190504</v>
+        <v>0.09546058781016779</v>
       </c>
       <c r="N188" t="n">
-        <v>0.07961793639691306</v>
+        <v>0.0205340628931495</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09052539055501514</v>
+        <v>0.09797460252028425</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02418898612684314</v>
+        <v>0.02042804950658102</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1009547534354947</v>
+        <v>0.098771144004189</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02696947120786339</v>
+        <v>0.03809721195454166</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09684812139094642</v>
+        <v>0.09661042201573196</v>
       </c>
       <c r="L189" t="n">
-        <v>0.05462259260021959</v>
+        <v>0.05196870585314473</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09326658214793677</v>
+        <v>0.09623669015008784</v>
       </c>
       <c r="N189" t="n">
-        <v>0.07926834424616969</v>
+        <v>0.02042804950658102</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09126136934001527</v>
+        <v>0.098771144004189</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02189472992314709</v>
+        <v>0.02012273626007827</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1017689046728777</v>
+        <v>0.09956768548809376</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02694678142684774</v>
+        <v>0.03774254216634329</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09762915462797019</v>
+        <v>0.09738953832231044</v>
       </c>
       <c r="L190" t="n">
-        <v>0.053807291081654</v>
+        <v>0.05152944683122623</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09401873200396853</v>
+        <v>0.09701279249000791</v>
       </c>
       <c r="N190" t="n">
-        <v>0.07918226048969984</v>
+        <v>0.02012273626007827</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09199734812501541</v>
+        <v>0.09956768548809376</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02159985779309744</v>
+        <v>0.01981957692914819</v>
       </c>
       <c r="G191" t="n">
-        <v>0.1025830559102607</v>
+        <v>0.1003642269719985</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02681813932581033</v>
+        <v>0.03778026244481525</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09841018786499395</v>
+        <v>0.09816865462888894</v>
       </c>
       <c r="L191" t="n">
-        <v>0.05338428742711851</v>
+        <v>0.05101875717924964</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09477088186000028</v>
+        <v>0.09778889482992797</v>
       </c>
       <c r="N191" t="n">
-        <v>0.07906337829521909</v>
+        <v>0.01981957692914819</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09273332691001551</v>
+        <v>0.1003642269719985</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.0213061408174474</v>
+        <v>0.01952002528929768</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1033972071476437</v>
+        <v>0.1011607684559033</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02658414283443723</v>
+        <v>0.03730997046177342</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09919122110201771</v>
+        <v>0.0989477709354674</v>
       </c>
       <c r="L192" t="n">
-        <v>0.05285676156287894</v>
+        <v>0.05013521123710002</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09552303171603202</v>
+        <v>0.09856499716984804</v>
       </c>
       <c r="N192" t="n">
-        <v>0.07801539083044273</v>
+        <v>0.01952002528929768</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09346930569501564</v>
+        <v>0.1011607684559033</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.0210153500769502</v>
+        <v>0.01912552201121709</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1042113583850268</v>
+        <v>0.101957309939808</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02644538988241452</v>
+        <v>0.0370312638890338</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09997225433904147</v>
+        <v>0.0997268872420459</v>
       </c>
       <c r="L193" t="n">
-        <v>0.05232789341520103</v>
+        <v>0.04987738334466213</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09627518157206377</v>
+        <v>0.0993410995097681</v>
       </c>
       <c r="N193" t="n">
-        <v>0.07774199126308606</v>
+        <v>0.01912552201121709</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09420528448001576</v>
+        <v>0.101957309939808</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.020729256652359</v>
+        <v>0.01881677777520047</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1050255096224098</v>
+        <v>0.1027538514237128</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02630247839942823</v>
+        <v>0.03694374039841236</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1007532875760652</v>
+        <v>0.1005060035486244</v>
       </c>
       <c r="L194" t="n">
-        <v>0.0518008629103506</v>
+        <v>0.04864384784182085</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09702733142809553</v>
+        <v>0.1001172018496882</v>
       </c>
       <c r="N194" t="n">
-        <v>0.07774687276086467</v>
+        <v>0.01881677777520047</v>
       </c>
       <c r="O194" t="n">
-        <v>0.0949412632650159</v>
+        <v>0.1027538514237128</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02144963162442705</v>
+        <v>0.01857804963002394</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1058396608597928</v>
+        <v>0.1035503929076175</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02605600631516444</v>
+        <v>0.03674699766172504</v>
       </c>
       <c r="K195" t="n">
-        <v>0.101534320813089</v>
+        <v>0.1012851198552029</v>
       </c>
       <c r="L195" t="n">
-        <v>0.05167884997459346</v>
+        <v>0.04843317906846106</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09777948128412726</v>
+        <v>0.1008933041896082</v>
       </c>
       <c r="N195" t="n">
-        <v>0.07653372849149381</v>
+        <v>0.01857804963002394</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09567724205001601</v>
+        <v>0.1035503929076175</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02217824607390752</v>
+        <v>0.01821308784555097</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1066538120971758</v>
+        <v>0.1043469343915223</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02600657155930922</v>
+        <v>0.03644063335078782</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1023153540501128</v>
+        <v>0.1020642361617814</v>
       </c>
       <c r="L196" t="n">
-        <v>0.0511650345341953</v>
+        <v>0.04774395136446768</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09853163114015902</v>
+        <v>0.1016694065295283</v>
       </c>
       <c r="N196" t="n">
-        <v>0.07660625162268903</v>
+        <v>0.01821308784555097</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09641322083501613</v>
+        <v>0.1043469343915223</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02191687108155362</v>
+        <v>0.01772564269164513</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1074679633345588</v>
+        <v>0.105143475875427</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02595477206154863</v>
+        <v>0.03602424513741664</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1030963872871365</v>
+        <v>0.1028433524683598</v>
       </c>
       <c r="L197" t="n">
-        <v>0.05026259651542192</v>
+        <v>0.04687473906972567</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09928378099619077</v>
+        <v>0.1024455088694484</v>
       </c>
       <c r="N197" t="n">
-        <v>0.0755681353221655</v>
+        <v>0.01772564269164513</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09714919962001627</v>
+        <v>0.105143475875427</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02066727772811854</v>
+        <v>0.01741946443816988</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1082821145719419</v>
+        <v>0.1059400173593318</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02580120575156872</v>
+        <v>0.03579743069342745</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1038774205241603</v>
+        <v>0.1036224687749383</v>
       </c>
       <c r="L198" t="n">
-        <v>0.05007471584453921</v>
+        <v>0.04642411652411971</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1000359308522225</v>
+        <v>0.1032216112093684</v>
       </c>
       <c r="N198" t="n">
-        <v>0.07512307275763874</v>
+        <v>0.01741946443816988</v>
       </c>
       <c r="O198" t="n">
-        <v>0.09788517840501638</v>
+        <v>0.1059400173593318</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01943123709435551</v>
+        <v>0.01699830335498877</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1090962658093249</v>
+        <v>0.1067365588432365</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02554647055905558</v>
+        <v>0.03545978769063624</v>
       </c>
       <c r="K199" t="n">
-        <v>0.104658453761184</v>
+        <v>0.1044015850815168</v>
       </c>
       <c r="L199" t="n">
-        <v>0.0496045724478128</v>
+        <v>0.0456906580675347</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1007880807082543</v>
+        <v>0.1039977135492885</v>
       </c>
       <c r="N199" t="n">
-        <v>0.0745747570968241</v>
+        <v>0.01699830335498877</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09862115719001652</v>
+        <v>0.1067365588432365</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.0212105202610177</v>
+        <v>0.01646590971196524</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1099104170467079</v>
+        <v>0.1075331003271413</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02529116441369526</v>
+        <v>0.03460619887643665</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1054394869982078</v>
+        <v>0.1051807013880953</v>
       </c>
       <c r="L200" t="n">
-        <v>0.04875534625150857</v>
+        <v>0.04597293803985564</v>
       </c>
       <c r="M200" t="n">
-        <v>0.101540230564286</v>
+        <v>0.1047738158892085</v>
       </c>
       <c r="N200" t="n">
-        <v>0.07432688150743705</v>
+        <v>0.01646590971196524</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09935713597501662</v>
+        <v>0.1075331003271413</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01900689830885835</v>
+        <v>0.01612603377896289</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1107245682840909</v>
+        <v>0.108329641811046</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02533588524517384</v>
+        <v>0.03429592544800403</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1062205202352316</v>
+        <v>0.1059598176946738</v>
       </c>
       <c r="L201" t="n">
-        <v>0.04843021718189222</v>
+        <v>0.04546953078096738</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1022923804203178</v>
+        <v>0.1055499182291286</v>
       </c>
       <c r="N201" t="n">
-        <v>0.07328313915719298</v>
+        <v>0.01612603377896289</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1000931147600168</v>
+        <v>0.108329641811046</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01982122451350975</v>
+        <v>0.01548242582584514</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1115387195214739</v>
+        <v>0.1091261832949508</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02498123098317737</v>
+        <v>0.03372560232148386</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1070015534722553</v>
+        <v>0.1067389340012522</v>
       </c>
       <c r="L202" t="n">
-        <v>0.04793236516522964</v>
+        <v>0.04457901063075476</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1030445302763495</v>
+        <v>0.1063260205690487</v>
       </c>
       <c r="N202" t="n">
-        <v>0.07334722321380716</v>
+        <v>0.01548242582584514</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1008290935450169</v>
+        <v>0.1091261832949508</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01964073782751501</v>
+        <v>0.01513883612247556</v>
       </c>
       <c r="G203" t="n">
-        <v>0.112352870758857</v>
+        <v>0.1099227247788555</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02502779955739191</v>
+        <v>0.03370263075760935</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1077825867092791</v>
+        <v>0.1075180503078307</v>
       </c>
       <c r="L203" t="n">
-        <v>0.04776497012778652</v>
+        <v>0.04409995192910271</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1037966801323813</v>
+        <v>0.1071021229089687</v>
       </c>
       <c r="N203" t="n">
-        <v>0.07222282684499515</v>
+        <v>0.01513883612247556</v>
       </c>
       <c r="O203" t="n">
-        <v>0.101565072330017</v>
+        <v>0.1099227247788555</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.0184608442032904</v>
+        <v>0.01479901493871763</v>
       </c>
       <c r="G204" t="n">
-        <v>0.11316702199624</v>
+        <v>0.1107192662627603</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02467618889750353</v>
+        <v>0.03313441201711384</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1085636199463029</v>
+        <v>0.1082971666144092</v>
       </c>
       <c r="L204" t="n">
-        <v>0.04723121199582866</v>
+        <v>0.043530929015896</v>
       </c>
       <c r="M204" t="n">
-        <v>0.104548829988413</v>
+        <v>0.1078782252488888</v>
       </c>
       <c r="N204" t="n">
-        <v>0.07241364321847221</v>
+        <v>0.01479901493871763</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1023010511150171</v>
+        <v>0.1107192662627603</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01828156782321443</v>
+        <v>0.01426671254443485</v>
       </c>
       <c r="G205" t="n">
-        <v>0.113981173233623</v>
+        <v>0.111515807746665</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02452699693319831</v>
+        <v>0.03242834736073061</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1093446531833266</v>
+        <v>0.1090762829209877</v>
       </c>
       <c r="L205" t="n">
-        <v>0.04703427069562188</v>
+        <v>0.04307051623101954</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1053009798444448</v>
+        <v>0.1086543275888089</v>
       </c>
       <c r="N205" t="n">
-        <v>0.07142336550195383</v>
+        <v>0.01426671254443485</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1030370299000172</v>
+        <v>0.111515807746665</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01810293286966554</v>
+        <v>0.01384567920949073</v>
       </c>
       <c r="G206" t="n">
-        <v>0.114795324471006</v>
+        <v>0.1123123492305697</v>
       </c>
       <c r="J206" t="n">
-        <v>0.0244808215941623</v>
+        <v>0.03159183804919291</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1101256864203504</v>
+        <v>0.1098553992275662</v>
       </c>
       <c r="L206" t="n">
-        <v>0.0466773261534319</v>
+        <v>0.04231728791435829</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1060531297004765</v>
+        <v>0.1094304299287289</v>
       </c>
       <c r="N206" t="n">
-        <v>0.07135568686315535</v>
+        <v>0.01384567920949073</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1037730086850174</v>
+        <v>0.1123123492305697</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01892496352502218</v>
+        <v>0.01333966520374878</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1156094757083891</v>
+        <v>0.1131088907144745</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02433826081008154</v>
+        <v>0.03083228534323398</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1109067196573741</v>
+        <v>0.1106345155341447</v>
       </c>
       <c r="L207" t="n">
-        <v>0.04686355829552455</v>
+        <v>0.04266981840579709</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1068052795565082</v>
+        <v>0.110206532268649</v>
       </c>
       <c r="N207" t="n">
-        <v>0.07021430046979216</v>
+        <v>0.01333966520374878</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1045089874700175</v>
+        <v>0.1131088907144745</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01874768397166283</v>
+        <v>0.01305242079707254</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1164236269457721</v>
+        <v>0.1139054321983793</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02429991251064216</v>
+        <v>0.03025709050358721</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1116877528943979</v>
+        <v>0.1114136318407232</v>
       </c>
       <c r="L208" t="n">
-        <v>0.04639614704816558</v>
+        <v>0.04172668204522079</v>
       </c>
       <c r="M208" t="n">
-        <v>0.10755742941254</v>
+        <v>0.1109826346085691</v>
       </c>
       <c r="N208" t="n">
-        <v>0.07020289948957975</v>
+        <v>0.01305242079707254</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1052449662550176</v>
+        <v>0.1139054321983793</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01857111839196596</v>
+        <v>0.01268769625932548</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1172377781831551</v>
+        <v>0.114701973682284</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02416620496578245</v>
+        <v>0.02957365479098581</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1124687861314217</v>
+        <v>0.1121927481473016</v>
       </c>
       <c r="L209" t="n">
-        <v>0.0462782723376208</v>
+        <v>0.04128645317251434</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1083095792685718</v>
+        <v>0.1117587369484891</v>
       </c>
       <c r="N209" t="n">
-        <v>0.06982517709023345</v>
+        <v>0.01268769625932548</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1059809450400177</v>
+        <v>0.114701973682284</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01839529096831002</v>
+        <v>0.01234924186037112</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1180519294205381</v>
+        <v>0.1154985151661888</v>
       </c>
       <c r="J210" t="n">
-        <v>0.0238333330984811</v>
+        <v>0.02868937946616312</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1132498193684454</v>
+        <v>0.1129718644538801</v>
       </c>
       <c r="L210" t="n">
-        <v>0.04661311409015595</v>
+        <v>0.04114770612756258</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1090617291246035</v>
+        <v>0.1125348392884092</v>
       </c>
       <c r="N210" t="n">
-        <v>0.06948482643946857</v>
+        <v>0.01234924186037112</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1067169238250179</v>
+        <v>0.1154985151661888</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01822022588307347</v>
+        <v>0.01214080787007295</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1188660806579211</v>
+        <v>0.1162950566500935</v>
       </c>
       <c r="J211" t="n">
-        <v>0.0236995103333195</v>
+        <v>0.02831166578985228</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1140308526054692</v>
+        <v>0.1137509807604586</v>
       </c>
       <c r="L211" t="n">
-        <v>0.04610053382685469</v>
+        <v>0.04050901525025025</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1098138789806352</v>
+        <v>0.1133109416283292</v>
       </c>
       <c r="N211" t="n">
-        <v>0.06888554070500064</v>
+        <v>0.01214080787007295</v>
       </c>
       <c r="O211" t="n">
-        <v>0.107452902610018</v>
+        <v>0.1162950566500935</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.0170459473186348</v>
+        <v>0.0118661445582945</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1196802318953041</v>
+        <v>0.1170915981339983</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02356473548568694</v>
+        <v>0.0275479150227867</v>
       </c>
       <c r="K212" t="n">
-        <v>0.114811885842493</v>
+        <v>0.1145300970670371</v>
       </c>
       <c r="L212" t="n">
-        <v>0.04660064234651304</v>
+        <v>0.04046895488046243</v>
       </c>
       <c r="M212" t="n">
-        <v>0.110566028836667</v>
+        <v>0.1140870439682493</v>
       </c>
       <c r="N212" t="n">
-        <v>0.06893101305454491</v>
+        <v>0.0118661445582945</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1081888813950181</v>
+        <v>0.1170915981339983</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01687247945737244</v>
+        <v>0.01162900219489928</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1204943831326872</v>
+        <v>0.117888139617903</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02352900737097272</v>
+        <v>0.0269055284256996</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1155929190795167</v>
+        <v>0.1153092133736156</v>
       </c>
       <c r="L213" t="n">
-        <v>0.04620112088105227</v>
+        <v>0.0398260993580839</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1113181786926987</v>
+        <v>0.1148631463081694</v>
       </c>
       <c r="N213" t="n">
-        <v>0.06912493665581687</v>
+        <v>0.01162900219489928</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1089248601800182</v>
+        <v>0.117888139617903</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01869984648166492</v>
+        <v>0.01123313104975078</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1213085343700702</v>
+        <v>0.1186846811018078</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02339232480456617</v>
+        <v>0.02619190725932427</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1163739523165405</v>
+        <v>0.1160883296801941</v>
       </c>
       <c r="L214" t="n">
-        <v>0.04650224611576503</v>
+        <v>0.0388790230229995</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1120703285487305</v>
+        <v>0.1156392486480894</v>
       </c>
       <c r="N214" t="n">
-        <v>0.06896936210839832</v>
+        <v>0.01123313104975078</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1096608389650184</v>
+        <v>0.1186846811018078</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01852807257389062</v>
+        <v>0.0110822813927125</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1221226856074532</v>
+        <v>0.1194812225857125</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02315468660185656</v>
+        <v>0.02591445278439405</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1171549855535642</v>
+        <v>0.1168674459867725</v>
       </c>
       <c r="L215" t="n">
-        <v>0.04610429473594393</v>
+        <v>0.03842630021509419</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1128224784047622</v>
+        <v>0.1164153509880095</v>
       </c>
       <c r="N215" t="n">
-        <v>0.06873028473027076</v>
+        <v>0.0110822813927125</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1103968177500185</v>
+        <v>0.1194812225857125</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01735718191642804</v>
+        <v>0.01108002680989586</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1229368368448363</v>
+        <v>0.1202777640696173</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02321609157823325</v>
+        <v>0.02518056626164211</v>
       </c>
       <c r="K216" t="n">
-        <v>0.117936018790588</v>
+        <v>0.117646562293351</v>
       </c>
       <c r="L216" t="n">
-        <v>0.04630754342688168</v>
+        <v>0.03836650527425278</v>
       </c>
       <c r="M216" t="n">
-        <v>0.113574628260794</v>
+        <v>0.1171914533279296</v>
       </c>
       <c r="N216" t="n">
-        <v>0.06819294028321443</v>
+        <v>0.01108002680989586</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1111327965350186</v>
+        <v>0.1202777640696173</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01618719869165567</v>
+        <v>0.01090015763369379</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1237509880822193</v>
+        <v>0.121074305553522</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02287653854908547</v>
+        <v>0.02449764895180179</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1187170520276118</v>
+        <v>0.1184256785999295</v>
       </c>
       <c r="L217" t="n">
-        <v>0.04661226887387085</v>
+        <v>0.03779821254036025</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1143267781168257</v>
+        <v>0.1179675556678496</v>
       </c>
       <c r="N217" t="n">
-        <v>0.06825737316930369</v>
+        <v>0.01090015763369379</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1118687753200187</v>
+        <v>0.121074305553522</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01801814708195194</v>
+        <v>0.01092190939527093</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1245651393196023</v>
+        <v>0.1218708470374268</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02273602632980261</v>
+        <v>0.02417310211560636</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1194980852646355</v>
+        <v>0.119204794906508</v>
       </c>
       <c r="L218" t="n">
-        <v>0.04631874776220415</v>
+        <v>0.03771999635330148</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1150789279728575</v>
+        <v>0.1187436580077697</v>
       </c>
       <c r="N218" t="n">
-        <v>0.06812362779061309</v>
+        <v>0.01092190939527093</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1126047541050188</v>
+        <v>0.1218708470374268</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01685005126969534</v>
+        <v>0.0108452846976744</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1253792905569853</v>
+        <v>0.1226673885213315</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02279455373577394</v>
+        <v>0.02408873289856411</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1202791185016593</v>
+        <v>0.1199839112130865</v>
       </c>
       <c r="L219" t="n">
-        <v>0.04612725677717419</v>
+        <v>0.03713043105296115</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1158310778288892</v>
+        <v>0.1195197603476897</v>
       </c>
       <c r="N219" t="n">
-        <v>0.0678917485492172</v>
+        <v>0.0108452846976744</v>
       </c>
       <c r="O219" t="n">
-        <v>0.113340732890019</v>
+        <v>0.1226673885213315</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01668293543726432</v>
+        <v>0.01077028614395129</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1261934417943683</v>
+        <v>0.1234639300052363</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02245211958238875</v>
+        <v>0.02330582548548721</v>
       </c>
       <c r="K220" t="n">
-        <v>0.121060151738683</v>
+        <v>0.1207630275196649</v>
       </c>
       <c r="L220" t="n">
-        <v>0.0463380726040736</v>
+        <v>0.0367280909792243</v>
       </c>
       <c r="M220" t="n">
-        <v>0.116583227684921</v>
+        <v>0.1202958626876098</v>
       </c>
       <c r="N220" t="n">
-        <v>0.06746177984719065</v>
+        <v>0.01077028614395129</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1140767116750191</v>
+        <v>0.1234639300052363</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01551682376703733</v>
+        <v>0.01079691633714873</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1270075930317514</v>
+        <v>0.124260471489141</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02250872268503638</v>
+        <v>0.0232240905373125</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1218411849757068</v>
+        <v>0.1215421438262434</v>
       </c>
       <c r="L221" t="n">
-        <v>0.04615147192819508</v>
+        <v>0.03561155047197578</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1173353775409527</v>
+        <v>0.1210719650275299</v>
       </c>
       <c r="N221" t="n">
-        <v>0.06733376608660763</v>
+        <v>0.01079691633714873</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1148126904600192</v>
+        <v>0.124260471489141</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01535174044139286</v>
+        <v>0.0105251778803138</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1278217442691344</v>
+        <v>0.1250570129730458</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02216436185910615</v>
+        <v>0.02274382645355447</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1226222182127305</v>
+        <v>0.1223212601328219</v>
       </c>
       <c r="L222" t="n">
-        <v>0.04636773143483122</v>
+        <v>0.03557938387110049</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1180875273969845</v>
+        <v>0.1218480673674499</v>
       </c>
       <c r="N222" t="n">
-        <v>0.06730775166954289</v>
+        <v>0.0105251778803138</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1155486692450193</v>
+        <v>0.1250570129730458</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01718770964270937</v>
+        <v>0.01055507337649363</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1286358955065174</v>
+        <v>0.1258535544569505</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02221903591998732</v>
+        <v>0.02226533163372768</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1234032514497543</v>
+        <v>0.1231003764394004</v>
       </c>
       <c r="L223" t="n">
-        <v>0.04648712780927466</v>
+        <v>0.03473016551648322</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1188396772530162</v>
+        <v>0.12262416970737</v>
       </c>
       <c r="N223" t="n">
-        <v>0.06708378099807083</v>
+        <v>0.01055507337649363</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1162846480300195</v>
+        <v>0.1258535544569505</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01602475555336531</v>
+        <v>0.01038660542873533</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1294500467439004</v>
+        <v>0.1266500959408553</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02197274368306923</v>
+        <v>0.02218890447734681</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1241842846867781</v>
+        <v>0.1238794927459789</v>
       </c>
       <c r="L224" t="n">
-        <v>0.04620993773681811</v>
+        <v>0.03396246974800893</v>
       </c>
       <c r="M224" t="n">
-        <v>0.119591827109048</v>
+        <v>0.1234002720472901</v>
       </c>
       <c r="N224" t="n">
-        <v>0.06696189847426609</v>
+        <v>0.01038660542873533</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1170206268150196</v>
+        <v>0.1266500959408553</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01486290235573916</v>
+        <v>0.01031977664008598</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1302641979812834</v>
+        <v>0.12744663742476</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02172548396374116</v>
+        <v>0.02191484338392632</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1249653179238018</v>
+        <v>0.1246586090525574</v>
       </c>
       <c r="L225" t="n">
-        <v>0.04673643790275417</v>
+        <v>0.03327487102435778</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1203439769650797</v>
+        <v>0.1241763743872101</v>
       </c>
       <c r="N225" t="n">
-        <v>0.06724214850020299</v>
+        <v>0.01031977664008598</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1177566056000197</v>
+        <v>0.12744663742476</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01670217423220937</v>
+        <v>0.01045458961359271</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1310783492186665</v>
+        <v>0.1282431789086648</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02157725557739247</v>
+        <v>0.02124344675298079</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1257463511608256</v>
+        <v>0.1254377253591359</v>
       </c>
       <c r="L226" t="n">
-        <v>0.04636690499237547</v>
+        <v>0.03307395275105418</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1210961268211115</v>
+        <v>0.1249524767271302</v>
       </c>
       <c r="N226" t="n">
-        <v>0.06662457547795619</v>
+        <v>0.01045458961359271</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1184925843850198</v>
+        <v>0.1282431789086648</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01554259536515443</v>
+        <v>0.01019104695230262</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1318925004560495</v>
+        <v>0.1290397203925695</v>
       </c>
       <c r="J227" t="n">
-        <v>0.0215280573394124</v>
+        <v>0.02067501298402485</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1265273843978494</v>
+        <v>0.1262168416657143</v>
       </c>
       <c r="L227" t="n">
-        <v>0.04660161569097471</v>
+        <v>0.03226715668141039</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1218482766771432</v>
+        <v>0.1257285790670503</v>
       </c>
       <c r="N227" t="n">
-        <v>0.06680922380960025</v>
+        <v>0.01019104695230262</v>
       </c>
       <c r="O227" t="n">
-        <v>0.11922856317002</v>
+        <v>0.1290397203925695</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01538418993695277</v>
+        <v>0.01012915125926284</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1327066516934325</v>
+        <v>0.1298362618764743</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02127788806519031</v>
+        <v>0.02070984047657309</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1273084176348731</v>
+        <v>0.1269959579722928</v>
       </c>
       <c r="L228" t="n">
-        <v>0.04684084668384447</v>
+        <v>0.03145452564519463</v>
       </c>
       <c r="M228" t="n">
-        <v>0.122600426533175</v>
+        <v>0.1265046814069703</v>
       </c>
       <c r="N228" t="n">
-        <v>0.06669613789720957</v>
+        <v>0.01012915125926284</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1199645419550201</v>
+        <v>0.1298362618764743</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01522698212998288</v>
+        <v>0.01006890513752044</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1335208029308155</v>
+        <v>0.130632803360379</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02132674657011549</v>
+        <v>0.02014822763013999</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1280894508718969</v>
+        <v>0.1277750742788713</v>
       </c>
       <c r="L229" t="n">
-        <v>0.04648487465627746</v>
+        <v>0.03113610247217491</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1233525763892067</v>
+        <v>0.1272807837468904</v>
       </c>
       <c r="N229" t="n">
-        <v>0.06678536214285863</v>
+        <v>0.01006890513752044</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1207005207400202</v>
+        <v>0.130632803360379</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01407099612662322</v>
+        <v>0.01021031119012256</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1343349541681985</v>
+        <v>0.1314293448442838</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02107463166957724</v>
+        <v>0.01969047284424016</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1288704841089206</v>
+        <v>0.1285541905854498</v>
       </c>
       <c r="L230" t="n">
-        <v>0.04683397629356628</v>
+        <v>0.03091192999211961</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1241047262452385</v>
+        <v>0.1280568860868105</v>
       </c>
       <c r="N230" t="n">
-        <v>0.06677694094862208</v>
+        <v>0.01021031119012256</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1214364995250203</v>
+        <v>0.1314293448442838</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01591625610925224</v>
+        <v>0.01005337202011628</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1351491054055816</v>
+        <v>0.1322258863281885</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02092154217896489</v>
+        <v>0.01923687451838818</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1296515173459444</v>
+        <v>0.1293333068920283</v>
       </c>
       <c r="L231" t="n">
-        <v>0.04678842828100357</v>
+        <v>0.02978205103479686</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1248568761012702</v>
+        <v>0.1288329884267305</v>
       </c>
       <c r="N231" t="n">
-        <v>0.06647091871657423</v>
+        <v>0.01005337202011628</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1221724783100205</v>
+        <v>0.1322258863281885</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01476278626024843</v>
+        <v>0.009998090230548734</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1359632566429646</v>
+        <v>0.1330224278120933</v>
       </c>
       <c r="J232" t="n">
-        <v>0.0206674769136677</v>
+        <v>0.01908773105209863</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1304325505829682</v>
+        <v>0.1301124231986067</v>
       </c>
       <c r="L232" t="n">
-        <v>0.04664850730388201</v>
+        <v>0.02914650842997479</v>
       </c>
       <c r="M232" t="n">
-        <v>0.125609025957302</v>
+        <v>0.1296090907666506</v>
       </c>
       <c r="N232" t="n">
-        <v>0.06616733984878981</v>
+        <v>0.009998090230548734</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1229084570950206</v>
+        <v>0.1330224278120933</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01561061076199023</v>
+        <v>0.009944468424467022</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1367774078803476</v>
+        <v>0.133818969295998</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02061243468907505</v>
+        <v>0.0187433408448861</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1312135838199919</v>
+        <v>0.1308915395051853</v>
       </c>
       <c r="L233" t="n">
-        <v>0.04711449004749421</v>
+        <v>0.0289053450074217</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1263611758133337</v>
+        <v>0.1303851931065706</v>
       </c>
       <c r="N233" t="n">
-        <v>0.06586624874734326</v>
+        <v>0.009944468424467022</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1236444358800207</v>
+        <v>0.133818969295998</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01345975379685612</v>
+        <v>0.00979250920491824</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1375915591177306</v>
+        <v>0.1346155107799027</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02035641432057619</v>
+        <v>0.01860400229626513</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1319946170570157</v>
+        <v>0.1316706558117637</v>
       </c>
       <c r="L234" t="n">
-        <v>0.04688665319713287</v>
+        <v>0.02835860359690567</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1271133256693655</v>
+        <v>0.1311612954464907</v>
       </c>
       <c r="N234" t="n">
-        <v>0.06596768981430912</v>
+        <v>0.00979250920491824</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1243804146650208</v>
+        <v>0.1346155107799027</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01531023954722456</v>
+        <v>0.009742215174949526</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1384057103551136</v>
+        <v>0.1354120522638075</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02019941462356044</v>
+        <v>0.01797001380575025</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1327756502940395</v>
+        <v>0.1324497721183422</v>
       </c>
       <c r="L235" t="n">
-        <v>0.04706527343809053</v>
+        <v>0.02740632702819495</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1278654755253972</v>
+        <v>0.1319373977864108</v>
       </c>
       <c r="N235" t="n">
-        <v>0.06627170745176175</v>
+        <v>0.009742215174949526</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1251163934500209</v>
+        <v>0.1354120522638075</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01516209219547401</v>
+        <v>0.009793588937607935</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1392198615924967</v>
+        <v>0.1362085937477123</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02014143441341713</v>
+        <v>0.01784167377285614</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1335566835310632</v>
+        <v>0.1332288884249207</v>
       </c>
       <c r="L236" t="n">
-        <v>0.04705062745565997</v>
+        <v>0.02674855813105775</v>
       </c>
       <c r="M236" t="n">
-        <v>0.128617625381429</v>
+        <v>0.1327135001263308</v>
       </c>
       <c r="N236" t="n">
-        <v>0.06557834606177565</v>
+        <v>0.009793588937607935</v>
       </c>
       <c r="O236" t="n">
-        <v>0.125852372235021</v>
+        <v>0.1362085937477123</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01301533592398293</v>
+        <v>0.009746633095940628</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1400340128298797</v>
+        <v>0.137005135231617</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01988247250553553</v>
+        <v>0.01721928059709729</v>
       </c>
       <c r="K237" t="n">
-        <v>0.134337716768087</v>
+        <v>0.1340080047314992</v>
       </c>
       <c r="L237" t="n">
-        <v>0.04724299193513373</v>
+        <v>0.02588533973526225</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1293697752374607</v>
+        <v>0.1334896024662509</v>
       </c>
       <c r="N237" t="n">
-        <v>0.06588765004642566</v>
+        <v>0.009746633095940628</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1265883510200212</v>
+        <v>0.137005135231617</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01486999491512982</v>
+        <v>0.009801350252994681</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1408481640672627</v>
+        <v>0.1378016767155218</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01982252771530497</v>
+        <v>0.01710313267798827</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1351187500051107</v>
+        <v>0.1347871210380777</v>
       </c>
       <c r="L238" t="n">
-        <v>0.04714264356180448</v>
+        <v>0.02511671467057658</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1301219250934925</v>
+        <v>0.1342657048061709</v>
       </c>
       <c r="N238" t="n">
-        <v>0.065399663807786</v>
+        <v>0.009801350252994681</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1273243298050213</v>
+        <v>0.1378016767155218</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01272609335129309</v>
+        <v>0.009557743011817221</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1416623153046457</v>
+        <v>0.1385982181994265</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01966159885811478</v>
+        <v>0.01679352841504372</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1358997832421345</v>
+        <v>0.1355662373446561</v>
       </c>
       <c r="L239" t="n">
-        <v>0.04734985902096492</v>
+        <v>0.02484272576676899</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1308740749495242</v>
+        <v>0.135041807146091</v>
       </c>
       <c r="N239" t="n">
-        <v>0.06581443174793128</v>
+        <v>0.009557743011817221</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1280603085900214</v>
+        <v>0.1385982181994265</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01458365541485124</v>
+        <v>0.009515813975455346</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1424764665420288</v>
+        <v>0.1393947596833313</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01939968474935423</v>
+        <v>0.01659076620777811</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1366808164791583</v>
+        <v>0.1363453536512346</v>
       </c>
       <c r="L240" t="n">
-        <v>0.0475649149979076</v>
+        <v>0.02436341585360768</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1316262248055559</v>
+        <v>0.1358179094860111</v>
       </c>
       <c r="N240" t="n">
-        <v>0.06553199826893596</v>
+        <v>0.009515813975455346</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1287962873750216</v>
+        <v>0.1393947596833313</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01444270528818273</v>
+        <v>0.009575565746956158</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1432906177794118</v>
+        <v>0.140191301167236</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01943678420441264</v>
+        <v>0.0159951444557061</v>
       </c>
       <c r="K241" t="n">
-        <v>0.137461849716182</v>
+        <v>0.1371244699578131</v>
       </c>
       <c r="L241" t="n">
-        <v>0.04788808817792525</v>
+        <v>0.02367882776086083</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1323783746615877</v>
+        <v>0.1365940118259311</v>
       </c>
       <c r="N241" t="n">
-        <v>0.0653524077728746</v>
+        <v>0.009575565746956158</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1295322661600217</v>
+        <v>0.140191301167236</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01430326715366603</v>
+        <v>0.009537000929366775</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1441047690167948</v>
+        <v>0.1409878426511408</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01907289603867932</v>
+        <v>0.01590696155834223</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1382428829532058</v>
+        <v>0.1379035862643916</v>
       </c>
       <c r="L242" t="n">
-        <v>0.04751965524631049</v>
+        <v>0.02218900431829651</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1331305245176194</v>
+        <v>0.1373701141658512</v>
       </c>
       <c r="N242" t="n">
-        <v>0.06587570466182169</v>
+        <v>0.009537000929366775</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1302682449450218</v>
+        <v>0.1409878426511408</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01216536519367957</v>
+        <v>0.009600122125734294</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1449189202541778</v>
+        <v>0.1417843841350455</v>
       </c>
       <c r="J243" t="n">
-        <v>0.0190080190675436</v>
+        <v>0.01562651591520109</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1390239161902296</v>
+        <v>0.1386827025709701</v>
       </c>
       <c r="L243" t="n">
-        <v>0.04805989288835597</v>
+        <v>0.02149398835568311</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1338826743736512</v>
+        <v>0.1381462165057713</v>
       </c>
       <c r="N243" t="n">
-        <v>0.06570193333785179</v>
+        <v>0.009600122125734294</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1310042237300219</v>
+        <v>0.1417843841350455</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01302902359060186</v>
+        <v>0.009364931939105849</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1457330714915608</v>
+        <v>0.1425809256189503</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01894215210639474</v>
+        <v>0.01535410592579722</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1398049494272533</v>
+        <v>0.1394618188775485</v>
       </c>
       <c r="L244" t="n">
-        <v>0.04780907778935428</v>
+        <v>0.02149382270278882</v>
       </c>
       <c r="M244" t="n">
-        <v>0.134634824229683</v>
+        <v>0.1389223188456913</v>
       </c>
       <c r="N244" t="n">
-        <v>0.06573113820303927</v>
+        <v>0.009364931939105849</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1317402025150221</v>
+        <v>0.1425809256189503</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01189426652681134</v>
+        <v>0.009431432972528506</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1465472227289439</v>
+        <v>0.143377467102855</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01877529397062208</v>
+        <v>0.01499002998964521</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1405859826642771</v>
+        <v>0.140240935184127</v>
       </c>
       <c r="L245" t="n">
-        <v>0.04796748663459813</v>
+        <v>0.02008855018938166</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1353869740857147</v>
+        <v>0.1396984211856114</v>
       </c>
       <c r="N245" t="n">
-        <v>0.0651633636594588</v>
+        <v>0.009431432972528506</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1324761813000222</v>
+        <v>0.143377467102855</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01276111818468647</v>
+        <v>0.009499627829049416</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1473613739663269</v>
+        <v>0.1441740085867598</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01850744347561492</v>
+        <v>0.0151345865062596</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1413670159013008</v>
+        <v>0.1410200514907055</v>
       </c>
       <c r="L246" t="n">
-        <v>0.04843539610938014</v>
+        <v>0.01977821364522991</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1361391239417464</v>
+        <v>0.1404745235255315</v>
       </c>
       <c r="N246" t="n">
-        <v>0.06509865410918486</v>
+        <v>0.009499627829049416</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1332121600850223</v>
+        <v>0.1441740085867598</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01162960274660574</v>
+        <v>0.009369519111715657</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1481755252037099</v>
+        <v>0.1449705500706645</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01843859943676256</v>
+        <v>0.01478807387515504</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1421480491383246</v>
+        <v>0.141799167797284</v>
       </c>
       <c r="L247" t="n">
-        <v>0.04861308289899294</v>
+        <v>0.01876285590010185</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1368912737977782</v>
+        <v>0.1412506258654515</v>
       </c>
       <c r="N247" t="n">
-        <v>0.0653370539542919</v>
+        <v>0.009369519111715657</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1339481388700224</v>
+        <v>0.1449705500706645</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01249974439494758</v>
+        <v>0.009441109423574352</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1489896764410929</v>
+        <v>0.1457670915545693</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01826876066945432</v>
+        <v>0.01425079049584602</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1429290823753483</v>
+        <v>0.1425782841038625</v>
       </c>
       <c r="L248" t="n">
-        <v>0.0486008236887292</v>
+        <v>0.01844251978376543</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1376434236538099</v>
+        <v>0.1420267282053716</v>
       </c>
       <c r="N248" t="n">
-        <v>0.0651786075968544</v>
+        <v>0.009441109423574352</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1346841176550226</v>
+        <v>0.1457670915545693</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01337156731209049</v>
+        <v>0.009314401367672594</v>
       </c>
       <c r="G249" t="n">
-        <v>0.149803827678476</v>
+        <v>0.146563633038474</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01799792598907951</v>
+        <v>0.01412303476784713</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1437101156123721</v>
+        <v>0.143357400410441</v>
       </c>
       <c r="L249" t="n">
-        <v>0.04899889516388159</v>
+        <v>0.01721724812598907</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1383955735098417</v>
+        <v>0.1428028305452917</v>
       </c>
       <c r="N249" t="n">
-        <v>0.06542335943894712</v>
+        <v>0.009314401367672594</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1354200964400227</v>
+        <v>0.146563633038474</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.0112450956804129</v>
+        <v>0.009289397547057508</v>
       </c>
       <c r="G250" t="n">
-        <v>0.150617978915859</v>
+        <v>0.1473601745223788</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01782609421102742</v>
+        <v>0.01390510509067297</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1444911488493959</v>
+        <v>0.1441365167170195</v>
       </c>
       <c r="L250" t="n">
-        <v>0.04920757400974271</v>
+        <v>0.01668708375654093</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1391477233658734</v>
+        <v>0.1435789328852117</v>
       </c>
       <c r="N250" t="n">
-        <v>0.06537135388264426</v>
+        <v>0.009289397547057508</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1361560752250228</v>
+        <v>0.1473601745223788</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01212035368229331</v>
+        <v>0.009166100564776201</v>
       </c>
       <c r="G251" t="n">
-        <v>0.151432130153242</v>
+        <v>0.1481567160062835</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01775326415068738</v>
+        <v>0.0137972998638381</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1452721820864196</v>
+        <v>0.1449156330235979</v>
       </c>
       <c r="L251" t="n">
-        <v>0.0496271369116052</v>
+        <v>0.01625206950518909</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1398998732219052</v>
+        <v>0.1443550352251318</v>
       </c>
       <c r="N251" t="n">
-        <v>0.06522263533002048</v>
+        <v>0.009166100564776201</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1368920540100229</v>
+        <v>0.1481567160062835</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01199736550011014</v>
+        <v>0.009244513023875758</v>
       </c>
       <c r="G252" t="n">
-        <v>0.152246281390625</v>
+        <v>0.1489532574901883</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01737943462344868</v>
+        <v>0.01359991748685707</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1460532153234434</v>
+        <v>0.1456947493301764</v>
       </c>
       <c r="L252" t="n">
-        <v>0.04955786055476175</v>
+        <v>0.01541224820170184</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1406520230779369</v>
+        <v>0.1451311375650518</v>
       </c>
       <c r="N252" t="n">
-        <v>0.06517724818315024</v>
+        <v>0.009244513023875758</v>
       </c>
       <c r="O252" t="n">
-        <v>0.137628032795023</v>
+        <v>0.1489532574901883</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.0128761553162419</v>
+        <v>0.009324637527403319</v>
       </c>
       <c r="G253" t="n">
-        <v>0.153060432628008</v>
+        <v>0.149749798974093</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01740460444470064</v>
+        <v>0.01311325635924449</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1468342485604672</v>
+        <v>0.1464738656367549</v>
       </c>
       <c r="L253" t="n">
-        <v>0.04970002162450493</v>
+        <v>0.01426766267584734</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1414041729339687</v>
+        <v>0.1459072399049719</v>
       </c>
       <c r="N253" t="n">
-        <v>0.06443523684410818</v>
+        <v>0.009324637527403319</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1383640115800231</v>
+        <v>0.149749798974093</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01175674731306704</v>
+        <v>0.009106476678405973</v>
       </c>
       <c r="G254" t="n">
-        <v>0.153874583865391</v>
+        <v>0.1505463404579978</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01722877242983258</v>
+        <v>0.01343761488051493</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1476152817974909</v>
+        <v>0.1472529819433334</v>
       </c>
       <c r="L254" t="n">
-        <v>0.05015389680612747</v>
+        <v>0.01391835575739375</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1421563227900004</v>
+        <v>0.146683342244892</v>
       </c>
       <c r="N254" t="n">
-        <v>0.06519664571496864</v>
+        <v>0.009106476678405973</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1390999903650233</v>
+        <v>0.1505463404579978</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.010639165672964</v>
+        <v>0.00909003307993083</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1546887351027741</v>
+        <v>0.1513428819419025</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01685193739423375</v>
+        <v>0.01317329145018292</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1483963150345147</v>
+        <v>0.1480320982499119</v>
       </c>
       <c r="L255" t="n">
-        <v>0.05021976278492196</v>
+        <v>0.01286437027610937</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1429084726460322</v>
+        <v>0.147459444584812</v>
       </c>
       <c r="N255" t="n">
-        <v>0.06496151919780629</v>
+        <v>0.00909003307993083</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1398359691500234</v>
+        <v>0.1513428819419025</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01052343457831128</v>
+        <v>0.009075309335024997</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1555028863401571</v>
+        <v>0.1521394234258072</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01687409815329352</v>
+        <v>0.01292058446776304</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1491773482715384</v>
+        <v>0.1488112145564904</v>
       </c>
       <c r="L256" t="n">
-        <v>0.05089789624618107</v>
+        <v>0.01220574906176225</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1436606225020639</v>
+        <v>0.1482355469247321</v>
       </c>
       <c r="N256" t="n">
-        <v>0.06432990169469549</v>
+        <v>0.009075309335024997</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1405719479350235</v>
+        <v>0.1521394234258072</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01140957821148732</v>
+        <v>0.009062308046735586</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1563170375775401</v>
+        <v>0.152935964909712</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01669525352240117</v>
+        <v>0.01287979233276992</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1499583815085622</v>
+        <v>0.1495903308630689</v>
       </c>
       <c r="L257" t="n">
-        <v>0.05078857387519745</v>
+        <v>0.01144253494412067</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1444127723580957</v>
+        <v>0.1490116492646522</v>
       </c>
       <c r="N257" t="n">
-        <v>0.06460183760771088</v>
+        <v>0.009062308046735586</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1413079267200237</v>
+        <v>0.152935964909712</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.0112976207548706</v>
+        <v>0.009251031818109691</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1571311888149232</v>
+        <v>0.1537325063936168</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01631540231694599</v>
+        <v>0.01285121344471807</v>
       </c>
       <c r="K258" t="n">
-        <v>0.150739414745586</v>
+        <v>0.1503694471696473</v>
       </c>
       <c r="L258" t="n">
-        <v>0.05129207235726371</v>
+        <v>0.0112747707529528</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1451649222141274</v>
+        <v>0.1497877516045722</v>
       </c>
       <c r="N258" t="n">
-        <v>0.06497737133892689</v>
+        <v>0.009251031818109691</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1420439055050238</v>
+        <v>0.1537325063936168</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01118758639083958</v>
+        <v>0.009041483252194442</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1579453400523062</v>
+        <v>0.1545290478775215</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01623454335231735</v>
+        <v>0.01233514620312204</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1515204479826097</v>
+        <v>0.1511485634762258</v>
       </c>
       <c r="L259" t="n">
-        <v>0.05140866837767255</v>
+        <v>0.009802499318026847</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1459170720701592</v>
+        <v>0.1505638539444923</v>
       </c>
       <c r="N259" t="n">
-        <v>0.06455654729041799</v>
+        <v>0.009041483252194442</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1427798842900239</v>
+        <v>0.1545290478775215</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01107949930177271</v>
+        <v>0.009033664952036932</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1587594912896892</v>
+        <v>0.1553255893614263</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01595267544390448</v>
+        <v>0.01263188900749651</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1523014812196335</v>
+        <v>0.1519276797828043</v>
       </c>
       <c r="L260" t="n">
-        <v>0.05163863862171658</v>
+        <v>0.009625763469110926</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1466692219261909</v>
+        <v>0.1513399562844124</v>
       </c>
       <c r="N260" t="n">
-        <v>0.06483940986425885</v>
+        <v>0.009033664952036932</v>
       </c>
       <c r="O260" t="n">
-        <v>0.143515863075024</v>
+        <v>0.1553255893614263</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.00997338367004847</v>
+        <v>0.009027579520684281</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1595736425270722</v>
+        <v>0.156122130845331</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01596979740709677</v>
+        <v>0.01204174025735597</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1530825144566573</v>
+        <v>0.1527067960893828</v>
       </c>
       <c r="L261" t="n">
-        <v>0.05248225977468843</v>
+        <v>0.00854460603597329</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1474213717822226</v>
+        <v>0.1521160586243324</v>
       </c>
       <c r="N261" t="n">
-        <v>0.06472600346252388</v>
+        <v>0.009027579520684281</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1442518418600241</v>
+        <v>0.156122130845331</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01186926367804533</v>
+        <v>0.009223229561183571</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1603877937644552</v>
+        <v>0.1569186723292358</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01568590805728344</v>
+        <v>0.01216499835221499</v>
       </c>
       <c r="K262" t="n">
-        <v>0.153863547693681</v>
+        <v>0.1534859123959612</v>
       </c>
       <c r="L262" t="n">
-        <v>0.05263980852188074</v>
+        <v>0.007859069848382194</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1481735216382544</v>
+        <v>0.1528921609642525</v>
       </c>
       <c r="N262" t="n">
-        <v>0.06471637248728762</v>
+        <v>0.009223229561183571</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1449878206450243</v>
+        <v>0.1569186723292358</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01176716350814173</v>
+        <v>0.009220617676581944</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1612019450018383</v>
+        <v>0.1577152138131405</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01540100620985388</v>
+        <v>0.01190196169158816</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1546445809307048</v>
+        <v>0.1542650287025397</v>
       </c>
       <c r="L263" t="n">
-        <v>0.05321156154858622</v>
+        <v>0.006869197736105725</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1489256714942861</v>
+        <v>0.1536682633041725</v>
       </c>
       <c r="N263" t="n">
-        <v>0.0650105613406245</v>
+        <v>0.009220617676581944</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1457237994300244</v>
+        <v>0.1577152138131405</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.009667107342716162</v>
+        <v>0.009219746469926487</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1620160962392213</v>
+        <v>0.1585117552970453</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01521509068019733</v>
+        <v>0.01195292867499004</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1554256141677285</v>
+        <v>0.1550441450091182</v>
       </c>
       <c r="L264" t="n">
-        <v>0.05329779554009748</v>
+        <v>0.006075032528912117</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1496778213503179</v>
+        <v>0.1544443656440926</v>
       </c>
       <c r="N264" t="n">
-        <v>0.06480861442460911</v>
+        <v>0.009219746469926487</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1464597782150245</v>
+        <v>0.1585117552970453</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1144.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1144.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8781306565948526</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04390653282974263</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04390653282974263</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.07025045252758821</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.09134391969784558</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.0137209013141928</v>
+        <v>0.04134391969784558</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01523401182023018</v>
+        <v>0.03127870097670677</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001551894844859417</v>
+        <v>0.001411728022882218</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.00079654148390475</v>
+        <v>0.0008206181916839067</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.004242398169300277</v>
+        <v>0.00140378616775827</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007791163065784836</v>
+        <v>0.00079654148390475</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.0075706980376537</v>
+        <v>0.004615168323184399</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007761023399200633</v>
+        <v>0.0007780020827467777</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001551894844859417</v>
+        <v>0.005418165552185161</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.00079654148390475</v>
+        <v>0.0007787189112167329</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002857076290852467</v>
+        <v>0.002806872213030824</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.0015930829678095</v>
+        <v>0.001641236383367813</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.008910711736874993</v>
+        <v>0.002774452288924506</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001558232613156967</v>
+        <v>0.0015930829678095</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01516901265026327</v>
+        <v>0.009029224556993232</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001552204679840127</v>
+        <v>0.001556004165493555</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.002857076290852467</v>
+        <v>0.01161594597326843</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.0015930829678095</v>
+        <v>0.001557437822433466</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004391955569193605</v>
+        <v>0.004185267977602748</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002389624451714251</v>
+        <v>0.00246185457505172</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01295138993947451</v>
+        <v>0.004071049302701017</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002337348919735451</v>
+        <v>0.002389624451714251</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02280754630650889</v>
+        <v>0.01357076230082524</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.00232830701976019</v>
+        <v>0.002334006248240333</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.004391955569193605</v>
+        <v>0.01500000000000001</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002389624451714251</v>
+        <v>0.002126063829787236</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005732943911097341</v>
+        <v>0.005546750723754899</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003186165935619</v>
+        <v>0.003282472766735627</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01671088201384924</v>
+        <v>0.005052628148290078</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003116465226313934</v>
+        <v>0.003186165935619</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.0282989014750703</v>
+        <v>0.01676837515407914</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003104409359680253</v>
+        <v>0.003112008330987111</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.005732943911097341</v>
+        <v>0.01970064628739149</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003186165935619</v>
+        <v>0.003114875644866932</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.006661666666666664</v>
+        <v>0.01754944117204813</v>
       </c>
       <c r="B70" t="n">
-        <v>0.009999999999999995</v>
+        <v>0.02634391969784558</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.007056452547778119</v>
+        <v>0.0068911558586442</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.00398270741952375</v>
+        <v>0.004103090958419534</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01903563719674958</v>
+        <v>0.006078239764894001</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003895581532892418</v>
+        <v>0.00398270741952375</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03255568062462766</v>
+        <v>0.01935065671615371</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003880511699600317</v>
+        <v>0.003890010413733888</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.007056452547778119</v>
+        <v>0.02282440142450787</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.00398270741952375</v>
+        <v>0.003893594556083665</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.008138892710450436</v>
+        <v>0.008218318789427588</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004779248903428501</v>
+        <v>0.00492370915010344</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
+        <v>0.006999999999999999</v>
+      </c>
+      <c r="K71" s="171" t="n">
+        <v>0.004663166666666666</v>
+      </c>
+      <c r="L71" s="172" t="n">
         <v>0.02099999999999999</v>
       </c>
-      <c r="K71" s="171" t="n">
-        <v>0.004527346278317149</v>
-      </c>
-      <c r="L71" s="172" t="n">
-        <v>0.03499999999999998</v>
-      </c>
       <c r="M71" s="170" t="n">
-        <v>0.004527346278317149</v>
+        <v>0.004358099688473518</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.008138892710450436</v>
+        <v>0.0256068175741076</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004779248903428501</v>
+        <v>0.004672313467300397</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.009056675630328762</v>
+        <v>0.009528074923261978</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.00557579038733325</v>
+        <v>0.005744327341787347</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02213370303278431</v>
+        <v>0.007719233180466238</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005453814146049385</v>
+        <v>0.00557579038733325</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03641229786040162</v>
+        <v>0.02295070660731463</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005432716379440443</v>
+        <v>0.005446014579227444</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.009056675630328762</v>
+        <v>0.02915133041152879</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.00557579038733325</v>
+        <v>0.005451032378517131</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.009999999999999995</v>
+        <v>0.01082025966730429</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006661666666666664</v>
+        <v>0.006564945533471253</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02355348634460555</v>
+        <v>0.008372108258384137</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006232930452627869</v>
+        <v>0.006372331871238</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03805038776575886</v>
+        <v>0.02376216351742721</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006208818719360507</v>
+        <v>0.006224016661974222</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.009999999999999995</v>
+        <v>0.03116137561210969</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006661666666666664</v>
+        <v>0.006229751289733863</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01033417426559596</v>
+        <v>0.01209470842871147</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007168873355142751</v>
+        <v>0.007385563725155161</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02469883128281844</v>
+        <v>0.008873702392315039</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007012046759206352</v>
+        <v>0.007168873355142751</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03845206880461799</v>
+        <v>0.02490291290120097</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006984921059280569</v>
+        <v>0.007002018744720999</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.01033417426559596</v>
+        <v>0.03374038885118863</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007168873355142751</v>
+        <v>0.007008470200950596</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01080173282795419</v>
+        <v>0.0133512566146404</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.0079654148390475</v>
+        <v>0.008206181916839068</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.0254240114587356</v>
+        <v>0.00943035983600661</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007791163065784835</v>
+        <v>0.0079654148390475</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03934421878829425</v>
+        <v>0.02553099869205702</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007761023399200633</v>
+        <v>0.007780020827467777</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01080173282795419</v>
+        <v>0.03629180580410374</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.0079654148390475</v>
+        <v>0.007787189112167329</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.0110093347911542</v>
+        <v>0.01458973963224805</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.00876195632295225</v>
+        <v>0.009026800108522975</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02588330048366977</v>
+        <v>0.01004842484320655</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008570279372363319</v>
+        <v>0.00876195632295225</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.04045371552810267</v>
+        <v>0.02640446482341641</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008537125739120697</v>
+        <v>0.008558022910214555</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.0110093347911542</v>
+        <v>0.03861906214619332</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.00876195632295225</v>
+        <v>0.008565908023384061</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01146834865803954</v>
+        <v>0.0158099928886913</v>
       </c>
       <c r="G77" t="n">
+        <v>0.00984741830020688</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.01053424166766256</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.009558497806857002</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.02683097196893364</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009349395678941804</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.04147744129828196</v>
+        <v>0.0275991713062374</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008942035214090236</v>
+        <v>0.009546026973955598</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01146834865803954</v>
+        <v>0.03982559355279552</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009558497806857002</v>
+        <v>0.009344626934600794</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.0116901429314538</v>
+        <v>0.01701185179112711</v>
       </c>
       <c r="G78" t="n">
+        <v>0.01066803649189079</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01089415456312233</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.01035503929076175</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.0275991713062374</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.009916746468089795</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.04226691895982493</v>
+        <v>0.02789858954528451</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01008933041896082</v>
+        <v>0.01011402707570811</v>
       </c>
       <c r="N78" t="n">
-        <v>0.0116901429314538</v>
+        <v>0.04147744129828196</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01035503929076175</v>
+        <v>0.00979818752182228</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01198608611424057</v>
+        <v>0.0181951517467124</v>
       </c>
       <c r="G79" t="n">
+        <v>0.01148865468357469</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.01143450778333354</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.0111515807746665</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.02843480654259883</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01090762829209877</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.04417690077434022</v>
+        <v>0.02902929069004476</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01086543275888089</v>
+        <v>0.01089202915845489</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01198608611424057</v>
+        <v>0.04339225463310775</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0111515807746665</v>
+        <v>0.01090206475703426</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01236754670924338</v>
+        <v>0.01935972816260406</v>
       </c>
       <c r="G80" t="n">
+        <v>0.0123092728752586</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01196164558204389</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01194812225857125</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.02906367277271321</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01168674459867725</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.04511206122109357</v>
+        <v>0.02956986421986851</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01164153509880095</v>
+        <v>0.01167003124120167</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01236754670924338</v>
+        <v>0.04463835975122926</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01194812225857125</v>
+        <v>0.01168078366825099</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01264589321930584</v>
+        <v>0.02050541644595905</v>
       </c>
       <c r="G81" t="n">
+        <v>0.01312989106694251</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.01218191221300109</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.012744663742476</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.03000366405047955</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01246586090525574</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.04636992256651462</v>
+        <v>0.03071888106551152</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01241763743872101</v>
+        <v>0.01244803332394844</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01264589321930584</v>
+        <v>0.04656968492003538</v>
       </c>
       <c r="O81" t="n">
-        <v>0.012744663742476</v>
+        <v>0.01245950257946773</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01283249414727154</v>
+        <v>0.02163205200393427</v>
       </c>
       <c r="G82" t="n">
+        <v>0.01395050925862642</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01280165192995279</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01354120522638075</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.03095322728053726</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01324497721183422</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.04754800707703327</v>
+        <v>0.03147491215772963</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01319373977864107</v>
+        <v>0.01322603540669522</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01283249414727154</v>
+        <v>0.04748510207776258</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01354120522638075</v>
+        <v>0.01323822149068446</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01313871799598401</v>
+        <v>0.02273947024368665</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01477112745031032</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.01302720898664672</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.0143377467102855</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.03171080936752585</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.0140240935184127</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.04814383701907948</v>
+        <v>0.03233652842727863</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01396984211856114</v>
+        <v>0.014004037489442</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01313871799598401</v>
+        <v>0.04898348316264767</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0143377467102855</v>
+        <v>0.01401694040190119</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
+        <v>0.02382750657237312</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.01559174564199423</v>
+      </c>
+      <c r="J84" t="n">
         <v>0.0137209013141928</v>
       </c>
-      <c r="G84" t="n">
+      <c r="K84" t="n">
         <v>0.01523401182023018</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.03247485721608467</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01480320982499119</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.04935493465908308</v>
+        <v>0.0330023008049144</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0147459444584812</v>
+        <v>0.01478203957218878</v>
       </c>
       <c r="N84" t="n">
-        <v>0.0137209013141928</v>
+        <v>0.05106370011292743</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01523401182023018</v>
+        <v>0.01479565931311792</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01384677775046539</v>
+        <v>0.02489599639715059</v>
       </c>
       <c r="G85" t="n">
+        <v>0.01641236383367814</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.01391865900787975</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.015930829678095</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.03334381773085324</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01558232613156967</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.0512788222634738</v>
+        <v>0.03397080022139276</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01552204679840127</v>
+        <v>0.01556004165493555</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01384677775046539</v>
+        <v>0.0527246248668381</v>
       </c>
       <c r="O85" t="n">
-        <v>0.015930829678095</v>
+        <v>0.01557437822433466</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.0143408905791413</v>
+        <v>0.02634391969784558</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01754944117204813</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.0145861399410525</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01672737116199975</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.03441613781647102</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01636144243814816</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.05201302209868158</v>
+        <v>0.0350405976074695</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01629814913832133</v>
+        <v>0.01633804373768233</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0143408905791413</v>
+        <v>0.05396512936261666</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01672737116199975</v>
+        <v>0.01635309713555139</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01475614412201967</v>
+        <v>0.02697121612983051</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01805360021704595</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.01496577049169476</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.0175239126459045</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.03519026437757741</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01714055874472664</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.05335505643113636</v>
+        <v>0.03581026389390046</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01707425147824139</v>
+        <v>0.01711604582042911</v>
       </c>
       <c r="N87" t="n">
-        <v>0.01475614412201967</v>
+        <v>0.05508408553849964</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0175239126459045</v>
+        <v>0.01713181604676812</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01519055468290216</v>
+        <v>0.02796698115431928</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01887421840872985</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.01545598110414524</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01832045412980925</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.03626464431881182</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01791967505130512</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.05480244752726782</v>
+        <v>0.03647837001144144</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01785035381816146</v>
+        <v>0.01789404790317588</v>
       </c>
       <c r="N88" t="n">
-        <v>0.01519055468290216</v>
+        <v>0.05658036533272359</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01832045412980925</v>
+        <v>0.01791053495798486</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01574213856559037</v>
+        <v>0.02893416873699238</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01969483660041376</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.01595520222274265</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.019116995613714</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.03713772454481382</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01869879135788361</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.05605271765350589</v>
+        <v>0.03734348689084829</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01862645615808152</v>
+        <v>0.01867204998592266</v>
       </c>
       <c r="N89" t="n">
-        <v>0.01574213856559037</v>
+        <v>0.05795284068352535</v>
       </c>
       <c r="O89" t="n">
-        <v>0.019116995613714</v>
+        <v>0.01868925386920159</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01600891207388591</v>
+        <v>0.02987592963984777</v>
       </c>
       <c r="G90" t="n">
+        <v>0.02051545479209767</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.01646186429182564</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.01991353709761875</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.03810795196022274</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01947790766446209</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.05710338907628043</v>
+        <v>0.03820418546287682</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01940255849800158</v>
+        <v>0.01945005206866944</v>
       </c>
       <c r="N90" t="n">
-        <v>0.01600891207388591</v>
+        <v>0.05950038352914144</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01991353709761875</v>
+        <v>0.01946797278041832</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01658889151159047</v>
+        <v>0.03079541462488337</v>
       </c>
       <c r="G91" t="n">
+        <v>0.02133607298378157</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.01697439775573291</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.0207100785815235</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.03847377346967812</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02025702397104057</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.05805198406202128</v>
+        <v>0.03895903665828279</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02017866083792165</v>
+        <v>0.02022805415141622</v>
       </c>
       <c r="N91" t="n">
-        <v>0.01658889151159047</v>
+        <v>0.06062186580780837</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0207100785815235</v>
+        <v>0.02024669169163506</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01698009318250562</v>
+        <v>0.03169577445409716</v>
       </c>
       <c r="G92" t="n">
+        <v>0.02215669117546548</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.01759123305880318</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02150662006542825</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.03933363597781936</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02103614027761905</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.05959602487715826</v>
+        <v>0.04020661140782214</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02095476317784171</v>
+        <v>0.021006056234163</v>
       </c>
       <c r="N92" t="n">
-        <v>0.01698009318250562</v>
+        <v>0.06211615945776305</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02150662006542825</v>
+        <v>0.02102541060285179</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01768053339043303</v>
+        <v>0.03258015988948706</v>
       </c>
       <c r="G93" t="n">
+        <v>0.02297730936714939</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.01811080064537512</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.022303161549333</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.04058598638928593</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02181525658419754</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.06063303378812129</v>
+        <v>0.04104548064225064</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02173086551776177</v>
+        <v>0.02178405831690977</v>
       </c>
       <c r="N93" t="n">
-        <v>0.01768053339043303</v>
+        <v>0.062882136417242</v>
       </c>
       <c r="O93" t="n">
-        <v>0.022303161549333</v>
+        <v>0.02180412951406852</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.01818822843917429</v>
+        <v>0.03345172169305102</v>
       </c>
       <c r="G94" t="n">
+        <v>0.0237979275588333</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.01853153095978739</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02309970303323775</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.04142927160871729</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02259437289077602</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.06196053306134014</v>
+        <v>0.04137421529232407</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02250696785768183</v>
+        <v>0.02256206039965655</v>
       </c>
       <c r="N94" t="n">
-        <v>0.01818822843917429</v>
+        <v>0.06421866862448183</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02309970303323775</v>
+        <v>0.02258284842528525</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.01870119463253103</v>
+        <v>0.03431361062678698</v>
       </c>
       <c r="G95" t="n">
+        <v>0.0246185457505172</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.01905185444637873</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.0238962445171425</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.04196193854075275</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02337348919735451</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.06287604496324467</v>
+        <v>0.04219138628879832</v>
       </c>
       <c r="M95" t="n">
-        <v>0.0232830701976019</v>
+        <v>0.02334006248240333</v>
       </c>
       <c r="N95" t="n">
-        <v>0.01870119463253103</v>
+        <v>0.06572462801771906</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0238962445171425</v>
+        <v>0.02336156733650199</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.01901744827430489</v>
+        <v>0.03516897745269289</v>
       </c>
       <c r="G96" t="n">
+        <v>0.02543916394220111</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.0195702015494878</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02469278600104725</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.04308243409003198</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02415260550393299</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.06407709176026471</v>
+        <v>0.04339556456242913</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02405917253752196</v>
+        <v>0.02411806456515011</v>
       </c>
       <c r="N96" t="n">
-        <v>0.01901744827430489</v>
+        <v>0.06719888653519063</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02469278600104725</v>
+        <v>0.02414028624771872</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.01953500566829748</v>
+        <v>0.0360209729327667</v>
       </c>
       <c r="G97" t="n">
+        <v>0.02625978213388501</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.02008500271345329</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.025489327484952</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.0435892051611943</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02493172181051147</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.06526119571883032</v>
+        <v>0.04388532104397239</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02483527487744203</v>
+        <v>0.02489606664789689</v>
       </c>
       <c r="N97" t="n">
-        <v>0.01953500566829748</v>
+        <v>0.06774031611513304</v>
       </c>
       <c r="O97" t="n">
-        <v>0.025489327484952</v>
+        <v>0.02491900515893545</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02025188311831046</v>
+        <v>0.03687274782900635</v>
       </c>
       <c r="G98" t="n">
+        <v>0.02708040032556892</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.02059468838261391</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02628586896885675</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.04438069865887914</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02571083811708996</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.0671258791053711</v>
+        <v>0.04455922666418388</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02561137721736209</v>
+        <v>0.02567406873064366</v>
       </c>
       <c r="N98" t="n">
-        <v>0.02025188311831046</v>
+        <v>0.0692477886957828</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02628586896885675</v>
+        <v>0.02569772407015218</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02066609692814542</v>
+        <v>0.03772745290340977</v>
       </c>
       <c r="G99" t="n">
+        <v>0.02790101851725283</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.0210976890013083</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.0270824104527615</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.04535536148772604</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02648995442366844</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.06806866418631696</v>
+        <v>0.04571585235381947</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02638747955728215</v>
+        <v>0.02645207081339044</v>
       </c>
       <c r="N99" t="n">
-        <v>0.02066609692814542</v>
+        <v>0.07032017621537673</v>
       </c>
       <c r="O99" t="n">
-        <v>0.0270824104527615</v>
+        <v>0.02647644298136892</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02117566340160401</v>
+        <v>0.03858823891797492</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02872163670893673</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.02169243501387522</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02787895193666625</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.04581164055237438</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02726907073024692</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.06908707322809782</v>
+        <v>0.04615376904363494</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02716358189720221</v>
+        <v>0.02723007289613722</v>
       </c>
       <c r="N100" t="n">
-        <v>0.02117566340160401</v>
+        <v>0.0708563506121514</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02787895193666625</v>
+        <v>0.02725516189258565</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02177859884248784</v>
+        <v>0.03945825663469973</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02954225490062064</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.0220773568646533</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.028675493420571</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.0468479827574636</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02804818703682541</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.0702786284971435</v>
+        <v>0.04717154766438617</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02793968423712228</v>
+        <v>0.028008074978884</v>
       </c>
       <c r="N101" t="n">
-        <v>0.02177859884248784</v>
+        <v>0.07235518382434336</v>
       </c>
       <c r="O101" t="n">
-        <v>0.028675493420571</v>
+        <v>0.02803388080380238</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02227291955459855</v>
+        <v>0.04034065681558216</v>
       </c>
       <c r="G102" t="n">
+        <v>0.03036287309230455</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.02245088499798127</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02947203490447576</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.04736283500763322</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02882730334340389</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.07114085225988381</v>
+        <v>0.04796775914682885</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02871578657704234</v>
+        <v>0.02878607706163077</v>
       </c>
       <c r="N102" t="n">
-        <v>0.02227291955459855</v>
+        <v>0.07301554779018943</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02947203490447576</v>
+        <v>0.02881259971501911</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02255664184173775</v>
+        <v>0.04134391969784558</v>
       </c>
       <c r="G103" t="n">
+        <v>0.03127870097670677</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.02301144985819779</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.0302685763883805</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.04805464420752262</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02960641964998238</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.07237126678274863</v>
+        <v>0.04844097442171894</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02949188891696241</v>
+        <v>0.02956407914437756</v>
       </c>
       <c r="N103" t="n">
-        <v>0.02255664184173775</v>
+        <v>0.07403631444792613</v>
       </c>
       <c r="O103" t="n">
-        <v>0.0302685763883805</v>
+        <v>0.02959131862623585</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02302778200770708</v>
+        <v>0.04218057056719257</v>
       </c>
       <c r="G104" t="n">
+        <v>0.03200410947567236</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.02335748188964157</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03106511787228525</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.04892185726177128</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03038553595656086</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.07356739433216786</v>
+        <v>0.04878976441981223</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03026799125688247</v>
+        <v>0.03034208122712433</v>
       </c>
       <c r="N104" t="n">
-        <v>0.02302778200770708</v>
+        <v>0.0753163557357901</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03106511787228525</v>
+        <v>0.03037003753745258</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02368435635630818</v>
+        <v>0.0431951211949395</v>
       </c>
       <c r="G105" t="n">
+        <v>0.03282472766735627</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.02378741153665129</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03186165935619</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.04966292107501863</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03116465226313934</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.07392675717457131</v>
+        <v>0.0496127000718645</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03104409359680253</v>
+        <v>0.03112008330987111</v>
       </c>
       <c r="N105" t="n">
-        <v>0.02368435635630818</v>
+        <v>0.07565454359201806</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03186165935619</v>
+        <v>0.03114875644866932</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02392438119134264</v>
+        <v>0.04426265052652693</v>
       </c>
       <c r="G106" t="n">
+        <v>0.03364534585904017</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.02429966924356564</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03265820084009476</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.05017628255190409</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03194376856971783</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.07484687757638875</v>
+        <v>0.05030835230863154</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0318201959367226</v>
+        <v>0.03189808539261788</v>
       </c>
       <c r="N106" t="n">
-        <v>0.02392438119134264</v>
+        <v>0.07674974995484662</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03265820084009476</v>
+        <v>0.03192747535988605</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.0244458728166121</v>
+        <v>0.04536307794785498</v>
       </c>
       <c r="G107" t="n">
+        <v>0.03446596405072409</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.0245926854547233</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.0334547423239995</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.05076038859706719</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03272288487629631</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.07602527780405011</v>
+        <v>0.05077529206086928</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03259629827664266</v>
+        <v>0.03267608747536466</v>
       </c>
       <c r="N107" t="n">
-        <v>0.0244458728166121</v>
+        <v>0.07720084676251232</v>
       </c>
       <c r="O107" t="n">
-        <v>0.0334547423239995</v>
+        <v>0.03270619427110278</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02474684753591821</v>
+        <v>0.04647632284482368</v>
       </c>
       <c r="G108" t="n">
+        <v>0.03528658224240799</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.025164890614463</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03425128380790426</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.05141368611514735</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.0335020011828748</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.0772594801239852</v>
+        <v>0.05161209025933347</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03337240061656272</v>
+        <v>0.03345408955811145</v>
       </c>
       <c r="N108" t="n">
-        <v>0.02474684753591821</v>
+        <v>0.07760670595325192</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03425128380790426</v>
+        <v>0.03348491318231952</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02532532165306256</v>
+        <v>0.04758230460333315</v>
       </c>
       <c r="G109" t="n">
+        <v>0.0361072004340919</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.02531471516712339</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.035047825291809</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.05203462201078396</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03428111748945328</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.07804700680262405</v>
+        <v>0.05161731783477999</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03414850295648279</v>
+        <v>0.03423209164085822</v>
       </c>
       <c r="N109" t="n">
-        <v>0.02532532165306256</v>
+        <v>0.078266199465302</v>
       </c>
       <c r="O109" t="n">
-        <v>0.035047825291809</v>
+        <v>0.03426363209353624</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02557931147184681</v>
+        <v>0.04866094260928344</v>
       </c>
       <c r="G110" t="n">
+        <v>0.0369278186257758</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.02574058955704317</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03584436677571375</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.05212164318861651</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03506023379603176</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.07858538010639621</v>
+        <v>0.05218954571796458</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03492460529640285</v>
+        <v>0.03501009372360499</v>
       </c>
       <c r="N110" t="n">
-        <v>0.02557931147184681</v>
+        <v>0.0789781992368993</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03584436677571375</v>
+        <v>0.03504235100475298</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02600683329607256</v>
+        <v>0.04969215624857459</v>
       </c>
       <c r="G111" t="n">
+        <v>0.03774843681745971</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.02604094422856101</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.0366409082596185</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.05277319655328447</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03583935010261025</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.07907212230173172</v>
+        <v>0.0528273448396431</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03570070763632292</v>
+        <v>0.03578809580635177</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02600683329607256</v>
+        <v>0.07954157720628036</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0366409082596185</v>
+        <v>0.03582106991596971</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02610590342954146</v>
+        <v>0.05065586490710675</v>
       </c>
       <c r="G112" t="n">
+        <v>0.03856905500914361</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.02631420962601563</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03743744974352325</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.05298772900942725</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03661846640918873</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.07970475565506041</v>
+        <v>0.05302928613057137</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03647680997624297</v>
+        <v>0.03656609788909855</v>
       </c>
       <c r="N112" t="n">
-        <v>0.02610590342954146</v>
+        <v>0.08025520531168179</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03743744974352325</v>
+        <v>0.03659978882718645</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02657453817605512</v>
+        <v>0.0515319879707799</v>
       </c>
       <c r="G113" t="n">
+        <v>0.03938967320082752</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.02665881619374572</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03823399122742801</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.05336368746168432</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03739758271576721</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.08008080243281218</v>
+        <v>0.05359394052150518</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03725291231616304</v>
+        <v>0.03734409997184533</v>
       </c>
       <c r="N113" t="n">
-        <v>0.02657453817605512</v>
+        <v>0.08111795549134032</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03823399122742801</v>
+        <v>0.03737850773840318</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02671075383941518</v>
+        <v>0.05230044482549415</v>
       </c>
       <c r="G114" t="n">
+        <v>0.04021029139251143</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.02677319437608994</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03903053271133276</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.05369951881469517</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.0381766990223457</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.08119778490141666</v>
+        <v>0.05411987894320044</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0380290146560831</v>
+        <v>0.03812210205459211</v>
       </c>
       <c r="N114" t="n">
-        <v>0.02671075383941518</v>
+        <v>0.0812286996834925</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03903053271133276</v>
+        <v>0.03815722664961991</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02691256672342324</v>
+        <v>0.05294115485714958</v>
       </c>
       <c r="G115" t="n">
+        <v>0.04103090958419534</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.02705577461738701</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.0398270741952375</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.05409366997309917</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03895581532892418</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.08085322532730393</v>
+        <v>0.05410567232641292</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03880511699600317</v>
+        <v>0.03890010413733889</v>
       </c>
       <c r="N115" t="n">
-        <v>0.02691256672342324</v>
+        <v>0.08138630982637501</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0398270741952375</v>
+        <v>0.03893594556083665</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02717799313188096</v>
+        <v>0.05343403745164627</v>
       </c>
       <c r="G116" t="n">
+        <v>0.04185152777587924</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.02720498736197559</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.04062361567914225</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.0542445878415358</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.03973493163550266</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.08144464597690387</v>
+        <v>0.05444989160189845</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03958121933592323</v>
+        <v>0.03967810622008566</v>
       </c>
       <c r="N116" t="n">
-        <v>0.02717799313188096</v>
+        <v>0.08188965785822455</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04062361567914225</v>
+        <v>0.03971466447205338</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02730504936858993</v>
+        <v>0.05378841595172827</v>
       </c>
       <c r="G117" t="n">
+        <v>0.04267214596756315</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.0273192630541944</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04142015716304701</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.05455071932464453</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04051404794208115</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.08196956911664605</v>
+        <v>0.05455110770041283</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04035732167584329</v>
+        <v>0.04045610830283244</v>
       </c>
       <c r="N117" t="n">
-        <v>0.02730504936858993</v>
+        <v>0.08223761571727772</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04142015716304701</v>
+        <v>0.04049338338327011</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02719175173735182</v>
+        <v>0.05412184983855756</v>
       </c>
       <c r="G118" t="n">
+        <v>0.04349276415924706</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.02729703213838211</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04221669864695175</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.05491051132706473</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04129316424865963</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.08192551701296064</v>
+        <v>0.05480789155271185</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04113342401576336</v>
+        <v>0.04123411038557921</v>
       </c>
       <c r="N118" t="n">
-        <v>0.02719175173735182</v>
+        <v>0.08242905534177114</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04221669864695175</v>
+        <v>0.04127210229448684</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
+        <v>0.05444894822597396</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.04431338235093096</v>
+      </c>
+      <c r="J119" t="n">
         <v>0.02744180262838562</v>
       </c>
-      <c r="G119" t="n">
+      <c r="K119" t="n">
         <v>0.04301324013085651</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.05462241075343596</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.04207228055523811</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.08251001193227719</v>
+        <v>0.0549188140895514</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04190952635568342</v>
+        <v>0.04201211246832599</v>
       </c>
       <c r="N119" t="n">
-        <v>0.02744180262838562</v>
+        <v>0.08246284866994152</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04301324013085651</v>
+        <v>0.04205082120570357</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02724149072560204</v>
+        <v>0.05476967440388064</v>
       </c>
       <c r="G120" t="n">
+        <v>0.04513400054261487</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.02734082100839481</v>
+      </c>
+      <c r="K120" t="n">
         <v>0.04380978161476125</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>0.05519834261247478</v>
       </c>
-      <c r="K120" t="n">
-        <v>0.0428513968618166</v>
-      </c>
-      <c r="L120" t="n">
+      <c r="M120" t="n">
+        <v>0.04279011455107277</v>
+      </c>
+      <c r="N120" t="n">
         <v>0.08295488259656392</v>
       </c>
-      <c r="M120" t="n">
-        <v>0.04268562869560348</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0.02724149072560204</v>
-      </c>
       <c r="O120" t="n">
-        <v>0.04380978161476125</v>
+        <v>0.04282954011692031</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02723898350912245</v>
+        <v>0.05508399166218073</v>
       </c>
       <c r="G121" t="n">
+        <v>0.04595461873429878</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.02743299905858086</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.044606323098666</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.05479685478336976</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04363051316839508</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.08235486199484721</v>
+        <v>0.05469793592687522</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04346173103552355</v>
+        <v>0.04356811663381955</v>
       </c>
       <c r="N121" t="n">
-        <v>0.02723898350912245</v>
+        <v>0.08265288267804066</v>
       </c>
       <c r="O121" t="n">
-        <v>0.044606323098666</v>
+        <v>0.04360825902813704</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02723398514473763</v>
+        <v>0.05539186329077732</v>
       </c>
       <c r="G122" t="n">
+        <v>0.04677523692598268</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.02731758201416298</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04540286458257076</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.0548674678852592</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04440962947497357</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.08254882421815485</v>
+        <v>0.05518366871362052</v>
       </c>
       <c r="M122" t="n">
-        <v>0.0442378333754436</v>
+        <v>0.04434611871656633</v>
       </c>
       <c r="N122" t="n">
-        <v>0.02723398514473763</v>
+        <v>0.08290557032047285</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04540286458257076</v>
+        <v>0.04438697793935378</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02722651974378139</v>
+        <v>0.05569325257957362</v>
       </c>
       <c r="G123" t="n">
+        <v>0.04759585511766659</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.02729482979642546</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.0461994060664755</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.055101932318039</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04518874578155205</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.08293209242528427</v>
+        <v>0.05484949909083139</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04501393571536367</v>
+        <v>0.04512412079931311</v>
       </c>
       <c r="N123" t="n">
-        <v>0.02722651974378139</v>
+        <v>0.08269751060538966</v>
       </c>
       <c r="O123" t="n">
-        <v>0.0461994060664755</v>
+        <v>0.04516569685057051</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02741661141758756</v>
+        <v>0.05598812281847274</v>
       </c>
       <c r="G124" t="n">
+        <v>0.04841647330935049</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.02736500232665257</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04699594755038026</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.05450217712623726</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04596786208813053</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.08250474051274337</v>
+        <v>0.05489609175239613</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04579003805528373</v>
+        <v>0.04590212288205988</v>
       </c>
       <c r="N124" t="n">
-        <v>0.02741661141758756</v>
+        <v>0.08213157412434446</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04699594755038026</v>
+        <v>0.04594441576178724</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02720428427748994</v>
+        <v>0.05627643729737779</v>
       </c>
       <c r="G125" t="n">
+        <v>0.04923709150103441</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.02722835952612854</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04779248903428501</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.05457013135438193</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04674697839470901</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.08206684237704009</v>
+        <v>0.05482411139220314</v>
       </c>
       <c r="M125" t="n">
-        <v>0.0465661403952038</v>
+        <v>0.04668012496480666</v>
       </c>
       <c r="N125" t="n">
-        <v>0.02720428427748994</v>
+        <v>0.08201063146889104</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04779248903428501</v>
+        <v>0.04672313467300397</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02718956243482236</v>
+        <v>0.05655815930619196</v>
       </c>
       <c r="G126" t="n">
+        <v>0.05005770969271831</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.02718516131613767</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04858903051818976</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.05470772404700111</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.0475260947012875</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.08261847191468247</v>
+        <v>0.05493422270414072</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04734224273512386</v>
+        <v>0.04745812704755344</v>
       </c>
       <c r="N126" t="n">
-        <v>0.02718956243482236</v>
+        <v>0.08163755323058303</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04858903051818976</v>
+        <v>0.04750185358422071</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02717247000091862</v>
+        <v>0.05683325213481832</v>
       </c>
       <c r="G127" t="n">
+        <v>0.05087832788440222</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.02723566761796423</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.0493855720020945</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.05411688424862279</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04830521100786598</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.0820597030221783</v>
+        <v>0.05482709038209718</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04811834507504392</v>
+        <v>0.04823612913030022</v>
       </c>
       <c r="N127" t="n">
-        <v>0.02717247000091862</v>
+        <v>0.08111521000097394</v>
       </c>
       <c r="O127" t="n">
-        <v>0.0493855720020945</v>
+        <v>0.04828057249543743</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02735303108711255</v>
+        <v>0.05710167907316006</v>
       </c>
       <c r="G128" t="n">
+        <v>0.05169894607608612</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.02718013835289246</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.05018211348599926</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.05389954100377509</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04908432731444447</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.08249060959603549</v>
+        <v>0.0544033791199609</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04889444741496399</v>
+        <v>0.04901413121304699</v>
       </c>
       <c r="N128" t="n">
-        <v>0.02735303108711255</v>
+        <v>0.08104647237161727</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05018211348599926</v>
+        <v>0.04905929140665417</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02733126980473795</v>
+        <v>0.05736340341112033</v>
       </c>
       <c r="G129" t="n">
+        <v>0.05251956426777003</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.02711883344220663</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.050978654969904</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.05395762335698595</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.04986344362102295</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.08251126553276206</v>
+        <v>0.05456375361162019</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04967054975488405</v>
+        <v>0.04979213329579377</v>
       </c>
       <c r="N129" t="n">
-        <v>0.02733126980473795</v>
+        <v>0.08093421093406683</v>
       </c>
       <c r="O129" t="n">
-        <v>0.050978654969904</v>
+        <v>0.04983801031787091</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02730721026512863</v>
+        <v>0.05761838843860222</v>
       </c>
       <c r="G130" t="n">
+        <v>0.05334018245945393</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.02695201280719098</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05177519645380876</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.05329306035278342</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05064255992760143</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.08242174472886593</v>
+        <v>0.05410887855096341</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05044665209480412</v>
+        <v>0.05057013537854055</v>
       </c>
       <c r="N130" t="n">
-        <v>0.02730721026512863</v>
+        <v>0.08058129627987615</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05177519645380876</v>
+        <v>0.05061672922908764</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02728087657961842</v>
+        <v>0.05786659744550887</v>
       </c>
       <c r="G131" t="n">
+        <v>0.05416080065113784</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.02677993636912983</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.0525717379377135</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.05330778103569556</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05142167623417991</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.08212212108085493</v>
+        <v>0.05413941863187888</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05122275443472418</v>
+        <v>0.05134813746128732</v>
       </c>
       <c r="N131" t="n">
-        <v>0.02728087657961842</v>
+        <v>0.0792905990005987</v>
       </c>
       <c r="O131" t="n">
-        <v>0.0525717379377135</v>
+        <v>0.05139544814030437</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02725229285954113</v>
+        <v>0.05810799372174348</v>
       </c>
       <c r="G132" t="n">
+        <v>0.05498141884282175</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.0268028640493074</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05336827942161825</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.0530037144502504</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.0522007925407584</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.08211246848523707</v>
+        <v>0.05385603854825494</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05199885677464424</v>
+        <v>0.0521261395440341</v>
       </c>
       <c r="N132" t="n">
-        <v>0.02725229285954113</v>
+        <v>0.07936498968778827</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05336827942161825</v>
+        <v>0.0521741670515211</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02722148321623057</v>
+        <v>0.05834254055720914</v>
       </c>
       <c r="G133" t="n">
+        <v>0.05580203703450566</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.02662105576900799</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05416482090552301</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.05278278964097599</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05297990884733688</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.08199286083852025</v>
+        <v>0.05345940299397994</v>
       </c>
       <c r="M133" t="n">
-        <v>0.0527749591145643</v>
+        <v>0.05290414162678088</v>
       </c>
       <c r="N133" t="n">
-        <v>0.02722148321623057</v>
+        <v>0.07830733893299835</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05416482090552301</v>
+        <v>0.05295288596273783</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02718847176102054</v>
+        <v>0.05857020124180895</v>
       </c>
       <c r="G134" t="n">
+        <v>0.05662265522618956</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.02653477144951583</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05496136238942775</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.05224693565240029</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05375902515391537</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.08206337203721237</v>
+        <v>0.0536501766629422</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05355106145448436</v>
+        <v>0.05368214370952765</v>
       </c>
       <c r="N134" t="n">
-        <v>0.02718847176102054</v>
+        <v>0.0783205173277825</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05496136238942775</v>
+        <v>0.05373160487395457</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.0271532826052449</v>
+        <v>0.05879093906544614</v>
       </c>
       <c r="G135" t="n">
+        <v>0.05744327341787347</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.02644427101211522</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05575790387333251</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.05179808152905144</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05453814146049384</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.08172407597782144</v>
+        <v>0.05342902424903007</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05432716379440443</v>
+        <v>0.05446014579227444</v>
       </c>
       <c r="N135" t="n">
-        <v>0.0271532826052449</v>
+        <v>0.07760739546369444</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05575790387333251</v>
+        <v>0.05451032378517131</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02711593986023743</v>
+        <v>0.05900471731802379</v>
       </c>
       <c r="G136" t="n">
+        <v>0.05826389160955738</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.02634981437809038</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05655444535723726</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.0516381563154574</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05531725776707233</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.08177504655685525</v>
+        <v>0.0530966104461319</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05510326613432449</v>
+        <v>0.05523814787502122</v>
       </c>
       <c r="N136" t="n">
-        <v>0.02711593986023743</v>
+        <v>0.07707084393228764</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05655444535723726</v>
+        <v>0.05528904269638803</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02707646763733193</v>
+        <v>0.05921149928944504</v>
       </c>
       <c r="G137" t="n">
+        <v>0.05908450980124129</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.02635166146872561</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05735098684114201</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.05126908905614624</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05609637407365082</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.08111635767082181</v>
+        <v>0.05295359994813598</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05587936847424455</v>
+        <v>0.05601614995776799</v>
       </c>
       <c r="N137" t="n">
-        <v>0.02707646763733193</v>
+        <v>0.07641373332511581</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05735098684114201</v>
+        <v>0.05606776160760477</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02693489004786226</v>
+        <v>0.05941124826961301</v>
       </c>
       <c r="G138" t="n">
+        <v>0.05990512799292519</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.02635007220530515</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05814752832504676</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.05089280879564601</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.0568754903802293</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.08094808321622904</v>
+        <v>0.05230065744893064</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05665547081416462</v>
+        <v>0.05679415204051477</v>
       </c>
       <c r="N138" t="n">
-        <v>0.02693489004786226</v>
+        <v>0.07573893423373251</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05814752832504676</v>
+        <v>0.0568464805188215</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02679123120316219</v>
+        <v>0.0596039275484309</v>
       </c>
       <c r="G139" t="n">
+        <v>0.0607257461846091</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.02624530650911329</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05894406980895151</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.05051124457848469</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05765460668680779</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.08077029708958489</v>
+        <v>0.05203844764240431</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05743157315408468</v>
+        <v>0.05757215412326155</v>
       </c>
       <c r="N139" t="n">
-        <v>0.02679123120316219</v>
+        <v>0.07464931724969132</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05894406980895151</v>
+        <v>0.05762519943003823</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02694551521456556</v>
+        <v>0.05978950041580179</v>
       </c>
       <c r="G140" t="n">
+        <v>0.061546364376293</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.02613762430143426</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05974061129285626</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.04982632544919033</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05843372299338626</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.0806830731873972</v>
+        <v>0.05206763522244531</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05820767549400475</v>
+        <v>0.05835015620600832</v>
       </c>
       <c r="N140" t="n">
-        <v>0.02694551521456556</v>
+        <v>0.07404775296454585</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05974061129285626</v>
+        <v>0.05840391834125497</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02669776619340619</v>
+        <v>0.05996793016162885</v>
       </c>
       <c r="G141" t="n">
+        <v>0.06236698256797692</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.02602728550355238</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.060537152776761</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.04973998045229097</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05921283929996475</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.08058648540617402</v>
+        <v>0.05168888488294185</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05898377783392481</v>
+        <v>0.05912815828875511</v>
       </c>
       <c r="N141" t="n">
-        <v>0.02669776619340619</v>
+        <v>0.07373711196984967</v>
       </c>
       <c r="O141" t="n">
-        <v>0.060537152776761</v>
+        <v>0.0591826372524717</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02674800825101788</v>
+        <v>0.06013918007581522</v>
       </c>
       <c r="G142" t="n">
+        <v>0.06318760075966082</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.02571455003675185</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.06133369426066575</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.04905413863231467</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.05999195560654324</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.08018060764242319</v>
+        <v>0.0512028613177824</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05975988017384487</v>
+        <v>0.05990616037150188</v>
       </c>
       <c r="N142" t="n">
-        <v>0.02674800825101788</v>
+        <v>0.07262026485715645</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06133369426066575</v>
+        <v>0.05996135616368844</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02659626549873444</v>
+        <v>0.06030321344826399</v>
       </c>
       <c r="G143" t="n">
+        <v>0.06400821895134472</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.02559967782231698</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.0621302357445705</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.04897072903378946</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06077107191312172</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.08026551379265268</v>
+        <v>0.05101022922085524</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06053598251376494</v>
+        <v>0.06068416245424866</v>
       </c>
       <c r="N143" t="n">
-        <v>0.02659626549873444</v>
+        <v>0.07150008221801973</v>
       </c>
       <c r="O143" t="n">
-        <v>0.0621302357445705</v>
+        <v>0.06074007507490516</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.0267425620478897</v>
+        <v>0.06045999356887836</v>
       </c>
       <c r="G144" t="n">
+        <v>0.06482883714302863</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.02558292878153202</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06292677722847526</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.04849168070124332</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06155018821970021</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.08024127775337031</v>
+        <v>0.05061165328604872</v>
       </c>
       <c r="M144" t="n">
-        <v>0.061312084853685</v>
+        <v>0.06146216453699543</v>
       </c>
       <c r="N144" t="n">
-        <v>0.0267425620478897</v>
+        <v>0.07107943464399319</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06292677722847526</v>
+        <v>0.0615187939861219</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02668692200981745</v>
+        <v>0.06060948372756143</v>
       </c>
       <c r="G145" t="n">
+        <v>0.06564945533471254</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.02536456283568124</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06372331871238</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.04831892267920435</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06232930452627868</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.07960797342108411</v>
+        <v>0.05050779820725121</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06208818719360507</v>
+        <v>0.06224016661974222</v>
       </c>
       <c r="N145" t="n">
-        <v>0.02668692200981745</v>
+        <v>0.07036119272663033</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06372331871238</v>
+        <v>0.06229751289733863</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02642936949585152</v>
+        <v>0.06075164721421636</v>
       </c>
       <c r="G146" t="n">
+        <v>0.06647007352639644</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.02544483990604889</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06451986019628475</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.04775438401220056</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06310842083285717</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.07956567469230202</v>
+        <v>0.05029932867835099</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06286428953352513</v>
+        <v>0.063018168702489</v>
       </c>
       <c r="N146" t="n">
-        <v>0.02642936949585152</v>
+        <v>0.06994822705748482</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06451986019628475</v>
+        <v>0.06307623180855536</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02646992861732574</v>
+        <v>0.06088644731874626</v>
       </c>
       <c r="G147" t="n">
+        <v>0.06729069171808034</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.02532401991391925</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06531640168018951</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.04749999374475997</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06388753713943565</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.07871445546353184</v>
+        <v>0.04968690939323639</v>
       </c>
       <c r="M147" t="n">
-        <v>0.0636403918734452</v>
+        <v>0.06379617078523576</v>
       </c>
       <c r="N147" t="n">
-        <v>0.02646992861732574</v>
+        <v>0.06894340822811024</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06531640168018951</v>
+        <v>0.0638549507197721</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.0263086234855739</v>
+        <v>0.06101384733105431</v>
       </c>
       <c r="G148" t="n">
+        <v>0.06811130990976426</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.02510236278057655</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06611294316409426</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.04735768092141063</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06466665344601413</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.0789543896312816</v>
+        <v>0.04927120504579582</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06441649421336526</v>
+        <v>0.06457417286798255</v>
       </c>
       <c r="N148" t="n">
-        <v>0.0263086234855739</v>
+        <v>0.06814960683006011</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06611294316409426</v>
+        <v>0.06463366963098884</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02644547821192983</v>
+        <v>0.06113381054104361</v>
       </c>
       <c r="G149" t="n">
+        <v>0.06893192810144817</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.02488012842730511</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.06690948464799901</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.04652937458668055</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06544576975259263</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.07848555109205924</v>
+        <v>0.04935288032991758</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06519259655328531</v>
+        <v>0.06535217495072933</v>
       </c>
       <c r="N149" t="n">
-        <v>0.02644547821192983</v>
+        <v>0.06766969345488816</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06690948464799901</v>
+        <v>0.06541238854220556</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02628051690772734</v>
+        <v>0.0612463002386173</v>
       </c>
       <c r="G150" t="n">
+        <v>0.06975254629313206</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.02475757677538916</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06770602613190375</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.0464170037850978</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.0662248860591711</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.07790801374237266</v>
+        <v>0.04903259993948997</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06596869889320538</v>
+        <v>0.0661301770334761</v>
       </c>
       <c r="N150" t="n">
-        <v>0.02628051690772734</v>
+        <v>0.06710653869414784</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06770602613190375</v>
+        <v>0.0661911074534223</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02611376368430023</v>
+        <v>0.06135127971367854</v>
       </c>
       <c r="G151" t="n">
+        <v>0.07057316448481597</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.02483496774611296</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06850256761580852</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.04632249756119042</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06700400236574959</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.07792185147872976</v>
+        <v>0.04871102856840137</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06674480123312544</v>
+        <v>0.06690817911622289</v>
       </c>
       <c r="N151" t="n">
-        <v>0.02611376368430023</v>
+        <v>0.06676301313939292</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06850256761580852</v>
+        <v>0.06696982636463904</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02614524265298235</v>
+        <v>0.06144871225613044</v>
       </c>
       <c r="G152" t="n">
+        <v>0.07139378267649989</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.0247125612607608</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06929910909971326</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.04604778495948639</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06778311867232807</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.07732713819763842</v>
+        <v>0.0481888309105401</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06752090357304551</v>
+        <v>0.06768618119896966</v>
       </c>
       <c r="N152" t="n">
-        <v>0.02614524265298235</v>
+        <v>0.06574198738217696</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06929910909971326</v>
+        <v>0.06774854527585576</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02607497792510746</v>
+        <v>0.06153856115587618</v>
       </c>
       <c r="G153" t="n">
+        <v>0.0722144008681838</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.02439061724061692</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.070095650583618</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.0455911492926836</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06856223497890655</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.07752394779560662</v>
+        <v>0.04786667165979452</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06829700591296557</v>
+        <v>0.06846418328171644</v>
       </c>
       <c r="N153" t="n">
-        <v>0.02607497792510746</v>
+        <v>0.06514633201405345</v>
       </c>
       <c r="O153" t="n">
-        <v>0.070095650583618</v>
+        <v>0.06852726418707249</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02590299361200943</v>
+        <v>0.06162078970281887</v>
       </c>
       <c r="G154" t="n">
+        <v>0.07303501905986769</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.02446939560696561</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.07089219206752276</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.04514248653378219</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.06934135128548503</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.07711235416914242</v>
+        <v>0.04744521551005296</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06907310825288564</v>
+        <v>0.06924218536446321</v>
       </c>
       <c r="N154" t="n">
-        <v>0.02590299361200943</v>
+        <v>0.0648789176265761</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07089219206752276</v>
+        <v>0.06930598309828923</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02582931382502204</v>
+        <v>0.06169536118686163</v>
       </c>
       <c r="G155" t="n">
+        <v>0.0738556372515516</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.02434915628109111</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.07168873355142751</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.04540069765617663</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.07012046759206352</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.07699243121475352</v>
+        <v>0.04752512715520371</v>
       </c>
       <c r="M155" t="n">
-        <v>0.0698492105928057</v>
+        <v>0.07002018744720999</v>
       </c>
       <c r="N155" t="n">
-        <v>0.02582931382502204</v>
+        <v>0.06424261481129845</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07168873355142751</v>
+        <v>0.07008470200950596</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02575396267547911</v>
+        <v>0.06176223889790762</v>
       </c>
       <c r="G156" t="n">
+        <v>0.07467625544323551</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.02423015918427769</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07248527503533225</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.04506538033168286</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07089958389864201</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.07606425282894791</v>
+        <v>0.04680707128913517</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07062531293272577</v>
+        <v>0.07079818952995677</v>
       </c>
       <c r="N156" t="n">
-        <v>0.02575396267547911</v>
+        <v>0.06324029415977411</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07248527503533225</v>
+        <v>0.07086342092072269</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02587696427471448</v>
+        <v>0.06182138612586</v>
       </c>
       <c r="G157" t="n">
+        <v>0.07549687363491941</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.02391266423780962</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.073281816519237</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.04443613223211682</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07167870020522049</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.07602789290823353</v>
+        <v>0.04659171260573569</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07140141527264583</v>
+        <v>0.07157619161270354</v>
       </c>
       <c r="N157" t="n">
-        <v>0.02587696427471448</v>
+        <v>0.06287482626355662</v>
       </c>
       <c r="O157" t="n">
-        <v>0.073281816519237</v>
+        <v>0.07164213983193943</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02569834273406192</v>
+        <v>0.06187276616062186</v>
       </c>
       <c r="G158" t="n">
+        <v>0.07631749182660331</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.02379345810462014</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07407835800314176</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.04451255102929449</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07245781651179897</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.07558342534911838</v>
+        <v>0.04647014803673749</v>
       </c>
       <c r="M158" t="n">
-        <v>0.0721775176125659</v>
+        <v>0.07235419369545033</v>
       </c>
       <c r="N158" t="n">
-        <v>0.02569834273406192</v>
+        <v>0.06294026010287962</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07407835800314176</v>
+        <v>0.07242085874315617</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02571812216485529</v>
+        <v>0.06191634229209637</v>
       </c>
       <c r="G159" t="n">
+        <v>0.07713811001828723</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.023867053817093</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07487489948704651</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.04429423439503183</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07323693281837745</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.07573092404811033</v>
+        <v>0.04622704871531358</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07295361995248595</v>
+        <v>0.0731321957781971</v>
       </c>
       <c r="N159" t="n">
-        <v>0.02571812216485529</v>
+        <v>0.06232208856881261</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07487489948704651</v>
+        <v>0.07319957765437289</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02543632667842836</v>
+        <v>0.06195207781018668</v>
       </c>
       <c r="G160" t="n">
+        <v>0.07795872820997114</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.02373376719147909</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07567144097095126</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.04388078000114476</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07401604912495593</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.07527046290171729</v>
+        <v>0.04576323742187929</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07372972229240601</v>
+        <v>0.07391019786094388</v>
       </c>
       <c r="N160" t="n">
-        <v>0.02543632667842836</v>
+        <v>0.06151892550510196</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07567144097095126</v>
+        <v>0.07397829656558963</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02555298038611499</v>
+        <v>0.06197993600479586</v>
       </c>
       <c r="G161" t="n">
+        <v>0.07877934640165504</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.02349400700865406</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07646798245485602</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.0439717855194493</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07479516543153443</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.07450211580644717</v>
+        <v>0.04537980625835977</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07450582463232608</v>
+        <v>0.07468819994369065</v>
       </c>
       <c r="N161" t="n">
-        <v>0.02555298038611499</v>
+        <v>0.06162962557246948</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07646798245485602</v>
+        <v>0.07475701547680635</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02536810739924895</v>
+        <v>0.06199988016582714</v>
       </c>
       <c r="G162" t="n">
+        <v>0.07959996459333896</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.02334818204949357</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07726452393876077</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.04366684862176132</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07557428173811291</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.07422595665880793</v>
+        <v>0.04507784732668013</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07528192697224614</v>
+        <v>0.07546620202643743</v>
       </c>
       <c r="N162" t="n">
-        <v>0.02536810739924895</v>
+        <v>0.06105304343163714</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07726452393876077</v>
+        <v>0.07553573438802308</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02538173182916409</v>
+        <v>0.06201187358318358</v>
       </c>
       <c r="G163" t="n">
+        <v>0.08042058278502286</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.02319670109487322</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07806106542266551</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.04366556697989687</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07635339804469139</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.07424205935530748</v>
+        <v>0.04455845272876563</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07605802931216621</v>
+        <v>0.07624420410918421</v>
       </c>
       <c r="N163" t="n">
-        <v>0.02538173182916409</v>
+        <v>0.06098803374332701</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07806106542266551</v>
+        <v>0.07631445329923982</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.0252938777871942</v>
+        <v>0.06201587954676838</v>
       </c>
       <c r="G164" t="n">
+        <v>0.08124120097670677</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.02303997292566869</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07885760690657025</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.04336753826567186</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07713251435126987</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.07315049779245369</v>
+        <v>0.04422271456654131</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07683413165208627</v>
+        <v>0.07702220619193098</v>
       </c>
       <c r="N164" t="n">
-        <v>0.0252938777871942</v>
+        <v>0.06073345116826095</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07885760690657025</v>
+        <v>0.07709317221045656</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02500456938467312</v>
+        <v>0.06201587954676838</v>
       </c>
       <c r="G165" t="n">
+        <v>0.08124120097670677</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.02297840632275562</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07965414839047501</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.04327236015090224</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07791163065784835</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.07275134586675458</v>
+        <v>0.04377172494193232</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07761023399200634</v>
+        <v>0.07780020827467778</v>
       </c>
       <c r="N165" t="n">
-        <v>0.02500456938467312</v>
+        <v>0.06008815036716092</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07965414839047501</v>
+        <v>0.0778718911216733</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02501383073293464</v>
+        <v>0.0609919516263786</v>
       </c>
       <c r="G166" t="n">
+        <v>0.08124093244824275</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.02261241006700965</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.08045068987437975</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.04257963030740397</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07869074696442684</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.07284467747471812</v>
+        <v>0.04320657595686392</v>
       </c>
       <c r="M166" t="n">
-        <v>0.0783863363319264</v>
+        <v>0.07857821035742454</v>
       </c>
       <c r="N166" t="n">
-        <v>0.02501383073293464</v>
+        <v>0.05935098600074895</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08045068987437975</v>
+        <v>0.07865061003289002</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02502168594331258</v>
+        <v>0.05997934620877411</v>
       </c>
       <c r="G167" t="n">
+        <v>0.08124066391977873</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.02254239293930643</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.0812472313582845</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.04238894640699303</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.07946986327100532</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.0721305665128521</v>
+        <v>0.04262835971326118</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07916243867184647</v>
+        <v>0.07935621244017133</v>
       </c>
       <c r="N167" t="n">
-        <v>0.02502168594331258</v>
+        <v>0.05932081272974699</v>
       </c>
       <c r="O167" t="n">
-        <v>0.0812472313582845</v>
+        <v>0.07942932894410676</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02482815912714076</v>
+        <v>0.0589785678538997</v>
       </c>
       <c r="G168" t="n">
+        <v>0.08124039539131471</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.0223687637205216</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08204377284218926</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.04259990612148537</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.08024897957758381</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.07230908687766446</v>
+        <v>0.04203816831304927</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07993854101176652</v>
+        <v>0.08013421452291811</v>
       </c>
       <c r="N168" t="n">
-        <v>0.02482815912714076</v>
+        <v>0.05929648521487696</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08204377284218926</v>
+        <v>0.0802080478553235</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02463327439575298</v>
+        <v>0.05799012112183052</v>
       </c>
       <c r="G169" t="n">
+        <v>0.08124012686285069</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.02229193119153081</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08284031432609401</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.04231210712269692</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08102809588416229</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.0711803124656632</v>
+        <v>0.04143709385815333</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08071464335168659</v>
+        <v>0.08091221660566487</v>
       </c>
       <c r="N169" t="n">
-        <v>0.02463327439575298</v>
+        <v>0.05897685811686082</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08284031432609401</v>
+        <v>0.08098676676654022</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02463705586048309</v>
+        <v>0.05701451057251085</v>
       </c>
       <c r="G170" t="n">
+        <v>0.08123985833438668</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.02211230413320969</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08363685580999876</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.04192514708244366</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08180721219074077</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.07064431717335617</v>
+        <v>0.04082622845049855</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08149074569160665</v>
+        <v>0.08169021868841166</v>
       </c>
       <c r="N170" t="n">
-        <v>0.02463705586048309</v>
+        <v>0.05866078609642061</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08363685580999876</v>
+        <v>0.08176548567775695</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02463952763266487</v>
+        <v>0.05605224076592867</v>
       </c>
       <c r="G171" t="n">
+        <v>0.08123958980592266</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.0219302913264339</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08443339729390351</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.04213862367254159</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08258632849731926</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.07040117489725145</v>
+        <v>0.04080666419201007</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08226684803152672</v>
+        <v>0.08246822077115842</v>
       </c>
       <c r="N171" t="n">
-        <v>0.02463952763266487</v>
+        <v>0.05844712381427819</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08443339729390351</v>
+        <v>0.08254420458897369</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.0245392153135639</v>
+        <v>0.05510381626203106</v>
       </c>
       <c r="G172" t="n">
+        <v>0.08123932127745864</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.02174630155207909</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08522993877780827</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.04195213456480662</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08336544480389774</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.07045095953385677</v>
+        <v>0.04007949318461304</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08304295037144677</v>
+        <v>0.08324622285390522</v>
       </c>
       <c r="N172" t="n">
-        <v>0.0245392153135639</v>
+        <v>0.05793472593115556</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08522993877780827</v>
+        <v>0.08332292350019041</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02441971315488077</v>
+        <v>0.0541697416208887</v>
       </c>
       <c r="G173" t="n">
+        <v>0.08123905274899462</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.02146074359102089</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08602648026171301</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.04146527743105469</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08414456111047622</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.06929374497968011</v>
+        <v>0.03934580753023256</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08381905271136683</v>
+        <v>0.08402422493665199</v>
       </c>
       <c r="N173" t="n">
-        <v>0.02441971315488077</v>
+        <v>0.05742244710777461</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08602648026171301</v>
+        <v>0.08410164241140715</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02427765072815311</v>
+        <v>0.05325052140244801</v>
       </c>
       <c r="G174" t="n">
+        <v>0.08123878422053062</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.02127402622413495</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08682302174561776</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.0414776499431018</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08492367741705471</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.06912960513122945</v>
+        <v>0.03920669933079388</v>
       </c>
       <c r="M174" t="n">
-        <v>0.0845951550512869</v>
+        <v>0.08480222701939877</v>
       </c>
       <c r="N174" t="n">
-        <v>0.02427765072815311</v>
+        <v>0.05720914200485738</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08682302174561776</v>
+        <v>0.08488036132262389</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02401448180888777</v>
+        <v>0.05234666016669706</v>
       </c>
       <c r="G175" t="n">
+        <v>0.0812385156920666</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.02118655823229693</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08761956322952251</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.04128884977276384</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08570279372363319</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.06839997195080033</v>
+        <v>0.03826326068822206</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08537125739120696</v>
+        <v>0.08558022910214555</v>
       </c>
       <c r="N175" t="n">
-        <v>0.02401448180888777</v>
+        <v>0.05689366528312595</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08761956322952251</v>
+        <v>0.08565908023384061</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02383166017259171</v>
+        <v>0.05145866247358559</v>
       </c>
       <c r="G176" t="n">
+        <v>0.08123824716360258</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.02089874839638244</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08841610471342726</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.04069847459185685</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08648191003021168</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.06816643840319969</v>
+        <v>0.03811658370444235</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08614735973112703</v>
+        <v>0.08635823118489232</v>
       </c>
       <c r="N176" t="n">
-        <v>0.02383166017259171</v>
+        <v>0.05647487160330211</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08841610471342726</v>
+        <v>0.08643779914505735</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02363063959477178</v>
+        <v>0.05058703288317895</v>
       </c>
       <c r="G177" t="n">
+        <v>0.08123797863513856</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.02071100549726716</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.089212646197332</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.04100612207219675</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08726102633679016</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.06724981851954298</v>
+        <v>0.03736776048137982</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08692346207104709</v>
+        <v>0.0871362332676391</v>
       </c>
       <c r="N177" t="n">
-        <v>0.02363063959477178</v>
+        <v>0.05655161562610783</v>
       </c>
       <c r="O177" t="n">
-        <v>0.089212646197332</v>
+        <v>0.08721651805627409</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02351287385093488</v>
+        <v>0.0497322759554262</v>
       </c>
       <c r="G178" t="n">
+        <v>0.08123771010667453</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.02052373831582671</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.09000918768123675</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.04071138988559952</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08804014264336864</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.06557923076361982</v>
+        <v>0.03701788312095966</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08769956441096716</v>
+        <v>0.08791423535038588</v>
       </c>
       <c r="N178" t="n">
-        <v>0.02351287385093488</v>
+        <v>0.05582275201226516</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09000918768123675</v>
+        <v>0.08799523696749083</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02317981671658791</v>
+        <v>0.0488948962503154</v>
       </c>
       <c r="G179" t="n">
+        <v>0.08123744157821053</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.02043735563293678</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.09080572916514151</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.04041387570388105</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08881925894994713</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.06498379359922024</v>
+        <v>0.03596804372510701</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08847566675088721</v>
+        <v>0.08869223743313266</v>
       </c>
       <c r="N179" t="n">
-        <v>0.02317981671658791</v>
+        <v>0.05508713542249599</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09080572916514151</v>
+        <v>0.08877395587870755</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02283292196723775</v>
+        <v>0.04807539832779931</v>
       </c>
       <c r="G180" t="n">
+        <v>0.08123717304974649</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.02005226622947294</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.09160227064904626</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.0399131771988574</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.0895983752565256</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.06309262549013389</v>
+        <v>0.03591933439574704</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08925176909080727</v>
+        <v>0.08947023951587943</v>
       </c>
       <c r="N180" t="n">
-        <v>0.02283292196723775</v>
+        <v>0.05484362051752234</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09160227064904626</v>
+        <v>0.08955267478992428</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02277364337839134</v>
+        <v>0.04727428674793734</v>
       </c>
       <c r="G181" t="n">
+        <v>0.08123690452128249</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.0200688788863109</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09239881213295101</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.03990889204234441</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.0903774915631041</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.06203484490015043</v>
+        <v>0.03507284723480486</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09002787143072734</v>
+        <v>0.09024824159862621</v>
       </c>
       <c r="N181" t="n">
-        <v>0.02277364337839134</v>
+        <v>0.05479106195806605</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09239881213295101</v>
+        <v>0.09033139370114102</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02230343472555552</v>
+        <v>0.04649206607068147</v>
       </c>
       <c r="G182" t="n">
+        <v>0.08123663599281847</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.0198876023843263</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09319535361685576</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.03970061790615817</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09115660786968258</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.06073957029305982</v>
+        <v>0.03432967434420567</v>
       </c>
       <c r="M182" t="n">
-        <v>0.0908039737706474</v>
+        <v>0.09102624368137299</v>
       </c>
       <c r="N182" t="n">
-        <v>0.02230343472555552</v>
+        <v>0.05412831440484928</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09319535361685576</v>
+        <v>0.09111011261235774</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.0221237497842372</v>
+        <v>0.04572924085601973</v>
       </c>
       <c r="G183" t="n">
+        <v>0.08123636746435446</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.01960884550439473</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09399189510076052</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.0397879524621145</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09193572417626106</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.05923592013265172</v>
+        <v>0.0337909078258746</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09158007611056747</v>
+        <v>0.09180424576411976</v>
       </c>
       <c r="N183" t="n">
-        <v>0.0221237497842372</v>
+        <v>0.05395423251859377</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09399189510076052</v>
+        <v>0.09188883152357448</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02183604232994328</v>
+        <v>0.04498631566390832</v>
       </c>
       <c r="G184" t="n">
+        <v>0.08123609893589043</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.01943301702739191</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09478843658466526</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.03927049338202948</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09271484048283955</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.05835301288271594</v>
+        <v>0.03375763978173682</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09235617845048753</v>
+        <v>0.09258224784686654</v>
       </c>
       <c r="N184" t="n">
-        <v>0.02183604232994328</v>
+        <v>0.05346767096002164</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09478843658466526</v>
+        <v>0.09266755043479122</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02164176613818068</v>
+        <v>0.04426379505439991</v>
       </c>
       <c r="G185" t="n">
+        <v>0.08123583040742642</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.01926052573419341</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09558497806857001</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.03934783833771896</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09349395678941802</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.05691996700704205</v>
+        <v>0.03323096231371747</v>
       </c>
       <c r="M185" t="n">
-        <v>0.0931322807904076</v>
+        <v>0.09336024992961332</v>
       </c>
       <c r="N185" t="n">
-        <v>0.02164176613818068</v>
+        <v>0.05336748438985478</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09558497806857001</v>
+        <v>0.09344626934600794</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02124237498445625</v>
+        <v>0.04356218358744983</v>
       </c>
       <c r="G186" t="n">
+        <v>0.0812355618789624</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.01919178040567494</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09638151955247476</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.03871958500099898</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09427307309599652</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.05496590096942006</v>
+        <v>0.03251196752374166</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09390838313032766</v>
+        <v>0.0941382520123601</v>
       </c>
       <c r="N186" t="n">
-        <v>0.02124237498445625</v>
+        <v>0.05325252746881515</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09638151955247476</v>
+        <v>0.09422498825722468</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02093932264427689</v>
+        <v>0.0428819858230461</v>
       </c>
       <c r="G187" t="n">
+        <v>0.08123529335049839</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.01882718982271211</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09717806103637952</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.03888533104368547</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.095052189402575</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.05441993323363975</v>
+        <v>0.03200174751373464</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09468448547024773</v>
+        <v>0.09491625409510687</v>
       </c>
       <c r="N187" t="n">
-        <v>0.02093932264427689</v>
+        <v>0.05262165485762477</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09717806103637952</v>
+        <v>0.09500370716844142</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.0205340628931495</v>
+        <v>0.04222370632114864</v>
       </c>
       <c r="G188" t="n">
+        <v>0.08123502482203436</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.01866716276618058</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09797460252028425</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.03814467413759437</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09583130570915348</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.05321118226349059</v>
+        <v>0.03130139438562149</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09546058781016779</v>
+        <v>0.09569425617785365</v>
       </c>
       <c r="N188" t="n">
-        <v>0.0205340628931495</v>
+        <v>0.0519737212170055</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09797460252028425</v>
+        <v>0.09578242607965815</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02042804950658102</v>
+        <v>0.04158784964180276</v>
       </c>
       <c r="G189" t="n">
+        <v>0.08123475629357035</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.01861210801695598</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.098771144004189</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.03809721195454166</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09661042201573196</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.05196870585314473</v>
+        <v>0.03071200024132742</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09623669015008784</v>
+        <v>0.09647225826060044</v>
       </c>
       <c r="N189" t="n">
-        <v>0.02042804950658102</v>
+        <v>0.05130758120767948</v>
       </c>
       <c r="O189" t="n">
-        <v>0.098771144004189</v>
+        <v>0.09656114499087487</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02012273626007827</v>
+        <v>0.04097286005834933</v>
       </c>
       <c r="G190" t="n">
+        <v>0.08123448776510633</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.01846243435591395</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09956768548809376</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.03774254216634329</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09738953832231044</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.05152944683122623</v>
+        <v>0.03033465718277747</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09701279249000791</v>
+        <v>0.0972502603433472</v>
       </c>
       <c r="N190" t="n">
-        <v>0.02012273626007827</v>
+        <v>0.05062208949036834</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09956768548809376</v>
+        <v>0.09733986390209161</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.01981957692914819</v>
+        <v>0.04036688041106919</v>
       </c>
       <c r="G191" t="n">
+        <v>0.08123421923664231</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.01841855056393016</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.1003642269719985</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.03778026244481525</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09816865462888894</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.05101875717924964</v>
+        <v>0.03027045731189693</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09778889482992797</v>
+        <v>0.09802826242609398</v>
       </c>
       <c r="N191" t="n">
-        <v>0.01981957692914819</v>
+        <v>0.05071610072579441</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1003642269719985</v>
+        <v>0.09811858281330835</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.01952002528929768</v>
+        <v>0.03976835497330673</v>
       </c>
       <c r="G192" t="n">
+        <v>0.08123395070817829</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.01808086542188025</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.1011607684559033</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.03730997046177342</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.0989477709354674</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.05013521123710002</v>
+        <v>0.02932049273061088</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09856499716984804</v>
+        <v>0.09880626450884077</v>
       </c>
       <c r="N192" t="n">
-        <v>0.01952002528929768</v>
+        <v>0.04978846957467953</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1011607684559033</v>
+        <v>0.09889730172452507</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.01912552201121709</v>
+        <v>0.03917778830510216</v>
       </c>
       <c r="G193" t="n">
+        <v>0.08123368217971427</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.01814710398198281</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.101957309939808</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.0370312638890338</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.0997268872420459</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.04987738334466213</v>
+        <v>0.02897369020949445</v>
       </c>
       <c r="M193" t="n">
-        <v>0.0993410995097681</v>
+        <v>0.09958426659158755</v>
       </c>
       <c r="N193" t="n">
-        <v>0.01912552201121709</v>
+        <v>0.04901734060184998</v>
       </c>
       <c r="O193" t="n">
-        <v>0.101957309939808</v>
+        <v>0.09967602063574181</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.01881677777520047</v>
+        <v>0.03859568496641731</v>
       </c>
       <c r="G194" t="n">
+        <v>0.08123341365125027</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.01781405420137837</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1027538514237128</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.03694374039841236</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.1005060035486244</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.04864384784182085</v>
+        <v>0.02871594416668727</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1001172018496882</v>
+        <v>0.1003622686743343</v>
       </c>
       <c r="N194" t="n">
-        <v>0.01881677777520047</v>
+        <v>0.04897899169876235</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1027538514237128</v>
+        <v>0.1004547395469585</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.01857804963002394</v>
+        <v>0.0380225495172402</v>
       </c>
       <c r="G195" t="n">
+        <v>0.08123314512278625</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.01788174683696199</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1035503929076175</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.03674699766172504</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1012851198552029</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.04843317906846106</v>
+        <v>0.02824832966095084</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1008933041896082</v>
+        <v>0.1011402707570811</v>
       </c>
       <c r="N195" t="n">
-        <v>0.01857804963002394</v>
+        <v>0.04787705927439612</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1035503929076175</v>
+        <v>0.1012334584581753</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01821308784555097</v>
+        <v>0.0374588865175346</v>
       </c>
       <c r="G196" t="n">
+        <v>0.08123287659432223</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.01765022369496959</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1043469343915223</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.03644063335078782</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1020642361617814</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.04774395136446768</v>
+        <v>0.02787196814194953</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1016694065295283</v>
+        <v>0.1019182728398279</v>
       </c>
       <c r="N196" t="n">
-        <v>0.01821308784555097</v>
+        <v>0.04721525337289889</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1043469343915223</v>
+        <v>0.102012177369392</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01772564269164513</v>
+        <v>0.03690520052733759</v>
       </c>
       <c r="G197" t="n">
+        <v>0.08123260806585821</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.01741952658163709</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.105143475875427</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.03602424513741664</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1028433524683598</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.04687473906972567</v>
+        <v>0.02748798105934741</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1024455088694484</v>
+        <v>0.1026962749225746</v>
       </c>
       <c r="N197" t="n">
-        <v>0.01772564269164513</v>
+        <v>0.04659728403841829</v>
       </c>
       <c r="O197" t="n">
-        <v>0.105143475875427</v>
+        <v>0.1027908962806087</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.01741946443816988</v>
+        <v>0.03636199610661249</v>
       </c>
       <c r="G198" t="n">
+        <v>0.0812323395373942</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.0172896973032004</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1059400173593318</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.03579743069342745</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1036224687749383</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.04642411652411971</v>
+        <v>0.0265974898628088</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1032216112093684</v>
+        <v>0.1034742770053214</v>
       </c>
       <c r="N198" t="n">
-        <v>0.01741946443816988</v>
+        <v>0.04532686131510189</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1059400173593318</v>
+        <v>0.1035696151918255</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01699830335498877</v>
+        <v>0.03582977781534735</v>
       </c>
       <c r="G199" t="n">
+        <v>0.08123207100893018</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.01716077766589548</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1067365588432365</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.03545978769063624</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1044015850815168</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.0456906580675347</v>
+        <v>0.02600161600199791</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1039977135492885</v>
+        <v>0.1042522790880682</v>
       </c>
       <c r="N199" t="n">
-        <v>0.01699830335498877</v>
+        <v>0.04470769524709717</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1067365588432365</v>
+        <v>0.1043483341030422</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01646590971196524</v>
+        <v>0.0353090502135078</v>
       </c>
       <c r="G200" t="n">
+        <v>0.08123180248046616</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.01713280947595822</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1075331003271413</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.03460619887643665</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1051807013880953</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.04597293803985564</v>
+        <v>0.02580148092657902</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1047738158892085</v>
+        <v>0.105030281170815</v>
       </c>
       <c r="N200" t="n">
-        <v>0.01646590971196524</v>
+        <v>0.04414349587855171</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1075331003271413</v>
+        <v>0.1051270530142589</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01612603377896289</v>
+        <v>0.03480031786112725</v>
       </c>
       <c r="G201" t="n">
+        <v>0.08123153395200214</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.01710583453962454</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.108329641811046</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.03429592544800403</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1059598176946738</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.04546953078096738</v>
+        <v>0.02539820608621632</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1055499182291286</v>
+        <v>0.1058082832535618</v>
       </c>
       <c r="N201" t="n">
-        <v>0.01612603377896289</v>
+        <v>0.04233797325361321</v>
       </c>
       <c r="O201" t="n">
-        <v>0.108329641811046</v>
+        <v>0.1059057719254757</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01548242582584514</v>
+        <v>0.03430408531817082</v>
       </c>
       <c r="G202" t="n">
+        <v>0.08123126542353813</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.01677989466313039</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1091261832949508</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.03372560232148386</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1067389340012522</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.04457901063075476</v>
+        <v>0.02459291293057403</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1063260205690487</v>
+        <v>0.1065862853363085</v>
       </c>
       <c r="N202" t="n">
-        <v>0.01548242582584514</v>
+        <v>0.04149483741642923</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1091261832949508</v>
+        <v>0.1066844908366924</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01513883612247556</v>
+        <v>0.03382085714462654</v>
       </c>
       <c r="G203" t="n">
+        <v>0.08123099689507411</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.01685503165271167</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1099227247788555</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.03370263075760935</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1075180503078307</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.04409995192910271</v>
+        <v>0.02438672290931643</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1071021229089687</v>
+        <v>0.1073642874190553</v>
       </c>
       <c r="N203" t="n">
-        <v>0.01513883612247556</v>
+        <v>0.04101779841114717</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1099227247788555</v>
+        <v>0.1074632097479091</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01479901493871763</v>
+        <v>0.03335113790046233</v>
       </c>
       <c r="G204" t="n">
+        <v>0.08123072836661009</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.01653128731460432</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1107192662627603</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.03313441201711384</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1082971666144092</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.043530929015896</v>
+        <v>0.02398075747210771</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1078782252488888</v>
+        <v>0.1081422895018021</v>
       </c>
       <c r="N204" t="n">
-        <v>0.01479901493871763</v>
+        <v>0.03911056628191478</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1107192662627603</v>
+        <v>0.1082419286591259</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01426671254443485</v>
+        <v>0.03289543214570713</v>
       </c>
       <c r="G205" t="n">
+        <v>0.08123045983814607</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.01640870345504424</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.111515807746665</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.03242834736073061</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1090762829209877</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.04307051623101954</v>
+        <v>0.02307613806861211</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1086543275888089</v>
+        <v>0.1089202915845489</v>
       </c>
       <c r="N205" t="n">
-        <v>0.01426671254443485</v>
+        <v>0.0386768510728796</v>
       </c>
       <c r="O205" t="n">
-        <v>0.111515807746665</v>
+        <v>0.1090206475703426</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01384567920949073</v>
+        <v>0.03245424444032825</v>
       </c>
       <c r="G206" t="n">
+        <v>0.08123019130968205</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.01628732188026735</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1123123492305697</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.03159183804919291</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1098553992275662</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.04231728791435829</v>
+        <v>0.02277398614849394</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1094304299287289</v>
+        <v>0.1096982936672956</v>
       </c>
       <c r="N206" t="n">
-        <v>0.01384567920949073</v>
+        <v>0.0370203628281891</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1123123492305697</v>
+        <v>0.1097993664815593</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01333966520374878</v>
+        <v>0.03202807934431372</v>
       </c>
       <c r="G207" t="n">
+        <v>0.08122992278121804</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.01626718439650961</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1131088907144745</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.03083228534323398</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1106345155341447</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.04266981840579709</v>
+        <v>0.02197542316141732</v>
       </c>
       <c r="M207" t="n">
-        <v>0.110206532268649</v>
+        <v>0.1104762957500424</v>
       </c>
       <c r="N207" t="n">
-        <v>0.01333966520374878</v>
+        <v>0.03604481159199102</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1131088907144745</v>
+        <v>0.1105780853927761</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01305242079707254</v>
+        <v>0.03161744141763409</v>
       </c>
       <c r="G208" t="n">
+        <v>0.08122965425275401</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.01614833281000692</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1139054321983793</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.03025709050358721</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1114136318407232</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.04172668204522079</v>
+        <v>0.02158157055704651</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1109826346085691</v>
+        <v>0.1112542978327892</v>
       </c>
       <c r="N208" t="n">
-        <v>0.01305242079707254</v>
+        <v>0.03525390740843282</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1139054321983793</v>
+        <v>0.1113568043039928</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01268769625932548</v>
+        <v>0.03122283522031315</v>
       </c>
       <c r="G209" t="n">
+        <v>0.08122938572429</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.01593080892699518</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.114701973682284</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.02957365479098581</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1121927481473016</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.04128645317251434</v>
+        <v>0.02139354978504585</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1117587369484891</v>
+        <v>0.112032299915536</v>
       </c>
       <c r="N209" t="n">
-        <v>0.01268769625932548</v>
+        <v>0.03405136032166206</v>
       </c>
       <c r="O209" t="n">
-        <v>0.114701973682284</v>
+        <v>0.1121355232152095</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01234924186037112</v>
+        <v>0.03084476531232073</v>
       </c>
       <c r="G210" t="n">
+        <v>0.08122911719582598</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.01601465455371034</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1154985151661888</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.02868937946616312</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1129718644538801</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.04114770612756258</v>
+        <v>0.02091248229507942</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1125348392884092</v>
+        <v>0.1128103019982828</v>
       </c>
       <c r="N210" t="n">
-        <v>0.01234924186037112</v>
+        <v>0.03264088037582641</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1154985151661888</v>
+        <v>0.1129142421264263</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01214080787007295</v>
+        <v>0.03048373625364485</v>
       </c>
       <c r="G211" t="n">
+        <v>0.08122884866736198</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.01569991149638834</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1162950566500935</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.02831166578985228</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1137509807604586</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.04050901525025025</v>
+        <v>0.02023948953681154</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1133109416283292</v>
+        <v>0.1135883040810295</v>
       </c>
       <c r="N211" t="n">
-        <v>0.01214080787007295</v>
+        <v>0.03162617761507341</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1162950566500935</v>
+        <v>0.113692961037643</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.0118661445582945</v>
+        <v>0.03014025260425905</v>
       </c>
       <c r="G212" t="n">
+        <v>0.08122858013889794</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.01578662156126506</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1170915981339983</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.0275479150227867</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1145300970670371</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.04046895488046243</v>
+        <v>0.02007569295990644</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1140870439682493</v>
+        <v>0.1143663061637763</v>
       </c>
       <c r="N212" t="n">
-        <v>0.0118661445582945</v>
+        <v>0.02961096208355052</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1170915981339983</v>
+        <v>0.1144716799488597</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01162900219489928</v>
+        <v>0.02981481892418127</v>
       </c>
       <c r="G213" t="n">
+        <v>0.08122831161043394</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.01557482655457645</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.117888139617903</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.0269055284256996</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1153092133736156</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.0398260993580839</v>
+        <v>0.01942221401402827</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1148631463081694</v>
+        <v>0.1151443082465231</v>
       </c>
       <c r="N213" t="n">
-        <v>0.01162900219489928</v>
+        <v>0.02849894382540547</v>
       </c>
       <c r="O213" t="n">
-        <v>0.117888139617903</v>
+        <v>0.1152503988600765</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01123313104975078</v>
+        <v>0.02950793977338419</v>
       </c>
       <c r="G214" t="n">
+        <v>0.08122804308196992</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.01536456828255843</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1186846811018078</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.02619190725932427</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1160883296801941</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.0388790230229995</v>
+        <v>0.01868017414884143</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1156392486480894</v>
+        <v>0.1159223103292699</v>
       </c>
       <c r="N214" t="n">
-        <v>0.01123313104975078</v>
+        <v>0.02739383288478581</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1186846811018078</v>
+        <v>0.1160291177712932</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.0110822813927125</v>
+        <v>0.02950793977338417</v>
       </c>
       <c r="G215" t="n">
+        <v>0.08122804308196992</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.01545588855144692</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1194812225857125</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.02591445278439405</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1168674459867725</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.03842630021509419</v>
+        <v>0.01835069481401</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1164153509880095</v>
+        <v>0.1167003124120166</v>
       </c>
       <c r="N215" t="n">
-        <v>0.0110822813927125</v>
+        <v>0.02659933930583902</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1194812225857125</v>
+        <v>0.1168078366825099</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01108002680989586</v>
+        <v>0.02876201813742547</v>
       </c>
       <c r="G216" t="n">
+        <v>0.08109231997744171</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.01524882916747781</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1202777640696173</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.02518056626164211</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.117646562293351</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.03836650527425278</v>
+        <v>0.01833489745919831</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1171914533279296</v>
+        <v>0.1174783144947634</v>
       </c>
       <c r="N216" t="n">
-        <v>0.01108002680989586</v>
+        <v>0.02481917313271276</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1202777640696173</v>
+        <v>0.1175865555937267</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01090015763369379</v>
+        <v>0.02802405428303154</v>
       </c>
       <c r="G217" t="n">
+        <v>0.0809565968729135</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.0152434319368871</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.121074305553522</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.02449764895180179</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1184256785999295</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.03779821254036025</v>
+        <v>0.01743390353407051</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1179675556678496</v>
+        <v>0.1182563165775102</v>
       </c>
       <c r="N217" t="n">
-        <v>0.01090015763369379</v>
+        <v>0.02425704440955462</v>
       </c>
       <c r="O217" t="n">
-        <v>0.121074305553522</v>
+        <v>0.1183652745049434</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01092190939527093</v>
+        <v>0.02729435956695571</v>
       </c>
       <c r="G218" t="n">
+        <v>0.08082087376838527</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.01513973866591063</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1218708470374268</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.02417310211560636</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.119204794906508</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.03771999635330148</v>
+        <v>0.01704883448829095</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1187436580077697</v>
+        <v>0.119034318660257</v>
       </c>
       <c r="N218" t="n">
-        <v>0.01092190939527093</v>
+        <v>0.02311666318051209</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1218708470374268</v>
+        <v>0.1191439934161601</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.0108452846976744</v>
+        <v>0.02657324534595162</v>
       </c>
       <c r="G219" t="n">
+        <v>0.08068515066385708</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.01503779116078437</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1226673885213315</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.02408873289856411</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1199839112130865</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.03713043105296115</v>
+        <v>0.01708081177152371</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1195197603476897</v>
+        <v>0.1198123207430038</v>
       </c>
       <c r="N219" t="n">
-        <v>0.0108452846976744</v>
+        <v>0.02200173948973277</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1226673885213315</v>
+        <v>0.1199227123273769</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01077028614395129</v>
+        <v>0.02586102297677256</v>
       </c>
       <c r="G220" t="n">
+        <v>0.08054942755932885</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.01473763122774421</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1234639300052363</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.02330582548548721</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1207630275196649</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.0367280909792243</v>
+        <v>0.01653095683343317</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1202958626876098</v>
+        <v>0.1205903228257506</v>
       </c>
       <c r="N220" t="n">
-        <v>0.01077028614395129</v>
+        <v>0.0209159833813643</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1234639300052363</v>
+        <v>0.1207014312385936</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01079691633714873</v>
+        <v>0.02515800381617216</v>
       </c>
       <c r="G221" t="n">
+        <v>0.08041370445480066</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.01463930067302611</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.124260471489141</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.0232240905373125</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1215421438262434</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.03561155047197578</v>
+        <v>0.01610039112368347</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1210719650275299</v>
+        <v>0.1213683249084973</v>
       </c>
       <c r="N221" t="n">
-        <v>0.01079691633714873</v>
+        <v>0.01926310489955413</v>
       </c>
       <c r="O221" t="n">
-        <v>0.124260471489141</v>
+        <v>0.1214801501498103</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.0105251778803138</v>
+        <v>0.02446449922090373</v>
       </c>
       <c r="G222" t="n">
+        <v>0.08027798135027243</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.014542841302866</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1250570129730458</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.02274382645355447</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1223212601328219</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.03557938387110049</v>
+        <v>0.01569023609193887</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1218480673674499</v>
+        <v>0.1221463269912441</v>
       </c>
       <c r="N222" t="n">
-        <v>0.0105251778803138</v>
+        <v>0.01854681408844999</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1250570129730458</v>
+        <v>0.1222588690610271</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01055507337649363</v>
+        <v>0.02378082054772089</v>
       </c>
       <c r="G223" t="n">
+        <v>0.08014225824574424</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.01454829492349975</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1258535544569505</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.02226533163372768</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1231003764394004</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.03473016551648322</v>
+        <v>0.01580161318786363</v>
       </c>
       <c r="M223" t="n">
-        <v>0.12262416970737</v>
+        <v>0.1229243290739909</v>
       </c>
       <c r="N223" t="n">
-        <v>0.01055507337649363</v>
+        <v>0.01727082099219934</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1258535544569505</v>
+        <v>0.1230375879722438</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01038660542873533</v>
+        <v>0.02310727915337694</v>
       </c>
       <c r="G224" t="n">
+        <v>0.08000653514121601</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.01455570334116331</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1266500959408553</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.02218890447734681</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1238794927459789</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.03396246974800893</v>
+        <v>0.01523564386112189</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1234002720472901</v>
+        <v>0.1237023311567376</v>
       </c>
       <c r="N224" t="n">
-        <v>0.01038660542873533</v>
+        <v>0.01633883565494981</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1266500959408553</v>
+        <v>0.1238163068834605</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01031977664008598</v>
+        <v>0.02244418639462548</v>
       </c>
       <c r="G225" t="n">
+        <v>0.0798708120366878</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.01436510836209262</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.12744663742476</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.02191484338392632</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1246586090525574</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.03327487102435778</v>
+        <v>0.01539344956137803</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1241763743872101</v>
+        <v>0.1244803332394844</v>
       </c>
       <c r="N225" t="n">
-        <v>0.01031977664008598</v>
+        <v>0.01545456812084889</v>
       </c>
       <c r="O225" t="n">
-        <v>0.12744663742476</v>
+        <v>0.1245950257946773</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01045458961359271</v>
+        <v>0.02179185362821998</v>
       </c>
       <c r="G226" t="n">
+        <v>0.0797350889321596</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.01437655179252356</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1282431789086648</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.02124344675298079</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1254377253591359</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.03307395275105418</v>
+        <v>0.01497615173829617</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1249524767271302</v>
+        <v>0.1252583353222312</v>
       </c>
       <c r="N226" t="n">
-        <v>0.01045458961359271</v>
+        <v>0.01542172843404438</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1282431789086648</v>
+        <v>0.125373744705894</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01019104695230262</v>
+        <v>0.0211505922109138</v>
       </c>
       <c r="G227" t="n">
+        <v>0.07959936582763139</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.0140900754386921</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1290397203925695</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.02067501298402485</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1262168416657143</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.03226715668141039</v>
+        <v>0.01498487184154063</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1257285790670503</v>
+        <v>0.126036337404978</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01019104695230262</v>
+        <v>0.01454402663868354</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1290397203925695</v>
+        <v>0.1261524636171107</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01012915125926284</v>
+        <v>0.0205207134994605</v>
       </c>
       <c r="G228" t="n">
+        <v>0.07946364272310318</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.01400572110683412</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1298362618764743</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.02070984047657309</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1269959579722928</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.03145452564519463</v>
+        <v>0.01482073132077552</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1265046814069703</v>
+        <v>0.1268143394877248</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01012915125926284</v>
+        <v>0.01352517277891413</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1298362618764743</v>
+        <v>0.1269311825283275</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01006890513752044</v>
+        <v>0.0199025288506135</v>
       </c>
       <c r="G229" t="n">
+        <v>0.07932791961857495</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.01402353060318559</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.130632803360379</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.02014822763013999</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1277750742788713</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.03113610247217491</v>
+        <v>0.01428485162566517</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1272807837468904</v>
+        <v>0.1275923415704715</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01006890513752044</v>
+        <v>0.01286887689888372</v>
       </c>
       <c r="O229" t="n">
-        <v>0.130632803360379</v>
+        <v>0.1277099014395442</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01021031119012256</v>
+        <v>0.01929634962112632</v>
       </c>
       <c r="G230" t="n">
+        <v>0.07919219651404676</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.01384353636181021</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1314293448442838</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.01969047284424016</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1285541905854498</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.03091192999211961</v>
+        <v>0.01447814457845811</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1280568860868105</v>
+        <v>0.1283703436532183</v>
       </c>
       <c r="N230" t="n">
-        <v>0.01021031119012256</v>
+        <v>0.01247851567179648</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1314293448442838</v>
+        <v>0.1284886203507609</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01005337202011628</v>
+        <v>0.01870248716775234</v>
       </c>
       <c r="G231" t="n">
+        <v>0.07905647340951853</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.01386482785604821</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1322258863281885</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.01923687451838818</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1293333068920283</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.02978205103479686</v>
+        <v>0.01398400889694068</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1288329884267305</v>
+        <v>0.1291483457359651</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01005337202011628</v>
+        <v>0.01181774876546982</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1322258863281885</v>
+        <v>0.1292673392619777</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.009998090230548734</v>
+        <v>0.01812125284724511</v>
       </c>
       <c r="G232" t="n">
+        <v>0.07892075030499034</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.01368680570005393</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1330224278120933</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.01908773105209863</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1301124231986067</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.02914650842997479</v>
+        <v>0.01389148117927866</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1296090907666506</v>
+        <v>0.1299263478187119</v>
       </c>
       <c r="N232" t="n">
-        <v>0.009998090230548734</v>
+        <v>0.0113605260896591</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1330224278120933</v>
+        <v>0.1300460581731944</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.009944468424467022</v>
+        <v>0.01755295801635803</v>
       </c>
       <c r="G233" t="n">
+        <v>0.07878502720046211</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.01380950218135021</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.133818969295998</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.0187433408448861</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1308915395051853</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.0289053450074217</v>
+        <v>0.01380063540384127</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1303851931065706</v>
+        <v>0.1307043499014587</v>
       </c>
       <c r="N233" t="n">
-        <v>0.009944468424467022</v>
+        <v>0.01040745191833592</v>
       </c>
       <c r="O233" t="n">
-        <v>0.133818969295998</v>
+        <v>0.1308247770844111</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.00979250920491824</v>
+        <v>0.01699791403184459</v>
       </c>
       <c r="G234" t="n">
+        <v>0.0786493040959339</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.01373294958745995</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1346155107799027</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.01860400229626513</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1316706558117637</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.02835860359690567</v>
+        <v>0.0139115455489979</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1311612954464907</v>
+        <v>0.1314823519842054</v>
       </c>
       <c r="N234" t="n">
-        <v>0.00979250920491824</v>
+        <v>0.009759130525472337</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1346155107799027</v>
+        <v>0.1316034959956279</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.009742215174949526</v>
+        <v>0.01645643225045832</v>
       </c>
       <c r="G235" t="n">
+        <v>0.07851358099140569</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.01355718020590599</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1354120522638075</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.01797001380575025</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1324497721183422</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.02740632702819495</v>
+        <v>0.0138242855931178</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1319373977864108</v>
+        <v>0.1322603540669522</v>
       </c>
       <c r="N235" t="n">
-        <v>0.009742215174949526</v>
+        <v>0.009916166185039987</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1354120522638075</v>
+        <v>0.1323822149068446</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.009793588937607935</v>
+        <v>0.01592882402895258</v>
       </c>
       <c r="G236" t="n">
+        <v>0.07837785788687748</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.01348222632421124</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1362085937477123</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.01784167377285614</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1332288884249207</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.02674855813105775</v>
+        <v>0.01353892951457025</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1327135001263308</v>
+        <v>0.133038356149699</v>
       </c>
       <c r="N236" t="n">
-        <v>0.009793588937607935</v>
+        <v>0.008679163171010862</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1362085937477123</v>
+        <v>0.1331609338180613</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.009746633095940628</v>
+        <v>0.01541540072408093</v>
       </c>
       <c r="G237" t="n">
+        <v>0.07824213478234927</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.01340812022989854</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.137005135231617</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.01721928059709729</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1340080047314992</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.02588533973526225</v>
+        <v>0.01365555129172469</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1334896024662509</v>
+        <v>0.1338163582324458</v>
       </c>
       <c r="N237" t="n">
-        <v>0.009746633095940628</v>
+        <v>0.008048725757356712</v>
       </c>
       <c r="O237" t="n">
-        <v>0.137005135231617</v>
+        <v>0.1339396527292781</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.009801350252994681</v>
+        <v>0.01491647369259676</v>
       </c>
       <c r="G238" t="n">
+        <v>0.07810641167782106</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.01333489421049075</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1378016767155218</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.01710313267798827</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1347871210380777</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.02511671467057658</v>
+        <v>0.01367422490295037</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1342657048061709</v>
+        <v>0.1345943603151925</v>
       </c>
       <c r="N238" t="n">
-        <v>0.009801350252994681</v>
+        <v>0.007825458218049475</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1378016767155218</v>
+        <v>0.1347183716404948</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.009557743011817221</v>
+        <v>0.01443235429125362</v>
       </c>
       <c r="G239" t="n">
+        <v>0.07797068857329285</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.01326258055351077</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1385982181994265</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.01679352841504372</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1355662373446561</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.02484272576676899</v>
+        <v>0.01379502432661656</v>
       </c>
       <c r="M239" t="n">
-        <v>0.135041807146091</v>
+        <v>0.1353723623979393</v>
       </c>
       <c r="N239" t="n">
-        <v>0.009557743011817221</v>
+        <v>0.007109964827060888</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1385982181994265</v>
+        <v>0.1354970905517115</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.009515813975455346</v>
+        <v>0.01396208250339489</v>
       </c>
       <c r="G240" t="n">
+        <v>0.07783496546876463</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.01319121154648148</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1393947596833313</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.01659076620777811</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1363453536512346</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.02436341585360768</v>
+        <v>0.01361802354109265</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1358179094860111</v>
+        <v>0.1361503644806861</v>
       </c>
       <c r="N240" t="n">
-        <v>0.009515813975455346</v>
+        <v>0.007002849858362692</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1393947596833313</v>
+        <v>0.1362758094629282</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.009575565746956158</v>
+        <v>0.01349834144531419</v>
       </c>
       <c r="G241" t="n">
+        <v>0.07769924236423643</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.01322081947692573</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.140191301167236</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.0159951444557061</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1371244699578131</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.02367882776086083</v>
+        <v>0.01354329652474789</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1365940118259311</v>
+        <v>0.1369283665634329</v>
       </c>
       <c r="N241" t="n">
-        <v>0.009575565746956158</v>
+        <v>0.006604717585926956</v>
       </c>
       <c r="O241" t="n">
-        <v>0.140191301167236</v>
+        <v>0.137054528374145</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.009537000929366775</v>
+        <v>0.01304017110035492</v>
       </c>
       <c r="G242" t="n">
+        <v>0.07756351925970821</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.01295143663236638</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1409878426511408</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.01590696155834223</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1379035862643916</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.02218900431829651</v>
+        <v>0.01347091725595165</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1373701141658512</v>
+        <v>0.1377063686461797</v>
       </c>
       <c r="N242" t="n">
-        <v>0.009537000929366775</v>
+        <v>0.005816172283725385</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1409878426511408</v>
+        <v>0.1378332472853617</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.009600122125734294</v>
+        <v>0.01258788282527063</v>
       </c>
       <c r="G243" t="n">
+        <v>0.07742779615518001</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.01288309530032632</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1417843841350455</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.01562651591520109</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1386827025709701</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.02149398835568311</v>
+        <v>0.01330095971307316</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1381462165057713</v>
+        <v>0.1384843707289264</v>
       </c>
       <c r="N243" t="n">
-        <v>0.009600122125734294</v>
+        <v>0.00553781822572974</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1417843841350455</v>
+        <v>0.1386119661965785</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.009364931939105849</v>
+        <v>0.0121417879768147</v>
       </c>
       <c r="G244" t="n">
+        <v>0.07729207305065179</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.01301582776832844</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1425809256189503</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.01535410592579722</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1394618188775485</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.02149382270278882</v>
+        <v>0.01343349787448181</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1389223188456913</v>
+        <v>0.1392623728116732</v>
       </c>
       <c r="N244" t="n">
-        <v>0.009364931939105849</v>
+        <v>0.004670259685912059</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1425809256189503</v>
+        <v>0.1393906851077952</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.009431432972528506</v>
+        <v>0.01170219791174065</v>
       </c>
       <c r="G245" t="n">
+        <v>0.07715634994612358</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.01294966632389556</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.143377467102855</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.01499002998964521</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.140240935184127</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.02008855018938166</v>
+        <v>0.0130686057185469</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1396984211856114</v>
+        <v>0.14004037489442</v>
       </c>
       <c r="N245" t="n">
-        <v>0.009431432972528506</v>
+        <v>0.004814100938244026</v>
       </c>
       <c r="O245" t="n">
-        <v>0.143377467102855</v>
+        <v>0.1401694040190119</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.009499627829049416</v>
+        <v>0.01126942398680197</v>
       </c>
       <c r="G246" t="n">
+        <v>0.07702062684159537</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.01278464325455059</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1441740085867598</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.0151345865062596</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1410200514907055</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.01977821364522991</v>
+        <v>0.01280635722363774</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1404745235255315</v>
+        <v>0.1408183769771668</v>
       </c>
       <c r="N246" t="n">
-        <v>0.009499627829049416</v>
+        <v>0.003869946256697454</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1441740085867598</v>
+        <v>0.1409481229302287</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.009369519111715657</v>
+        <v>0.01084377755875205</v>
       </c>
       <c r="G247" t="n">
+        <v>0.07688490373706716</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.01262079084781639</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1449705500706645</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.01478807387515504</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.141799167797284</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.01876285590010185</v>
+        <v>0.0127468263681236</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1412506258654515</v>
+        <v>0.1415963790599135</v>
       </c>
       <c r="N247" t="n">
-        <v>0.009369519111715657</v>
+        <v>0.003538399915244239</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1449705500706645</v>
+        <v>0.1417268418414454</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.009441109423574352</v>
+        <v>0.01042556998434444</v>
       </c>
       <c r="G248" t="n">
+        <v>0.07674918063253895</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.01275814139121585</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1457670915545693</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.01425079049584602</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1425782841038625</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.01844251978376543</v>
+        <v>0.01289008713037387</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1420267282053716</v>
+        <v>0.1423743811426603</v>
       </c>
       <c r="N248" t="n">
-        <v>0.009441109423574352</v>
+        <v>0.00292006618785623</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1457670915545693</v>
+        <v>0.1425055607526621</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.009314401367672594</v>
+        <v>0.01001511262033253</v>
       </c>
       <c r="G249" t="n">
+        <v>0.07661345752801074</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.01249672717227181</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.146563633038474</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.01412303476784713</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.143357400410441</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.01721724812598907</v>
+        <v>0.01263621348875785</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1428028305452917</v>
+        <v>0.1431523832254071</v>
       </c>
       <c r="N249" t="n">
-        <v>0.009314401367672594</v>
+        <v>0.002615549348505164</v>
       </c>
       <c r="O249" t="n">
-        <v>0.146563633038474</v>
+        <v>0.1432842796638789</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.009289397547057508</v>
+        <v>0.009612716823469869</v>
       </c>
       <c r="G250" t="n">
+        <v>0.07647773442348253</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.01253658047850717</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1473601745223788</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.01390510509067297</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1441365167170195</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.01668708375654093</v>
+        <v>0.01258527942164472</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1435789328852117</v>
+        <v>0.1439303853081539</v>
       </c>
       <c r="N250" t="n">
-        <v>0.009289397547057508</v>
+        <v>0.002225453671163002</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1473601745223788</v>
+        <v>0.1440629985750956</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.009166100564776201</v>
+        <v>0.009218693950509844</v>
       </c>
       <c r="G251" t="n">
+        <v>0.07634201131895431</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.01257773359744478</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1481567160062835</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.0137972998638381</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1449156330235979</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.01625206950518909</v>
+        <v>0.01283735890740398</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1443550352251318</v>
+        <v>0.1447083873909007</v>
       </c>
       <c r="N251" t="n">
-        <v>0.009166100564776201</v>
+        <v>0.002050383429801517</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1481567160062835</v>
+        <v>0.1448417174863123</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.009244513023875758</v>
+        <v>0.00883335535820598</v>
       </c>
       <c r="G252" t="n">
+        <v>0.07620628821442611</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.01252021881660752</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1489532574901883</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.01359991748685707</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1456947493301764</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.01541224820170184</v>
+        <v>0.01259252592440488</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1451311375650518</v>
+        <v>0.1454863894736474</v>
       </c>
       <c r="N252" t="n">
-        <v>0.009244513023875758</v>
+        <v>0.001490942898392522</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1489532574901883</v>
+        <v>0.1456204363975291</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.009324637527403319</v>
+        <v>0.008457012403311689</v>
       </c>
       <c r="G253" t="n">
+        <v>0.07607056510989789</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.01246406842351826</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.149749798974093</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.01311325635924449</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1464738656367549</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.01426766267584734</v>
+        <v>0.01245085445101671</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1459072399049719</v>
+        <v>0.1462643915563942</v>
       </c>
       <c r="N253" t="n">
-        <v>0.009324637527403319</v>
+        <v>0.00104773635090788</v>
       </c>
       <c r="O253" t="n">
-        <v>0.149749798974093</v>
+        <v>0.1463991553087458</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.009106476678405973</v>
+        <v>0.008089976442580499</v>
       </c>
       <c r="G254" t="n">
+        <v>0.07593484200536969</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.01230931470569988</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1505463404579978</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.01343761488051493</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1472529819433334</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.01391835575739375</v>
+        <v>0.01251241846560877</v>
       </c>
       <c r="M254" t="n">
-        <v>0.146683342244892</v>
+        <v>0.147042393639141</v>
       </c>
       <c r="N254" t="n">
-        <v>0.009106476678405973</v>
+        <v>0.000821368061319383</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1505463404579978</v>
+        <v>0.1471778742199625</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.00909003307993083</v>
+        <v>0.007732558832765822</v>
       </c>
       <c r="G255" t="n">
+        <v>0.07579911890084147</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.01215598995067523</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1513428819419025</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.01317329145018292</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1480320982499119</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.01286437027610937</v>
+        <v>0.01237729194655041</v>
       </c>
       <c r="M255" t="n">
-        <v>0.147459444584812</v>
+        <v>0.1478203957218878</v>
       </c>
       <c r="N255" t="n">
-        <v>0.00909003307993083</v>
+        <v>0.0003124423035988921</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1513428819419025</v>
+        <v>0.1479565931311793</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.009075309335024997</v>
+        <v>0.00738507093062115</v>
       </c>
       <c r="G256" t="n">
+        <v>0.07566339579631326</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.0121041264459672</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1521394234258072</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.01292058446776304</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1488112145564904</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.01220574906176225</v>
+        <v>0.01264554887221092</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1482355469247321</v>
+        <v>0.1485983978046345</v>
       </c>
       <c r="N256" t="n">
-        <v>0.009075309335024997</v>
+        <v>0.0007215633517183573</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1521394234258072</v>
+        <v>0.148735312042396</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.009062308046735586</v>
+        <v>0.007047824092899974</v>
       </c>
       <c r="G257" t="n">
+        <v>0.07552767269178505</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.01225375647909865</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.152935964909712</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.01287979233276992</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1495903308630689</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.01144253494412067</v>
+        <v>0.01281726322095969</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1490116492646522</v>
+        <v>0.1493763998873813</v>
       </c>
       <c r="N257" t="n">
-        <v>0.009062308046735586</v>
+        <v>0.000249335479649393</v>
       </c>
       <c r="O257" t="n">
-        <v>0.152935964909712</v>
+        <v>0.1495140309536127</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.009251031818109691</v>
+        <v>0.006721129676355707</v>
       </c>
       <c r="G258" t="n">
+        <v>0.07539194958725684</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.01200491233759247</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1537325063936168</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.01285121344471807</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1503694471696473</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.0112747707529528</v>
+        <v>0.01279250897116588</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1497877516045722</v>
+        <v>0.1501544019701281</v>
       </c>
       <c r="N258" t="n">
-        <v>0.009251031818109691</v>
+        <v>0.0002963629613640384</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1537325063936168</v>
+        <v>0.1502927498648294</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.009041483252194442</v>
+        <v>0.006405299037741868</v>
       </c>
       <c r="G259" t="n">
+        <v>0.07525622648272863</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.01195762630897151</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1545290478775215</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.01233514620312204</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1511485634762258</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.009802499318026847</v>
+        <v>0.01267136010119896</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1505638539444923</v>
+        <v>0.1509324040528749</v>
       </c>
       <c r="N259" t="n">
-        <v>0.009041483252194442</v>
+        <v>6.32500708339645e-05</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1545290478775215</v>
+        <v>0.1510714687760462</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.009033664952036932</v>
+        <v>0.006100643533811873</v>
       </c>
       <c r="G260" t="n">
+        <v>0.07512050337820042</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.01211193068075866</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1553255893614263</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.01263188900749651</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1519276797828043</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.009625763469110926</v>
+        <v>0.01235389058942812</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1513399562844124</v>
+        <v>0.1517104061356216</v>
       </c>
       <c r="N260" t="n">
-        <v>0.009033664952036932</v>
+        <v>-0.0005493989179689296</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1553255893614263</v>
+        <v>0.1518501876872629</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.009027579520684281</v>
+        <v>0.005807474521319252</v>
       </c>
       <c r="G261" t="n">
+        <v>0.07498478027367221</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.01196785774047677</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.156122130845331</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.01204174025735597</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1527067960893828</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.00854460603597329</v>
+        <v>0.01244017441422279</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1521160586243324</v>
+        <v>0.1524884082183684</v>
       </c>
       <c r="N261" t="n">
-        <v>0.009027579520684281</v>
+        <v>-0.0008409797310728051</v>
       </c>
       <c r="O261" t="n">
-        <v>0.156122130845331</v>
+        <v>0.1526289065984796</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.009223229561183571</v>
+        <v>0.005526103357017392</v>
       </c>
       <c r="G262" t="n">
+        <v>0.07484905716914399</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.01192543977564874</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1569186723292358</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.01216499835221499</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1534859123959612</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.007859069848382194</v>
+        <v>0.01263028555395218</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1528921609642525</v>
+        <v>0.1532664103011152</v>
       </c>
       <c r="N262" t="n">
-        <v>0.009223229561183571</v>
+        <v>-0.0009108880945057629</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1569186723292358</v>
+        <v>0.1534076255096964</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.009220617676581944</v>
+        <v>0.005256841397659841</v>
       </c>
       <c r="G263" t="n">
+        <v>0.07471333406461579</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.0118847090737974</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1577152138131405</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.01190196169158816</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1542650287025397</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.006869197736105725</v>
+        <v>0.01242429798698563</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1536682633041725</v>
+        <v>0.154044412383862</v>
       </c>
       <c r="N263" t="n">
-        <v>0.009220617676581944</v>
+        <v>-0.0006585197342960925</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1577152138131405</v>
+        <v>0.1541863444209131</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.009219746469926487</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.07457761096008757</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.01174569792244567</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1585117552970453</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.01195292867499004</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1550441450091182</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.006075032528912117</v>
+        <v>0.01272228569169248</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1544443656440926</v>
+        <v>0.1548224144666087</v>
       </c>
       <c r="N264" t="n">
-        <v>0.009219746469926487</v>
+        <v>-0.000883270376471873</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1585117552970453</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1549650633321298</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.07456445306535073</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005767807694624101</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.07456472159381473</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006531578684958857</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.07456499012227875</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.00729127034034445</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.07456525865074277</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.008046840030021978</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.07456552717920679</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008798245123331813</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.07456579570767081</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.009545442989581182</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.07456606423613482</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.01028839099810954</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.07456633276459886</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01102704651815943</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.07456660129306286</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01176136691907051</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.07456686982152688</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01249130957015</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.07456713834999089</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01321683184073658</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.07456740687845492</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01393789110007433</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.07456767540691893</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01465444471750214</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.07456794393538295</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01536645006232724</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.07456821246384697</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01607386450388752</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.07456848099231099</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01677664541142864</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.07456874952077501</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01747475015428869</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.07456901804923902</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.0181681361017749</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.07456928657770304</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01885676062322436</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.07456955510616706</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01954058108788434</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.07456982363463108</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.02021955486509212</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.07457009216309508</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.02089363932415497</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.0745703606915591</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.02156279183440905</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.07457062922002312</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.0222269697651034</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.07457089774848714</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02288630456090329</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.07457116627695115</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02354179804308912</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.07457143480541517</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02419358165632518</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.07457170333387919</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02484161276986198</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.07457197186234321</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02548584875303518</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.07457224039080723</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02612624697515202</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.07457250891927124</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.0267627648055473</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.07457277744773527</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02739535961347289</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.07457304597619928</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02802398876826373</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.0745733145046633</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02864860963922709</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.07457358303312731</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02926917959569708</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.07457385156159134</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02988565600692693</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.07457412009005535</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.03049799624225093</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.07457438861851937</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.03110615767097631</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.07457465714698337</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.03171009766243647</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.07457492567544741</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.03230977358588609</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.07457519420391141</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.03290514281065875</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.07457546273237543</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.03349616270606165</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.07457573126083945</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.03408279064142748</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.07457599978930347</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03466498398601237</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.07457626831776749</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.03524270010914918</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.0745765368462315</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03581589638014511</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.07457680537469552</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03638453016833205</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.07457707390315954</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03694855884296773</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.07457734243162356</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03750793977338419</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.07457761096008757</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03750793977338419</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.07456445306535073</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03811598097690519</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.07470071322680698</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03871873931610399</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.07483697338826321</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.03931609026184678</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.07497323354971946</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03990790928499971</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.0751094937111757</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.04049407185642895</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.07524575387263195</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.04107445344700063</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.0753820140340882</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.04164892952758095</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.07551827419554444</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.04221737556903606</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.07565453435700069</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.0427796670422321</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.07579079451845694</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.04333567941803526</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.07592705467991318</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.04388528816731171</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.07606331484136943</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.04442836876092764</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.07619957500282568</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.0449647966697491</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.07633583516428193</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.04549444736464232</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.07647209532573818</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.0460171963164735</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.07660835548719441</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.04653291899610873</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.07674461564865066</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.04704149087441421</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.0768808758101069</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.04754278742225611</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.07701713597156315</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.04803668411050058</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.0771533961330194</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.04852305641001377</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.07728965629447564</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.04900177979166184</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.07742591645593189</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.04947272972631099</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.07756217661738814</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.04993578168482736</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.07769843677884437</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.05039081113807711</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.07783469694030062</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.05083820205088957</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.07797095710175687</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.05128088085790992</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.07810721726321311</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.05171923152396753</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.07824347742466936</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.05215312951992854</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.0783797375861256</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.0525824503166591</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.07851599774758185</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.05300706938502542</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.0786522579090381</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.05342686219589357</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.07878851807049433</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.05384170422012981</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.07892477823195058</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.05425147092860026</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.07906103839340684</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.05465603779217107</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.07919729855486307</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.05505528028170842</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.07933355871631932</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.05544907386807847</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.07946981887777556</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.05583729402214739</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.07960607903923181</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.05621981621478134</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.07974233920068807</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.05659651591684646</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.07987859936214431</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.05696726859920892</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.08001485952360056</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.05733194973273488</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.0801511196850568</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.05769043478829053</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.08028737984651305</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.05804259923674199</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.0804236400079693</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.05838831854895547</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.08055990016942553</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.05872746819579708</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.08069616033088178</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.05905992364813302</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.08083242049233803</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.05938556037682945</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.08096868065379427</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.05970425385275252</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.08110494081525052</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.06001587954676837</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.08124120097670677</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.05634391969784558</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.08124120097670677</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.06020533551851662</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.08411216630591789</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.06038243247913186</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.08698313163512901</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.06054758729359641</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.08985409696434014</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.06070121682689252</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.09272506229355126</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.0608437379440025</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.0955960276227624</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.06097556750990862</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.09846699295197352</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.06109712238959317</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.1013379582811847</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.06120881944803845</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.1042089236103958</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.06131107555022673</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.1070798889396069</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.06140430756114032</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.109950854268818</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.0614889323457615</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.1128218195980291</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.06156536676907251</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.1156927849272403</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.06163402769605571</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.1185637502564514</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.06169533199169332</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.1214347155856625</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.06174969652096766</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.1243056809148737</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.06179753814886102</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.1271766462440848</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.06183927374035568</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1300476115732959</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.06187532016043391</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.132918576902507</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.06190609427407802</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1357895422317182</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.06193201294627028</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1386605075609293</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.06195349304199299</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1415314728901404</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.06197095142622841</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1444024382193515</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.06198480496395886</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1472734035485627</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.06199547052016662</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.06200336495983395</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1530153342069849</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.06200890514794316</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.155886299536196</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.06201250794947655</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1587572648654072</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.06201459022941636</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1616282301946183</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.06201556885274491</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1644991955238294</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.06201586068444447</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1673701608530405</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.06201160032181506</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1702411261822517</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.06195415202886728</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1731120915114628</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.06183298047214207</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1759830568406739</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.06165226408093005</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1788540221698851</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.06141618128452188</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1817249874990962</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.06112891051220819</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1845959528283073</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.06079463019327963</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1874669181575184</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.06041751875702683</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1903378834867295</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.06000175463274045</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1932088488159407</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.05955151624971111</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1960798141451518</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.05907098203722946</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1989507794743629</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.05856433042458614</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.201821744803574</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.0580357398410718</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.2046927101327852</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.05748938871597709</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.2075636754619963</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.05692945547859263</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.2104346407912074</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.05636011855820905</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.2133056061204185</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.05578555638411703</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.2161765714496297</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.05520994738560718</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.2190475367788408</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.05463746999197015</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.2219185021080519</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.0540723026324966</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.2247894674372631</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.05351862373647714</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.2276604327664742</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.05298061173320244</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2305313980956853</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.05246242707289665</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.2334023634248964</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.05191914272289111</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.2362733287541076</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.05131181728589261</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.2391442940833187</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.05064812171756386</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2420152594125298</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.04993572697356753</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2448862247417409</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.04918230400956632</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2477571900709521</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.04839552378122292</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2506281554001632</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.04758305724419999</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2534991207293743</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.04675257535416021</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2563700860585854</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.0459117490667663</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2592410513877966</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.04506824933768094</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2621120167170077</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.04422974712256679</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.2649829820462188</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.04340391337708656</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.2678539473754299</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.0425984190569029</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2707249127046411</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.04182093511767855</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2735958780338522</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.04107913251507615</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2764668433630633</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.04038068220475841</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2793378086922744</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.03973325514238799</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2822087740214856</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.03914452228362759</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2850797393506967</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.03862215458413992</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2879507046799079</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.03817382299958763</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.290821670009119</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.03780719848563341</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2936926353383301</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.03752995199793994</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2965636006675412</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.03734975449216996</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.2994345659967523</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.03727427692398608</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.3023055313259634</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.03727246825353181</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.3051764966551746</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.03727310894738273</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.3080474619843857</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.03727502908142828</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.3109184273135968</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.03727893234476071</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.313789392642808</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.03728552242647223</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.3166603579720191</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.0372955030156551</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.3195313233012302</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.03730957780140154</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.3224022886304413</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03732845047280378</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.3252732539596525</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.03735282471895407</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.3281442192888636</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.03738340422894462</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.3310151846180747</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.03742089269186767</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.3338861499472858</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.03746599379681546</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.336757115276497</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.03751941123288023</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.3396280806057081</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.03758184868915421</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.3424990459349193</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.03765400985472961</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.3453700112641304</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.03773659841869868</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.3482409765933415</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.03783031807015366</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.3511119419225526</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.03793587249818678</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.3539829072517637</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.03805396539189027</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.3568538725809748</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.03818530044035635</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.359724837910186</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.03833058133267729</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.3625958032393971</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.03849051175794528</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.3654667685686082</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1144.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1144.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.09134391969784558</v>
+        <v>0.0618547638640305</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.04134391969784558</v>
+        <v>0.0118547638640305</v>
       </c>
       <c r="B65" t="n">
-        <v>0.03127870097670677</v>
+        <v>0.01316208087903608</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001411728022882218</v>
+        <v>0.001899425548132522</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0008206181916839067</v>
+        <v>0.001648363263297922</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.00140378616775827</v>
+        <v>0.002817565319784936</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.00079654148390475</v>
+        <v>0.001657542505111811</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.004615168323184399</v>
+        <v>0.007909741961370675</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007780020827467777</v>
+        <v>0.001659872000527032</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.005418165552185161</v>
+        <v>0.01345144137878201</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007787189112167329</v>
+        <v>0.001660680853101761</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002806872213030824</v>
+        <v>0.003379719377687072</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001641236383367813</v>
+        <v>0.003296726526595844</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.002774452288924506</v>
+        <v>0.005414532136064736</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.0015930829678095</v>
+        <v>0.003315085010223623</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.009029224556993232</v>
+        <v>0.01324760222699395</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001556004165493555</v>
+        <v>0.003032684198241398</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01161594597326843</v>
+        <v>0.02322736712703788</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001557437822433466</v>
+        <v>0.003223603694679529</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004185267977602748</v>
+        <v>0.006585979924461388</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.00246185457505172</v>
+        <v>0.004387360293012029</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004071049302701017</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002389624451714251</v>
+        <v>0.004996249999999995</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01357076230082524</v>
+        <v>0.01668129964994075</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002334006248240333</v>
+        <v>0.004979616001581096</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.01500000000000001</v>
+        <v>0.02704031660508893</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002126063829787236</v>
+        <v>0.004982042559305284</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005546750723754899</v>
+        <v>0.008315114894284943</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003282472766735627</v>
+        <v>0.006593453053191689</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.005052628148290078</v>
+        <v>0.008772244099936932</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003186165935619</v>
+        <v>0.006630170020447246</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01676837515407914</v>
+        <v>0.01862458315651985</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003112008330987111</v>
+        <v>0.006639488002108127</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.01970064628739149</v>
+        <v>0.03033593239221144</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003114875644866932</v>
+        <v>0.006642723412407045</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.01754944117204813</v>
+        <v>0.004387360293012029</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02634391969784558</v>
+        <v>0.006585979924461388</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.0068911558586442</v>
+        <v>0.009340455823563326</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.004103090958419534</v>
+        <v>0.008241816316489611</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.006078239764894001</v>
+        <v>0.01003250453755468</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.00398270741952375</v>
+        <v>0.008287712525559057</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01935065671615371</v>
+        <v>0.02091258788968464</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003890010413733888</v>
+        <v>0.00829936000263516</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.02282440142450787</v>
+        <v>0.03273184350482616</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003893594556083665</v>
+        <v>0.008303404265508806</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.008218318789427588</v>
+        <v>0.008223155563532196</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.00492370915010344</v>
+        <v>0.009890179579787533</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.01102622034404912</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004663166666666666</v>
+        <v>0.009945255030670869</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02099999999999999</v>
+        <v>0.02239739000566274</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004358099688473518</v>
+        <v>0.009959232003162191</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.0256068175741076</v>
+        <v>0.03467314708720703</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004672313467300397</v>
+        <v>0.009964085118610569</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.009528074923261978</v>
+        <v>0.01103997800856671</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005744327341787347</v>
+        <v>0.01153854284308545</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.007719233180466238</v>
+        <v>0.01172065313770693</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.00557579038733325</v>
+        <v>0.01160279753578268</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02295070660731463</v>
+        <v>0.02403106566068172</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005446014579227444</v>
+        <v>0.01161910400368922</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.02915133041152879</v>
+        <v>0.03640494028362767</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005451032378517131</v>
+        <v>0.01162476597171233</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01082025966730429</v>
+        <v>0.0118547638640305</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006564945533471253</v>
+        <v>0.01316208087903608</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.008372108258384137</v>
+        <v>0.01278306453681483</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006372331871238</v>
+        <v>0.01326034004089449</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02376216351742721</v>
+        <v>0.02496569101096921</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006224016661974222</v>
+        <v>0.01327897600421625</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.03116137561210969</v>
+        <v>0.03807232023836193</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006229751289733863</v>
+        <v>0.01328544682481409</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01209470842871147</v>
+        <v>0.01073792944244981</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007385563725155161</v>
+        <v>0.0148352693696813</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.008873702392315039</v>
+        <v>0.0137209013141928</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007168873355142751</v>
+        <v>0.01498874999999998</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02490291290120097</v>
+        <v>0.0275991713062374</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007002018744720999</v>
+        <v>0.01545231958762886</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.03374038885118863</v>
+        <v>0.04147744129828196</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007008470200950596</v>
+        <v>0.01561328124999999</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.0133512566146404</v>
+        <v>0.01162528663889956</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.008206181916839068</v>
+        <v>0.01648363263297922</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.00943035983600661</v>
+        <v>0.01444396599840048</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.0079654148390475</v>
+        <v>0.01657542505111811</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02553099869205702</v>
+        <v>0.02868264245819793</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007780020827467777</v>
+        <v>0.01659872000527032</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.03629180580410374</v>
+        <v>0.04251935969074722</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007787189112167329</v>
+        <v>0.01660680853101761</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01458973963224805</v>
+        <v>0.01251825079965049</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.009026800108522975</v>
+        <v>0.01813199589627714</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01004842484320655</v>
+        <v>0.01564359145869218</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.00876195632295225</v>
+        <v>0.01823296755622993</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02640446482341641</v>
+        <v>0.03042688443376532</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008558022910214555</v>
+        <v>0.01825859200579735</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.03861906214619332</v>
+        <v>0.04567444680882787</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008565908023384061</v>
+        <v>0.01826748938411937</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.0158099928886913</v>
+        <v>0.01440532067728905</v>
       </c>
       <c r="G77" t="n">
-        <v>0.00984741830020688</v>
+        <v>0.01978035915957507</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01053424166766256</v>
+        <v>0.01666392948214959</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009558497806857002</v>
+        <v>0.01989051006134174</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0275991713062374</v>
+        <v>0.03264173871363882</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009546026973955598</v>
+        <v>0.01991846400632438</v>
       </c>
       <c r="N77" t="n">
-        <v>0.03982559355279552</v>
+        <v>0.04819945954994592</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009344626934600794</v>
+        <v>0.01992817023722114</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01701185179112711</v>
+        <v>0.01527499502440166</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01066803649189079</v>
+        <v>0.02142872242287299</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01089415456312233</v>
+        <v>0.01768936537988808</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01035503929076175</v>
+        <v>0.02154805256645355</v>
       </c>
       <c r="L78" t="n">
-        <v>0.02789858954528451</v>
+        <v>0.03479262847222275</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01011402707570811</v>
+        <v>0.02157833600685141</v>
       </c>
       <c r="N78" t="n">
-        <v>0.04147744129828196</v>
+        <v>0.05093374734900641</v>
       </c>
       <c r="O78" t="n">
-        <v>0.00979818752182228</v>
+        <v>0.0215888510903229</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.0181951517467124</v>
+        <v>0.01711577259357477</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01148865468357469</v>
+        <v>0.02307708568617091</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01143450778333354</v>
+        <v>0.01870428446302308</v>
       </c>
       <c r="K79" t="n">
-        <v>0.0111515807746665</v>
+        <v>0.02320559507156536</v>
       </c>
       <c r="L79" t="n">
-        <v>0.02902929069004476</v>
+        <v>0.03644497688392162</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01089202915845489</v>
+        <v>0.02323820800737844</v>
       </c>
       <c r="N79" t="n">
-        <v>0.04339225463310775</v>
+        <v>0.05421665964091427</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01090206475703426</v>
+        <v>0.02324953194342466</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01935972816260406</v>
+        <v>0.01691615213739484</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0123092728752586</v>
+        <v>0.02472544894946883</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01196164558204389</v>
+        <v>0.01959307204266995</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01194812225857125</v>
+        <v>0.02486313757667717</v>
       </c>
       <c r="L80" t="n">
-        <v>0.02956986421986851</v>
+        <v>0.0385642071231399</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01167003124120167</v>
+        <v>0.02489808000790547</v>
       </c>
       <c r="N80" t="n">
-        <v>0.04463835975122926</v>
+        <v>0.05778754586057416</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01168078366825099</v>
+        <v>0.02491021279652642</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02050541644595905</v>
+        <v>0.01766463240844826</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01312989106694251</v>
+        <v>0.02637381221276676</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01218191221300109</v>
+        <v>0.02054011342994412</v>
       </c>
       <c r="K81" t="n">
-        <v>0.012744663742476</v>
+        <v>0.02652068008178898</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03071888106551152</v>
+        <v>0.04041574236428203</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01244803332394844</v>
+        <v>0.02655795200843251</v>
       </c>
       <c r="N81" t="n">
-        <v>0.04656968492003538</v>
+        <v>0.06038575544289126</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01245950257946773</v>
+        <v>0.02657089364962818</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02163205200393427</v>
+        <v>0.01834971215932149</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01395050925862642</v>
+        <v>0.02802217547606468</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01280165192995279</v>
+        <v>0.02132979393596093</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01354120522638075</v>
+        <v>0.02817822258690079</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03147491215772963</v>
+        <v>0.04256500578175249</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01322603540669522</v>
+        <v>0.02821782400895954</v>
       </c>
       <c r="N82" t="n">
-        <v>0.04748510207776258</v>
+        <v>0.06375063782277041</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01323822149068446</v>
+        <v>0.02823157450272994</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02273947024368665</v>
+        <v>0.01895989014260098</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01477112745031032</v>
+        <v>0.0296705387393626</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01302720898664672</v>
+        <v>0.02234649887183583</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0143377467102855</v>
+        <v>0.02983576509201261</v>
       </c>
       <c r="L83" t="n">
-        <v>0.03233652842727863</v>
+        <v>0.04397742054995576</v>
       </c>
       <c r="M83" t="n">
-        <v>0.014004037489442</v>
+        <v>0.02987769600948657</v>
       </c>
       <c r="N83" t="n">
-        <v>0.04898348316264767</v>
+        <v>0.06592154243511644</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01401694040190119</v>
+        <v>0.0298922553558317</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02382750657237312</v>
+        <v>0.01948366511087316</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01559174564199423</v>
+        <v>0.03131890200266052</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0137209013141928</v>
+        <v>0.02297461354868419</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01523401182023018</v>
+        <v>0.03149330759712442</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0330023008049144</v>
+        <v>0.04561840984329621</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01478203957218878</v>
+        <v>0.0315375680100136</v>
       </c>
       <c r="N84" t="n">
-        <v>0.05106370011292743</v>
+        <v>0.06873781871483442</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01479565931311792</v>
+        <v>0.03155293620893346</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02489599639715059</v>
+        <v>0.02090953581672444</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01641236383367814</v>
+        <v>0.03296726526595845</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01391865900787975</v>
+        <v>0.0236985232776214</v>
       </c>
       <c r="K85" t="n">
-        <v>0.015930829678095</v>
+        <v>0.03315085010223623</v>
       </c>
       <c r="L85" t="n">
-        <v>0.03397080022139276</v>
+        <v>0.0468533968361784</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01556004165493555</v>
+        <v>0.03319744001054064</v>
       </c>
       <c r="N85" t="n">
-        <v>0.0527246248668381</v>
+        <v>0.07083881609682913</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01557437822433466</v>
+        <v>0.03321361706203523</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02634391969784558</v>
+        <v>0.02122968802033993</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01754944117204813</v>
+        <v>0.03461562852925636</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0145861399410525</v>
+        <v>0.02410261336976284</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01672737116199975</v>
+        <v>0.03480839260734804</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0350405976074695</v>
+        <v>0.04794780470300675</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01633804373768233</v>
+        <v>0.03485731201106766</v>
       </c>
       <c r="N86" t="n">
-        <v>0.05396512936261666</v>
+        <v>0.07236388401600552</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01635309713555139</v>
+        <v>0.03487429791513699</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02697121612983051</v>
+        <v>0.02151277968919202</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01805360021704595</v>
+        <v>0.03626399179255429</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01496577049169476</v>
+        <v>0.02457635454950688</v>
       </c>
       <c r="K87" t="n">
-        <v>0.0175239126459045</v>
+        <v>0.03646593511245985</v>
       </c>
       <c r="L87" t="n">
-        <v>0.03581026389390046</v>
+        <v>0.0488671164322052</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01711604582042911</v>
+        <v>0.0365171840115947</v>
       </c>
       <c r="N87" t="n">
-        <v>0.05508408553849964</v>
+        <v>0.07395237190726844</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01713181604676812</v>
+        <v>0.03653497876823875</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02796698115431928</v>
+        <v>0.0207871387901014</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01887421840872985</v>
+        <v>0.03791235505585221</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01545598110414524</v>
+        <v>0.02480567765633432</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01832045412980925</v>
+        <v>0.03812347761757166</v>
       </c>
       <c r="L88" t="n">
-        <v>0.03647837001144144</v>
+        <v>0.04953490388970211</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01789404790317588</v>
+        <v>0.03817705601212173</v>
       </c>
       <c r="N88" t="n">
-        <v>0.05658036533272359</v>
+        <v>0.07425970504653195</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01791053495798486</v>
+        <v>0.03819565962134051</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02893416873699238</v>
+        <v>0.02205087182072747</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01969483660041376</v>
+        <v>0.03956071831915013</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01595520222274265</v>
+        <v>0.02522473654332213</v>
       </c>
       <c r="K89" t="n">
-        <v>0.019116995613714</v>
+        <v>0.03978102012268347</v>
       </c>
       <c r="L89" t="n">
-        <v>0.03734348689084829</v>
+        <v>0.05008309893037666</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01867204998592266</v>
+        <v>0.03983692801264876</v>
       </c>
       <c r="N89" t="n">
-        <v>0.05795284068352535</v>
+        <v>0.07593710400931791</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01868925386920159</v>
+        <v>0.03985634047444227</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02987592963984777</v>
+        <v>0.02030208527872963</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02051545479209767</v>
+        <v>0.04120908158244805</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01646186429182564</v>
+        <v>0.02543130282242122</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01991353709761875</v>
+        <v>0.04143856262779529</v>
       </c>
       <c r="L90" t="n">
-        <v>0.03820418546287682</v>
+        <v>0.050907200295285</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01945005206866944</v>
+        <v>0.04149680001317579</v>
       </c>
       <c r="N90" t="n">
-        <v>0.05950038352914144</v>
+        <v>0.0762788359089222</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01946797278041832</v>
+        <v>0.04151702132754403</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03079541462488337</v>
+        <v>0.02153888566176726</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02133607298378157</v>
+        <v>0.04285744484574597</v>
       </c>
       <c r="J91" t="n">
-        <v>0.01697439775573291</v>
+        <v>0.02582314810558251</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0207100785815235</v>
+        <v>0.0430961051329071</v>
       </c>
       <c r="L91" t="n">
-        <v>0.03895903665828279</v>
+        <v>0.05160270672548325</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02022805415141622</v>
+        <v>0.04315667201370282</v>
       </c>
       <c r="N91" t="n">
-        <v>0.06062186580780837</v>
+        <v>0.07777812612985757</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02024669169163506</v>
+        <v>0.0431777021806458</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03169577445409716</v>
+        <v>0.02175937946749978</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02215669117546548</v>
+        <v>0.0445058081090439</v>
       </c>
       <c r="J92" t="n">
-        <v>0.01759123305880318</v>
+        <v>0.02609804400475688</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02150662006542825</v>
+        <v>0.04475364763801891</v>
       </c>
       <c r="L92" t="n">
-        <v>0.04020661140782214</v>
+        <v>0.05186511696202753</v>
       </c>
       <c r="M92" t="n">
-        <v>0.021006056234163</v>
+        <v>0.04481654401422986</v>
       </c>
       <c r="N92" t="n">
-        <v>0.06211615945776305</v>
+        <v>0.07822820005663683</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02102541060285179</v>
+        <v>0.04483838303374756</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03258015988948706</v>
+        <v>0.02196167319358655</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02297730936714939</v>
+        <v>0.04615417137234182</v>
       </c>
       <c r="J93" t="n">
-        <v>0.01811080064537512</v>
+        <v>0.02635376213189526</v>
       </c>
       <c r="K93" t="n">
-        <v>0.022303161549333</v>
+        <v>0.04641119014313072</v>
       </c>
       <c r="L93" t="n">
-        <v>0.04104548064225064</v>
+        <v>0.05278992974597402</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02178405831690977</v>
+        <v>0.04647641601475688</v>
       </c>
       <c r="N93" t="n">
-        <v>0.062882136417242</v>
+        <v>0.07872228307377294</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02180412951406852</v>
+        <v>0.04649906388684932</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03345172169305102</v>
+        <v>0.02214387333768703</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0237979275588333</v>
+        <v>0.04780253463563974</v>
       </c>
       <c r="J94" t="n">
-        <v>0.01853153095978739</v>
+        <v>0.02648807409894854</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02309970303323775</v>
+        <v>0.04806873264824253</v>
       </c>
       <c r="L94" t="n">
-        <v>0.04137421529232407</v>
+        <v>0.05287264381837875</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02256206039965655</v>
+        <v>0.04813628801528392</v>
       </c>
       <c r="N94" t="n">
-        <v>0.06421866862448183</v>
+        <v>0.07935360056577834</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02258284842528525</v>
+        <v>0.04815974473995108</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03431361062678698</v>
+        <v>0.02330408639746054</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0246185457505172</v>
+        <v>0.04945089789893766</v>
       </c>
       <c r="J95" t="n">
-        <v>0.01905185444637873</v>
+        <v>0.02659875151786764</v>
       </c>
       <c r="K95" t="n">
-        <v>0.0238962445171425</v>
+        <v>0.04972627515335434</v>
       </c>
       <c r="L95" t="n">
-        <v>0.04219138628879832</v>
+        <v>0.05360875792029793</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02334006248240333</v>
+        <v>0.04979616001581095</v>
       </c>
       <c r="N95" t="n">
-        <v>0.06572462801771906</v>
+        <v>0.08081537791716614</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02336156733650199</v>
+        <v>0.04982042559305284</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03516897745269289</v>
+        <v>0.02244041887056653</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02543916394220111</v>
+        <v>0.05109926116223559</v>
       </c>
       <c r="J96" t="n">
-        <v>0.0195702015494878</v>
+        <v>0.02698356600060348</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02469278600104725</v>
+        <v>0.05138381765846615</v>
       </c>
       <c r="L96" t="n">
-        <v>0.04339556456242913</v>
+        <v>0.05389377079278762</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02411806456515011</v>
+        <v>0.05145603201633799</v>
       </c>
       <c r="N96" t="n">
-        <v>0.06719888653519063</v>
+        <v>0.08120084051244902</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02414028624771872</v>
+        <v>0.0514811064461546</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.0360209729327667</v>
+        <v>0.02155097725466439</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02625978213388501</v>
+        <v>0.05274762442553351</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02008500271345329</v>
+        <v>0.02704028915910692</v>
       </c>
       <c r="K97" t="n">
-        <v>0.025489327484952</v>
+        <v>0.05304136016357797</v>
       </c>
       <c r="L97" t="n">
-        <v>0.04388532104397239</v>
+        <v>0.05452318117690397</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02489606664789689</v>
+        <v>0.05311590401686501</v>
       </c>
       <c r="N97" t="n">
-        <v>0.06774031611513304</v>
+        <v>0.08140321373613979</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02491900515893545</v>
+        <v>0.05314178729925636</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03687274782900635</v>
+        <v>0.02263386804741348</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02708040032556892</v>
+        <v>0.05439598768883143</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02059468838261391</v>
+        <v>0.02716669260532892</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02628586896885675</v>
+        <v>0.05469890266868978</v>
       </c>
       <c r="L98" t="n">
-        <v>0.04455922666418388</v>
+        <v>0.05459248781370318</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02567406873064366</v>
+        <v>0.05477577601739205</v>
       </c>
       <c r="N98" t="n">
-        <v>0.0692477886957828</v>
+        <v>0.08221572297275132</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02569772407015218</v>
+        <v>0.05480246815235813</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03772745290340977</v>
+        <v>0.02370952772806099</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02790101851725283</v>
+        <v>0.05604435095212935</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0210976890013083</v>
+        <v>0.02726054795122033</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0270824104527615</v>
+        <v>0.05635644517380159</v>
       </c>
       <c r="L99" t="n">
-        <v>0.04571585235381947</v>
+        <v>0.05499718944424126</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02645207081339044</v>
+        <v>0.05643564801791908</v>
       </c>
       <c r="N99" t="n">
-        <v>0.07032017621537673</v>
+        <v>0.08233159360679626</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02647644298136892</v>
+        <v>0.05646314900545989</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03858823891797492</v>
+        <v>0.02170907284950306</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02872163670893673</v>
+        <v>0.05769271421542727</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02169243501387522</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02787895193666625</v>
+        <v>0.0580139876789134</v>
       </c>
       <c r="L100" t="n">
-        <v>0.04615376904363494</v>
+        <v>0.05519834261247478</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02723007289613722</v>
+        <v>0.05809552001844611</v>
       </c>
       <c r="N100" t="n">
-        <v>0.0708563506121514</v>
+        <v>0.08295488259656392</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02725516189258565</v>
+        <v>0.05812382985856164</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03945825663469973</v>
+        <v>0.02370386860317256</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02954225490062064</v>
+        <v>0.0593410774787252</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0220773568646533</v>
+        <v>0.0274417007898151</v>
       </c>
       <c r="K101" t="n">
-        <v>0.028675493420571</v>
+        <v>0.05967153018402521</v>
       </c>
       <c r="L101" t="n">
-        <v>0.04717154766438617</v>
+        <v>0.05499477265075872</v>
       </c>
       <c r="M101" t="n">
-        <v>0.028008074978884</v>
+        <v>0.05975539201897315</v>
       </c>
       <c r="N101" t="n">
-        <v>0.07235518382434336</v>
+        <v>0.0827463206052379</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02803388080380238</v>
+        <v>0.05978451071166341</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04034065681558216</v>
+        <v>0.02168276968487411</v>
       </c>
       <c r="G102" t="n">
-        <v>0.03036287309230455</v>
+        <v>0.06098944074202312</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02245088499798127</v>
+        <v>0.02723364434723263</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02947203490447576</v>
+        <v>0.06132907268913703</v>
       </c>
       <c r="L102" t="n">
-        <v>0.04796775914682885</v>
+        <v>0.05508895251888943</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02878607706163077</v>
+        <v>0.06141526401950018</v>
       </c>
       <c r="N102" t="n">
-        <v>0.07301554779018943</v>
+        <v>0.08244375854715258</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02881259971501911</v>
+        <v>0.06144519156476517</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04134391969784558</v>
+        <v>0.02364700451985732</v>
       </c>
       <c r="G103" t="n">
-        <v>0.03127870097670677</v>
+        <v>0.06263780400532104</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02301144985819779</v>
+        <v>0.02720731796342868</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0302685763883805</v>
+        <v>0.06298661519424884</v>
       </c>
       <c r="L103" t="n">
-        <v>0.04844097442171894</v>
+        <v>0.054844045219437</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02956407914437756</v>
+        <v>0.06307513602002721</v>
       </c>
       <c r="N103" t="n">
-        <v>0.07403631444792613</v>
+        <v>0.08268051976700902</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02959131862623585</v>
+        <v>0.06310587241786693</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04218057056719257</v>
+        <v>0.02259757103846127</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03200410947567236</v>
+        <v>0.06428616726861897</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02335748188964157</v>
+        <v>0.02716394784663539</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03106511787228525</v>
+        <v>0.06464415769936065</v>
       </c>
       <c r="L104" t="n">
-        <v>0.04878976441981223</v>
+        <v>0.05506422252464147</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03034208122712433</v>
+        <v>0.06473500802055425</v>
       </c>
       <c r="N104" t="n">
-        <v>0.0753163557357901</v>
+        <v>0.08246447721839384</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03037003753745258</v>
+        <v>0.06476655327096868</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.0431951211949395</v>
+        <v>0.02153546717102503</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03282472766735627</v>
+        <v>0.06593453053191689</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02378741153665129</v>
+        <v>0.02720470842161779</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03186165935619</v>
+        <v>0.06630170020447246</v>
       </c>
       <c r="L105" t="n">
-        <v>0.0496127000718645</v>
+        <v>0.05495185672777533</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03112008330987111</v>
+        <v>0.06639488002108128</v>
       </c>
       <c r="N105" t="n">
-        <v>0.07565454359201806</v>
+        <v>0.08189920131903805</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03114875644866932</v>
+        <v>0.06642723412407045</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04426265052652693</v>
+        <v>0.02146169084788768</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03364534585904017</v>
+        <v>0.0675828937952148</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02429966924356564</v>
+        <v>0.0271307741131409</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03265820084009476</v>
+        <v>0.06795924270958427</v>
       </c>
       <c r="L106" t="n">
-        <v>0.05030835230863154</v>
+        <v>0.05430932012211115</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03189808539261788</v>
+        <v>0.06805475202160829</v>
       </c>
       <c r="N106" t="n">
-        <v>0.07674974995484662</v>
+        <v>0.08238826248667225</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03192747535988605</v>
+        <v>0.06808791497717222</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04536307794785498</v>
+        <v>0.02237723999938829</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03446596405072409</v>
+        <v>0.06923125705851273</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0245926854547233</v>
+        <v>0.02714331934596974</v>
       </c>
       <c r="K107" t="n">
-        <v>0.0334547423239995</v>
+        <v>0.06961678521469608</v>
       </c>
       <c r="L107" t="n">
-        <v>0.05077529206086928</v>
+        <v>0.0545389850009215</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03267608747536466</v>
+        <v>0.06971462402213532</v>
       </c>
       <c r="N107" t="n">
-        <v>0.07720084676251232</v>
+        <v>0.08173523113902748</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03270619427110278</v>
+        <v>0.06974859583027397</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04647632284482368</v>
+        <v>0.02328311255586595</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03528658224240799</v>
+        <v>0.07087962032181065</v>
       </c>
       <c r="J108" t="n">
-        <v>0.025164890614463</v>
+        <v>0.02704351854486935</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03425128380790426</v>
+        <v>0.07127432771980789</v>
       </c>
       <c r="L108" t="n">
-        <v>0.05161209025933347</v>
+        <v>0.05434322365747885</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03345408955811145</v>
+        <v>0.07137449602266237</v>
       </c>
       <c r="N108" t="n">
-        <v>0.07760670595325192</v>
+        <v>0.08114367769383446</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03348491318231952</v>
+        <v>0.07140927668337574</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04758230460333315</v>
+        <v>0.02118030644765972</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0361072004340919</v>
+        <v>0.07252798358510858</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02531471516712339</v>
+        <v>0.0269325461346047</v>
       </c>
       <c r="K109" t="n">
-        <v>0.035047825291809</v>
+        <v>0.0729318702249197</v>
       </c>
       <c r="L109" t="n">
-        <v>0.05161731783477999</v>
+        <v>0.05392440838505572</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03423209164085822</v>
+        <v>0.0730343680231894</v>
       </c>
       <c r="N109" t="n">
-        <v>0.078266199465302</v>
+        <v>0.081117172568824</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03426363209353624</v>
+        <v>0.07306995753647749</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04866094260928344</v>
+        <v>0.0230698196051087</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0369278186257758</v>
+        <v>0.0741763468484065</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02574058955704317</v>
+        <v>0.02681157653994086</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03584436677571375</v>
+        <v>0.07458941273003152</v>
       </c>
       <c r="L110" t="n">
-        <v>0.05218954571796458</v>
+        <v>0.05398491147692469</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03501009372360499</v>
+        <v>0.07469424002371643</v>
       </c>
       <c r="N110" t="n">
-        <v>0.0789781992368993</v>
+        <v>0.08095928618172704</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03504235100475298</v>
+        <v>0.07473063838957926</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04969215624857459</v>
+        <v>0.02195264995855196</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03774843681745971</v>
+        <v>0.07582471011170441</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02604094422856101</v>
+        <v>0.02658178418564283</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0366409082596185</v>
+        <v>0.07624695523514333</v>
       </c>
       <c r="L111" t="n">
-        <v>0.0528273448396431</v>
+        <v>0.05322710522635826</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03578809580635177</v>
+        <v>0.07635411202424346</v>
       </c>
       <c r="N111" t="n">
-        <v>0.07954157720628036</v>
+        <v>0.08047358895027434</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03582106991596971</v>
+        <v>0.07639131924268101</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.05065586490710675</v>
+        <v>0.02182979543832857</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03856905500914361</v>
+        <v>0.07747307337500234</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02631420962601563</v>
+        <v>0.02654434349647565</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03743744974352325</v>
+        <v>0.07790449774025514</v>
       </c>
       <c r="L112" t="n">
-        <v>0.05302928613057137</v>
+        <v>0.05315336192662898</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03656609788909855</v>
+        <v>0.07801398402477049</v>
       </c>
       <c r="N112" t="n">
-        <v>0.08025520531168179</v>
+        <v>0.08016365129219677</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03659978882718645</v>
+        <v>0.07805200009578278</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.0515319879707799</v>
+        <v>0.02170225397477762</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03938967320082752</v>
+        <v>0.07912143663830026</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02665881619374572</v>
+        <v>0.02640042889720431</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03823399122742801</v>
+        <v>0.07956204024536695</v>
       </c>
       <c r="L113" t="n">
-        <v>0.05359394052150518</v>
+        <v>0.05286605387100937</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03734409997184533</v>
+        <v>0.07967385602529753</v>
       </c>
       <c r="N113" t="n">
-        <v>0.08111795549134032</v>
+        <v>0.07993304362522508</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03737850773840318</v>
+        <v>0.07971268094888455</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.05230044482549415</v>
+        <v>0.02157102349823818</v>
       </c>
       <c r="G114" t="n">
-        <v>0.04021029139251143</v>
+        <v>0.08076979990159819</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02677319437608994</v>
+        <v>0.02615121481259385</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03903053271133276</v>
+        <v>0.08121958275047876</v>
       </c>
       <c r="L114" t="n">
-        <v>0.05411987894320044</v>
+        <v>0.05276755335277203</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03812210205459211</v>
+        <v>0.08133372802582456</v>
       </c>
       <c r="N114" t="n">
-        <v>0.0812286996834925</v>
+        <v>0.07938533636709016</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03815722664961991</v>
+        <v>0.0813733618019863</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.05294115485714958</v>
+        <v>0.02043710193904932</v>
       </c>
       <c r="G115" t="n">
-        <v>0.04103090958419534</v>
+        <v>0.0824181631648961</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02705577461738701</v>
+        <v>0.02599787566740928</v>
       </c>
       <c r="K115" t="n">
-        <v>0.0398270741952375</v>
+        <v>0.08287712525559057</v>
       </c>
       <c r="L115" t="n">
-        <v>0.05410567232641292</v>
+        <v>0.05216023266518938</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03890010413733889</v>
+        <v>0.08299360002635159</v>
       </c>
       <c r="N115" t="n">
-        <v>0.08138630982637501</v>
+        <v>0.07842409993552291</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03893594556083665</v>
+        <v>0.08303404265508807</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.05343403745164627</v>
+        <v>0.02130148722755014</v>
       </c>
       <c r="G116" t="n">
-        <v>0.04185152777587924</v>
+        <v>0.08406652642819402</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02720498736197559</v>
+        <v>0.02574158588641563</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04062361567914225</v>
+        <v>0.08453466776070238</v>
       </c>
       <c r="L116" t="n">
-        <v>0.05444989160189845</v>
+        <v>0.05204646410153399</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03967810622008566</v>
+        <v>0.08465347202687862</v>
       </c>
       <c r="N116" t="n">
-        <v>0.08188965785822455</v>
+        <v>0.07805290474825399</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03971466447205338</v>
+        <v>0.08469472350818982</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.05378841595172827</v>
+        <v>0.0201651772940797</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04267214596756315</v>
+        <v>0.08571488969149195</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0273192630541944</v>
+        <v>0.02578351989437794</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04142015716304701</v>
+        <v>0.0861922102658142</v>
       </c>
       <c r="L117" t="n">
-        <v>0.05455110770041283</v>
+        <v>0.05162861995507845</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04045610830283244</v>
+        <v>0.08631334402740565</v>
       </c>
       <c r="N117" t="n">
-        <v>0.08223761571727772</v>
+        <v>0.07737532122301444</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04049338338327011</v>
+        <v>0.08635540436129159</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.05412184983855756</v>
+        <v>0.02102917006897709</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04349276415924706</v>
+        <v>0.08736325295478987</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02729703213838211</v>
+        <v>0.02542485211606117</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04221669864695175</v>
+        <v>0.08784975277092601</v>
       </c>
       <c r="L118" t="n">
-        <v>0.05480789155271185</v>
+        <v>0.05120907251909526</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04123411038557921</v>
+        <v>0.08797321602793269</v>
       </c>
       <c r="N118" t="n">
-        <v>0.08242905534177114</v>
+        <v>0.0771949197775349</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04127210229448684</v>
+        <v>0.08801608521439334</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.05444894822597396</v>
+        <v>0.02189446348258138</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04431338235093096</v>
+        <v>0.0890116162180878</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02744180262838562</v>
+        <v>0.02536675697623041</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04301324013085651</v>
+        <v>0.08950729527603782</v>
       </c>
       <c r="L119" t="n">
-        <v>0.0549188140895514</v>
+        <v>0.05119019408685693</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04201211246832599</v>
+        <v>0.08963308802845972</v>
       </c>
       <c r="N119" t="n">
-        <v>0.08246284866994152</v>
+        <v>0.07641527082954641</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04205082120570357</v>
+        <v>0.08967676606749511</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.05476967440388064</v>
+        <v>0.01975517734942039</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04513400054261487</v>
+        <v>0.09065997948138571</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02734082100839481</v>
+        <v>0.02511040889965065</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04380978161476125</v>
+        <v>0.09116483778114963</v>
       </c>
       <c r="L120" t="n">
-        <v>0.05519834261247478</v>
+        <v>0.05047435695163599</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04279011455107277</v>
+        <v>0.09129296002898675</v>
       </c>
       <c r="N120" t="n">
-        <v>0.08295488259656392</v>
+        <v>0.07603994479677961</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04282954011692031</v>
+        <v>0.09133744692059687</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.05508399166218073</v>
+        <v>0.01959623733745472</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04595461873429878</v>
+        <v>0.09230834274468364</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02743299905858086</v>
+        <v>0.02494413857495811</v>
       </c>
       <c r="K121" t="n">
-        <v>0.044606323098666</v>
+        <v>0.09282238028626144</v>
       </c>
       <c r="L121" t="n">
-        <v>0.05469793592687522</v>
+        <v>0.05044785276200253</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04356811663381955</v>
+        <v>0.09295283202951377</v>
       </c>
       <c r="N121" t="n">
-        <v>0.08265288267804066</v>
+        <v>0.07545264330318474</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04360825902813704</v>
+        <v>0.09299812777369863</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.05539186329077732</v>
+        <v>0.02142004771277967</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04677523692598268</v>
+        <v>0.09395670600798156</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02731758201416298</v>
+        <v>0.02485470118374859</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04540286458257076</v>
+        <v>0.09447992279137325</v>
       </c>
       <c r="L122" t="n">
-        <v>0.05518366871362052</v>
+        <v>0.05017501962607326</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04434611871656633</v>
+        <v>0.09461270403004081</v>
       </c>
       <c r="N122" t="n">
-        <v>0.08290557032047285</v>
+        <v>0.07479673445217677</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04438697793935378</v>
+        <v>0.0946588086268004</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.05569325257957362</v>
+        <v>0.02022985985172777</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04759585511766659</v>
+        <v>0.09560506927127949</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02729482979642546</v>
+        <v>0.02474587204859789</v>
       </c>
       <c r="K123" t="n">
-        <v>0.0461994060664755</v>
+        <v>0.09613746529648506</v>
       </c>
       <c r="L123" t="n">
-        <v>0.05484949909083139</v>
+        <v>0.04976153055890889</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04512412079931311</v>
+        <v>0.09627257603056784</v>
       </c>
       <c r="N123" t="n">
-        <v>0.08269751060538966</v>
+        <v>0.07467886167500837</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04516569685057051</v>
+        <v>0.09631948947990215</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.05598812281847274</v>
+        <v>0.02102892513063156</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04841647330935049</v>
+        <v>0.09725343253457741</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02736500232665257</v>
+        <v>0.02442147758577558</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04699594755038026</v>
+        <v>0.09779500780159688</v>
       </c>
       <c r="L124" t="n">
-        <v>0.05489609175239613</v>
+        <v>0.04921511477556401</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04590212288205988</v>
+        <v>0.09793244803109487</v>
       </c>
       <c r="N124" t="n">
-        <v>0.08213157412434446</v>
+        <v>0.07431065781943713</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04594441576178724</v>
+        <v>0.09798017033300392</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.05627643729737779</v>
+        <v>0.01882049492582359</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04923709150103441</v>
+        <v>0.09890179579787532</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02722835952612854</v>
+        <v>0.02418534421155122</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04779248903428501</v>
+        <v>0.09945255030670869</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05482411139220314</v>
+        <v>0.04884350149109312</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04668012496480666</v>
+        <v>0.0995923200316219</v>
       </c>
       <c r="N125" t="n">
-        <v>0.08201063146889104</v>
+        <v>0.07330375573322073</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04672313467300397</v>
+        <v>0.09964085118610568</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.05655815930619196</v>
+        <v>0.01860782061363643</v>
       </c>
       <c r="G126" t="n">
-        <v>0.05005770969271831</v>
+        <v>0.1005501590611732</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02718516131613767</v>
+        <v>0.02384129834219437</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04858903051818976</v>
+        <v>0.1011100928118205</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05493422270414072</v>
+        <v>0.04805441992055071</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04745812704755344</v>
+        <v>0.1012521920321489</v>
       </c>
       <c r="N126" t="n">
-        <v>0.08163755323058303</v>
+        <v>0.07256978826411709</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04750185358422071</v>
+        <v>0.1013015320392074</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.05683325213481832</v>
+        <v>0.0193941535704026</v>
       </c>
       <c r="G127" t="n">
-        <v>0.05087832788440222</v>
+        <v>0.1021985223244712</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02723566761796423</v>
+        <v>0.0235931663939746</v>
       </c>
       <c r="K127" t="n">
-        <v>0.0493855720020945</v>
+        <v>0.1027676353169323</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05482709038209718</v>
+        <v>0.04795559927899135</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04823612913030022</v>
+        <v>0.102912064032676</v>
       </c>
       <c r="N127" t="n">
-        <v>0.08111521000097394</v>
+        <v>0.07202038825988388</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04828057249543743</v>
+        <v>0.1029622128923092</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.05710167907316006</v>
+        <v>0.01918274517245461</v>
       </c>
       <c r="G128" t="n">
-        <v>0.05169894607608612</v>
+        <v>0.1038468855877691</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02718013835289246</v>
+        <v>0.02344477478316148</v>
       </c>
       <c r="K128" t="n">
-        <v>0.05018211348599926</v>
+        <v>0.1044251778220441</v>
       </c>
       <c r="L128" t="n">
-        <v>0.0544033791199609</v>
+        <v>0.04745476878146951</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04901413121304699</v>
+        <v>0.104571936033203</v>
       </c>
       <c r="N128" t="n">
-        <v>0.08104647237161727</v>
+        <v>0.07136718856827862</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04905929140665417</v>
+        <v>0.104622893745411</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.05736340341112033</v>
+        <v>0.01897684679612505</v>
       </c>
       <c r="G129" t="n">
-        <v>0.05251956426777003</v>
+        <v>0.105495248851067</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02711883344220663</v>
+        <v>0.02309994992602457</v>
       </c>
       <c r="K129" t="n">
-        <v>0.050978654969904</v>
+        <v>0.1060827203271559</v>
       </c>
       <c r="L129" t="n">
-        <v>0.05456375361162019</v>
+        <v>0.04675965764303971</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04979213329579377</v>
+        <v>0.10623180803373</v>
       </c>
       <c r="N129" t="n">
-        <v>0.08093421093406683</v>
+        <v>0.07062182203705936</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04983801031787091</v>
+        <v>0.1062835745985127</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.05761838843860222</v>
+        <v>0.01777970981774643</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05334018245945393</v>
+        <v>0.1071436121143649</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02695201280719098</v>
+        <v>0.02286251823883344</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05177519645380876</v>
+        <v>0.1077402628322677</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05410887855096341</v>
+        <v>0.04647799507875652</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05057013537854055</v>
+        <v>0.107891680034257</v>
       </c>
       <c r="N130" t="n">
-        <v>0.08058129627987615</v>
+        <v>0.06989592151398366</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05061672922908764</v>
+        <v>0.1079442554516145</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.05786659744550887</v>
+        <v>0.01758448390200801</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05416080065113784</v>
+        <v>0.1087919753776629</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02677993636912983</v>
+        <v>0.022636300815413</v>
       </c>
       <c r="K131" t="n">
-        <v>0.0525717379377135</v>
+        <v>0.1093978053373796</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05413941863187888</v>
+        <v>0.04561751030367439</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05134813746128732</v>
+        <v>0.1095515520347841</v>
       </c>
       <c r="N131" t="n">
-        <v>0.0792905990005987</v>
+        <v>0.06880111984680931</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05139544814030437</v>
+        <v>0.1096049363047163</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.05810799372174348</v>
+        <v>0.01837100436704242</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05498141884282175</v>
+        <v>0.1104403386409608</v>
       </c>
       <c r="J132" t="n">
-        <v>0.0268028640493074</v>
+        <v>0.0225039028507556</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05336827942161825</v>
+        <v>0.1110553478424914</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05385603854825494</v>
+        <v>0.045157319620998</v>
       </c>
       <c r="M132" t="n">
-        <v>0.0521261395440341</v>
+        <v>0.1112114240353111</v>
       </c>
       <c r="N132" t="n">
-        <v>0.07936498968778827</v>
+        <v>0.06851242939854579</v>
       </c>
       <c r="O132" t="n">
-        <v>0.0521741670515211</v>
+        <v>0.111265617157818</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.05834254055720914</v>
+        <v>0.01714286744307124</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05580203703450566</v>
+        <v>0.1120887019042587</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02662105576900799</v>
+        <v>0.02225034665875897</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05416482090552301</v>
+        <v>0.1127128903476032</v>
       </c>
       <c r="L133" t="n">
-        <v>0.05345940299397994</v>
+        <v>0.04465362889640545</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05290414162678088</v>
+        <v>0.1128712960358382</v>
       </c>
       <c r="N133" t="n">
-        <v>0.07830733893299835</v>
+        <v>0.06725889980100525</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05295288596273783</v>
+        <v>0.1129262980109198</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.05857020124180895</v>
+        <v>0.01690472747626703</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05662265522618956</v>
+        <v>0.1137370651675566</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02653477144951583</v>
+        <v>0.02208110975543393</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05496136238942775</v>
+        <v>0.114370432852715</v>
       </c>
       <c r="L134" t="n">
-        <v>0.0536501766629422</v>
+        <v>0.04421627402365566</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05368214370952765</v>
+        <v>0.1145311680363652</v>
       </c>
       <c r="N134" t="n">
-        <v>0.0783205173277825</v>
+        <v>0.06625366617942641</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05373160487395457</v>
+        <v>0.1145869788640215</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.05879093906544614</v>
+        <v>0.01866123881280232</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05744327341787347</v>
+        <v>0.1153854284308545</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02644427101211522</v>
+        <v>0.02180166965679134</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05575790387333251</v>
+        <v>0.1160279753578268</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05342902424903007</v>
+        <v>0.04365631937636341</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05446014579227444</v>
+        <v>0.1161910400368922</v>
       </c>
       <c r="N135" t="n">
-        <v>0.07760739546369444</v>
+        <v>0.06531338095878231</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05451032378517131</v>
+        <v>0.1162476597171233</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.05900471731802379</v>
+        <v>0.01741705579884962</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05826389160955738</v>
+        <v>0.1170337916941525</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02634981437809038</v>
+        <v>0.021417503878842</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05655444535723726</v>
+        <v>0.1176855178629386</v>
       </c>
       <c r="L136" t="n">
-        <v>0.0530966104461319</v>
+        <v>0.04338482932814358</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05523814787502122</v>
+        <v>0.1178509120374193</v>
       </c>
       <c r="N136" t="n">
-        <v>0.07707084393228764</v>
+        <v>0.06505469656404611</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05528904269638803</v>
+        <v>0.117908340570225</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.05921149928944504</v>
+        <v>0.01817683278058148</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05908450980124129</v>
+        <v>0.1186821549574504</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02635166146872561</v>
+        <v>0.02113408993759679</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05735098684114201</v>
+        <v>0.1193430603680504</v>
       </c>
       <c r="L137" t="n">
-        <v>0.05295359994813598</v>
+        <v>0.04261286825261096</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05601614995776799</v>
+        <v>0.1195107840379463</v>
       </c>
       <c r="N137" t="n">
-        <v>0.07641373332511581</v>
+        <v>0.0641942654201908</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05606776160760477</v>
+        <v>0.1195690214233268</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.05941124826961301</v>
+        <v>0.01794522410417042</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05990512799292519</v>
+        <v>0.1203305182207483</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02635007220530515</v>
+        <v>0.02085690534906649</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05814752832504676</v>
+        <v>0.1210006028731622</v>
       </c>
       <c r="L138" t="n">
-        <v>0.05230065744893064</v>
+        <v>0.04225150052338036</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05679415204051477</v>
+        <v>0.1211706560384733</v>
       </c>
       <c r="N138" t="n">
-        <v>0.07573893423373251</v>
+        <v>0.06354873995218946</v>
       </c>
       <c r="O138" t="n">
-        <v>0.0568464805188215</v>
+        <v>0.1212297022764286</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.0596039275484309</v>
+        <v>0.01572688411578897</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0607257461846091</v>
+        <v>0.1219788814840462</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02624530650911329</v>
+        <v>0.020591427629262</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05894406980895151</v>
+        <v>0.1226581453782741</v>
       </c>
       <c r="L139" t="n">
-        <v>0.05203844764240431</v>
+        <v>0.04161179051406669</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05757215412326155</v>
+        <v>0.1228305280390004</v>
       </c>
       <c r="N139" t="n">
-        <v>0.07464931724969132</v>
+        <v>0.06243477258501512</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05762519943003823</v>
+        <v>0.1228903831295303</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.05978950041580179</v>
+        <v>0.01752646716160966</v>
       </c>
       <c r="G140" t="n">
-        <v>0.061546364376293</v>
+        <v>0.1236272447473441</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02613762430143426</v>
+        <v>0.02034313429419411</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05974061129285626</v>
+        <v>0.1243156878833859</v>
       </c>
       <c r="L140" t="n">
-        <v>0.05206763522244531</v>
+        <v>0.04070480259828471</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05835015620600832</v>
+        <v>0.1244904000395274</v>
       </c>
       <c r="N140" t="n">
-        <v>0.07404775296454585</v>
+        <v>0.06166901574364086</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05840391834125497</v>
+        <v>0.1245510639826321</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.05996793016162885</v>
+        <v>0.01634862758780501</v>
       </c>
       <c r="G141" t="n">
-        <v>0.06236698256797692</v>
+        <v>0.1252756080106421</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02602728550355238</v>
+        <v>0.02021750285987368</v>
       </c>
       <c r="K141" t="n">
-        <v>0.060537152776761</v>
+        <v>0.1259732303884977</v>
       </c>
       <c r="L141" t="n">
-        <v>0.05168888488294185</v>
+        <v>0.04074160114964923</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05912815828875511</v>
+        <v>0.1261502720400544</v>
       </c>
       <c r="N141" t="n">
-        <v>0.07373711196984967</v>
+        <v>0.06116812185303983</v>
       </c>
       <c r="O141" t="n">
-        <v>0.0591826372524717</v>
+        <v>0.1262117448357339</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.06013918007581522</v>
+        <v>0.01519801974054757</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06318760075966082</v>
+        <v>0.12692397127394</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02571455003675185</v>
+        <v>0.01992001084231154</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06133369426066575</v>
+        <v>0.1276307728936095</v>
       </c>
       <c r="L142" t="n">
-        <v>0.0512028613177824</v>
+        <v>0.04013325054177511</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05990616037150188</v>
+        <v>0.1278101440405814</v>
       </c>
       <c r="N142" t="n">
-        <v>0.07262026485715645</v>
+        <v>0.05984874333818491</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05996135616368844</v>
+        <v>0.1278724256888356</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.06030321344826399</v>
+        <v>0.01607929796600985</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06400821895134472</v>
+        <v>0.1285723345372379</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02559967782231698</v>
+        <v>0.01985613575751852</v>
       </c>
       <c r="K143" t="n">
-        <v>0.0621302357445705</v>
+        <v>0.1292883153987213</v>
       </c>
       <c r="L143" t="n">
-        <v>0.05101022922085524</v>
+        <v>0.03949081514827721</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06068416245424866</v>
+        <v>0.1294700160411085</v>
       </c>
       <c r="N143" t="n">
-        <v>0.07150008221801973</v>
+        <v>0.05982753262404933</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06074007507490516</v>
+        <v>0.1295331065419374</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.06045999356887836</v>
+        <v>0.0159971166103644</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06482883714302863</v>
+        <v>0.1302206978005358</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02558292878153202</v>
+        <v>0.01953135512150543</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06292677722847526</v>
+        <v>0.1309458579038331</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05061165328604872</v>
+        <v>0.03942535934277028</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06146216453699543</v>
+        <v>0.1311298880416355</v>
       </c>
       <c r="N144" t="n">
-        <v>0.07107943464399319</v>
+        <v>0.05932114213560602</v>
       </c>
       <c r="O144" t="n">
-        <v>0.0615187939861219</v>
+        <v>0.1311937873950391</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.06060948372756143</v>
+        <v>0.01495613001978373</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06564945533471254</v>
+        <v>0.1318690610638338</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02536456283568124</v>
+        <v>0.01965114645028318</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06372331871238</v>
+        <v>0.1326034004089449</v>
       </c>
       <c r="L145" t="n">
-        <v>0.05050779820725121</v>
+        <v>0.03944794749886918</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06224016661974222</v>
+        <v>0.1327897600421626</v>
       </c>
       <c r="N145" t="n">
-        <v>0.07036119272663033</v>
+        <v>0.05934622429782815</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06229751289733863</v>
+        <v>0.1328544682481409</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.06075164721421636</v>
+        <v>0.01695354180662914</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06647007352639644</v>
+        <v>0.1335174243271317</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02544483990604889</v>
+        <v>0.01962098725986255</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06451986019628475</v>
+        <v>0.1342609429140567</v>
       </c>
       <c r="L146" t="n">
-        <v>0.05029932867835099</v>
+        <v>0.03906964399018872</v>
       </c>
       <c r="M146" t="n">
-        <v>0.063018168702489</v>
+        <v>0.1344496320426896</v>
       </c>
       <c r="N146" t="n">
-        <v>0.06994822705748482</v>
+        <v>0.05871943153568865</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06307623180855536</v>
+        <v>0.1345151491012427</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.06088644731874626</v>
+        <v>0.01696095814868367</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06729069171808034</v>
+        <v>0.1351657875904296</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02532401991391925</v>
+        <v>0.01962443574661719</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06531640168018951</v>
+        <v>0.1359184854191685</v>
       </c>
       <c r="L147" t="n">
-        <v>0.04968690939323639</v>
+        <v>0.03947168635040921</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06379617078523576</v>
+        <v>0.1361095040432166</v>
       </c>
       <c r="N147" t="n">
-        <v>0.06894340822811024</v>
+        <v>0.05871903056162892</v>
       </c>
       <c r="O147" t="n">
-        <v>0.0638549507197721</v>
+        <v>0.1361758299543444</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.06101384733105431</v>
+        <v>0.01497478715007273</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06811130990976426</v>
+        <v>0.1368141508537275</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02510236278057655</v>
+        <v>0.01953573402087348</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06611294316409426</v>
+        <v>0.1375760279242803</v>
       </c>
       <c r="L148" t="n">
-        <v>0.04927120504579582</v>
+        <v>0.03929193869444533</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06457417286798255</v>
+        <v>0.1377693760437436</v>
       </c>
       <c r="N148" t="n">
-        <v>0.06814960683006011</v>
+        <v>0.05894816582141305</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06463366963098884</v>
+        <v>0.1378365108074462</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.06113381054104361</v>
+        <v>0.01699468681113498</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06893192810144817</v>
+        <v>0.1384625141170255</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02488012842730511</v>
+        <v>0.01965439560396463</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06690948464799901</v>
+        <v>0.1392335704293922</v>
       </c>
       <c r="L149" t="n">
-        <v>0.04935288032991758</v>
+        <v>0.03952717612245885</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06535217495072933</v>
+        <v>0.1394292480442706</v>
       </c>
       <c r="N149" t="n">
-        <v>0.06766969345488816</v>
+        <v>0.05869991251578727</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06541238854220556</v>
+        <v>0.1394971916605479</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.0612463002386173</v>
+        <v>0.01602031513220909</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06975254629313206</v>
+        <v>0.1401108773803234</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02475757677538916</v>
+        <v>0.01948001801000944</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06770602613190375</v>
+        <v>0.140891112934504</v>
       </c>
       <c r="L150" t="n">
-        <v>0.04903259993948997</v>
+        <v>0.03947658562830689</v>
       </c>
       <c r="M150" t="n">
-        <v>0.0661301770334761</v>
+        <v>0.1410891200447977</v>
       </c>
       <c r="N150" t="n">
-        <v>0.06710653869414784</v>
+        <v>0.05927304703063035</v>
       </c>
       <c r="O150" t="n">
-        <v>0.0661911074534223</v>
+        <v>0.1411578725136497</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.06135127971367854</v>
+        <v>0.01705133011363374</v>
       </c>
       <c r="G151" t="n">
-        <v>0.07057316448481597</v>
+        <v>0.1417592406436213</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02483496774611296</v>
+        <v>0.01961219875312675</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06850256761580852</v>
+        <v>0.1425486554396158</v>
       </c>
       <c r="L151" t="n">
-        <v>0.04871102856840137</v>
+        <v>0.03913935420584669</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06690817911622289</v>
+        <v>0.1427489920453247</v>
       </c>
       <c r="N151" t="n">
-        <v>0.06676301313939292</v>
+        <v>0.05916634575182139</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06696982636463904</v>
+        <v>0.1428185533667515</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.06144871225613044</v>
+        <v>0.0160873897557476</v>
       </c>
       <c r="G152" t="n">
-        <v>0.07139378267649989</v>
+        <v>0.1434076039069192</v>
       </c>
       <c r="J152" t="n">
-        <v>0.0247125612607608</v>
+        <v>0.01975053534743533</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06929910909971326</v>
+        <v>0.1442061979447276</v>
       </c>
       <c r="L152" t="n">
-        <v>0.0481888309105401</v>
+        <v>0.03961466884893536</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06768618119896966</v>
+        <v>0.1444088640458518</v>
       </c>
       <c r="N152" t="n">
-        <v>0.06574198738217696</v>
+        <v>0.05967858506523921</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06774854527585576</v>
+        <v>0.1444792342198532</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.06153856115587618</v>
+        <v>0.01612815205888934</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0722144008681838</v>
+        <v>0.1450559671702172</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02439061724061692</v>
+        <v>0.01959462530705401</v>
       </c>
       <c r="K153" t="n">
-        <v>0.070095650583618</v>
+        <v>0.1458637404498394</v>
       </c>
       <c r="L153" t="n">
-        <v>0.04786667165979452</v>
+        <v>0.03980171655143017</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06846418328171644</v>
+        <v>0.1460687360463788</v>
       </c>
       <c r="N153" t="n">
-        <v>0.06514633201405345</v>
+        <v>0.05960854135676286</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06852726418707249</v>
+        <v>0.146139915072955</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.06162078970281887</v>
+        <v>0.01617327502339764</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07303501905986769</v>
+        <v>0.1467043304335151</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02446939560696561</v>
+        <v>0.01984406614610158</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07089219206752276</v>
+        <v>0.1475212829549512</v>
       </c>
       <c r="L154" t="n">
-        <v>0.04744521551005296</v>
+        <v>0.03969968430718823</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06924218536446321</v>
+        <v>0.1477286080469058</v>
       </c>
       <c r="N154" t="n">
-        <v>0.0648789176265761</v>
+        <v>0.05995499101227103</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06930598309828923</v>
+        <v>0.1478005959260567</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.06169536118686163</v>
+        <v>0.01622241664961116</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0738556372515516</v>
+        <v>0.148352693696813</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02434915628109111</v>
+        <v>0.01989845537869687</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07168873355142751</v>
+        <v>0.149178825460063</v>
       </c>
       <c r="L155" t="n">
-        <v>0.04752512715520371</v>
+        <v>0.04000775911006674</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07002018744720999</v>
+        <v>0.1493884800474329</v>
       </c>
       <c r="N155" t="n">
-        <v>0.06424261481129845</v>
+        <v>0.06011671041764288</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07008470200950596</v>
+        <v>0.1494612767791585</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.06176223889790762</v>
+        <v>0.01727523493786858</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07467625544323551</v>
+        <v>0.1500010569601109</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02423015918427769</v>
+        <v>0.01985739051895868</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07248527503533225</v>
+        <v>0.1508363679651748</v>
       </c>
       <c r="L156" t="n">
-        <v>0.04680707128913517</v>
+        <v>0.0398251279539229</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07079818952995677</v>
+        <v>0.1510483520479599</v>
       </c>
       <c r="N156" t="n">
-        <v>0.06324029415977411</v>
+        <v>0.05999247595875717</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07086342092072269</v>
+        <v>0.1511219576322603</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.06182138612586</v>
+        <v>0.01633138788850858</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07549687363491941</v>
+        <v>0.1516494202234088</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02391266423780962</v>
+        <v>0.01982046908100582</v>
       </c>
       <c r="K157" t="n">
-        <v>0.073281816519237</v>
+        <v>0.1524939104702867</v>
       </c>
       <c r="L157" t="n">
-        <v>0.04659171260573569</v>
+        <v>0.03975097783261389</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07157619161270354</v>
+        <v>0.1527082240484869</v>
       </c>
       <c r="N157" t="n">
-        <v>0.06287482626355662</v>
+        <v>0.05988106402149296</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07164213983193943</v>
+        <v>0.152782638485362</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.06187276616062186</v>
+        <v>0.0174036033635147</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07631749182660331</v>
+        <v>0.1532977834867068</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02379345810462014</v>
+        <v>0.01988750656861815</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07407835800314176</v>
+        <v>0.1541514529753985</v>
       </c>
       <c r="L158" t="n">
-        <v>0.04647014803673749</v>
+        <v>0.04028449573999687</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07235419369545033</v>
+        <v>0.154368096049014</v>
       </c>
       <c r="N158" t="n">
-        <v>0.06294026010287962</v>
+        <v>0.06048125099172913</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07242085874315617</v>
+        <v>0.1544433193384638</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.06191634229209637</v>
+        <v>0.01652899381434053</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07713811001828723</v>
+        <v>0.1549461467500047</v>
       </c>
       <c r="J159" t="n">
-        <v>0.023867053817093</v>
+        <v>0.0199962289056194</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07487489948704651</v>
+        <v>0.1558089954805103</v>
       </c>
       <c r="L159" t="n">
-        <v>0.04622704871531358</v>
+        <v>0.04028349658285735</v>
       </c>
       <c r="M159" t="n">
-        <v>0.0731321957781971</v>
+        <v>0.156027968049541</v>
       </c>
       <c r="N159" t="n">
-        <v>0.06232208856881261</v>
+        <v>0.06097072583040181</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07319957765437289</v>
+        <v>0.1561040001915656</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.06195207781018668</v>
+        <v>0.01670060755009274</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07795872820997114</v>
+        <v>0.1565945100133026</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02373376719147909</v>
+        <v>0.02016611332124399</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07567144097095126</v>
+        <v>0.1574665379856221</v>
       </c>
       <c r="L160" t="n">
-        <v>0.04576323742187929</v>
+        <v>0.04070913110948327</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07391019786094388</v>
+        <v>0.157687840050068</v>
       </c>
       <c r="N160" t="n">
-        <v>0.06151892550510196</v>
+        <v>0.06085151165494646</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07397829656558963</v>
+        <v>0.1577646810446673</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.06197993600479586</v>
+        <v>0.01790812042644146</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07877934640165504</v>
+        <v>0.1582428732766005</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02349400700865406</v>
+        <v>0.02048500973817302</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07646798245485602</v>
+        <v>0.1591240804907339</v>
       </c>
       <c r="L161" t="n">
-        <v>0.04537980625835977</v>
+        <v>0.04093721121147145</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07468819994369065</v>
+        <v>0.1593477120505951</v>
       </c>
       <c r="N161" t="n">
-        <v>0.06162962557246948</v>
+        <v>0.06158827906464737</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07475701547680635</v>
+        <v>0.1594253618977691</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.06199988016582714</v>
+        <v>0.01714120829905681</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07959996459333896</v>
+        <v>0.1598912365398985</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02334818204949357</v>
+        <v>0.02064076807908763</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07726452393876077</v>
+        <v>0.1607816229958457</v>
       </c>
       <c r="L162" t="n">
-        <v>0.04507784732668013</v>
+        <v>0.04144319419563056</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07546620202643743</v>
+        <v>0.1610075840511221</v>
       </c>
       <c r="N162" t="n">
-        <v>0.06105304343163714</v>
+        <v>0.06214409010248756</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07553573438802308</v>
+        <v>0.1610860427508708</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.06201187358318358</v>
+        <v>0.01638954702360892</v>
       </c>
       <c r="G163" t="n">
-        <v>0.08042058278502286</v>
+        <v>0.1615395998031964</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02319670109487322</v>
+        <v>0.02092123826666893</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07806106542266551</v>
+        <v>0.1624391655009575</v>
       </c>
       <c r="L163" t="n">
-        <v>0.04455845272876563</v>
+        <v>0.04190253736876909</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07624420410918421</v>
+        <v>0.1626674560516491</v>
       </c>
       <c r="N163" t="n">
-        <v>0.06098803374332701</v>
+        <v>0.06288200681144956</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07631445329923982</v>
+        <v>0.1627467236039726</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.06201587954676838</v>
+        <v>0.01864281245576793</v>
       </c>
       <c r="G164" t="n">
-        <v>0.08124120097670677</v>
+        <v>0.1631879630664943</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02303997292566869</v>
+        <v>0.02121427022359806</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07885760690657025</v>
+        <v>0.1640967080060693</v>
       </c>
       <c r="L164" t="n">
-        <v>0.04422271456654131</v>
+        <v>0.04299069803769567</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07702220619193098</v>
+        <v>0.1643273280521761</v>
       </c>
       <c r="N164" t="n">
-        <v>0.06073345116826095</v>
+        <v>0.06436509123451645</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07709317221045656</v>
+        <v>0.1644074044570744</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.06201587954676838</v>
+        <v>0.01689068045120395</v>
       </c>
       <c r="G165" t="n">
-        <v>0.08124120097670677</v>
+        <v>0.1648363263297922</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02297840632275562</v>
+        <v>0.02160771387255614</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07965414839047501</v>
+        <v>0.1657542505111811</v>
       </c>
       <c r="L165" t="n">
-        <v>0.04377172494193232</v>
+        <v>0.04318313350921879</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07780020827467778</v>
+        <v>0.1659872000527032</v>
       </c>
       <c r="N165" t="n">
-        <v>0.06008815036716092</v>
+        <v>0.06535640541467069</v>
       </c>
       <c r="O165" t="n">
-        <v>0.0778718911216733</v>
+        <v>0.1660680853101761</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.0609919516263786</v>
+        <v>0.01812282686558714</v>
       </c>
       <c r="G166" t="n">
-        <v>0.08124093244824275</v>
+        <v>0.1664846895930902</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02261241006700965</v>
+        <v>0.02188941913622428</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08045068987437975</v>
+        <v>0.167411793016293</v>
       </c>
       <c r="L166" t="n">
-        <v>0.04320657595686392</v>
+        <v>0.04415530109014709</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07857821035742454</v>
+        <v>0.1676470720532302</v>
       </c>
       <c r="N166" t="n">
-        <v>0.05935098600074895</v>
+        <v>0.06601901139489519</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07865061003289002</v>
+        <v>0.1677287661632779</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.05997934620877411</v>
+        <v>0.01832892755458758</v>
       </c>
       <c r="G167" t="n">
-        <v>0.08124066391977873</v>
+        <v>0.168133052856388</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02254239293930643</v>
+        <v>0.0222472359372836</v>
       </c>
       <c r="K167" t="n">
-        <v>0.0812472313582845</v>
+        <v>0.1690693355214048</v>
       </c>
       <c r="L167" t="n">
-        <v>0.04262835971326118</v>
+        <v>0.04468265808728916</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07935621244017133</v>
+        <v>0.1693069440537572</v>
       </c>
       <c r="N167" t="n">
-        <v>0.05932081272974699</v>
+        <v>0.06671597121817274</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07942932894410676</v>
+        <v>0.1693894470163796</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.0589785678538997</v>
+        <v>0.01850864676289168</v>
       </c>
       <c r="G168" t="n">
-        <v>0.08124039539131471</v>
+        <v>0.169781416119686</v>
       </c>
       <c r="J168" t="n">
-        <v>0.0223687637205216</v>
+        <v>0.02236983196946035</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08204377284218926</v>
+        <v>0.1707268780265166</v>
       </c>
       <c r="L168" t="n">
-        <v>0.04203816831304927</v>
+        <v>0.04464083256911386</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08013421452291811</v>
+        <v>0.1709668160542843</v>
       </c>
       <c r="N168" t="n">
-        <v>0.05929648521487696</v>
+        <v>0.06751036652137143</v>
       </c>
       <c r="O168" t="n">
-        <v>0.0802080478553235</v>
+        <v>0.1710501278694814</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.05799012112183052</v>
+        <v>0.01968266224369333</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08124012686285069</v>
+        <v>0.1714297793829839</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02229193119153081</v>
+        <v>0.02257512175063939</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08284031432609401</v>
+        <v>0.1723844205316284</v>
       </c>
       <c r="L169" t="n">
-        <v>0.04143709385815333</v>
+        <v>0.04505579229504994</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08091221660566487</v>
+        <v>0.1726266880548113</v>
       </c>
       <c r="N169" t="n">
-        <v>0.05897685811686082</v>
+        <v>0.06823505251755285</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08098676676654022</v>
+        <v>0.1727108087225832</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.05701451057251085</v>
+        <v>0.01985247007883338</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08123985833438668</v>
+        <v>0.1730781426462818</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02211230413320969</v>
+        <v>0.02267528436520871</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08363685580999876</v>
+        <v>0.1740419630367402</v>
       </c>
       <c r="L170" t="n">
-        <v>0.04082622845049855</v>
+        <v>0.04556030607215317</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08169021868841166</v>
+        <v>0.1742865600553383</v>
       </c>
       <c r="N170" t="n">
-        <v>0.05866078609642061</v>
+        <v>0.06834397028647898</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08176548567775695</v>
+        <v>0.1743714895756849</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.05605224076592867</v>
+        <v>0.02001839778124341</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08123958980592266</v>
+        <v>0.1747265059095797</v>
       </c>
       <c r="J171" t="n">
-        <v>0.0219302913264339</v>
+        <v>0.02297070525018995</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08443339729390351</v>
+        <v>0.175699505541852</v>
       </c>
       <c r="L171" t="n">
-        <v>0.04080666419201007</v>
+        <v>0.04625515246851983</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08246822077115842</v>
+        <v>0.1759464320558654</v>
       </c>
       <c r="N171" t="n">
-        <v>0.05844712381427819</v>
+        <v>0.06913829161132151</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08254420458897369</v>
+        <v>0.1760321704287867</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.05510381626203106</v>
+        <v>0.019180772863855</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08123932127745864</v>
+        <v>0.1763748691728776</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02174630155207909</v>
+        <v>0.02306176984260476</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08522993877780827</v>
+        <v>0.1773570480469638</v>
       </c>
       <c r="L172" t="n">
-        <v>0.04007949318461304</v>
+        <v>0.046341110052246</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08324622285390522</v>
+        <v>0.1776063040563924</v>
       </c>
       <c r="N172" t="n">
-        <v>0.05793472593115556</v>
+        <v>0.06981918827525252</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08332292350019041</v>
+        <v>0.1776928512818884</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.0541697416208887</v>
+        <v>0.01933992283959973</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08123905274899462</v>
+        <v>0.1780232324361756</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02146074359102089</v>
+        <v>0.02334886357947481</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08602648026171301</v>
+        <v>0.1790145905520756</v>
       </c>
       <c r="L173" t="n">
-        <v>0.03934580753023256</v>
+        <v>0.04711895739142805</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08402422493665199</v>
+        <v>0.1792661760569194</v>
       </c>
       <c r="N173" t="n">
-        <v>0.05742244710777461</v>
+        <v>0.07048783206144366</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08410164241140715</v>
+        <v>0.1793535321349902</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.05325052140244801</v>
+        <v>0.0204961752214092</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08123878422053062</v>
+        <v>0.1796715956994735</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02127402622413495</v>
+        <v>0.02353237189782176</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08682302174561776</v>
+        <v>0.1806721330571875</v>
       </c>
       <c r="L174" t="n">
-        <v>0.03920669933079388</v>
+        <v>0.04698947305416218</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08480222701939877</v>
+        <v>0.1809260480574465</v>
       </c>
       <c r="N174" t="n">
-        <v>0.05720914200485738</v>
+        <v>0.07054539475306693</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08488036132262389</v>
+        <v>0.181014212988092</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.05234666016669706</v>
+        <v>0.02064985752221497</v>
       </c>
       <c r="G175" t="n">
-        <v>0.0812385156920666</v>
+        <v>0.1813199589627714</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02118655823229693</v>
+        <v>0.02361268023466727</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08761956322952251</v>
+        <v>0.1823296755622993</v>
       </c>
       <c r="L175" t="n">
-        <v>0.03826326068822206</v>
+        <v>0.04735343560854458</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08558022910214555</v>
+        <v>0.1825859200579735</v>
       </c>
       <c r="N175" t="n">
-        <v>0.05689366528312595</v>
+        <v>0.07129304813329418</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08565908023384061</v>
+        <v>0.1826748938411937</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.05145866247358559</v>
+        <v>0.01880129725494864</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08123824716360258</v>
+        <v>0.1829683222260693</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02089874839638244</v>
+        <v>0.02379017402703298</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08841610471342726</v>
+        <v>0.1839872180674111</v>
       </c>
       <c r="L176" t="n">
-        <v>0.03811658370444235</v>
+        <v>0.04801162362267147</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08635823118489232</v>
+        <v>0.1842457920585005</v>
       </c>
       <c r="N176" t="n">
-        <v>0.05647487160330211</v>
+        <v>0.07173196398529708</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08643779914505735</v>
+        <v>0.1843355746942955</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.05058703288317895</v>
+        <v>0.02095082193254179</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08123797863513856</v>
+        <v>0.1846166854893673</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02071100549726716</v>
+        <v>0.02406523871194058</v>
       </c>
       <c r="K177" t="n">
-        <v>0.089212646197332</v>
+        <v>0.1856447605725229</v>
       </c>
       <c r="L177" t="n">
-        <v>0.03736776048137982</v>
+        <v>0.04836481566463918</v>
       </c>
       <c r="M177" t="n">
-        <v>0.0871362332676391</v>
+        <v>0.1859056640590275</v>
       </c>
       <c r="N177" t="n">
-        <v>0.05655161562610783</v>
+        <v>0.07226331409224757</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08721651805627409</v>
+        <v>0.1859962555473973</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.0497322759554262</v>
+        <v>0.02109875906792602</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08123771010667453</v>
+        <v>0.1862650487526652</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02052373831582671</v>
+        <v>0.02433825972641172</v>
       </c>
       <c r="K178" t="n">
-        <v>0.09000918768123675</v>
+        <v>0.1873023030776347</v>
       </c>
       <c r="L178" t="n">
-        <v>0.03701788312095966</v>
+        <v>0.04841379030254386</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08791423535038588</v>
+        <v>0.1875655360595546</v>
       </c>
       <c r="N178" t="n">
-        <v>0.05582275201226516</v>
+        <v>0.0726882702373175</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08799523696749083</v>
+        <v>0.187656936400499</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.0488948962503154</v>
+        <v>0.02124743979184295</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08123744157821053</v>
+        <v>0.1879134120159631</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02043735563293678</v>
+        <v>0.02450966638576575</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09080572916514151</v>
+        <v>0.1889598455827465</v>
       </c>
       <c r="L179" t="n">
-        <v>0.03596804372510701</v>
+        <v>0.04905932610448172</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08869223743313266</v>
+        <v>0.1892254080600816</v>
       </c>
       <c r="N179" t="n">
-        <v>0.05508713542249599</v>
+        <v>0.07370800420367873</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08877395587870755</v>
+        <v>0.1893176172536008</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04807539832779931</v>
+        <v>0.01940487530315946</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08123717304974649</v>
+        <v>0.189561775279261</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02005226622947294</v>
+        <v>0.02458804648678264</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09160227064904626</v>
+        <v>0.1906173880878583</v>
       </c>
       <c r="L180" t="n">
-        <v>0.03591933439574704</v>
+        <v>0.04941572943358474</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08947023951587943</v>
+        <v>0.1908852800606086</v>
       </c>
       <c r="N180" t="n">
-        <v>0.05484362051752234</v>
+        <v>0.07454242942267031</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08955267478992428</v>
+        <v>0.1909782981067025</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.04727428674793734</v>
+        <v>0.02056703001587259</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08123690452128249</v>
+        <v>0.191210138542559</v>
       </c>
       <c r="J181" t="n">
-        <v>0.0200688788863109</v>
+        <v>0.02487502969213473</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09239881213295101</v>
+        <v>0.1922749305929701</v>
       </c>
       <c r="L181" t="n">
-        <v>0.03507284723480486</v>
+        <v>0.04949102455290136</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09024824159862621</v>
+        <v>0.1925451520611357</v>
       </c>
       <c r="N181" t="n">
-        <v>0.05479106195806605</v>
+        <v>0.07500595040799019</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09033139370114102</v>
+        <v>0.1926389789598043</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.04649206607068147</v>
+        <v>0.02172827783546151</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08123663599281847</v>
+        <v>0.1928585018058569</v>
       </c>
       <c r="J182" t="n">
-        <v>0.0198876023843263</v>
+        <v>0.02506399487359608</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09319535361685576</v>
+        <v>0.1939324730980819</v>
       </c>
       <c r="L182" t="n">
-        <v>0.03432967434420567</v>
+        <v>0.04987187547323582</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09102624368137299</v>
+        <v>0.1942050240616627</v>
       </c>
       <c r="N182" t="n">
-        <v>0.05412831440484928</v>
+        <v>0.07547864281637645</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09111011261235774</v>
+        <v>0.1942996598129061</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.04572924085601973</v>
+        <v>0.02188299266740548</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08123636746435446</v>
+        <v>0.1945068650691548</v>
       </c>
       <c r="J183" t="n">
-        <v>0.01960884550439473</v>
+        <v>0.0252483209029408</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09399189510076052</v>
+        <v>0.1955900156031938</v>
       </c>
       <c r="L183" t="n">
-        <v>0.0337909078258746</v>
+        <v>0.05054490776787754</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09180424576411976</v>
+        <v>0.1958648960621897</v>
       </c>
       <c r="N183" t="n">
-        <v>0.05395423251859377</v>
+        <v>0.07614037747964381</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09188883152357448</v>
+        <v>0.1959603406660078</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.04498631566390832</v>
+        <v>0.02102554841718365</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08123609893589043</v>
+        <v>0.1961552283324527</v>
       </c>
       <c r="J184" t="n">
-        <v>0.01943301702739191</v>
+        <v>0.02542138665194295</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09478843658466526</v>
+        <v>0.1972475581083055</v>
       </c>
       <c r="L184" t="n">
-        <v>0.03375763978173682</v>
+        <v>0.05109674701011596</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09258224784686654</v>
+        <v>0.1975247680627168</v>
       </c>
       <c r="N184" t="n">
-        <v>0.05346767096002164</v>
+        <v>0.07607102522960724</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09266755043479122</v>
+        <v>0.1976210215191096</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.04426379505439991</v>
+        <v>0.02115031899027527</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08123583040742642</v>
+        <v>0.1978035915957506</v>
       </c>
       <c r="J185" t="n">
-        <v>0.01926052573419341</v>
+        <v>0.02537657099237663</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09558497806857001</v>
+        <v>0.1989051006134174</v>
       </c>
       <c r="L185" t="n">
-        <v>0.03323096231371747</v>
+        <v>0.05141401877324031</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09336024992961332</v>
+        <v>0.1991846400632438</v>
       </c>
       <c r="N185" t="n">
-        <v>0.05336748438985478</v>
+        <v>0.07725045689808147</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09344626934600794</v>
+        <v>0.1992817023722114</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.04356218358744983</v>
+        <v>0.0222516782921595</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0812355618789624</v>
+        <v>0.1994519548590486</v>
       </c>
       <c r="J186" t="n">
-        <v>0.01919178040567494</v>
+        <v>0.02570725279601592</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09638151955247476</v>
+        <v>0.2005626431185292</v>
       </c>
       <c r="L186" t="n">
-        <v>0.03251196752374166</v>
+        <v>0.05128334863054004</v>
       </c>
       <c r="M186" t="n">
-        <v>0.0941382520123601</v>
+        <v>0.2008445120637709</v>
       </c>
       <c r="N186" t="n">
-        <v>0.05325252746881515</v>
+        <v>0.07755854331688139</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09422498825722468</v>
+        <v>0.2009423832253131</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.0428819858230461</v>
+        <v>0.02232419147415089</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08123529335049839</v>
+        <v>0.2011003181223465</v>
       </c>
       <c r="J187" t="n">
-        <v>0.01882718982271211</v>
+        <v>0.02570681093463489</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09717806103637952</v>
+        <v>0.202220185623641</v>
       </c>
       <c r="L187" t="n">
-        <v>0.03200174751373464</v>
+        <v>0.05169136215530454</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09491625409510687</v>
+        <v>0.2025043840642979</v>
       </c>
       <c r="N187" t="n">
-        <v>0.05262165485762477</v>
+        <v>0.07767515531782171</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09500370716844142</v>
+        <v>0.2026030640784149</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.04222370632114864</v>
+        <v>0.02038304402146321</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08123502482203436</v>
+        <v>0.2027486813856444</v>
       </c>
       <c r="J188" t="n">
-        <v>0.01866716276618058</v>
+        <v>0.02587786069500951</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09797460252028425</v>
+        <v>0.2038777281287528</v>
       </c>
       <c r="L188" t="n">
-        <v>0.03130139438562149</v>
+        <v>0.05163781261592174</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09569425617785365</v>
+        <v>0.2041642560648249</v>
       </c>
       <c r="N188" t="n">
-        <v>0.0519737212170055</v>
+        <v>0.07749738952144508</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09578242607965815</v>
+        <v>0.2042637449315166</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.04158784964180276</v>
+        <v>0.02244060582968013</v>
       </c>
       <c r="G189" t="n">
-        <v>0.08123475629357035</v>
+        <v>0.2043970446489423</v>
       </c>
       <c r="J189" t="n">
-        <v>0.01861210801695598</v>
+        <v>0.02594548921767698</v>
       </c>
       <c r="K189" t="n">
-        <v>0.098771144004189</v>
+        <v>0.2055352706338646</v>
       </c>
       <c r="L189" t="n">
-        <v>0.03071200024132742</v>
+        <v>0.05187435948362457</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09647225826060044</v>
+        <v>0.2058241280653519</v>
       </c>
       <c r="N189" t="n">
-        <v>0.05130758120767948</v>
+        <v>0.07790286754532988</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09656114499087487</v>
+        <v>0.2059244257846184</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.04097286005834933</v>
+        <v>0.02049685619401255</v>
       </c>
       <c r="G190" t="n">
-        <v>0.08123448776510633</v>
+        <v>0.2060454079122403</v>
       </c>
       <c r="J190" t="n">
-        <v>0.01846243435591395</v>
+        <v>0.02601159302137845</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09956768548809376</v>
+        <v>0.2071928131389764</v>
       </c>
       <c r="L190" t="n">
-        <v>0.03033465718277747</v>
+        <v>0.0523078359801589</v>
       </c>
       <c r="M190" t="n">
-        <v>0.0972502603433472</v>
+        <v>0.207484000065879</v>
       </c>
       <c r="N190" t="n">
-        <v>0.05062208949036834</v>
+        <v>0.0780037294667873</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09733986390209161</v>
+        <v>0.2075851066377201</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.04036688041106919</v>
+        <v>0.02255177440967131</v>
       </c>
       <c r="G191" t="n">
-        <v>0.08123421923664231</v>
+        <v>0.2076937711755382</v>
       </c>
       <c r="J191" t="n">
-        <v>0.01841855056393016</v>
+        <v>0.02587614773946606</v>
       </c>
       <c r="K191" t="n">
-        <v>0.1003642269719985</v>
+        <v>0.2088503556440882</v>
       </c>
       <c r="L191" t="n">
-        <v>0.03027045731189693</v>
+        <v>0.05213819288582461</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09802826242609398</v>
+        <v>0.209143872066406</v>
       </c>
       <c r="N191" t="n">
-        <v>0.05071610072579441</v>
+        <v>0.07839990120775447</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09811858281330835</v>
+        <v>0.2092457874908219</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03976835497330673</v>
+        <v>0.02260533977186725</v>
       </c>
       <c r="G192" t="n">
-        <v>0.08123395070817829</v>
+        <v>0.2093421344388361</v>
       </c>
       <c r="J192" t="n">
-        <v>0.01808086542188025</v>
+        <v>0.02613912900529204</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1011607684559033</v>
+        <v>0.2105078981492</v>
       </c>
       <c r="L192" t="n">
-        <v>0.02932049273061088</v>
+        <v>0.05246538098092166</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09880626450884077</v>
+        <v>0.210803744066933</v>
       </c>
       <c r="N192" t="n">
-        <v>0.04978846957467953</v>
+        <v>0.07889130869016886</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09889730172452507</v>
+        <v>0.2109064683439237</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03917778830510216</v>
+        <v>0.02165753157581125</v>
       </c>
       <c r="G193" t="n">
-        <v>0.08123368217971427</v>
+        <v>0.210990497702134</v>
       </c>
       <c r="J193" t="n">
-        <v>0.01814710398198281</v>
+        <v>0.02600051245220852</v>
       </c>
       <c r="K193" t="n">
-        <v>0.101957309939808</v>
+        <v>0.2121654406543119</v>
       </c>
       <c r="L193" t="n">
-        <v>0.02897369020949445</v>
+        <v>0.05268935104574993</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09958426659158755</v>
+        <v>0.2124636160674601</v>
       </c>
       <c r="N193" t="n">
-        <v>0.04901734060184998</v>
+        <v>0.07857787783596754</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09967602063574181</v>
+        <v>0.2125671491970254</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03859568496641731</v>
+        <v>0.02270832911671417</v>
       </c>
       <c r="G194" t="n">
-        <v>0.08123341365125027</v>
+        <v>0.212638860965432</v>
       </c>
       <c r="J194" t="n">
-        <v>0.01781405420137837</v>
+        <v>0.02626027371356772</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1027538514237128</v>
+        <v>0.2138229831594237</v>
       </c>
       <c r="L194" t="n">
-        <v>0.02871594416668727</v>
+        <v>0.05251005386060939</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1003622686743343</v>
+        <v>0.2141234880679871</v>
       </c>
       <c r="N194" t="n">
-        <v>0.04897899169876235</v>
+        <v>0.07905953456708781</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1004547395469585</v>
+        <v>0.2142278300501272</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.0380225495172402</v>
+        <v>0.02075771168978684</v>
       </c>
       <c r="G195" t="n">
-        <v>0.08123314512278625</v>
+        <v>0.2142872242287299</v>
       </c>
       <c r="J195" t="n">
-        <v>0.01788174683696199</v>
+        <v>0.02631838842272176</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1035503929076175</v>
+        <v>0.2154805256645355</v>
       </c>
       <c r="L195" t="n">
-        <v>0.02824832966095084</v>
+        <v>0.0526274402057999</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1011402707570811</v>
+        <v>0.2157833600685141</v>
       </c>
       <c r="N195" t="n">
-        <v>0.04787705927439612</v>
+        <v>0.07893620480546704</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1012334584581753</v>
+        <v>0.215888510903229</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.0374588865175346</v>
+        <v>0.02180565859024014</v>
       </c>
       <c r="G196" t="n">
-        <v>0.08123287659432223</v>
+        <v>0.2159355874920278</v>
       </c>
       <c r="J196" t="n">
-        <v>0.01765022369496959</v>
+        <v>0.02637483221302288</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1043469343915223</v>
+        <v>0.2171380681696473</v>
       </c>
       <c r="L196" t="n">
-        <v>0.02787196814194953</v>
+        <v>0.05284146086162139</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1019182728398279</v>
+        <v>0.2174432320690412</v>
       </c>
       <c r="N196" t="n">
-        <v>0.04721525337289889</v>
+        <v>0.07960781447304238</v>
       </c>
       <c r="O196" t="n">
-        <v>0.102012177369392</v>
+        <v>0.2175491917563307</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03690520052733759</v>
+        <v>0.02185214911328492</v>
       </c>
       <c r="G197" t="n">
-        <v>0.08123260806585821</v>
+        <v>0.2175839507553257</v>
       </c>
       <c r="J197" t="n">
-        <v>0.01741952658163709</v>
+        <v>0.02622958071782321</v>
       </c>
       <c r="K197" t="n">
-        <v>0.105143475875427</v>
+        <v>0.2187956106747591</v>
       </c>
       <c r="L197" t="n">
-        <v>0.02748798105934741</v>
+        <v>0.05285206660837388</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1026962749225746</v>
+        <v>0.2191031040695682</v>
       </c>
       <c r="N197" t="n">
-        <v>0.04659728403841829</v>
+        <v>0.07917428949175109</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1027908962806087</v>
+        <v>0.2192098726094325</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03636199610661249</v>
+        <v>0.02289716255413204</v>
       </c>
       <c r="G198" t="n">
-        <v>0.0812323395373942</v>
+        <v>0.2192323140186236</v>
       </c>
       <c r="J198" t="n">
-        <v>0.0172896973032004</v>
+        <v>0.02628260957047494</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1059400173593318</v>
+        <v>0.2204531531798709</v>
       </c>
       <c r="L198" t="n">
-        <v>0.0265974898628088</v>
+        <v>0.05305920822635712</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1034742770053214</v>
+        <v>0.2207629760700952</v>
       </c>
       <c r="N198" t="n">
-        <v>0.04532686131510189</v>
+        <v>0.07983555578353047</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1035696151918255</v>
+        <v>0.2208705534625342</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03582977781534735</v>
+        <v>0.02094067820799235</v>
       </c>
       <c r="G199" t="n">
-        <v>0.08123207100893018</v>
+        <v>0.2208806772819215</v>
       </c>
       <c r="J199" t="n">
-        <v>0.01716077766589548</v>
+        <v>0.02633389440433025</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1067365588432365</v>
+        <v>0.2221106956849827</v>
       </c>
       <c r="L199" t="n">
-        <v>0.02600161600199791</v>
+        <v>0.05296283649587108</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1042522790880682</v>
+        <v>0.2224228480706222</v>
       </c>
       <c r="N199" t="n">
-        <v>0.04470769524709717</v>
+        <v>0.08019153927031769</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1043483341030422</v>
+        <v>0.222531234315636</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.0353090502135078</v>
+        <v>0.02098267537007673</v>
       </c>
       <c r="G200" t="n">
-        <v>0.08123180248046616</v>
+        <v>0.2225290405452195</v>
       </c>
       <c r="J200" t="n">
-        <v>0.01713280947595822</v>
+        <v>0.02648341085274133</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1075331003271413</v>
+        <v>0.2237682381900945</v>
       </c>
       <c r="L200" t="n">
-        <v>0.02580148092657902</v>
+        <v>0.05346290219721575</v>
       </c>
       <c r="M200" t="n">
-        <v>0.105030281170815</v>
+        <v>0.2240827200711493</v>
       </c>
       <c r="N200" t="n">
-        <v>0.04414349587855171</v>
+        <v>0.08004216587405011</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1051270530142589</v>
+        <v>0.2241919151687378</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03480031786112725</v>
+        <v>0.02302313333559601</v>
       </c>
       <c r="G201" t="n">
-        <v>0.08123153395200214</v>
+        <v>0.2241774038085174</v>
       </c>
       <c r="J201" t="n">
-        <v>0.01710583453962454</v>
+        <v>0.02643113454906033</v>
       </c>
       <c r="K201" t="n">
-        <v>0.108329641811046</v>
+        <v>0.2254257806952064</v>
       </c>
       <c r="L201" t="n">
-        <v>0.02539820608621632</v>
+        <v>0.05325935611069099</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1058082832535618</v>
+        <v>0.2257425920716763</v>
       </c>
       <c r="N201" t="n">
-        <v>0.04233797325361321</v>
+        <v>0.07968736151666495</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1059057719254757</v>
+        <v>0.2258525960218395</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03430408531817082</v>
+        <v>0.02206203139976105</v>
       </c>
       <c r="G202" t="n">
-        <v>0.08123126542353813</v>
+        <v>0.2258257670718153</v>
       </c>
       <c r="J202" t="n">
-        <v>0.01677989466313039</v>
+        <v>0.02647704112663947</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1091261832949508</v>
+        <v>0.2270833232003182</v>
       </c>
       <c r="L202" t="n">
-        <v>0.02459291293057403</v>
+        <v>0.05315214901659673</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1065862853363085</v>
+        <v>0.2274024640722034</v>
       </c>
       <c r="N202" t="n">
-        <v>0.04149483741642923</v>
+        <v>0.08012705212009946</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1066844908366924</v>
+        <v>0.2275132768749413</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03382085714462654</v>
+        <v>0.02309934885778271</v>
       </c>
       <c r="G203" t="n">
-        <v>0.08123099689507411</v>
+        <v>0.2274741303351133</v>
       </c>
       <c r="J203" t="n">
-        <v>0.01685503165271167</v>
+        <v>0.02652110621883087</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1099227247788555</v>
+        <v>0.22874086570543</v>
       </c>
       <c r="L203" t="n">
-        <v>0.02438672290931643</v>
+        <v>0.05334123169523289</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1073642874190553</v>
+        <v>0.2290623360727304</v>
       </c>
       <c r="N203" t="n">
-        <v>0.04101779841114717</v>
+        <v>0.08056116360629106</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1074632097479091</v>
+        <v>0.229173957728043</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03335113790046233</v>
+        <v>0.02213506500487186</v>
       </c>
       <c r="G204" t="n">
-        <v>0.08123072836661009</v>
+        <v>0.2291224935984112</v>
       </c>
       <c r="J204" t="n">
-        <v>0.01653128731460432</v>
+        <v>0.02676330545898677</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1107192662627603</v>
+        <v>0.2303984082105418</v>
       </c>
       <c r="L204" t="n">
-        <v>0.02398075747210771</v>
+        <v>0.05362655492689936</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1081422895018021</v>
+        <v>0.2307222080732574</v>
       </c>
       <c r="N204" t="n">
-        <v>0.03911056628191478</v>
+        <v>0.08088962189717674</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1082419286591259</v>
+        <v>0.2308346385811448</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03289543214570713</v>
+        <v>0.02316915913623935</v>
       </c>
       <c r="G205" t="n">
-        <v>0.08123045983814607</v>
+        <v>0.2307708568617091</v>
       </c>
       <c r="J205" t="n">
-        <v>0.01640870345504424</v>
+        <v>0.02660361448045928</v>
       </c>
       <c r="K205" t="n">
-        <v>0.111515807746665</v>
+        <v>0.2320559507156536</v>
       </c>
       <c r="L205" t="n">
-        <v>0.02307613806861211</v>
+        <v>0.05350806949189607</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1089202915845489</v>
+        <v>0.2323820800737844</v>
       </c>
       <c r="N205" t="n">
-        <v>0.0386768510728796</v>
+        <v>0.08101235291469394</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1090206475703426</v>
+        <v>0.2324953194342466</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03245424444032825</v>
+        <v>0.02320161054709603</v>
       </c>
       <c r="G206" t="n">
-        <v>0.08123019130968205</v>
+        <v>0.232419220125007</v>
       </c>
       <c r="J206" t="n">
-        <v>0.01628732188026735</v>
+        <v>0.02674200891660063</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1123123492305697</v>
+        <v>0.2337134932207654</v>
       </c>
       <c r="L206" t="n">
-        <v>0.02277398614849394</v>
+        <v>0.05388572617052298</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1096982936672956</v>
+        <v>0.2340419520743115</v>
       </c>
       <c r="N206" t="n">
-        <v>0.0370203628281891</v>
+        <v>0.08112928258077984</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1097993664815593</v>
+        <v>0.2341560002873483</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03202807934431372</v>
+        <v>0.02123239853265275</v>
       </c>
       <c r="G207" t="n">
-        <v>0.08122992278121804</v>
+        <v>0.2340675833883049</v>
       </c>
       <c r="J207" t="n">
-        <v>0.01626718439650961</v>
+        <v>0.02687846440076298</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1131088907144745</v>
+        <v>0.2353710357258772</v>
       </c>
       <c r="L207" t="n">
-        <v>0.02197542316141732</v>
+        <v>0.05405947574307998</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1104762957500424</v>
+        <v>0.2357018240748385</v>
       </c>
       <c r="N207" t="n">
-        <v>0.03604481159199102</v>
+        <v>0.08064033681737171</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1105780853927761</v>
+        <v>0.2358166811404501</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03161744141763409</v>
+        <v>0.0212615023881204</v>
       </c>
       <c r="G208" t="n">
-        <v>0.08122965425275401</v>
+        <v>0.2357159466516029</v>
       </c>
       <c r="J208" t="n">
-        <v>0.01614833281000692</v>
+        <v>0.02681295656629852</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1139054321983793</v>
+        <v>0.237028578230989</v>
       </c>
       <c r="L208" t="n">
-        <v>0.02158157055704651</v>
+        <v>0.05402926898986699</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1112542978327892</v>
+        <v>0.2373616960753656</v>
       </c>
       <c r="N208" t="n">
-        <v>0.03525390740843282</v>
+        <v>0.08134544154640688</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1113568043039928</v>
+        <v>0.2374773619935519</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03122283522031315</v>
+        <v>0.02228890140870982</v>
       </c>
       <c r="G209" t="n">
-        <v>0.08122938572429</v>
+        <v>0.2373643099149008</v>
       </c>
       <c r="J209" t="n">
-        <v>0.01593080892699518</v>
+        <v>0.02694546104655939</v>
       </c>
       <c r="K209" t="n">
-        <v>0.114701973682284</v>
+        <v>0.2386861207361008</v>
       </c>
       <c r="L209" t="n">
-        <v>0.02139354978504585</v>
+        <v>0.05399505669118387</v>
       </c>
       <c r="M209" t="n">
-        <v>0.112032299915536</v>
+        <v>0.2390215680758926</v>
       </c>
       <c r="N209" t="n">
-        <v>0.03405136032166206</v>
+        <v>0.08104452268982254</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1121355232152095</v>
+        <v>0.2391380428466536</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03084476531232073</v>
+        <v>0.02331457488963183</v>
       </c>
       <c r="G210" t="n">
-        <v>0.08122911719582598</v>
+        <v>0.2390126731781987</v>
       </c>
       <c r="J210" t="n">
-        <v>0.01601465455371034</v>
+        <v>0.02677595347489779</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1154985151661888</v>
+        <v>0.2403436632412126</v>
       </c>
       <c r="L210" t="n">
-        <v>0.02091248229507942</v>
+        <v>0.05395678962733058</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1128103019982828</v>
+        <v>0.2406814400764196</v>
       </c>
       <c r="N210" t="n">
-        <v>0.03264088037582641</v>
+        <v>0.08133750616955593</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1129142421264263</v>
+        <v>0.2407987236997554</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03048373625364485</v>
+        <v>0.02233850212609736</v>
       </c>
       <c r="G211" t="n">
-        <v>0.08122884866736198</v>
+        <v>0.2406610364414966</v>
       </c>
       <c r="J211" t="n">
-        <v>0.01569991149638834</v>
+        <v>0.02680440948466591</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1162950566500935</v>
+        <v>0.2420012057463245</v>
       </c>
       <c r="L211" t="n">
-        <v>0.02023948953681154</v>
+        <v>0.05381441857860708</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1135883040810295</v>
+        <v>0.2423413120769466</v>
       </c>
       <c r="N211" t="n">
-        <v>0.03162617761507341</v>
+        <v>0.08092431790754434</v>
       </c>
       <c r="O211" t="n">
-        <v>0.113692961037643</v>
+        <v>0.2424594045528571</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03014025260425905</v>
+        <v>0.02136066241331722</v>
       </c>
       <c r="G212" t="n">
-        <v>0.08122858013889794</v>
+        <v>0.2423093997047945</v>
       </c>
       <c r="J212" t="n">
-        <v>0.01578662156126506</v>
+        <v>0.02693080470921592</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1170915981339983</v>
+        <v>0.2436587482514363</v>
       </c>
       <c r="L212" t="n">
-        <v>0.02007569295990644</v>
+        <v>0.05386789432531325</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1143663061637763</v>
+        <v>0.2440011840774736</v>
       </c>
       <c r="N212" t="n">
-        <v>0.02961096208355052</v>
+        <v>0.08170488382572511</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1144716799488597</v>
+        <v>0.2441200854059589</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02981481892418127</v>
+        <v>0.02338103504650225</v>
       </c>
       <c r="G213" t="n">
-        <v>0.08122831161043394</v>
+        <v>0.2439577629680925</v>
       </c>
       <c r="J213" t="n">
-        <v>0.01557482655457645</v>
+        <v>0.02685511478189997</v>
       </c>
       <c r="K213" t="n">
-        <v>0.117888139617903</v>
+        <v>0.2453162907565481</v>
       </c>
       <c r="L213" t="n">
-        <v>0.01942221401402827</v>
+        <v>0.05411716764774899</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1151443082465231</v>
+        <v>0.2456610560780007</v>
       </c>
       <c r="N213" t="n">
-        <v>0.02849894382540547</v>
+        <v>0.08127912984603536</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1152503988600765</v>
+        <v>0.2457807662590607</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02950793977338419</v>
+        <v>0.02339959932086337</v>
       </c>
       <c r="G214" t="n">
-        <v>0.08122804308196992</v>
+        <v>0.2456061262313904</v>
       </c>
       <c r="J214" t="n">
-        <v>0.01536456828255843</v>
+        <v>0.02687731533607028</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1186846811018078</v>
+        <v>0.2469738332616599</v>
       </c>
       <c r="L214" t="n">
-        <v>0.01868017414884143</v>
+        <v>0.05406218932621421</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1159223103292699</v>
+        <v>0.2473209280785277</v>
       </c>
       <c r="N214" t="n">
-        <v>0.02739383288478581</v>
+        <v>0.08104698189041237</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1160291177712932</v>
+        <v>0.2474414471121624</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02950793977338417</v>
+        <v>0.02141633453161136</v>
       </c>
       <c r="G215" t="n">
-        <v>0.08122804308196992</v>
+        <v>0.2472544894946883</v>
       </c>
       <c r="J215" t="n">
-        <v>0.01545588855144692</v>
+        <v>0.02709738200507901</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1194812225857125</v>
+        <v>0.2486313757667717</v>
       </c>
       <c r="L215" t="n">
-        <v>0.01835069481401</v>
+        <v>0.05420291014100889</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1167003124120166</v>
+        <v>0.2489808000790548</v>
       </c>
       <c r="N215" t="n">
-        <v>0.02659933930583902</v>
+        <v>0.08150836588079358</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1168078366825099</v>
+        <v>0.2491021279652642</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02876201813742547</v>
+        <v>0.02143121997395714</v>
       </c>
       <c r="G216" t="n">
-        <v>0.08109231997744171</v>
+        <v>0.2489028527579862</v>
       </c>
       <c r="J216" t="n">
-        <v>0.01524882916747781</v>
+        <v>0.02701529042227832</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1202777640696173</v>
+        <v>0.2502889182718835</v>
       </c>
       <c r="L216" t="n">
-        <v>0.01833489745919831</v>
+        <v>0.05413928087243286</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1174783144947634</v>
+        <v>0.2506406720795818</v>
       </c>
       <c r="N216" t="n">
-        <v>0.02481917313271276</v>
+        <v>0.08116320773911595</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1175865555937267</v>
+        <v>0.2507628088183659</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02802405428303154</v>
+        <v>0.02344423494311153</v>
       </c>
       <c r="G217" t="n">
-        <v>0.0809565968729135</v>
+        <v>0.2505512160212842</v>
       </c>
       <c r="J217" t="n">
-        <v>0.0152434319368871</v>
+        <v>0.02693101622102041</v>
       </c>
       <c r="K217" t="n">
-        <v>0.121074305553522</v>
+        <v>0.2519464607769953</v>
       </c>
       <c r="L217" t="n">
-        <v>0.01743390353407051</v>
+        <v>0.05447125230078614</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1182563165775102</v>
+        <v>0.2523005440801088</v>
       </c>
       <c r="N217" t="n">
-        <v>0.02425704440955462</v>
+        <v>0.08201143338731703</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1183652745049434</v>
+        <v>0.2524234896714677</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02729435956695571</v>
+        <v>0.0224553587342854</v>
       </c>
       <c r="G218" t="n">
-        <v>0.08082087376838527</v>
+        <v>0.2521995792845821</v>
       </c>
       <c r="J218" t="n">
-        <v>0.01513973866591063</v>
+        <v>0.02704453503465747</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1218708470374268</v>
+        <v>0.2536040032821071</v>
       </c>
       <c r="L218" t="n">
-        <v>0.01704883448829095</v>
+        <v>0.05459877520636858</v>
       </c>
       <c r="M218" t="n">
-        <v>0.119034318660257</v>
+        <v>0.2539604160806359</v>
       </c>
       <c r="N218" t="n">
-        <v>0.02311666318051209</v>
+        <v>0.08165296874733385</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1191439934161601</v>
+        <v>0.2540841705245695</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02657324534595162</v>
+        <v>0.02246457064268961</v>
       </c>
       <c r="G219" t="n">
-        <v>0.08068515066385708</v>
+        <v>0.25384794254788</v>
       </c>
       <c r="J219" t="n">
-        <v>0.01503779116078437</v>
+        <v>0.02715582249654162</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1226673885213315</v>
+        <v>0.255261545787219</v>
       </c>
       <c r="L219" t="n">
-        <v>0.01708081177152371</v>
+        <v>0.05412180036948011</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1198123207430038</v>
+        <v>0.2556202880811629</v>
       </c>
       <c r="N219" t="n">
-        <v>0.02200173948973277</v>
+        <v>0.08178773974110382</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1199227123273769</v>
+        <v>0.2557448513776713</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02586102297677256</v>
+        <v>0.02247184996353502</v>
       </c>
       <c r="G220" t="n">
-        <v>0.08054942755932885</v>
+        <v>0.2554963058111779</v>
       </c>
       <c r="J220" t="n">
-        <v>0.01473763122774421</v>
+        <v>0.0271648542400251</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1234639300052363</v>
+        <v>0.2569190882923308</v>
       </c>
       <c r="L220" t="n">
-        <v>0.01653095683343317</v>
+        <v>0.05424027857042063</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1205903228257506</v>
+        <v>0.2572801600816899</v>
       </c>
       <c r="N220" t="n">
-        <v>0.0209159833813643</v>
+        <v>0.08161567229056416</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1207014312385936</v>
+        <v>0.257405532230773</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02515800381617216</v>
+        <v>0.02247717599203249</v>
       </c>
       <c r="G221" t="n">
-        <v>0.08041370445480066</v>
+        <v>0.2571446690744759</v>
       </c>
       <c r="J221" t="n">
-        <v>0.01463930067302611</v>
+        <v>0.02697160589846002</v>
       </c>
       <c r="K221" t="n">
-        <v>0.124260471489141</v>
+        <v>0.2585766307974426</v>
       </c>
       <c r="L221" t="n">
-        <v>0.01610039112368347</v>
+        <v>0.05435416058949011</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1213683249084973</v>
+        <v>0.258940032082217</v>
       </c>
       <c r="N221" t="n">
-        <v>0.01926310489955413</v>
+        <v>0.08203669231765209</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1214801501498103</v>
+        <v>0.2590662130838747</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02446449922090373</v>
+        <v>0.02248052802339284</v>
       </c>
       <c r="G222" t="n">
-        <v>0.08027798135027243</v>
+        <v>0.2587930323377738</v>
       </c>
       <c r="J222" t="n">
-        <v>0.014542841302866</v>
+        <v>0.02697605310519866</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1250570129730458</v>
+        <v>0.2602341733025544</v>
       </c>
       <c r="L222" t="n">
-        <v>0.01569023609193887</v>
+        <v>0.05436339720698841</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1221463269912441</v>
+        <v>0.260599904082744</v>
       </c>
       <c r="N222" t="n">
-        <v>0.01854681408844999</v>
+        <v>0.08145072574430495</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1222588690610271</v>
+        <v>0.2607268939369765</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02378082054772089</v>
+        <v>0.02248188535282698</v>
       </c>
       <c r="G223" t="n">
-        <v>0.08014225824574424</v>
+        <v>0.2604413956010717</v>
       </c>
       <c r="J223" t="n">
-        <v>0.01454829492349975</v>
+        <v>0.02697817149359309</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1258535544569505</v>
+        <v>0.2618917158076662</v>
       </c>
       <c r="L223" t="n">
-        <v>0.01580161318786363</v>
+        <v>0.05436793920321548</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1229243290739909</v>
+        <v>0.262259776083271</v>
       </c>
       <c r="N223" t="n">
-        <v>0.01727082099219934</v>
+        <v>0.0817576984924599</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1230375879722438</v>
+        <v>0.2623875747900783</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02310727915337694</v>
+        <v>0.02146077877954759</v>
       </c>
       <c r="G224" t="n">
-        <v>0.08000653514121601</v>
+        <v>0.2620897588643696</v>
       </c>
       <c r="J224" t="n">
-        <v>0.01455570334116331</v>
+        <v>0.02696522369036382</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1266500959408553</v>
+        <v>0.263549258312778</v>
       </c>
       <c r="L224" t="n">
-        <v>0.01523564386112189</v>
+        <v>0.05464669863449351</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1237023311567376</v>
+        <v>0.263919648083798</v>
       </c>
       <c r="N224" t="n">
-        <v>0.01633883565494981</v>
+        <v>0.08162813154416709</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1238163068834605</v>
+        <v>0.2640482556431801</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02244418639462548</v>
+        <v>0.02338205891821758</v>
       </c>
       <c r="G225" t="n">
-        <v>0.0798708120366878</v>
+        <v>0.2637381221276676</v>
       </c>
       <c r="J225" t="n">
-        <v>0.01436510836209262</v>
+        <v>0.02698795720154462</v>
       </c>
       <c r="K225" t="n">
-        <v>0.12744663742476</v>
+        <v>0.2652068008178898</v>
       </c>
       <c r="L225" t="n">
-        <v>0.01539344956137803</v>
+        <v>0.0544985143459194</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1244803332394844</v>
+        <v>0.2655795200843251</v>
       </c>
       <c r="N225" t="n">
-        <v>0.01545456812084889</v>
+        <v>0.08160923190776781</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1245950257946773</v>
+        <v>0.2657089364962818</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02179185362821998</v>
+        <v>0.02325122679663902</v>
       </c>
       <c r="G226" t="n">
-        <v>0.0797350889321596</v>
+        <v>0.2653864853909655</v>
       </c>
       <c r="J226" t="n">
-        <v>0.01437655179252356</v>
+        <v>0.02684806089563119</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1282431789086648</v>
+        <v>0.2668643433230016</v>
       </c>
       <c r="L226" t="n">
-        <v>0.01497615173829617</v>
+        <v>0.05422315793607857</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1252583353222312</v>
+        <v>0.2672393920848521</v>
       </c>
       <c r="N226" t="n">
-        <v>0.01542172843404438</v>
+        <v>0.08069858654823853</v>
       </c>
       <c r="O226" t="n">
-        <v>0.125373744705894</v>
+        <v>0.2673696173493836</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.0211505922109138</v>
+        <v>0.02107473699581343</v>
       </c>
       <c r="G227" t="n">
-        <v>0.07959936582763139</v>
+        <v>0.2670348486542634</v>
       </c>
       <c r="J227" t="n">
-        <v>0.0140900754386921</v>
+        <v>0.02675313091383615</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1290397203925695</v>
+        <v>0.2685218858281134</v>
       </c>
       <c r="L227" t="n">
-        <v>0.01498487184154063</v>
+        <v>0.05363597332076073</v>
       </c>
       <c r="M227" t="n">
-        <v>0.126036337404978</v>
+        <v>0.2688992640853791</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01454402663868354</v>
+        <v>0.08041928881142746</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1261524636171107</v>
+        <v>0.2690302982024853</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.0205207134994605</v>
+        <v>0.02185904409674233</v>
       </c>
       <c r="G228" t="n">
-        <v>0.07946364272310318</v>
+        <v>0.2686832119175613</v>
       </c>
       <c r="J228" t="n">
-        <v>0.01400572110683412</v>
+        <v>0.02641076339737213</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1298362618764743</v>
+        <v>0.2701794283332253</v>
       </c>
       <c r="L228" t="n">
-        <v>0.01482073132077552</v>
+        <v>0.05315230441575572</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1268143394877248</v>
+        <v>0.2705591360859061</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01352517277891413</v>
+        <v>0.07959443204318289</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1269311825283275</v>
+        <v>0.2706909790555871</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.0199025288506135</v>
+        <v>0.02261060268042721</v>
       </c>
       <c r="G229" t="n">
-        <v>0.07932791961857495</v>
+        <v>0.2703315751808592</v>
       </c>
       <c r="J229" t="n">
-        <v>0.01402353060318559</v>
+        <v>0.02622855448745175</v>
       </c>
       <c r="K229" t="n">
-        <v>0.130632803360379</v>
+        <v>0.2718369708383371</v>
       </c>
       <c r="L229" t="n">
-        <v>0.01428485162566517</v>
+        <v>0.05228749513685327</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1275923415704715</v>
+        <v>0.2722190080864332</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01286887689888372</v>
+        <v>0.07914710958935334</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1277099014395442</v>
+        <v>0.2723516599086889</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01929634962112632</v>
+        <v>0.02133586732786957</v>
       </c>
       <c r="G230" t="n">
-        <v>0.07919219651404676</v>
+        <v>0.2719799384441572</v>
       </c>
       <c r="J230" t="n">
-        <v>0.01384353636181021</v>
+        <v>0.02581410032528762</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1314293448442838</v>
+        <v>0.2734945133434489</v>
       </c>
       <c r="L230" t="n">
-        <v>0.01447814457845811</v>
+        <v>0.0516568893998432</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1283703436532183</v>
+        <v>0.2738788800869603</v>
       </c>
       <c r="N230" t="n">
-        <v>0.01247851567179648</v>
+        <v>0.07830041479578687</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1284886203507609</v>
+        <v>0.2740123407617906</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01870248716775234</v>
+        <v>0.02204129262007093</v>
       </c>
       <c r="G231" t="n">
-        <v>0.07905647340951853</v>
+        <v>0.2736283017074551</v>
       </c>
       <c r="J231" t="n">
-        <v>0.01386482785604821</v>
+        <v>0.0254749970520924</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1322258863281885</v>
+        <v>0.2751520558485607</v>
       </c>
       <c r="L231" t="n">
-        <v>0.01398400889694068</v>
+        <v>0.05127583112051523</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1291483457359651</v>
+        <v>0.2755387520874873</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01181774876546982</v>
+        <v>0.07687744100833199</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1292673392619777</v>
+        <v>0.2756730216148924</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01812125284724511</v>
+        <v>0.01973333313803277</v>
       </c>
       <c r="G232" t="n">
-        <v>0.07892075030499034</v>
+        <v>0.275276664970753</v>
       </c>
       <c r="J232" t="n">
-        <v>0.01368680570005393</v>
+        <v>0.0251188408090787</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1330224278120933</v>
+        <v>0.2768095983536725</v>
       </c>
       <c r="L232" t="n">
-        <v>0.01389148117927866</v>
+        <v>0.05045966421465925</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1299263478187119</v>
+        <v>0.2771986240880143</v>
       </c>
       <c r="N232" t="n">
-        <v>0.0113605260896591</v>
+        <v>0.07620128157283701</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1300460581731944</v>
+        <v>0.2773337024679941</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01755295801635803</v>
+        <v>0.0194184434627566</v>
       </c>
       <c r="G233" t="n">
-        <v>0.07878502720046211</v>
+        <v>0.2769250282340509</v>
       </c>
       <c r="J233" t="n">
-        <v>0.01380950218135021</v>
+        <v>0.02475322773745912</v>
       </c>
       <c r="K233" t="n">
-        <v>0.133818969295998</v>
+        <v>0.2784671408587843</v>
       </c>
       <c r="L233" t="n">
-        <v>0.01380063540384127</v>
+        <v>0.04992373259806496</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1307043499014587</v>
+        <v>0.2788584960885413</v>
       </c>
       <c r="N233" t="n">
-        <v>0.01040745191833592</v>
+        <v>0.0750950298351501</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1308247770844111</v>
+        <v>0.2789943833210959</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01699791403184459</v>
+        <v>0.02110307817524394</v>
       </c>
       <c r="G234" t="n">
-        <v>0.0786493040959339</v>
+        <v>0.2785733914973488</v>
       </c>
       <c r="J234" t="n">
-        <v>0.01373294958745995</v>
+        <v>0.02428575397844632</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1346155107799027</v>
+        <v>0.2801246833638961</v>
       </c>
       <c r="L234" t="n">
-        <v>0.0139115455489979</v>
+        <v>0.04918338018652213</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1314823519842054</v>
+        <v>0.2805183680890684</v>
       </c>
       <c r="N234" t="n">
-        <v>0.009759130525472337</v>
+        <v>0.07378177914111977</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1316034959956279</v>
+        <v>0.2806550641741977</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01645643225045832</v>
+        <v>0.01879369185649626</v>
       </c>
       <c r="G235" t="n">
-        <v>0.07851358099140569</v>
+        <v>0.2802217547606468</v>
       </c>
       <c r="J235" t="n">
-        <v>0.01355718020590599</v>
+        <v>0.02402401567325289</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1354120522638075</v>
+        <v>0.2817822258690079</v>
       </c>
       <c r="L235" t="n">
-        <v>0.0138242855931178</v>
+        <v>0.0482539508958206</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1322603540669522</v>
+        <v>0.2821782400895954</v>
       </c>
       <c r="N235" t="n">
-        <v>0.009916166185039987</v>
+        <v>0.07228462283659431</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1323822149068446</v>
+        <v>0.2823157450272994</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01592882402895258</v>
+        <v>0.02049673908751512</v>
       </c>
       <c r="G236" t="n">
-        <v>0.07837785788687748</v>
+        <v>0.2818701180239447</v>
       </c>
       <c r="J236" t="n">
-        <v>0.01348222632421124</v>
+        <v>0.02377560896309149</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1362085937477123</v>
+        <v>0.2834397683741198</v>
       </c>
       <c r="L236" t="n">
-        <v>0.01353892951457025</v>
+        <v>0.04755078864175014</v>
       </c>
       <c r="M236" t="n">
-        <v>0.133038356149699</v>
+        <v>0.2838381120901224</v>
       </c>
       <c r="N236" t="n">
-        <v>0.008679163171010862</v>
+        <v>0.07172665426742203</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1331609338180613</v>
+        <v>0.2839764258804012</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01541540072408093</v>
+        <v>0.02021867444930195</v>
       </c>
       <c r="G237" t="n">
-        <v>0.07824213478234927</v>
+        <v>0.2835184812872426</v>
       </c>
       <c r="J237" t="n">
-        <v>0.01340812022989854</v>
+        <v>0.02334812998917472</v>
       </c>
       <c r="K237" t="n">
-        <v>0.137005135231617</v>
+        <v>0.2850973108792316</v>
       </c>
       <c r="L237" t="n">
-        <v>0.01365555129172469</v>
+        <v>0.04668923734010053</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1338163582324458</v>
+        <v>0.2854979840906495</v>
       </c>
       <c r="N237" t="n">
-        <v>0.008048725757356712</v>
+        <v>0.07043096677945121</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1339396527292781</v>
+        <v>0.285637106733503</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01491647369259676</v>
+        <v>0.01996442599277345</v>
       </c>
       <c r="G238" t="n">
-        <v>0.07810641167782106</v>
+        <v>0.2851668445505405</v>
       </c>
       <c r="J238" t="n">
-        <v>0.01333489421049075</v>
+        <v>0.02314867276636839</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1378016767155218</v>
+        <v>0.2867548533843434</v>
       </c>
       <c r="L238" t="n">
-        <v>0.01367422490295037</v>
+        <v>0.04648402781027269</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1345943603151925</v>
+        <v>0.2871578560911765</v>
       </c>
       <c r="N238" t="n">
-        <v>0.007825458218049475</v>
+        <v>0.06971990452267107</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1347183716404948</v>
+        <v>0.2872977875866047</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01443235429125362</v>
+        <v>0.01771616324125361</v>
       </c>
       <c r="G239" t="n">
-        <v>0.07797068857329285</v>
+        <v>0.2868152078138384</v>
       </c>
       <c r="J239" t="n">
-        <v>0.01326258055351077</v>
+        <v>0.02265988470901703</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1385982181994265</v>
+        <v>0.2884123958894552</v>
       </c>
       <c r="L239" t="n">
-        <v>0.01379502432661656</v>
+        <v>0.04600240251731777</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1353723623979393</v>
+        <v>0.2888177280917035</v>
       </c>
       <c r="N239" t="n">
-        <v>0.007109964827060888</v>
+        <v>0.06874542387138299</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1354970905517115</v>
+        <v>0.2889584684397065</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01396208250339489</v>
+        <v>0.01946695070929418</v>
       </c>
       <c r="G240" t="n">
-        <v>0.07783496546876463</v>
+        <v>0.2884635710771364</v>
       </c>
       <c r="J240" t="n">
-        <v>0.01319121154648148</v>
+        <v>0.02256998757402988</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1393947596833313</v>
+        <v>0.290069938394567</v>
       </c>
       <c r="L240" t="n">
-        <v>0.01361802354109265</v>
+        <v>0.04501854134924002</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1361503644806861</v>
+        <v>0.2904776000922306</v>
       </c>
       <c r="N240" t="n">
-        <v>0.007002849858362692</v>
+        <v>0.06746758042354462</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1362758094629282</v>
+        <v>0.2906191492928082</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01349834144531419</v>
+        <v>0.01921677310575344</v>
       </c>
       <c r="G241" t="n">
-        <v>0.07769924236423643</v>
+        <v>0.2901119343404343</v>
       </c>
       <c r="J241" t="n">
-        <v>0.01322081947692573</v>
+        <v>0.02217896336586669</v>
       </c>
       <c r="K241" t="n">
-        <v>0.140191301167236</v>
+        <v>0.2917274808996788</v>
       </c>
       <c r="L241" t="n">
-        <v>0.01354329652474789</v>
+        <v>0.04443240795573386</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1369283665634329</v>
+        <v>0.2921374720927576</v>
       </c>
       <c r="N241" t="n">
-        <v>0.006604717585926956</v>
+        <v>0.06708631947016341</v>
       </c>
       <c r="O241" t="n">
-        <v>0.137054528374145</v>
+        <v>0.29227983014591</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01304017110035492</v>
+        <v>0.01896561513948963</v>
       </c>
       <c r="G242" t="n">
-        <v>0.07756351925970821</v>
+        <v>0.2917602976037322</v>
       </c>
       <c r="J242" t="n">
-        <v>0.01295143663236638</v>
+        <v>0.02198679408898727</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1409878426511408</v>
+        <v>0.2933850234047906</v>
       </c>
       <c r="L242" t="n">
-        <v>0.01347091725595165</v>
+        <v>0.04384396598649387</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1377063686461797</v>
+        <v>0.2937973440932846</v>
       </c>
       <c r="N242" t="n">
-        <v>0.005816172283725385</v>
+        <v>0.06630158630224658</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1378332472853617</v>
+        <v>0.2939405109990118</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01258788282527063</v>
+        <v>0.01671346151936101</v>
       </c>
       <c r="G243" t="n">
-        <v>0.07742779615518001</v>
+        <v>0.2934086608670302</v>
       </c>
       <c r="J243" t="n">
-        <v>0.01288309530032632</v>
+        <v>0.02149346174785137</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1417843841350455</v>
+        <v>0.2950425659099024</v>
       </c>
       <c r="L243" t="n">
-        <v>0.01330095971307316</v>
+        <v>0.04365317909121447</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1384843707289264</v>
+        <v>0.2954572160938116</v>
       </c>
       <c r="N243" t="n">
-        <v>0.00553781822572974</v>
+        <v>0.06541332621080148</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1386119661965785</v>
+        <v>0.2956011918521135</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.0121417879768147</v>
+        <v>0.01746029695422583</v>
       </c>
       <c r="G244" t="n">
-        <v>0.07729207305065179</v>
+        <v>0.295057024130328</v>
       </c>
       <c r="J244" t="n">
-        <v>0.01301582776832844</v>
+        <v>0.02119894834691878</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1425809256189503</v>
+        <v>0.2967001084150143</v>
       </c>
       <c r="L244" t="n">
-        <v>0.01343349787448181</v>
+        <v>0.04306001091959014</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1392623728116732</v>
+        <v>0.2971170880943387</v>
       </c>
       <c r="N244" t="n">
-        <v>0.004670259685912059</v>
+        <v>0.06432148448683528</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1393906851077952</v>
+        <v>0.2972618727052153</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01170219791174065</v>
+        <v>0.01820610615294233</v>
       </c>
       <c r="G245" t="n">
-        <v>0.07715634994612358</v>
+        <v>0.296705387393626</v>
       </c>
       <c r="J245" t="n">
-        <v>0.01294966632389556</v>
+        <v>0.02100323589064929</v>
       </c>
       <c r="K245" t="n">
-        <v>0.143377467102855</v>
+        <v>0.2983576509201261</v>
       </c>
       <c r="L245" t="n">
-        <v>0.0130686057185469</v>
+        <v>0.0422644251213154</v>
       </c>
       <c r="M245" t="n">
-        <v>0.14004037489442</v>
+        <v>0.2987769600948657</v>
       </c>
       <c r="N245" t="n">
-        <v>0.004814100938244026</v>
+        <v>0.06382600642135555</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1401694040190119</v>
+        <v>0.298922553558317</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01126942398680197</v>
+        <v>0.01595087382436875</v>
       </c>
       <c r="G246" t="n">
-        <v>0.07702062684159537</v>
+        <v>0.2983537506569239</v>
       </c>
       <c r="J246" t="n">
-        <v>0.01278464325455059</v>
+        <v>0.02060630638350264</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1441740085867598</v>
+        <v>0.3000151934252379</v>
       </c>
       <c r="L246" t="n">
-        <v>0.01280635722363774</v>
+        <v>0.04156638534608473</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1408183769771668</v>
+        <v>0.3004368320953927</v>
       </c>
       <c r="N246" t="n">
-        <v>0.003869946256697454</v>
+        <v>0.06292683730536935</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1409481229302287</v>
+        <v>0.3005832344114188</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01084377755875205</v>
+        <v>0.01769458467736336</v>
       </c>
       <c r="G247" t="n">
-        <v>0.07688490373706716</v>
+        <v>0.3000021139202218</v>
       </c>
       <c r="J247" t="n">
-        <v>0.01262079084781639</v>
+        <v>0.02050814182993864</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1449705500706645</v>
+        <v>0.3016727359303497</v>
       </c>
       <c r="L247" t="n">
-        <v>0.0127468263681236</v>
+        <v>0.04106585524359257</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1415963790599135</v>
+        <v>0.3020967040959198</v>
       </c>
       <c r="N247" t="n">
-        <v>0.003538399915244239</v>
+        <v>0.06202392242988408</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1417268418414454</v>
+        <v>0.3022439152645205</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01042556998434444</v>
+        <v>0.01543722342078439</v>
       </c>
       <c r="G248" t="n">
-        <v>0.07674918063253895</v>
+        <v>0.3016504771835197</v>
       </c>
       <c r="J248" t="n">
-        <v>0.01275814139121585</v>
+        <v>0.02020872423441705</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1457670915545693</v>
+        <v>0.3033302784354615</v>
       </c>
       <c r="L248" t="n">
-        <v>0.01289008713037387</v>
+        <v>0.04016279846353352</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1423743811426603</v>
+        <v>0.3037565760964468</v>
       </c>
       <c r="N248" t="n">
-        <v>0.00292006618785623</v>
+        <v>0.06101720708590713</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1425055607526621</v>
+        <v>0.3039045961176223</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01001511262033253</v>
+        <v>0.01717877476349011</v>
       </c>
       <c r="G249" t="n">
-        <v>0.07661345752801074</v>
+        <v>0.3032988404468177</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01249672717227181</v>
+        <v>0.01990803560139766</v>
       </c>
       <c r="K249" t="n">
-        <v>0.146563633038474</v>
+        <v>0.3049878209405733</v>
       </c>
       <c r="L249" t="n">
-        <v>0.01263621348875785</v>
+        <v>0.03965717865560198</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1431523832254071</v>
+        <v>0.3054164480969738</v>
       </c>
       <c r="N249" t="n">
-        <v>0.002615549348505164</v>
+        <v>0.0594066365644455</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1432842796638789</v>
+        <v>0.3055652769707241</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.009612716823469869</v>
+        <v>0.01691922341433875</v>
       </c>
       <c r="G250" t="n">
-        <v>0.07647773442348253</v>
+        <v>0.3049472037101156</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01253658047850717</v>
+        <v>0.0196060579353402</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1473601745223788</v>
+        <v>0.3066453634456852</v>
       </c>
       <c r="L250" t="n">
-        <v>0.01258527942164472</v>
+        <v>0.03934895946949246</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1439303853081539</v>
+        <v>0.3070763200975009</v>
       </c>
       <c r="N250" t="n">
-        <v>0.002225453671163002</v>
+        <v>0.05889215615650689</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1440629985750956</v>
+        <v>0.3072259578238258</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.009218693950509844</v>
+        <v>0.01565855408218857</v>
       </c>
       <c r="G251" t="n">
-        <v>0.07634201131895431</v>
+        <v>0.3065955669734136</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01257773359744478</v>
+        <v>0.01930277324070452</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1481567160062835</v>
+        <v>0.3083029059507969</v>
       </c>
       <c r="L251" t="n">
-        <v>0.01283735890740398</v>
+        <v>0.03833810455489944</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1447083873909007</v>
+        <v>0.3087361920980279</v>
       </c>
       <c r="N251" t="n">
-        <v>0.002050383429801517</v>
+        <v>0.05827371115309837</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1448417174863123</v>
+        <v>0.3088866386769276</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.00883335535820598</v>
+        <v>0.01539675147589781</v>
       </c>
       <c r="G252" t="n">
-        <v>0.07620628821442611</v>
+        <v>0.3082439302367114</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01252021881660752</v>
+        <v>0.01879816352195034</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1489532574901883</v>
+        <v>0.3099604484559088</v>
       </c>
       <c r="L252" t="n">
-        <v>0.01259252592440488</v>
+        <v>0.03822457756151745</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1454863894736474</v>
+        <v>0.310396064098555</v>
       </c>
       <c r="N252" t="n">
-        <v>0.001490942898392522</v>
+        <v>0.05745124684522723</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1456204363975291</v>
+        <v>0.3105473195300293</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.008457012403311689</v>
+        <v>0.01513380030432474</v>
       </c>
       <c r="G253" t="n">
-        <v>0.07607056510989789</v>
+        <v>0.3098922935000094</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01246406842351826</v>
+        <v>0.01849221078353744</v>
       </c>
       <c r="K253" t="n">
-        <v>0.149749798974093</v>
+        <v>0.3116179909610206</v>
       </c>
       <c r="L253" t="n">
-        <v>0.01245085445101671</v>
+        <v>0.03760834213904093</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1462643915563942</v>
+        <v>0.3120559360990819</v>
       </c>
       <c r="N253" t="n">
-        <v>0.00104773635090788</v>
+        <v>0.05592470852390086</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1463991553087458</v>
+        <v>0.3122080003831311</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.008089976442580499</v>
+        <v>0.01386968527632758</v>
       </c>
       <c r="G254" t="n">
-        <v>0.07593484200536969</v>
+        <v>0.3115406567633073</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01230931470569988</v>
+        <v>0.01828489702992563</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1505463404579978</v>
+        <v>0.3132755334661324</v>
       </c>
       <c r="L254" t="n">
-        <v>0.01251241846560877</v>
+        <v>0.03658936193716433</v>
       </c>
       <c r="M254" t="n">
-        <v>0.147042393639141</v>
+        <v>0.313715808099609</v>
       </c>
       <c r="N254" t="n">
-        <v>0.000821368061319383</v>
+        <v>0.05559404148012653</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1471778742199625</v>
+        <v>0.3138686812362328</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.007732558832765822</v>
+        <v>0.01460439110076461</v>
       </c>
       <c r="G255" t="n">
-        <v>0.07579911890084147</v>
+        <v>0.3131890200266052</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01215598995067523</v>
+        <v>0.01797620426557463</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1513428819419025</v>
+        <v>0.3149330759712441</v>
       </c>
       <c r="L255" t="n">
-        <v>0.01237729194655041</v>
+        <v>0.03596760060558224</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1478203957218878</v>
+        <v>0.3153756801001361</v>
       </c>
       <c r="N255" t="n">
-        <v>0.0003124423035988921</v>
+        <v>0.05425919100491156</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1479565931311793</v>
+        <v>0.3155293620893347</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.00738507093062115</v>
+        <v>0.01333790248649404</v>
       </c>
       <c r="G256" t="n">
-        <v>0.07566339579631326</v>
+        <v>0.3148373832899031</v>
       </c>
       <c r="J256" t="n">
-        <v>0.0121041264459672</v>
+        <v>0.01756611449494429</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1521394234258072</v>
+        <v>0.316590618476356</v>
       </c>
       <c r="L256" t="n">
-        <v>0.01264554887221092</v>
+        <v>0.03564302179398915</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1485983978046345</v>
+        <v>0.3170355521006631</v>
       </c>
       <c r="N256" t="n">
-        <v>0.0007215633517183573</v>
+        <v>0.0529201023892632</v>
       </c>
       <c r="O256" t="n">
-        <v>0.148735312042396</v>
+        <v>0.3171900429424364</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.007047824092899974</v>
+        <v>0.01507020414237416</v>
       </c>
       <c r="G257" t="n">
-        <v>0.07552767269178505</v>
+        <v>0.3164857465532011</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01225375647909865</v>
+        <v>0.01745460972249434</v>
       </c>
       <c r="K257" t="n">
-        <v>0.152935964909712</v>
+        <v>0.3182481609814678</v>
       </c>
       <c r="L257" t="n">
-        <v>0.01281726322095969</v>
+        <v>0.03481558915207941</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1493763998873813</v>
+        <v>0.3186954241011901</v>
       </c>
       <c r="N257" t="n">
-        <v>0.000249335479649393</v>
+        <v>0.05207672092418891</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1495140309536127</v>
+        <v>0.3188507237955382</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006721129676355707</v>
+        <v>0.01380128077726318</v>
       </c>
       <c r="G258" t="n">
-        <v>0.07539194958725684</v>
+        <v>0.318134109816499</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01200491233759247</v>
+        <v>0.01694167195268453</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1537325063936168</v>
+        <v>0.3199057034865796</v>
       </c>
       <c r="L258" t="n">
-        <v>0.01279250897116588</v>
+        <v>0.03428526632954765</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1501544019701281</v>
+        <v>0.3203552961017171</v>
       </c>
       <c r="N258" t="n">
-        <v>0.0002963629613640384</v>
+        <v>0.05172899190069574</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1502927498648294</v>
+        <v>0.3205114046486399</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.006405299037741868</v>
+        <v>0.01253111710001939</v>
       </c>
       <c r="G259" t="n">
-        <v>0.07525622648272863</v>
+        <v>0.3197824730797969</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01195762630897151</v>
+        <v>0.0167272831899747</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1545290478775215</v>
+        <v>0.3215632459916914</v>
       </c>
       <c r="L259" t="n">
-        <v>0.01267136010119896</v>
+        <v>0.03345201697608827</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1509324040528749</v>
+        <v>0.3220151681022441</v>
       </c>
       <c r="N259" t="n">
-        <v>6.32500708339645e-05</v>
+        <v>0.05067686060979126</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1510714687760462</v>
+        <v>0.3221720855017416</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.006100643533811873</v>
+        <v>0.01325969781950101</v>
       </c>
       <c r="G260" t="n">
-        <v>0.07512050337820042</v>
+        <v>0.3214308363430948</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01211193068075866</v>
+        <v>0.01651142543882458</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1553255893614263</v>
+        <v>0.3232207884968032</v>
       </c>
       <c r="L260" t="n">
-        <v>0.01235389058942812</v>
+        <v>0.03311580474139583</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1517104061356216</v>
+        <v>0.3236750401027712</v>
       </c>
       <c r="N260" t="n">
-        <v>-0.0005493989179689296</v>
+        <v>0.04972027234248255</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1518501876872629</v>
+        <v>0.3238327663548435</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005807474521319252</v>
+        <v>0.0119870076445663</v>
       </c>
       <c r="G261" t="n">
-        <v>0.07498478027367221</v>
+        <v>0.3230791996063928</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01196785774047677</v>
+        <v>0.01609408070369395</v>
       </c>
       <c r="K261" t="n">
-        <v>0.156122130845331</v>
+        <v>0.324878331001915</v>
       </c>
       <c r="L261" t="n">
-        <v>0.01244017441422279</v>
+        <v>0.03257659327516471</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1524884082183684</v>
+        <v>0.3253349121032982</v>
       </c>
       <c r="N261" t="n">
-        <v>-0.0008409797310728051</v>
+        <v>0.04835917238977711</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1526289065984796</v>
+        <v>0.3254934472079452</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005526103357017392</v>
+        <v>0.01171303128407351</v>
       </c>
       <c r="G262" t="n">
-        <v>0.07484905716914399</v>
+        <v>0.3247275628696907</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01192543977564874</v>
+        <v>0.01577523098904263</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1569186723292358</v>
+        <v>0.3265358735070268</v>
       </c>
       <c r="L262" t="n">
-        <v>0.01263028555395218</v>
+        <v>0.03153434622708956</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1532664103011152</v>
+        <v>0.3269947841038253</v>
       </c>
       <c r="N262" t="n">
-        <v>-0.0009108880945057629</v>
+        <v>0.047893506042682</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1534076255096964</v>
+        <v>0.327154128061047</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005256841397659841</v>
+        <v>0.01343775344688089</v>
       </c>
       <c r="G263" t="n">
-        <v>0.07471333406461579</v>
+        <v>0.3263759261329885</v>
       </c>
       <c r="J263" t="n">
-        <v>0.0118847090737974</v>
+        <v>0.01555485829933033</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1577152138131405</v>
+        <v>0.3281934160121387</v>
       </c>
       <c r="L263" t="n">
-        <v>0.01242429798698563</v>
+        <v>0.03128902724686472</v>
       </c>
       <c r="M263" t="n">
-        <v>0.154044412383862</v>
+        <v>0.3286546561043522</v>
       </c>
       <c r="N263" t="n">
-        <v>-0.0006585197342960925</v>
+        <v>0.04622321859220474</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1541863444209131</v>
+        <v>0.3288148089141487</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01116115884184665</v>
       </c>
       <c r="G264" t="n">
-        <v>0.07457761096008757</v>
+        <v>0.3280242893962865</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01174569792244567</v>
+        <v>0.01513294463901686</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1585117552970453</v>
+        <v>0.3298509585172504</v>
       </c>
       <c r="L264" t="n">
-        <v>0.01272228569169248</v>
+        <v>0.03044059998418475</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1548224144666087</v>
+        <v>0.3303145281048793</v>
       </c>
       <c r="N264" t="n">
-        <v>-0.000883270376471873</v>
+        <v>0.04574825532935262</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1549650633321298</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.07456445306535073</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005767807694624101</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.07456472159381473</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006531578684958857</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.07456499012227875</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.00729127034034445</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.07456525865074277</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.008046840030021978</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.07456552717920679</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008798245123331813</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.07456579570767081</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.009545442989581182</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.07456606423613482</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.01028839099810954</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.07456633276459886</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.01102704651815943</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.07456660129306286</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01176136691907051</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.07456686982152688</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01249130957015</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.07456713834999089</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01321683184073658</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.07456740687845492</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01393789110007433</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.07456767540691893</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01465444471750214</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.07456794393538295</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01536645006232724</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.07456821246384697</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01607386450388752</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.07456848099231099</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01677664541142864</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.07456874952077501</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01747475015428869</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.07456901804923902</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.0181681361017749</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.07456928657770304</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01885676062322436</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.07456955510616706</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01954058108788434</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.07456982363463108</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.02021955486509212</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.07457009216309508</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.02089363932415497</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.0745703606915591</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.02156279183440905</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.07457062922002312</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.0222269697651034</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.07457089774848714</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.02288630456090329</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.07457116627695115</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.02354179804308912</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.07457143480541517</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02419358165632518</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.07457170333387919</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02484161276986198</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.07457197186234321</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02548584875303518</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.07457224039080723</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02612624697515202</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.07457250891927124</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.0267627648055473</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.07457277744773527</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02739535961347289</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.07457304597619928</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02802398876826373</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.0745733145046633</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02864860963922709</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.07457358303312731</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02926917959569708</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.07457385156159134</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02988565600692693</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.07457412009005535</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.03049799624225093</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.07457438861851937</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.03110615767097631</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.07457465714698337</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.03171009766243647</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.07457492567544741</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.03230977358588609</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.07457519420391141</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.03290514281065875</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.07457546273237543</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.03349616270606165</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.07457573126083945</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.03408279064142748</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.07457599978930347</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.03466498398601237</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.07457626831776749</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.03524270010914918</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.0745765368462315</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.03581589638014511</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.07457680537469552</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.03638453016833205</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.07457707390315954</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.03694855884296773</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.07457734243162356</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03750793977338419</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.07457761096008757</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03750793977338419</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.07456445306535073</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.03811598097690519</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.07470071322680698</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03871873931610399</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.07483697338826321</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.03931609026184678</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.07497323354971946</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03990790928499971</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.0751094937111757</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.04049407185642895</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.07524575387263195</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.04107445344700063</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.0753820140340882</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.04164892952758095</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.07551827419554444</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.04221737556903606</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.07565453435700069</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.0427796670422321</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.07579079451845694</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.04333567941803526</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.07592705467991318</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.04388528816731171</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.07606331484136943</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.04442836876092764</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.07619957500282568</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.0449647966697491</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.07633583516428193</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.04549444736464232</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.07647209532573818</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.0460171963164735</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.07660835548719441</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.04653291899610873</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.07674461564865066</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.04704149087441421</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.0768808758101069</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.04754278742225611</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.07701713597156315</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.04803668411050058</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.0771533961330194</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.04852305641001377</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.07728965629447564</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.04900177979166184</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.07742591645593189</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.04947272972631099</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.07756217661738814</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.04993578168482736</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.07769843677884437</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.05039081113807711</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.07783469694030062</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.05083820205088957</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.07797095710175687</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.05128088085790992</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.07810721726321311</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.05171923152396753</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.07824347742466936</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.05215312951992854</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.0783797375861256</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.0525824503166591</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.07851599774758185</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.05300706938502542</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.0786522579090381</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.05342686219589357</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.07878851807049433</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.05384170422012981</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.07892477823195058</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.05425147092860026</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.07906103839340684</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.05465603779217107</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.07919729855486307</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.05505528028170842</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.07933355871631932</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.05544907386807847</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.07946981887777556</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.05583729402214739</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.07960607903923181</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.05621981621478134</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.07974233920068807</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.05659651591684646</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.07987859936214431</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.05696726859920892</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.08001485952360056</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.05733194973273488</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.0801511196850568</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.05769043478829053</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.08028737984651305</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.05804259923674199</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.0804236400079693</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.05838831854895547</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.08055990016942553</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.05872746819579708</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.08069616033088178</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.05905992364813302</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.08083242049233803</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.05938556037682945</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.08096868065379427</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.05970425385275252</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.08110494081525052</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.06001587954676837</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.08124120097670677</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.05634391969784558</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.08124120097670677</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.06020533551851662</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.08411216630591789</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.06038243247913186</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.08698313163512901</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.06054758729359641</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.08985409696434014</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.06070121682689252</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.09272506229355126</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.0608437379440025</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.0955960276227624</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.06097556750990862</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.09846699295197352</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.06109712238959317</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.1013379582811847</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.06120881944803845</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.1042089236103958</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.06131107555022673</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.1070798889396069</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.06140430756114032</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.109950854268818</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.0614889323457615</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.1128218195980291</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.06156536676907251</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.1156927849272403</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.06163402769605571</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.1185637502564514</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.06169533199169332</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.1214347155856625</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.06174969652096766</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.1243056809148737</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.06179753814886102</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.1271766462440848</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.06183927374035568</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.1300476115732959</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.06187532016043391</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.132918576902507</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.06190609427407802</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.1357895422317182</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.06193201294627028</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.1386605075609293</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.06195349304199299</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.1415314728901404</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.06197095142622841</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.1444024382193515</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.06198480496395886</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.1472734035485627</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.06199547052016662</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.06200336495983395</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.1530153342069849</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.06200890514794316</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.155886299536196</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.06201250794947655</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1587572648654072</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.06201459022941636</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1616282301946183</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.06201556885274491</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1644991955238294</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.06201586068444447</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1673701608530405</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.06201160032181506</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1702411261822517</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.06195415202886728</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1731120915114628</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.06183298047214207</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1759830568406739</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.06165226408093005</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1788540221698851</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.06141618128452188</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1817249874990962</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.06112891051220819</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1845959528283073</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.06079463019327963</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1874669181575184</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.06041751875702683</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1903378834867295</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.06000175463274045</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1932088488159407</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.05955151624971111</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1960798141451518</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.05907098203722946</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1989507794743629</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.05856433042458614</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.201821744803574</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.0580357398410718</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.2046927101327852</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.05748938871597709</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.2075636754619963</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.05692945547859263</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.2104346407912074</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.05636011855820905</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.2133056061204185</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.05578555638411703</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.2161765714496297</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.05520994738560718</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.2190475367788408</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.05463746999197015</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.2219185021080519</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.0540723026324966</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.2247894674372631</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.05351862373647714</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.2276604327664742</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.05298061173320244</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.2305313980956853</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.05246242707289665</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.2334023634248964</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.05191914272289111</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.2362733287541076</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.05131181728589261</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.2391442940833187</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.05064812171756386</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.2420152594125298</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.04993572697356753</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.2448862247417409</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.04918230400956632</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.2477571900709521</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.04839552378122292</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.2506281554001632</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.04758305724419999</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.2534991207293743</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.04675257535416021</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.2563700860585854</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.0459117490667663</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.2592410513877966</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.04506824933768094</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.2621120167170077</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.04422974712256679</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.2649829820462188</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.04340391337708656</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.2678539473754299</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.0425984190569029</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.2707249127046411</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.04182093511767855</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.2735958780338522</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.04107913251507615</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.2764668433630633</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.04038068220475841</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.2793378086922744</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.03973325514238799</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.2822087740214856</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.03914452228362759</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.2850797393506967</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.03862215458413992</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.2879507046799079</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.03817382299958763</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.290821670009119</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.03780719848563341</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.2936926353383301</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.03752995199793994</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.2965636006675412</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.03734975449216996</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.2994345659967523</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.03727427692398608</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.3023055313259634</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.03727246825353181</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.3051764966551746</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.03727310894738273</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.3080474619843857</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.03727502908142828</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.3109184273135968</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.03727893234476071</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.313789392642808</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.03728552242647223</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.3166603579720191</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.0372955030156551</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.3195313233012302</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.03730957780140154</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.3224022886304413</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.03732845047280378</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.3252732539596525</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.03735282471895407</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.3281442192888636</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.03738340422894462</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.3310151846180747</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.03742089269186767</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.3338861499472858</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.03746599379681546</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.336757115276497</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.03751941123288023</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.3396280806057081</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.03758184868915421</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.3424990459349193</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.03765400985472961</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.3453700112641304</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.03773659841869868</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.3482409765933415</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.03783031807015366</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.3511119419225526</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.03793587249818678</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.3539829072517637</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.03805396539189027</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.3568538725809748</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.03818530044035635</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.359724837910186</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.03833058133267729</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.3625958032393971</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.03849051175794528</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.3654667685686082</v>
-      </c>
-    </row>
+        <v>0.3304754897672504</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1144.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1144.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001899425548132522</v>
+        <v>0.0009643518609433743</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001648363263297922</v>
+        <v>0.0005366876856468291</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.002817565319784936</v>
+        <v>0.001542851851776522</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001657542505111811</v>
+        <v>0.0008637493338831788</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.007909741961370675</v>
+        <v>0.004008519208336947</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001659872000527032</v>
+        <v>0.0008385243943952507</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01345144137878201</v>
+        <v>0.007538105866051636</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001660680853101761</v>
+        <v>0.0008300510438434635</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003379719377687072</v>
+        <v>0.001914237449482707</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003296726526595844</v>
+        <v>0.001073375371293658</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.005414532136064736</v>
+        <v>0.002841145703550513</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003315085010223623</v>
+        <v>0.001727498667766358</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01324760222699395</v>
+        <v>0.008137035530000641</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003032684198241398</v>
+        <v>0.001677048788790501</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.02322736712703788</v>
+        <v>0.01459550525204445</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003223603694679529</v>
+        <v>0.001660102087686927</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.006585979924461388</v>
+        <v>0.002835190493213929</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004387360293012029</v>
+        <v>0.001610063056940487</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.007499999999999993</v>
+        <v>0.004448598998873184</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004996249999999995</v>
+        <v>0.002591248001649536</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01668129964994075</v>
+        <v>0.01156657093983082</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004979616001581096</v>
+        <v>0.002515573183185752</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02704031660508893</v>
+        <v>0.02083171682322804</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004982042559305284</v>
+        <v>0.00249015313153039</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.008315114894284943</v>
+        <v>0.003712744719733006</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006593453053191689</v>
+        <v>0.002146750742587317</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.008772244099936932</v>
+        <v>0.005718929181295782</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006630170020447246</v>
+        <v>0.003454997335532715</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01862458315651985</v>
+        <v>0.01407557736618106</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006639488002108127</v>
+        <v>0.003125560151812539</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03033593239221144</v>
+        <v>0.02405691595300352</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006642723412407045</v>
+        <v>0.002967762131609724</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.006585979924461388</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.009340455823563326</v>
+        <v>0.00453243385663589</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008241816316489611</v>
+        <v>0.002683438428234145</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01003250453755468</v>
+        <v>0.006805853694369528</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008287712525559057</v>
+        <v>0.004318746669415894</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02091258788968464</v>
+        <v>0.0166615461203494</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.00829936000263516</v>
+        <v>0.004192621971976254</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03273184350482616</v>
+        <v>0.02845246240013866</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008303404265508806</v>
+        <v>0.004150255219217318</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.008223155563532196</v>
+        <v>0.005279791631518531</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009890179579787533</v>
+        <v>0.003220126113880975</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01102622034404912</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009945255030670869</v>
+        <v>0.004996249999999995</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02239739000566274</v>
+        <v>0.01846268593780753</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009959232003162191</v>
+        <v>0.005031146366371505</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03467314708720703</v>
+        <v>0.03185143532715468</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009964085118610569</v>
+        <v>0.004980306263060781</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01103997800856671</v>
+        <v>0.005940351771976875</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01153854284308545</v>
+        <v>0.003756813799527804</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01172065313770693</v>
+        <v>0.008191285985933279</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01160279753578268</v>
+        <v>0.006046245337182252</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02403106566068172</v>
+        <v>0.02035756350096068</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01161910400368922</v>
+        <v>0.005869670760766756</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03640494028362767</v>
+        <v>0.03387548892213244</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01162476597171233</v>
+        <v>0.005810357306904245</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.0118547638640305</v>
+        <v>0.006585979924461388</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01316208087903608</v>
+        <v>0.004387360293012029</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01278306453681483</v>
+        <v>0.008939004270657469</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01326034004089449</v>
+        <v>0.006909994671065431</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02496569101096921</v>
+        <v>0.02198956324857473</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01327897600421625</v>
+        <v>0.006708195155162006</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.03807232023836193</v>
+        <v>0.03643527970544341</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01328544682481409</v>
+        <v>0.006640408350747708</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01073792944244981</v>
+        <v>0.006978692912532856</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.0148352693696813</v>
+        <v>0.004830189170821462</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.0137209013141928</v>
+        <v>0.009522241280716361</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01498874999999998</v>
+        <v>0.007773744004948609</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.0275991713062374</v>
+        <v>0.02340206961941552</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01545231958762886</v>
+        <v>0.007546719549557257</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04147744129828196</v>
+        <v>0.03864146419745929</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01561328124999999</v>
+        <v>0.007470459394591172</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01162528663889956</v>
+        <v>0.007438021645992159</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01648363263297922</v>
+        <v>0.005366876856468291</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01444396599840048</v>
+        <v>0.01015282086494857</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01657542505111811</v>
+        <v>0.008637493338831789</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02868264245819793</v>
+        <v>0.02433846705224904</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01659872000527032</v>
+        <v>0.008385243943952509</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04251935969074722</v>
+        <v>0.04147744129828196</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01660680853101761</v>
+        <v>0.008528052102326799</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01251825079965049</v>
+        <v>0.00787882826959517</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01813199589627714</v>
+        <v>0.00590356454211512</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01564359145869218</v>
+        <v>0.01044256687219264</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01823296755622993</v>
+        <v>0.009501242672714967</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03042688443376532</v>
+        <v>0.0260421399858411</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01825859200579735</v>
+        <v>0.009223768338347758</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.04567444680882787</v>
+        <v>0.04251672684452246</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01826748938411937</v>
+        <v>0.0091305614822781</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01440532067728905</v>
+        <v>0.008300785066798849</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01978035915957507</v>
+        <v>0.00644025222776195</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01666392948214959</v>
+        <v>0.0110033031512872</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01989051006134174</v>
+        <v>0.01036499200659815</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03264173871363882</v>
+        <v>0.0275991713062374</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01991846400632438</v>
+        <v>0.01021424886213249</v>
       </c>
       <c r="N77" t="n">
-        <v>0.04819945954994592</v>
+        <v>0.04457766147370251</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01992817023722114</v>
+        <v>0.009960612526121562</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01527499502440166</v>
+        <v>0.008703564321060155</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02142872242287299</v>
+        <v>0.006976939913408779</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01768936537988808</v>
+        <v>0.0113468535510708</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02154805256645355</v>
+        <v>0.01122874134048133</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03479262847222275</v>
+        <v>0.02821568312267225</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02157833600685141</v>
+        <v>0.01090081712713826</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05093374734900641</v>
+        <v>0.04707539715513775</v>
       </c>
       <c r="O78" t="n">
-        <v>0.0215888510903229</v>
+        <v>0.01079066356996503</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01711577259357477</v>
+        <v>0.009086838315836045</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02307708568617091</v>
+        <v>0.007513627599055607</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01870428446302308</v>
+        <v>0.01198504192038204</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02320559507156536</v>
+        <v>0.0120924906743645</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03644497688392162</v>
+        <v>0.03001701376395402</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02323820800737844</v>
+        <v>0.01173934152153351</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05421665964091427</v>
+        <v>0.04959900294903935</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02324953194342466</v>
+        <v>0.01162071461380849</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01691615213739484</v>
+        <v>0.009450279334583492</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02472544894946883</v>
+        <v>0.008050315284702436</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01959307204266995</v>
+        <v>0.0124296921080595</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02486313757667717</v>
+        <v>0.01295624000824768</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0385642071231399</v>
+        <v>0.03125215241529963</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02489808000790547</v>
+        <v>0.01257786591592876</v>
       </c>
       <c r="N80" t="n">
-        <v>0.05778754586057416</v>
+        <v>0.0517375479156183</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02491021279652642</v>
+        <v>0.01245076565765195</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01766463240844826</v>
+        <v>0.009793559660759475</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02637381221276676</v>
+        <v>0.008587002970349266</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02054011342994412</v>
+        <v>0.01279262796294175</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02652068008178898</v>
+        <v>0.01381998934213086</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04041574236428203</v>
+        <v>0.03251295371919863</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02655795200843251</v>
+        <v>0.01341639031032401</v>
       </c>
       <c r="N81" t="n">
-        <v>0.06038575544289126</v>
+        <v>0.05328010111508558</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02657089364962818</v>
+        <v>0.01328081670149542</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01834971215932149</v>
+        <v>0.01011635157782094</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02802217547606468</v>
+        <v>0.009123690655996095</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02132979393596093</v>
+        <v>0.01338567333386741</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02817822258690079</v>
+        <v>0.01468373867601404</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04256500578175249</v>
+        <v>0.03399127231814064</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02821782400895954</v>
+        <v>0.01425491470471926</v>
       </c>
       <c r="N82" t="n">
-        <v>0.06375063782277041</v>
+        <v>0.05621573160765225</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02823157450272994</v>
+        <v>0.01411086774533888</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01895989014260098</v>
+        <v>0.01041832736922485</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0296705387393626</v>
+        <v>0.009660378341642925</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02234649887183583</v>
+        <v>0.0137209013141928</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02983576509201261</v>
+        <v>0.01523401182023018</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04397742054995576</v>
+        <v>0.03587896285461525</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02987769600948657</v>
+        <v>0.01509343909911451</v>
       </c>
       <c r="N83" t="n">
-        <v>0.06592154243511644</v>
+        <v>0.05833350845352947</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0298922553558317</v>
+        <v>0.01494091878918234</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01948366511087316</v>
+        <v>0.01069915931842817</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03131890200266052</v>
+        <v>0.01019706602728975</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02297461354868419</v>
+        <v>0.01450226484365048</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03149330759712442</v>
+        <v>0.0164112373437804</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04561840984329621</v>
+        <v>0.03736787997111204</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0315375680100136</v>
+        <v>0.01593196349350976</v>
       </c>
       <c r="N84" t="n">
-        <v>0.06873781871483442</v>
+        <v>0.060322500712928</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03155293620893346</v>
+        <v>0.01577096983302581</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02090953581672444</v>
+        <v>0.01095851970888788</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03296726526595845</v>
+        <v>0.01073375371293658</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0236985232776214</v>
+        <v>0.01512578579192392</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03315085010223623</v>
+        <v>0.01727498667766358</v>
       </c>
       <c r="L85" t="n">
-        <v>0.0468533968361784</v>
+        <v>0.03854987831012058</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03319744001054064</v>
+        <v>0.01677048788790502</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07083881609682913</v>
+        <v>0.06237177744605915</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03321361706203523</v>
+        <v>0.01660102087686927</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02122968802033993</v>
+        <v>0.01119608082406092</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03461562852925636</v>
+        <v>0.01127044139858341</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02410261336976284</v>
+        <v>0.01558518279408902</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03480839260734804</v>
+        <v>0.01813873601154676</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04794780470300675</v>
+        <v>0.04011681251413052</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03485731201106766</v>
+        <v>0.01760901228230026</v>
       </c>
       <c r="N86" t="n">
-        <v>0.07236388401600552</v>
+        <v>0.0642704077131338</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03487429791513699</v>
+        <v>0.01743107192071273</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02151277968919202</v>
+        <v>0.01141151494740427</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03626399179255429</v>
+        <v>0.01180712908423024</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02457635454950688</v>
+        <v>0.01637453937036831</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03646593511245985</v>
+        <v>0.01900248534542993</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0488671164322052</v>
+        <v>0.04186053722563138</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0365171840115947</v>
+        <v>0.01844753667669552</v>
       </c>
       <c r="N87" t="n">
-        <v>0.07395237190726844</v>
+        <v>0.06690746057436314</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03653497876823875</v>
+        <v>0.0182611229645562</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.0207871387901014</v>
+        <v>0.01160449436237488</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03791235505585221</v>
+        <v>0.01234381676987707</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02480567765633432</v>
+        <v>0.01718793904098416</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03812347761757166</v>
+        <v>0.01986623467931312</v>
       </c>
       <c r="L88" t="n">
-        <v>0.04953490388970211</v>
+        <v>0.04327290708711279</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03817705601212173</v>
+        <v>0.01928606107109077</v>
       </c>
       <c r="N88" t="n">
-        <v>0.07425970504653195</v>
+        <v>0.06867200508995802</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03819565962134051</v>
+        <v>0.01909117400839966</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02205087182072747</v>
+        <v>0.01177469135242974</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03956071831915013</v>
+        <v>0.0128805044555239</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02522473654332213</v>
+        <v>0.01791946532615905</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03978102012268347</v>
+        <v>0.02072998401319629</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05008309893037666</v>
+        <v>0.04454577674106439</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03983692801264876</v>
+        <v>0.02012458546548602</v>
       </c>
       <c r="N89" t="n">
-        <v>0.07593710400931791</v>
+        <v>0.07005311032012973</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03985634047444227</v>
+        <v>0.01992122505224312</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02030208527872963</v>
+        <v>0.0118547638640305</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04120908158244805</v>
+        <v>0.01316208087903608</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02543130282242122</v>
+        <v>0.01856320174611543</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04143856262779529</v>
+        <v>0.02159373334707947</v>
       </c>
       <c r="L90" t="n">
-        <v>0.050907200295285</v>
+        <v>0.04557100082997564</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04149680001317579</v>
+        <v>0.02096310985988127</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0762788359089222</v>
+        <v>0.0726398453250891</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04151702132754403</v>
+        <v>0.02075127609608659</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02153888566176726</v>
+        <v>0.012069346992155</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04285744484574597</v>
+        <v>0.01395387982681756</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02582314810558251</v>
+        <v>0.01941323182107579</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0430961051329071</v>
+        <v>0.02245748268096265</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05160270672548325</v>
+        <v>0.04694043399633629</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04315667201370282</v>
+        <v>0.02180163425427652</v>
       </c>
       <c r="N91" t="n">
-        <v>0.07777812612985757</v>
+        <v>0.07362127916504724</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0431777021806458</v>
+        <v>0.02158132713993005</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02175937946749978</v>
+        <v>0.01221296649399663</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0445058081090439</v>
+        <v>0.01449056751246438</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02609804400475688</v>
+        <v>0.01996363907126254</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04475364763801891</v>
+        <v>0.02332123201484583</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05186511696202753</v>
+        <v>0.04794593088263582</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04481654401422986</v>
+        <v>0.02264015864867177</v>
       </c>
       <c r="N92" t="n">
-        <v>0.07822820005663683</v>
+        <v>0.07588648090021521</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04483838303374756</v>
+        <v>0.02241137818377352</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02196167319358655</v>
+        <v>0.01235509425455075</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04615417137234182</v>
+        <v>0.01502725519811121</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02635376213189526</v>
+        <v>0.02080850701689815</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04641119014313072</v>
+        <v>0.02418498134872901</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05278992974597402</v>
+        <v>0.04947934613136387</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04647641601475688</v>
+        <v>0.02347868304306702</v>
       </c>
       <c r="N93" t="n">
-        <v>0.07872228307377294</v>
+        <v>0.07712451959080407</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04649906388684932</v>
+        <v>0.02324142922761698</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02214387333768703</v>
+        <v>0.0124957165891957</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04780253463563974</v>
+        <v>0.01556394288375804</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02648807409894854</v>
+        <v>0.02144191917820507</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04806873264824253</v>
+        <v>0.02504873068261219</v>
       </c>
       <c r="L94" t="n">
-        <v>0.05287264381837875</v>
+        <v>0.05023253438501002</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04813628801528392</v>
+        <v>0.02431720743746227</v>
       </c>
       <c r="N94" t="n">
-        <v>0.07935360056577834</v>
+        <v>0.07832446429702478</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04815974473995108</v>
+        <v>0.02407148027146044</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02330408639746054</v>
+        <v>0.01263481981330988</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04945089789893766</v>
+        <v>0.01610063056940487</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02659875151786764</v>
+        <v>0.02215795907540574</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04972627515335434</v>
+        <v>0.02591248001649537</v>
       </c>
       <c r="L95" t="n">
-        <v>0.05360875792029793</v>
+        <v>0.05139735028606379</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04979616001581095</v>
+        <v>0.02515573183185752</v>
       </c>
       <c r="N95" t="n">
-        <v>0.08081537791716614</v>
+        <v>0.07977538407908846</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04982042559305284</v>
+        <v>0.02490153131530391</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02244041887056653</v>
+        <v>0.01277239024227164</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05109926116223559</v>
+        <v>0.0166373182550517</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02698356600060348</v>
+        <v>0.02295071022872264</v>
       </c>
       <c r="K96" t="n">
-        <v>0.05138381765846615</v>
+        <v>0.02677622935037855</v>
       </c>
       <c r="L96" t="n">
-        <v>0.05389377079278762</v>
+        <v>0.05216564847701491</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05145603201633799</v>
+        <v>0.02599425622625277</v>
       </c>
       <c r="N96" t="n">
-        <v>0.08120084051244902</v>
+        <v>0.08016634799720612</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0514811064461546</v>
+        <v>0.02573158235914737</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02155097725466439</v>
+        <v>0.01290841419145935</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05274762442553351</v>
+        <v>0.01717400594069853</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02704028915910692</v>
+        <v>0.0235142561583782</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05304136016357797</v>
+        <v>0.02763997868426172</v>
       </c>
       <c r="L97" t="n">
-        <v>0.05452318117690397</v>
+        <v>0.05322928360035287</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05311590401686501</v>
+        <v>0.02683278062064802</v>
       </c>
       <c r="N97" t="n">
-        <v>0.08140321373613979</v>
+        <v>0.08158642511158876</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05314178729925636</v>
+        <v>0.02656163340299083</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02263386804741348</v>
+        <v>0.01304287797625137</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05439598768883143</v>
+        <v>0.01771069362634536</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02716669260532892</v>
+        <v>0.02434268038459489</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05469890266868978</v>
+        <v>0.0285037280181449</v>
       </c>
       <c r="L98" t="n">
-        <v>0.05459248781370318</v>
+        <v>0.05338011029856732</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05477577601739205</v>
+        <v>0.02767130501504328</v>
       </c>
       <c r="N98" t="n">
-        <v>0.08221572297275132</v>
+        <v>0.0819246844824475</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05480246815235813</v>
+        <v>0.0273916844468343</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02370952772806099</v>
+        <v>0.01317576791202608</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05604435095212935</v>
+        <v>0.01824738131199219</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02726054795122033</v>
+        <v>0.02473006642759516</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05635644517380159</v>
+        <v>0.02936747735202808</v>
       </c>
       <c r="L99" t="n">
-        <v>0.05499718944424126</v>
+        <v>0.05440998321414778</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05643564801791908</v>
+        <v>0.02850982940943853</v>
       </c>
       <c r="N99" t="n">
-        <v>0.08233159360679626</v>
+        <v>0.08197019516999332</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05646314900545989</v>
+        <v>0.02822173549067776</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02170907284950306</v>
+        <v>0.01330707031416187</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05769271421542727</v>
+        <v>0.01878406899763902</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02744180262838562</v>
+        <v>0.02547049780760147</v>
       </c>
       <c r="K100" t="n">
-        <v>0.0580139876789134</v>
+        <v>0.03023122668591126</v>
       </c>
       <c r="L100" t="n">
-        <v>0.05519834261247478</v>
+        <v>0.05481075698958393</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05809552001844611</v>
+        <v>0.02934835380383378</v>
       </c>
       <c r="N100" t="n">
         <v>0.08295488259656392</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05812382985856164</v>
+        <v>0.02905178653452122</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02370386860317256</v>
+        <v>0.01343677149803708</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0593410774787252</v>
+        <v>0.01932075668328585</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0274417007898151</v>
+        <v>0.02595805804483624</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05967153018402521</v>
+        <v>0.03109497601979444</v>
       </c>
       <c r="L101" t="n">
-        <v>0.05499477265075872</v>
+        <v>0.05497428626736525</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05975539201897315</v>
+        <v>0.03018687819822903</v>
       </c>
       <c r="N101" t="n">
-        <v>0.0827463206052379</v>
+        <v>0.08295488259656392</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05978451071166341</v>
+        <v>0.02988183757836469</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02168276968487411</v>
+        <v>0.0135648577790301</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06098944074202312</v>
+        <v>0.01985744436893268</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02723364434723263</v>
+        <v>0.02638683065952196</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06132907268913703</v>
+        <v>0.03195872535367762</v>
       </c>
       <c r="L102" t="n">
-        <v>0.05508895251888943</v>
+        <v>0.05519834261247478</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06141526401950018</v>
+        <v>0.03102540259262428</v>
       </c>
       <c r="N102" t="n">
-        <v>0.08244375854715258</v>
+        <v>0.08245488259656392</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06144519156476517</v>
+        <v>0.03071188862220815</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02364700451985732</v>
+        <v>0.01369131547251928</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06263780400532104</v>
+        <v>0.02039413205457951</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02720731796342868</v>
+        <v>0.02675089917188106</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06298661519424884</v>
+        <v>0.0328224746875608</v>
       </c>
       <c r="L103" t="n">
-        <v>0.054844045219437</v>
+        <v>0.05499834261247477</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06307513602002721</v>
+        <v>0.03186392698701953</v>
       </c>
       <c r="N103" t="n">
-        <v>0.08268051976700902</v>
+        <v>0.08285488259656393</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06310587241786693</v>
+        <v>0.03154193966605161</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02259757103846127</v>
+        <v>0.01381613089388299</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06428616726861897</v>
+        <v>0.02093081974022633</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02716394784663539</v>
+        <v>0.026944347102136</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06464415769936065</v>
+        <v>0.03368622402144397</v>
       </c>
       <c r="L104" t="n">
-        <v>0.05506422252464147</v>
+        <v>0.05479834261247477</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06473500802055425</v>
+        <v>0.03270245138141478</v>
       </c>
       <c r="N104" t="n">
-        <v>0.08246447721839384</v>
+        <v>0.08255488259656391</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06476655327096868</v>
+        <v>0.03237199070989508</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02153546717102503</v>
+        <v>0.01393929035849962</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06593453053191689</v>
+        <v>0.02146750742587316</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02720470842161779</v>
+        <v>0.02726125797050925</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06630170020447246</v>
+        <v>0.03454997335532715</v>
       </c>
       <c r="L105" t="n">
-        <v>0.05495185672777533</v>
+        <v>0.05499834261247477</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06639488002108128</v>
+        <v>0.03354097577581003</v>
       </c>
       <c r="N105" t="n">
-        <v>0.08189920131903805</v>
+        <v>0.08275488259656394</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06642723412407045</v>
+        <v>0.03320204175373855</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02146169084788768</v>
+        <v>0.01406078018174754</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0675828937952148</v>
+        <v>0.02200419511151999</v>
       </c>
       <c r="J106" t="n">
-        <v>0.0271307741131409</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06795924270958427</v>
+        <v>0.03541372268921034</v>
       </c>
       <c r="L106" t="n">
-        <v>0.05430932012211115</v>
+        <v>0.05519834261247478</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06805475202160829</v>
+        <v>0.03437950017020528</v>
       </c>
       <c r="N106" t="n">
-        <v>0.08238826248667225</v>
+        <v>0.08245488259656392</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06808791497717222</v>
+        <v>0.034032092797582</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02237723999938829</v>
+        <v>0.01418058667900508</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06923125705851273</v>
+        <v>0.02254088279716682</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02714331934596974</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06961678521469608</v>
+        <v>0.03627747202309351</v>
       </c>
       <c r="L107" t="n">
-        <v>0.0545389850009215</v>
+        <v>0.05489834261247478</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06971462402213532</v>
+        <v>0.03521802456460053</v>
       </c>
       <c r="N107" t="n">
-        <v>0.08173523113902748</v>
+        <v>0.08265488259656389</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06974859583027397</v>
+        <v>0.03486214384142547</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02328311255586595</v>
+        <v>0.01429869616565065</v>
       </c>
       <c r="G108" t="n">
-        <v>0.07087962032181065</v>
+        <v>0.02307757048281365</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02704351854486935</v>
+        <v>0.02734180262838562</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07127432771980789</v>
+        <v>0.03714122135697669</v>
       </c>
       <c r="L108" t="n">
-        <v>0.05434322365747885</v>
+        <v>0.05489834261247478</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07137449602266237</v>
+        <v>0.03605654895899578</v>
       </c>
       <c r="N108" t="n">
-        <v>0.08114367769383446</v>
+        <v>0.08245488259656392</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07140927668337574</v>
+        <v>0.03569219488526893</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02118030644765972</v>
+        <v>0.0144150949570626</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07252798358510858</v>
+        <v>0.02361425816846048</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0269325461346047</v>
+        <v>0.02734180262838562</v>
       </c>
       <c r="K109" t="n">
-        <v>0.0729318702249197</v>
+        <v>0.03800497069085987</v>
       </c>
       <c r="L109" t="n">
-        <v>0.05392440838505572</v>
+        <v>0.05509834261247479</v>
       </c>
       <c r="M109" t="n">
-        <v>0.0730343680231894</v>
+        <v>0.03689507335339103</v>
       </c>
       <c r="N109" t="n">
-        <v>0.081117172568824</v>
+        <v>0.08235488259656393</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07306995753647749</v>
+        <v>0.0365222459291124</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.0230698196051087</v>
+        <v>0.01452976936861931</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0741763468484065</v>
+        <v>0.02415094585410731</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02681157653994086</v>
+        <v>0.02734180262838562</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07458941273003152</v>
+        <v>0.03886872002474304</v>
       </c>
       <c r="L110" t="n">
-        <v>0.05398491147692469</v>
+        <v>0.05509834261247479</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07469424002371643</v>
+        <v>0.03773359774778628</v>
       </c>
       <c r="N110" t="n">
-        <v>0.08095928618172704</v>
+        <v>0.08245488259656392</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07473063838957926</v>
+        <v>0.03735229697295585</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02195264995855196</v>
+        <v>0.01464270571569915</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07582471011170441</v>
+        <v>0.02468763353975414</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02658178418564283</v>
+        <v>0.02734180262838562</v>
       </c>
       <c r="K111" t="n">
-        <v>0.07624695523514333</v>
+        <v>0.03973246935862623</v>
       </c>
       <c r="L111" t="n">
-        <v>0.05322710522635826</v>
+        <v>0.05509834261247479</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07635411202424346</v>
+        <v>0.03857212214218154</v>
       </c>
       <c r="N111" t="n">
-        <v>0.08047358895027434</v>
+        <v>0.08235488259656393</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07639131924268101</v>
+        <v>0.03818234801679932</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02182979543832857</v>
+        <v>0.01475389031368049</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07747307337500234</v>
+        <v>0.02522432122540097</v>
       </c>
       <c r="J112" t="n">
-        <v>0.02654434349647565</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07790449774025514</v>
+        <v>0.04059621869250941</v>
       </c>
       <c r="L112" t="n">
-        <v>0.05315336192662898</v>
+        <v>0.05519834261247478</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07801398402477049</v>
+        <v>0.03941064653657679</v>
       </c>
       <c r="N112" t="n">
-        <v>0.08016365129219677</v>
+        <v>0.08255488259656391</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07805200009578278</v>
+        <v>0.03901239906064279</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02170225397477762</v>
+        <v>0.01486330947794168</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07912143663830026</v>
+        <v>0.0257610089110478</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02640042889720431</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07956204024536695</v>
+        <v>0.04145996802639258</v>
       </c>
       <c r="L113" t="n">
-        <v>0.05286605387100937</v>
+        <v>0.05469834261247478</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07967385602529753</v>
+        <v>0.04024917093097204</v>
       </c>
       <c r="N113" t="n">
-        <v>0.07993304362522508</v>
+        <v>0.08265488259656389</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07971268094888455</v>
+        <v>0.03984245010448625</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02157102349823818</v>
+        <v>0.0149709495238611</v>
       </c>
       <c r="G114" t="n">
-        <v>0.08076979990159819</v>
+        <v>0.02629769659669463</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02615121481259385</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08121958275047876</v>
+        <v>0.04232371736027576</v>
       </c>
       <c r="L114" t="n">
-        <v>0.05276755335277203</v>
+        <v>0.05509834261247479</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08133372802582456</v>
+        <v>0.04108769532536729</v>
       </c>
       <c r="N114" t="n">
-        <v>0.07938533636709016</v>
+        <v>0.08265488259656389</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0813733618019863</v>
+        <v>0.04067250114832971</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02043710193904932</v>
+        <v>0.01507679676681713</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0824181631648961</v>
+        <v>0.02683438428234146</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02599787566740928</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08287712525559057</v>
+        <v>0.04318746669415894</v>
       </c>
       <c r="L115" t="n">
-        <v>0.05216023266518938</v>
+        <v>0.05499834261247477</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08299360002635159</v>
+        <v>0.04192621971976253</v>
       </c>
       <c r="N115" t="n">
-        <v>0.07842409993552291</v>
+        <v>0.08275488259656394</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08303404265508807</v>
+        <v>0.04150255219217318</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02130148722755014</v>
+        <v>0.01518083752218814</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08406652642819402</v>
+        <v>0.02737107196798829</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02574158588641563</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08453466776070238</v>
+        <v>0.04405121602804213</v>
       </c>
       <c r="L116" t="n">
-        <v>0.05204646410153399</v>
+        <v>0.05499834261247477</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08465347202687862</v>
+        <v>0.04276474411415779</v>
       </c>
       <c r="N116" t="n">
-        <v>0.07805290474825399</v>
+        <v>0.08255488259656391</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08469472350818982</v>
+        <v>0.04233260323601664</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.0201651772940797</v>
+        <v>0.01528305810535249</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08571488969149195</v>
+        <v>0.02790775965363512</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02578351989437794</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="K117" t="n">
-        <v>0.0861922102658142</v>
+        <v>0.0449149653619253</v>
       </c>
       <c r="L117" t="n">
-        <v>0.05162861995507845</v>
+        <v>0.05489834261247478</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08631334402740565</v>
+        <v>0.04360326850855304</v>
       </c>
       <c r="N117" t="n">
-        <v>0.07737532122301444</v>
+        <v>0.08245488259656392</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08635540436129159</v>
+        <v>0.0431626542798601</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02102917006897709</v>
+        <v>0.01538344483168854</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08736325295478987</v>
+        <v>0.02844444733928195</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02542485211606117</v>
+        <v>0.02734180262838562</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08784975277092601</v>
+        <v>0.04577871469580848</v>
       </c>
       <c r="L118" t="n">
-        <v>0.05120907251909526</v>
+        <v>0.05479834261247477</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08797321602793269</v>
+        <v>0.04444179290294829</v>
       </c>
       <c r="N118" t="n">
-        <v>0.0771949197775349</v>
+        <v>0.08225488259656394</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08801608521439334</v>
+        <v>0.04399270532370356</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02189446348258138</v>
+        <v>0.01548198401657468</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0890116162180878</v>
+        <v>0.02898113502492877</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02536675697623041</v>
+        <v>0.02734180262838562</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08950729527603782</v>
+        <v>0.04664246402969166</v>
       </c>
       <c r="L119" t="n">
-        <v>0.05119019408685693</v>
+        <v>0.05469834261247478</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08963308802845972</v>
+        <v>0.04528031729734355</v>
       </c>
       <c r="N119" t="n">
-        <v>0.07641527082954641</v>
+        <v>0.08235488259656393</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08967676606749511</v>
+        <v>0.04482275636754703</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.01975517734942039</v>
+        <v>0.01557866197538927</v>
       </c>
       <c r="G120" t="n">
-        <v>0.09065997948138571</v>
+        <v>0.0295178227105756</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02511040889965065</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K120" t="n">
-        <v>0.09116483778114963</v>
+        <v>0.04750621336357484</v>
       </c>
       <c r="L120" t="n">
-        <v>0.05047435695163599</v>
+        <v>0.05499834261247477</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09129296002898675</v>
+        <v>0.04611884169173879</v>
       </c>
       <c r="N120" t="n">
-        <v>0.07603994479677961</v>
+        <v>0.08285488259656393</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09133744692059687</v>
+        <v>0.04565280741139049</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01959623733745472</v>
+        <v>0.01567346502351068</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09230834274468364</v>
+        <v>0.03005451039622243</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02494413857495811</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09282238028626144</v>
+        <v>0.04836996269745802</v>
       </c>
       <c r="L121" t="n">
-        <v>0.05044785276200253</v>
+        <v>0.05469834261247478</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09295283202951377</v>
+        <v>0.04695736608613404</v>
       </c>
       <c r="N121" t="n">
-        <v>0.07545264330318474</v>
+        <v>0.08235488259656393</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09299812777369863</v>
+        <v>0.04648285845523396</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02142004771277967</v>
+        <v>0.01576637947631727</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09395670600798156</v>
+        <v>0.03059119808186926</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02485470118374859</v>
+        <v>0.02734180262838562</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09447992279137325</v>
+        <v>0.0492337120313412</v>
       </c>
       <c r="L122" t="n">
-        <v>0.05017501962607326</v>
+        <v>0.05489834261247478</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09461270403004081</v>
+        <v>0.04779589048052929</v>
       </c>
       <c r="N122" t="n">
-        <v>0.07479673445217677</v>
+        <v>0.08235488259656393</v>
       </c>
       <c r="O122" t="n">
-        <v>0.0946588086268004</v>
+        <v>0.04731290949907743</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02022985985172777</v>
+        <v>0.01585739164918743</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09560506927127949</v>
+        <v>0.03112788576751609</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02474587204859789</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09613746529648506</v>
+        <v>0.05009746136522437</v>
       </c>
       <c r="L123" t="n">
-        <v>0.04976153055890889</v>
+        <v>0.05519834261247478</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09627257603056784</v>
+        <v>0.04863441487492454</v>
       </c>
       <c r="N123" t="n">
-        <v>0.07467886167500837</v>
+        <v>0.08235488259656393</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09631948947990215</v>
+        <v>0.04814296054292089</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02102892513063156</v>
+        <v>0.01594648785749952</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09725343253457741</v>
+        <v>0.03166457345316292</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02442147758577558</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09779500780159688</v>
+        <v>0.05096121069910755</v>
       </c>
       <c r="L124" t="n">
-        <v>0.04921511477556401</v>
+        <v>0.05519834261247478</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09793244803109487</v>
+        <v>0.0494729392693198</v>
       </c>
       <c r="N124" t="n">
-        <v>0.07431065781943713</v>
+        <v>0.08265488259656389</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09798017033300392</v>
+        <v>0.04897301158676435</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01882049492582359</v>
+        <v>0.0160336544166319</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09890179579787532</v>
+        <v>0.03220126113880974</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02418534421155122</v>
+        <v>0.02734180262838562</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09945255030670869</v>
+        <v>0.05182496003299073</v>
       </c>
       <c r="L125" t="n">
-        <v>0.04884350149109312</v>
+        <v>0.05519834261247478</v>
       </c>
       <c r="M125" t="n">
-        <v>0.0995923200316219</v>
+        <v>0.05031146366371505</v>
       </c>
       <c r="N125" t="n">
-        <v>0.07330375573322073</v>
+        <v>0.08225488259656394</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09964085118610568</v>
+        <v>0.04980306263060781</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01860782061363643</v>
+        <v>0.01611887764196295</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1005501590611732</v>
+        <v>0.03273794882445658</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02384129834219437</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="K126" t="n">
-        <v>0.1011100928118205</v>
+        <v>0.05268870936687391</v>
       </c>
       <c r="L126" t="n">
-        <v>0.04805441992055071</v>
+        <v>0.05469834261247478</v>
       </c>
       <c r="M126" t="n">
-        <v>0.1012521920321489</v>
+        <v>0.05114998805811029</v>
       </c>
       <c r="N126" t="n">
-        <v>0.07256978826411709</v>
+        <v>0.08215488259656389</v>
       </c>
       <c r="O126" t="n">
-        <v>0.1013015320392074</v>
+        <v>0.05063311367445128</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.0193941535704026</v>
+        <v>0.01620214384887104</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1021985223244712</v>
+        <v>0.03327463651010341</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0235931663939746</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1027676353169323</v>
+        <v>0.0535524587007571</v>
       </c>
       <c r="L127" t="n">
-        <v>0.04795559927899135</v>
+        <v>0.05489834261247478</v>
       </c>
       <c r="M127" t="n">
-        <v>0.102912064032676</v>
+        <v>0.05198851245250555</v>
       </c>
       <c r="N127" t="n">
-        <v>0.07202038825988388</v>
+        <v>0.08255488259656391</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1029622128923092</v>
+        <v>0.05146316471829474</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01918274517245461</v>
+        <v>0.01628343935273453</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1038468855877691</v>
+        <v>0.03381132419575023</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02344477478316148</v>
+        <v>0.02734180262838562</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1044251778220441</v>
+        <v>0.05441620803464027</v>
       </c>
       <c r="L128" t="n">
-        <v>0.04745476878146951</v>
+        <v>0.05499834261247477</v>
       </c>
       <c r="M128" t="n">
-        <v>0.104571936033203</v>
+        <v>0.0528270368469008</v>
       </c>
       <c r="N128" t="n">
-        <v>0.07136718856827862</v>
+        <v>0.08265488259656389</v>
       </c>
       <c r="O128" t="n">
-        <v>0.104622893745411</v>
+        <v>0.0522932157621382</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01897684679612505</v>
+        <v>0.0163627504689318</v>
       </c>
       <c r="G129" t="n">
-        <v>0.105495248851067</v>
+        <v>0.03434801188139706</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02309994992602457</v>
+        <v>0.02734180262838562</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1060827203271559</v>
+        <v>0.05527995736852345</v>
       </c>
       <c r="L129" t="n">
-        <v>0.04675965764303971</v>
+        <v>0.05519834261247478</v>
       </c>
       <c r="M129" t="n">
-        <v>0.10623180803373</v>
+        <v>0.05366556124129605</v>
       </c>
       <c r="N129" t="n">
-        <v>0.07062182203705936</v>
+        <v>0.08225488259656394</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1062835745985127</v>
+        <v>0.05312326680598167</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01777970981774643</v>
+        <v>0.01644006351284121</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1071436121143649</v>
+        <v>0.0348846995670439</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02286251823883344</v>
+        <v>0.02734180262838562</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1077402628322677</v>
+        <v>0.05614370670240663</v>
       </c>
       <c r="L130" t="n">
-        <v>0.04647799507875652</v>
+        <v>0.05479834261247477</v>
       </c>
       <c r="M130" t="n">
-        <v>0.107891680034257</v>
+        <v>0.0545040856356913</v>
       </c>
       <c r="N130" t="n">
-        <v>0.06989592151398366</v>
+        <v>0.08295488259656392</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1079442554516145</v>
+        <v>0.05395331784982513</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01758448390200801</v>
+        <v>0.01651536479984114</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1087919753776629</v>
+        <v>0.03542138725269072</v>
       </c>
       <c r="J131" t="n">
-        <v>0.022636300815413</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1093978053373796</v>
+        <v>0.0570074560362898</v>
       </c>
       <c r="L131" t="n">
-        <v>0.04561751030367439</v>
+        <v>0.05519834261247478</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1095515520347841</v>
+        <v>0.05534261003008655</v>
       </c>
       <c r="N131" t="n">
-        <v>0.06880111984680931</v>
+        <v>0.08265488259656389</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1096049363047163</v>
+        <v>0.0547833688936686</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01837100436704242</v>
+        <v>0.01658864064530995</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1104403386409608</v>
+        <v>0.03595807493833755</v>
       </c>
       <c r="J132" t="n">
-        <v>0.0225039028507556</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1110553478424914</v>
+        <v>0.05787120537017299</v>
       </c>
       <c r="L132" t="n">
-        <v>0.045157319620998</v>
+        <v>0.05499834261247477</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1112114240353111</v>
+        <v>0.0561811344244818</v>
       </c>
       <c r="N132" t="n">
-        <v>0.06851242939854579</v>
+        <v>0.08235488259656393</v>
       </c>
       <c r="O132" t="n">
-        <v>0.111265617157818</v>
+        <v>0.05561341993751206</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01714286744307124</v>
+        <v>0.01665987736462601</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1120887019042587</v>
+        <v>0.03649476262398438</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02225034665875897</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1127128903476032</v>
+        <v>0.05873495470405617</v>
       </c>
       <c r="L133" t="n">
-        <v>0.04465362889640545</v>
+        <v>0.05479834261247477</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1128712960358382</v>
+        <v>0.05701965881887706</v>
       </c>
       <c r="N133" t="n">
-        <v>0.06725889980100525</v>
+        <v>0.08245488259656392</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1129262980109198</v>
+        <v>0.05644347098135551</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01690472747626703</v>
+        <v>0.01672906127316771</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1137370651675566</v>
+        <v>0.03703145030963121</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02208110975543393</v>
+        <v>0.02734180262838562</v>
       </c>
       <c r="K134" t="n">
-        <v>0.114370432852715</v>
+        <v>0.05959870403793934</v>
       </c>
       <c r="L134" t="n">
-        <v>0.04421627402365566</v>
+        <v>0.05519834261247478</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1145311680363652</v>
+        <v>0.05785818321327231</v>
       </c>
       <c r="N134" t="n">
-        <v>0.06625366617942641</v>
+        <v>0.08215488259656389</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1145869788640215</v>
+        <v>0.05727352202519899</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01866123881280232</v>
+        <v>0.01679617868631339</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1153854284308545</v>
+        <v>0.03756813799527804</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02180166965679134</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1160279753578268</v>
+        <v>0.06046245337182252</v>
       </c>
       <c r="L135" t="n">
-        <v>0.04365631937636341</v>
+        <v>0.05509834261247479</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1161910400368922</v>
+        <v>0.05869670760766756</v>
       </c>
       <c r="N135" t="n">
-        <v>0.06531338095878231</v>
+        <v>0.08255488259656391</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1162476597171233</v>
+        <v>0.05810357306904244</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01741705579884962</v>
+        <v>0.01686121591944142</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1170337916941525</v>
+        <v>0.03810482568092487</v>
       </c>
       <c r="J136" t="n">
-        <v>0.021417503878842</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1176855178629386</v>
+        <v>0.0613262027057057</v>
       </c>
       <c r="L136" t="n">
-        <v>0.04338482932814358</v>
+        <v>0.05469834261247478</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1178509120374193</v>
+        <v>0.0595352320020628</v>
       </c>
       <c r="N136" t="n">
-        <v>0.06505469656404611</v>
+        <v>0.08225488259656394</v>
       </c>
       <c r="O136" t="n">
-        <v>0.117908340570225</v>
+        <v>0.05893362411288592</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01817683278058148</v>
+        <v>0.01692415928793022</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1186821549574504</v>
+        <v>0.0386415133665717</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02113408993759679</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1193430603680504</v>
+        <v>0.06218995203958887</v>
       </c>
       <c r="L137" t="n">
-        <v>0.04261286825261096</v>
+        <v>0.05479834261247477</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1195107840379463</v>
+        <v>0.06037375639645805</v>
       </c>
       <c r="N137" t="n">
-        <v>0.0641942654201908</v>
+        <v>0.08295488259656392</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1195690214233268</v>
+        <v>0.05976367515672937</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01794522410417042</v>
+        <v>0.01698499510715809</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1203305182207483</v>
+        <v>0.03917820105221853</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02085690534906649</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1210006028731622</v>
+        <v>0.06305370137347206</v>
       </c>
       <c r="L138" t="n">
-        <v>0.04225150052338036</v>
+        <v>0.05489834261247478</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1211706560384733</v>
+        <v>0.0612122807908533</v>
       </c>
       <c r="N138" t="n">
-        <v>0.06354873995218946</v>
+        <v>0.08225488259656394</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1212297022764286</v>
+        <v>0.06059372620057284</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01572688411578897</v>
+        <v>0.01704370969250344</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1219788814840462</v>
+        <v>0.03971488873786536</v>
       </c>
       <c r="J139" t="n">
-        <v>0.020591427629262</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1226581453782741</v>
+        <v>0.06391745070735524</v>
       </c>
       <c r="L139" t="n">
-        <v>0.04161179051406669</v>
+        <v>0.05479834261247477</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1228305280390004</v>
+        <v>0.06205080518524855</v>
       </c>
       <c r="N139" t="n">
-        <v>0.06243477258501512</v>
+        <v>0.08225488259656394</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1228903831295303</v>
+        <v>0.06142377724441631</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01752646716160966</v>
+        <v>0.01710028935934463</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1236272447473441</v>
+        <v>0.04025157642351218</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02034313429419411</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1243156878833859</v>
+        <v>0.06478120004123841</v>
       </c>
       <c r="L140" t="n">
-        <v>0.04070480259828471</v>
+        <v>0.05519834261247478</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1244904000395274</v>
+        <v>0.06288932957964381</v>
       </c>
       <c r="N140" t="n">
-        <v>0.06166901574364086</v>
+        <v>0.08295488259656392</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1245510639826321</v>
+        <v>0.06225382828825977</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01634862758780501</v>
+        <v>0.01715472042306002</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1252756080106421</v>
+        <v>0.04078826410915901</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02021750285987368</v>
+        <v>0.02734180262838562</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1259732303884977</v>
+        <v>0.06564494937512159</v>
       </c>
       <c r="L141" t="n">
-        <v>0.04074160114964923</v>
+        <v>0.05479834261247477</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1261502720400544</v>
+        <v>0.06372785397403906</v>
       </c>
       <c r="N141" t="n">
-        <v>0.06116812185303983</v>
+        <v>0.08265488259656389</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1262117448357339</v>
+        <v>0.06308387933210323</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01519801974054757</v>
+        <v>0.01720698919902799</v>
       </c>
       <c r="G142" t="n">
-        <v>0.12692397127394</v>
+        <v>0.04132495179480584</v>
       </c>
       <c r="J142" t="n">
-        <v>0.01992001084231154</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1276307728936095</v>
+        <v>0.06650869870900478</v>
       </c>
       <c r="L142" t="n">
-        <v>0.04013325054177511</v>
+        <v>0.05509834261247479</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1278101440405814</v>
+        <v>0.0645663783684343</v>
       </c>
       <c r="N142" t="n">
-        <v>0.05984874333818491</v>
+        <v>0.08285488259656393</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1278724256888356</v>
+        <v>0.0639139303759467</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01607929796600985</v>
+        <v>0.01725708200262691</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1285723345372379</v>
+        <v>0.04186163948045267</v>
       </c>
       <c r="J143" t="n">
-        <v>0.01985613575751852</v>
+        <v>0.02734180262838562</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1292883153987213</v>
+        <v>0.06737244804288794</v>
       </c>
       <c r="L143" t="n">
-        <v>0.03949081514827721</v>
+        <v>0.05469834261247478</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1294700160411085</v>
+        <v>0.06540490276282956</v>
       </c>
       <c r="N143" t="n">
-        <v>0.05982753262404933</v>
+        <v>0.08235488259656393</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1295331065419374</v>
+        <v>0.06474398141979015</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.0159971166103644</v>
+        <v>0.01730498514923516</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1302206978005358</v>
+        <v>0.0423983271660995</v>
       </c>
       <c r="J144" t="n">
-        <v>0.01953135512150543</v>
+        <v>0.02734180262838562</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1309458579038331</v>
+        <v>0.06823619737677114</v>
       </c>
       <c r="L144" t="n">
-        <v>0.03942535934277028</v>
+        <v>0.05469834261247478</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1311298880416355</v>
+        <v>0.06624342715722481</v>
       </c>
       <c r="N144" t="n">
-        <v>0.05932114213560602</v>
+        <v>0.08235488259656393</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1311937873950391</v>
+        <v>0.06557403246363362</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01495613001978373</v>
+        <v>0.01735068495423109</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1318690610638338</v>
+        <v>0.04293501485174633</v>
       </c>
       <c r="J145" t="n">
-        <v>0.01965114645028318</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1326034004089449</v>
+        <v>0.06909994671065431</v>
       </c>
       <c r="L145" t="n">
-        <v>0.03944794749886918</v>
+        <v>0.05469834261247478</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1327897600421626</v>
+        <v>0.06708195155162007</v>
       </c>
       <c r="N145" t="n">
-        <v>0.05934622429782815</v>
+        <v>0.08285488259656393</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1328544682481409</v>
+        <v>0.06640408350747709</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01695354180662914</v>
+        <v>0.01739416773299306</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1335174243271317</v>
+        <v>0.04347170253739316</v>
       </c>
       <c r="J146" t="n">
-        <v>0.01962098725986255</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1342609429140567</v>
+        <v>0.06996369604453749</v>
       </c>
       <c r="L146" t="n">
-        <v>0.03906964399018872</v>
+        <v>0.05519834261247478</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1344496320426896</v>
+        <v>0.06792047594601532</v>
       </c>
       <c r="N146" t="n">
-        <v>0.05871943153568865</v>
+        <v>0.08215457907310647</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1345151491012427</v>
+        <v>0.06723413455132055</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01696095814868367</v>
+        <v>0.01743541980089948</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1351657875904296</v>
+        <v>0.04400839022303998</v>
       </c>
       <c r="J147" t="n">
-        <v>0.01962443574661719</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1359184854191685</v>
+        <v>0.07082744537842067</v>
       </c>
       <c r="L147" t="n">
-        <v>0.03947168635040921</v>
+        <v>0.0548983051819093</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1361095040432166</v>
+        <v>0.06875900034041056</v>
       </c>
       <c r="N147" t="n">
-        <v>0.05871903056162892</v>
+        <v>0.08265024606290827</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1361758299543444</v>
+        <v>0.068064185595164</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01497478715007273</v>
+        <v>0.0174744274733287</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1368141508537275</v>
+        <v>0.04454507790868682</v>
       </c>
       <c r="J148" t="n">
-        <v>0.01953573402087348</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1375760279242803</v>
+        <v>0.07169119471230384</v>
       </c>
       <c r="L148" t="n">
-        <v>0.03929193869444533</v>
+        <v>0.05479604135310706</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1377693760437436</v>
+        <v>0.06959752473480582</v>
       </c>
       <c r="N148" t="n">
-        <v>0.05894816582141305</v>
+        <v>0.08284092887381878</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1378365108074462</v>
+        <v>0.06889423663900747</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01699468681113498</v>
+        <v>0.01751117706565907</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1384625141170255</v>
+        <v>0.04508176559433365</v>
       </c>
       <c r="J149" t="n">
-        <v>0.01965439560396463</v>
+        <v>0.02724180262838562</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1392335704293922</v>
+        <v>0.07255494404618702</v>
       </c>
       <c r="L149" t="n">
-        <v>0.03952717612245885</v>
+        <v>0.05509036884096519</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1394292480442706</v>
+        <v>0.07043604912920105</v>
       </c>
       <c r="N149" t="n">
-        <v>0.05869991251578727</v>
+        <v>0.08262682058216164</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1394971916605479</v>
+        <v>0.06972428768285094</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01602031513220909</v>
+        <v>0.01754565489326898</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1401108773803234</v>
+        <v>0.04561845327998047</v>
       </c>
       <c r="J150" t="n">
-        <v>0.01948001801000944</v>
+        <v>0.02744180262838562</v>
       </c>
       <c r="K150" t="n">
-        <v>0.140891112934504</v>
+        <v>0.0734186933800702</v>
       </c>
       <c r="L150" t="n">
-        <v>0.03947658562830689</v>
+        <v>0.05488142009360739</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1410891200447977</v>
+        <v>0.07127457352359631</v>
       </c>
       <c r="N150" t="n">
-        <v>0.05927304703063035</v>
+        <v>0.08260811426426079</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1411578725136497</v>
+        <v>0.07055433872669441</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01705133011363374</v>
+        <v>0.01757784727153679</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1417592406436213</v>
+        <v>0.0461551409656273</v>
       </c>
       <c r="J151" t="n">
-        <v>0.01961219875312675</v>
+        <v>0.02734131490945857</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1425486554396158</v>
+        <v>0.07428244271395339</v>
       </c>
       <c r="L151" t="n">
-        <v>0.03913935420584669</v>
+        <v>0.05506932755915753</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1427489920453247</v>
+        <v>0.07211309791799156</v>
       </c>
       <c r="N151" t="n">
-        <v>0.05916634575182139</v>
+        <v>0.08228500299643993</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1428185533667515</v>
+        <v>0.07138438977053786</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.0160873897557476</v>
+        <v>0.01760774051584087</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1434076039069192</v>
+        <v>0.04669182865127414</v>
       </c>
       <c r="J152" t="n">
-        <v>0.01975053534743533</v>
+        <v>0.02743907294762306</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1442061979447276</v>
+        <v>0.07514619204783657</v>
       </c>
       <c r="L152" t="n">
-        <v>0.03961466884893536</v>
+        <v>0.05515422368573936</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1444088640458518</v>
+        <v>0.07295162231238682</v>
       </c>
       <c r="N152" t="n">
-        <v>0.05967858506523921</v>
+        <v>0.0827576798550228</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1444792342198532</v>
+        <v>0.07221444081438133</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01612815205888934</v>
+        <v>0.0176353209415596</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1450559671702172</v>
+        <v>0.04722851633692096</v>
       </c>
       <c r="J153" t="n">
-        <v>0.01959462530705401</v>
+        <v>0.02743507694092619</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1458637404498394</v>
+        <v>0.07600994138171974</v>
       </c>
       <c r="L153" t="n">
-        <v>0.03980171655143017</v>
+        <v>0.05493624092147675</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1460687360463788</v>
+        <v>0.07379014670678206</v>
       </c>
       <c r="N153" t="n">
-        <v>0.05960854135676286</v>
+        <v>0.08202633791633324</v>
       </c>
       <c r="O153" t="n">
-        <v>0.146139915072955</v>
+        <v>0.0730444918582248</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01617327502339764</v>
+        <v>0.01766057486407134</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1467043304335151</v>
+        <v>0.04776520402256779</v>
       </c>
       <c r="J154" t="n">
-        <v>0.01984406614610158</v>
+        <v>0.02732939885886715</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1475212829549512</v>
+        <v>0.07687369071560292</v>
       </c>
       <c r="L154" t="n">
-        <v>0.03969968430718823</v>
+        <v>0.05491551171449346</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1477286080469058</v>
+        <v>0.07462867110117732</v>
       </c>
       <c r="N154" t="n">
-        <v>0.05995499101227103</v>
+        <v>0.08279117025669508</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1478005959260567</v>
+        <v>0.07387454290206825</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01622241664961116</v>
+        <v>0.01768348859875447</v>
       </c>
       <c r="G155" t="n">
-        <v>0.148352693696813</v>
+        <v>0.04830189170821462</v>
       </c>
       <c r="J155" t="n">
-        <v>0.01989845537869687</v>
+        <v>0.02722211067094517</v>
       </c>
       <c r="K155" t="n">
-        <v>0.149178825460063</v>
+        <v>0.07773744004948609</v>
       </c>
       <c r="L155" t="n">
-        <v>0.04000775911006674</v>
+        <v>0.05479216851291333</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1493884800474329</v>
+        <v>0.07546719549557257</v>
       </c>
       <c r="N155" t="n">
-        <v>0.06011671041764288</v>
+        <v>0.08275236995243201</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1494612767791585</v>
+        <v>0.07470459394591171</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01727523493786858</v>
+        <v>0.01770404846098735</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1500010569601109</v>
+        <v>0.04883857939386145</v>
       </c>
       <c r="J156" t="n">
-        <v>0.01985739051895868</v>
+        <v>0.02721328434665946</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1508363679651748</v>
+        <v>0.07860118938336928</v>
       </c>
       <c r="L156" t="n">
-        <v>0.0398251279539229</v>
+        <v>0.05456634376486008</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1510483520479599</v>
+        <v>0.07630571988996782</v>
       </c>
       <c r="N156" t="n">
-        <v>0.05999247595875717</v>
+        <v>0.08191013007986786</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1511219576322603</v>
+        <v>0.07553464498975519</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01633138788850858</v>
+        <v>0.01772224076614833</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1516494202234088</v>
+        <v>0.04937526707950828</v>
       </c>
       <c r="J157" t="n">
-        <v>0.01982046908100582</v>
+        <v>0.02730299185550923</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1524939104702867</v>
+        <v>0.07946493871725246</v>
       </c>
       <c r="L157" t="n">
-        <v>0.03975097783261389</v>
+        <v>0.05463816991845757</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1527082240484869</v>
+        <v>0.07714424428436308</v>
       </c>
       <c r="N157" t="n">
-        <v>0.05988106402149296</v>
+        <v>0.08206464371532646</v>
       </c>
       <c r="O157" t="n">
-        <v>0.152782638485362</v>
+        <v>0.07636469603359865</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.0174036033635147</v>
+        <v>0.01773805182961582</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1532977834867068</v>
+        <v>0.04991195476515511</v>
       </c>
       <c r="J158" t="n">
-        <v>0.01988750656861815</v>
+        <v>0.02739130516699369</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1541514529753985</v>
+        <v>0.08032868805113563</v>
       </c>
       <c r="L158" t="n">
-        <v>0.04028449573999687</v>
+        <v>0.05460777942182965</v>
       </c>
       <c r="M158" t="n">
-        <v>0.154368096049014</v>
+        <v>0.07798276867875832</v>
       </c>
       <c r="N158" t="n">
-        <v>0.06048125099172913</v>
+        <v>0.08211610393513141</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1544433193384638</v>
+        <v>0.0771947470774421</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01652899381434053</v>
+        <v>0.01775146796676818</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1549461467500047</v>
+        <v>0.05044864245080194</v>
       </c>
       <c r="J159" t="n">
-        <v>0.0199962289056194</v>
+        <v>0.02737829625061206</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1558089954805103</v>
+        <v>0.08119243738501881</v>
       </c>
       <c r="L159" t="n">
-        <v>0.04028349658285735</v>
+        <v>0.05447530472310008</v>
       </c>
       <c r="M159" t="n">
-        <v>0.156027968049541</v>
+        <v>0.07882129307315358</v>
       </c>
       <c r="N159" t="n">
-        <v>0.06097072583040181</v>
+        <v>0.08236470381560662</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1561040001915656</v>
+        <v>0.07802479812128557</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01670060755009274</v>
+        <v>0.01776247549298375</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1565945100133026</v>
+        <v>0.05098533013644877</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02016611332124399</v>
+        <v>0.02736403707586353</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1574665379856221</v>
+        <v>0.08205618671890198</v>
       </c>
       <c r="L160" t="n">
-        <v>0.04070913110948327</v>
+        <v>0.05494087827039262</v>
       </c>
       <c r="M160" t="n">
-        <v>0.157687840050068</v>
+        <v>0.07965981746754883</v>
       </c>
       <c r="N160" t="n">
-        <v>0.06085151165494646</v>
+        <v>0.08191063643307583</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1577646810446673</v>
+        <v>0.07885484916512904</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01790812042644146</v>
+        <v>0.01777106072364094</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1582428732766005</v>
+        <v>0.0515220178220956</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02048500973817302</v>
+        <v>0.02714859961224732</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1591240804907339</v>
+        <v>0.08291993605278516</v>
       </c>
       <c r="L161" t="n">
-        <v>0.04093721121147145</v>
+        <v>0.05480463251183118</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1593477120505951</v>
+        <v>0.08049834186194407</v>
       </c>
       <c r="N161" t="n">
-        <v>0.06158827906464737</v>
+        <v>0.08225409486386293</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1594253618977691</v>
+        <v>0.0796849002089725</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01714120829905681</v>
+        <v>0.01777720997411808</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1598912365398985</v>
+        <v>0.05205870550774242</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02064076807908763</v>
+        <v>0.02723205582926266</v>
       </c>
       <c r="K162" t="n">
-        <v>0.1607816229958457</v>
+        <v>0.08378368538666836</v>
       </c>
       <c r="L162" t="n">
-        <v>0.04144319419563056</v>
+        <v>0.0544666998955394</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1610075840511221</v>
+        <v>0.08133686625633932</v>
       </c>
       <c r="N162" t="n">
-        <v>0.06214409010248756</v>
+        <v>0.08179527218429156</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1610860427508708</v>
+        <v>0.08051495125281596</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01638954702360892</v>
+        <v>0.01778090955979355</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1615395998031964</v>
+        <v>0.05259539319338925</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02092123826666893</v>
+        <v>0.02711447769640876</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1624391655009575</v>
+        <v>0.08464743472055153</v>
       </c>
       <c r="L163" t="n">
-        <v>0.04190253736876909</v>
+        <v>0.05432721286964123</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1626674560516491</v>
+        <v>0.08217539065073458</v>
       </c>
       <c r="N163" t="n">
-        <v>0.06288200681144956</v>
+        <v>0.08213436147068554</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1627467236039726</v>
+        <v>0.08134500229665942</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01864281245576793</v>
+        <v>0.01778214579604575</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1631879630664943</v>
+        <v>0.05313208087903608</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02121427022359806</v>
+        <v>0.02719593718318482</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1640967080060693</v>
+        <v>0.08551118405443471</v>
       </c>
       <c r="L164" t="n">
-        <v>0.04299069803769567</v>
+        <v>0.05458630388226041</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1643273280521761</v>
+        <v>0.08301391504512982</v>
       </c>
       <c r="N164" t="n">
-        <v>0.06436509123451645</v>
+        <v>0.08177155579936862</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1644074044570744</v>
+        <v>0.0821750533405029</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01689068045120395</v>
+        <v>0.01778214579604575</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1648363263297922</v>
+        <v>0.05313208087903608</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02160771387255614</v>
+        <v>0.02707650625909004</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1657542505111811</v>
+        <v>0.08637493338831788</v>
       </c>
       <c r="L165" t="n">
-        <v>0.04318313350921879</v>
+        <v>0.05424410538152077</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1659872000527032</v>
+        <v>0.08385243943952507</v>
       </c>
       <c r="N165" t="n">
-        <v>0.06535640541467069</v>
+        <v>0.08180704824666468</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1660680853101761</v>
+        <v>0.08300510438434636</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01812282686558714</v>
+        <v>0.0173417506530522</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1664846895930902</v>
+        <v>0.05313181235057206</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02188941913622428</v>
+        <v>0.02715625689362368</v>
       </c>
       <c r="K166" t="n">
-        <v>0.167411793016293</v>
+        <v>0.08723868272220106</v>
       </c>
       <c r="L166" t="n">
-        <v>0.04415530109014709</v>
+        <v>0.0542007498155461</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1676470720532302</v>
+        <v>0.08469096383392033</v>
       </c>
       <c r="N166" t="n">
-        <v>0.06601901139489519</v>
+        <v>0.08134103188889741</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1677287661632779</v>
+        <v>0.08383515542818981</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01832892755458758</v>
+        <v>0.01690627685443887</v>
       </c>
       <c r="G167" t="n">
-        <v>0.168133052856388</v>
+        <v>0.05313154382210805</v>
       </c>
       <c r="J167" t="n">
-        <v>0.0222472359372836</v>
+        <v>0.02703526105628488</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1690693355214048</v>
+        <v>0.08810243205608426</v>
       </c>
       <c r="L167" t="n">
-        <v>0.04468265808728916</v>
+        <v>0.05455636963246019</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1693069440537572</v>
+        <v>0.08552948822831558</v>
       </c>
       <c r="N167" t="n">
-        <v>0.06671597121817274</v>
+        <v>0.08127369980239069</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1693894470163796</v>
+        <v>0.08466520647203328</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01850864676289168</v>
+        <v>0.01647635094778924</v>
       </c>
       <c r="G168" t="n">
-        <v>0.169781416119686</v>
+        <v>0.05313127529364402</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02236983196946035</v>
+        <v>0.02701359071657292</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1707268780265166</v>
+        <v>0.08896618138996742</v>
       </c>
       <c r="L168" t="n">
-        <v>0.04464083256911386</v>
+        <v>0.05441109728038682</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1709668160542843</v>
+        <v>0.08636801262271084</v>
       </c>
       <c r="N168" t="n">
-        <v>0.06751036652137143</v>
+        <v>0.08140524506346819</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1710501278694814</v>
+        <v>0.08549525751587675</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.01968266224369333</v>
+        <v>0.01605259948074281</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1714297793829839</v>
+        <v>0.05313100676518001</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02257512175063939</v>
+        <v>0.02719131784398698</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1723844205316284</v>
+        <v>0.08982993072385061</v>
       </c>
       <c r="L169" t="n">
-        <v>0.04505579229504994</v>
+        <v>0.05436506520744985</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1726266880548113</v>
+        <v>0.08720653701710608</v>
       </c>
       <c r="N169" t="n">
-        <v>0.06823505251755285</v>
+        <v>0.08123586074845374</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1727108087225832</v>
+        <v>0.0863253085597202</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.01985247007883338</v>
+        <v>0.01563564900088282</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1730781426462818</v>
+        <v>0.053130738236716</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02267528436520871</v>
+        <v>0.02706851440802627</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1740419630367402</v>
+        <v>0.09069368005773377</v>
       </c>
       <c r="L170" t="n">
-        <v>0.04556030607215317</v>
+        <v>0.05411840586177305</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1742865600553383</v>
+        <v>0.08804506141150133</v>
       </c>
       <c r="N170" t="n">
-        <v>0.06834397028647898</v>
+        <v>0.08146573993367107</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1743714895756849</v>
+        <v>0.08715535960356367</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02001839778124341</v>
+        <v>0.0152261260558113</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1747265059095797</v>
+        <v>0.05313046970825198</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02297070525018995</v>
+        <v>0.02714525237819</v>
       </c>
       <c r="K171" t="n">
-        <v>0.175699505541852</v>
+        <v>0.09155742939161696</v>
       </c>
       <c r="L171" t="n">
-        <v>0.04625515246851983</v>
+        <v>0.05407125169148025</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1759464320558654</v>
+        <v>0.08888358580589659</v>
       </c>
       <c r="N171" t="n">
-        <v>0.06913829161132151</v>
+        <v>0.08179507569544403</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1760321704287867</v>
+        <v>0.08798541064740713</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.019180772863855</v>
+        <v>0.01482465719311304</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1763748691728776</v>
+        <v>0.05313020117978796</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02306176984260476</v>
+        <v>0.0271216037239774</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1773570480469638</v>
+        <v>0.09242117872550014</v>
       </c>
       <c r="L172" t="n">
-        <v>0.046341110052246</v>
+        <v>0.05432373514469527</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1776063040563924</v>
+        <v>0.08972211020029183</v>
       </c>
       <c r="N172" t="n">
-        <v>0.06981918827525252</v>
+        <v>0.0811240611100964</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1776928512818884</v>
+        <v>0.0888154616912506</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.01933992283959973</v>
+        <v>0.01443186896042507</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1780232324361756</v>
+        <v>0.05312993265132394</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02334886357947481</v>
+        <v>0.02709764041488767</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1790145905520756</v>
+        <v>0.09328492805938332</v>
       </c>
       <c r="L173" t="n">
-        <v>0.04711895739142805</v>
+        <v>0.0540759886695418</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1792661760569194</v>
+        <v>0.09056063459468709</v>
       </c>
       <c r="N173" t="n">
-        <v>0.07048783206144366</v>
+        <v>0.08104669632887757</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1793535321349902</v>
+        <v>0.08964551273509407</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.0204961752214092</v>
+        <v>0.01404838790533178</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1796715956994735</v>
+        <v>0.05312966412285993</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02353237189782176</v>
+        <v>0.02697343442042002</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1806721330571875</v>
+        <v>0.0941486773932665</v>
       </c>
       <c r="L174" t="n">
-        <v>0.04698947305416218</v>
+        <v>0.0542231688927402</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1809260480574465</v>
+        <v>0.09139915898908232</v>
       </c>
       <c r="N174" t="n">
-        <v>0.07054539475306693</v>
+        <v>0.08135183020677728</v>
       </c>
       <c r="O174" t="n">
-        <v>0.181014212988092</v>
+        <v>0.09047556377893752</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02064985752221497</v>
+        <v>0.01367484057543525</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1813199589627714</v>
+        <v>0.05312939559439591</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02361268023466727</v>
+        <v>0.02704905771007367</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1823296755622993</v>
+        <v>0.09501242672714967</v>
       </c>
       <c r="L175" t="n">
-        <v>0.04735343560854458</v>
+        <v>0.05385842851807099</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1825859200579735</v>
+        <v>0.09223768338347758</v>
       </c>
       <c r="N175" t="n">
-        <v>0.07129304813329418</v>
+        <v>0.08144112035037909</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1826748938411937</v>
+        <v>0.09130561482278099</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.01880129725494864</v>
+        <v>0.01331185351832197</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1829683222260693</v>
+        <v>0.05312912706593189</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02379017402703298</v>
+        <v>0.02702440284035122</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1839872180674111</v>
+        <v>0.09587617606103285</v>
       </c>
       <c r="L176" t="n">
-        <v>0.04801162362267147</v>
+        <v>0.05418305409459337</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1842457920585005</v>
+        <v>0.09307620777787283</v>
       </c>
       <c r="N176" t="n">
-        <v>0.07173196398529708</v>
+        <v>0.08111657509862419</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1843355746942955</v>
+        <v>0.09213566586662446</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02095082193254179</v>
+        <v>0.01296005328162561</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1846166854893673</v>
+        <v>0.05312885853746787</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02406523871194058</v>
+        <v>0.02699505773956272</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1856447605725229</v>
+        <v>0.09673992539491603</v>
       </c>
       <c r="L177" t="n">
-        <v>0.04836481566463918</v>
+        <v>0.05389842331958006</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1859056640590275</v>
+        <v>0.09391473217226809</v>
       </c>
       <c r="N177" t="n">
-        <v>0.07226331409224757</v>
+        <v>0.08108020279045369</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1859962555473973</v>
+        <v>0.09296571691046791</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02109875906792602</v>
+        <v>0.01262006641293222</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1862650487526652</v>
+        <v>0.05312859000900386</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02433825972641172</v>
+        <v>0.02685965453699285</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1873023030776347</v>
+        <v>0.0976036747287992</v>
       </c>
       <c r="L178" t="n">
-        <v>0.04841379030254386</v>
+        <v>0.05390591389030394</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1875655360595546</v>
+        <v>0.09475325656666334</v>
       </c>
       <c r="N178" t="n">
-        <v>0.0726882702373175</v>
+        <v>0.08023401176480854</v>
       </c>
       <c r="O178" t="n">
-        <v>0.187656936400499</v>
+        <v>0.09379576795431138</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02124743979184295</v>
+        <v>0.01229251945984384</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1879134120159631</v>
+        <v>0.05312832148053984</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02450966638576575</v>
+        <v>0.0268189418440975</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1889598455827465</v>
+        <v>0.0984674240626824</v>
       </c>
       <c r="L179" t="n">
-        <v>0.04905932610448172</v>
+        <v>0.05360690350403763</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1892254080600816</v>
+        <v>0.09559178096105858</v>
       </c>
       <c r="N179" t="n">
-        <v>0.07370800420367873</v>
+        <v>0.08008001036063006</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1893176172536008</v>
+        <v>0.09462581899815485</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.01940487530315946</v>
+        <v>0.01197803896994914</v>
       </c>
       <c r="G180" t="n">
-        <v>0.189561775279261</v>
+        <v>0.05312805295207582</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02458804648678264</v>
+        <v>0.02667366827233254</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1906173880878583</v>
+        <v>0.09933117339656557</v>
       </c>
       <c r="L180" t="n">
-        <v>0.04941572943358474</v>
+        <v>0.05330276985805399</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1908852800606086</v>
+        <v>0.09643030535545384</v>
       </c>
       <c r="N180" t="n">
-        <v>0.07454242942267031</v>
+        <v>0.08062020691685917</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1909782981067025</v>
+        <v>0.09545587004199831</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02056703001587259</v>
+        <v>0.01167725149087757</v>
       </c>
       <c r="G181" t="n">
-        <v>0.191210138542559</v>
+        <v>0.0531277844236118</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02487502969213473</v>
+        <v>0.02682458243315383</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1922749305929701</v>
+        <v>0.1001949227304487</v>
       </c>
       <c r="L181" t="n">
-        <v>0.04949102455290136</v>
+        <v>0.05349489064962576</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1925451520611357</v>
+        <v>0.09726882974984909</v>
       </c>
       <c r="N181" t="n">
-        <v>0.07500595040799019</v>
+        <v>0.08015660977243694</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1926389789598043</v>
+        <v>0.09628592108584177</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02172827783546151</v>
+        <v>0.01139078357021723</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1928585018058569</v>
+        <v>0.05312751589514779</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02506399487359608</v>
+        <v>0.02667243293801724</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1939324730980819</v>
+        <v>0.1010586720643319</v>
       </c>
       <c r="L182" t="n">
-        <v>0.04987187547323582</v>
+        <v>0.05318464357602573</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1942050240616627</v>
+        <v>0.09810735414424435</v>
       </c>
       <c r="N182" t="n">
-        <v>0.07547864281637645</v>
+        <v>0.07979122726630455</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1942996598129061</v>
+        <v>0.09711597212968523</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02188299266740548</v>
+        <v>0.01111926175557017</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1945068650691548</v>
+        <v>0.05312724736668378</v>
       </c>
       <c r="J183" t="n">
-        <v>0.0252483209029408</v>
+        <v>0.02671796839837863</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1955900156031938</v>
+        <v>0.1019224213982151</v>
       </c>
       <c r="L183" t="n">
-        <v>0.05054490776787754</v>
+        <v>0.05307340633452665</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1958648960621897</v>
+        <v>0.09894587853863959</v>
       </c>
       <c r="N183" t="n">
-        <v>0.07614037747964381</v>
+        <v>0.08012606773740311</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1959603406660078</v>
+        <v>0.0979460231735287</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02102554841718365</v>
+        <v>0.01086331259452766</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1961552283324527</v>
+        <v>0.05312697883821975</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02542138665194295</v>
+        <v>0.02666193742569389</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1972475581083055</v>
+        <v>0.1027861707320983</v>
       </c>
       <c r="L184" t="n">
-        <v>0.05109674701011596</v>
+        <v>0.05316255662240135</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1975247680627168</v>
+        <v>0.09978440293303485</v>
       </c>
       <c r="N184" t="n">
-        <v>0.07607102522960724</v>
+        <v>0.07946313952467365</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1976210215191096</v>
+        <v>0.09877607421737217</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02115031899027527</v>
+        <v>0.01062356263471405</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1978035915957506</v>
+        <v>0.05312671030975574</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02537657099237663</v>
+        <v>0.02660508863141886</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1989051006134174</v>
+        <v>0.1036499200659815</v>
       </c>
       <c r="L185" t="n">
-        <v>0.05141401877324031</v>
+        <v>0.0529534721369225</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1991846400632438</v>
+        <v>0.1006229273274301</v>
       </c>
       <c r="N185" t="n">
-        <v>0.07725045689808147</v>
+        <v>0.07970445096705725</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1992817023722114</v>
+        <v>0.09960612526121562</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.0222516782921595</v>
+        <v>0.01040063842371994</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1994519548590486</v>
+        <v>0.05312644178129172</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02570725279601592</v>
+        <v>0.02644817062700941</v>
       </c>
       <c r="K186" t="n">
-        <v>0.2005626431185292</v>
+        <v>0.1045136693998646</v>
       </c>
       <c r="L186" t="n">
-        <v>0.05128334863054004</v>
+        <v>0.05284753057536293</v>
       </c>
       <c r="M186" t="n">
-        <v>0.2008445120637709</v>
+        <v>0.1014614517218253</v>
       </c>
       <c r="N186" t="n">
-        <v>0.07755854331688139</v>
+        <v>0.079752010403495</v>
       </c>
       <c r="O186" t="n">
-        <v>0.2009423832253131</v>
+        <v>0.1004361763050591</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02232419147415089</v>
+        <v>0.01019516650914736</v>
       </c>
       <c r="G187" t="n">
-        <v>0.2011003181223465</v>
+        <v>0.0531261732528277</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02570681093463489</v>
+        <v>0.02629193202392142</v>
       </c>
       <c r="K187" t="n">
-        <v>0.202220185623641</v>
+        <v>0.1053774187337478</v>
       </c>
       <c r="L187" t="n">
-        <v>0.05169136215530454</v>
+        <v>0.0527461096349954</v>
       </c>
       <c r="M187" t="n">
-        <v>0.2025043840642979</v>
+        <v>0.1022999761162206</v>
       </c>
       <c r="N187" t="n">
-        <v>0.07767515531782171</v>
+        <v>0.07880782617292803</v>
       </c>
       <c r="O187" t="n">
-        <v>0.2026030640784149</v>
+        <v>0.1012662273489026</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02038304402146321</v>
+        <v>0.01000777343859064</v>
       </c>
       <c r="G188" t="n">
-        <v>0.2027486813856444</v>
+        <v>0.05312590472436368</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02587786069500951</v>
+        <v>0.02633712143361076</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2038777281287528</v>
+        <v>0.106241168067631</v>
       </c>
       <c r="L188" t="n">
-        <v>0.05163781261592174</v>
+        <v>0.0528505870130927</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2041642560648249</v>
+        <v>0.1031385005106158</v>
       </c>
       <c r="N188" t="n">
-        <v>0.07749738952144508</v>
+        <v>0.07897390661429743</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2042637449315166</v>
+        <v>0.102096278392746</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02244060582968013</v>
+        <v>0.009839085759668159</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2043970446489423</v>
+        <v>0.05312563619589966</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02594548921767698</v>
+        <v>0.02638448746753329</v>
       </c>
       <c r="K189" t="n">
-        <v>0.2055352706338646</v>
+        <v>0.1071049174015142</v>
       </c>
       <c r="L189" t="n">
-        <v>0.05187435948362457</v>
+        <v>0.05236234040692758</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2058241280653519</v>
+        <v>0.1039770249050111</v>
       </c>
       <c r="N189" t="n">
-        <v>0.07790286754532988</v>
+        <v>0.07925226006654434</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2059244257846184</v>
+        <v>0.1029263294365895</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02049685619401255</v>
+        <v>0.009687356755539632</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2060454079122403</v>
+        <v>0.05312536766743565</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02601159302137845</v>
+        <v>0.02623477873714487</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2071928131389764</v>
+        <v>0.1079686667353974</v>
       </c>
       <c r="L190" t="n">
-        <v>0.0523078359801589</v>
+        <v>0.05258274751377279</v>
       </c>
       <c r="M190" t="n">
-        <v>0.207484000065879</v>
+        <v>0.1048155492994063</v>
       </c>
       <c r="N190" t="n">
-        <v>0.0780037294667873</v>
+        <v>0.07894489486860967</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2075851066377201</v>
+        <v>0.1037563804804329</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02255177440967131</v>
+        <v>0.009538903960352452</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2076937711755382</v>
+        <v>0.05312509913897163</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02587614773946606</v>
+        <v>0.02608874385390138</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2088503556440882</v>
+        <v>0.1088324160692805</v>
       </c>
       <c r="L191" t="n">
-        <v>0.05213819288582461</v>
+        <v>0.05261318603090115</v>
       </c>
       <c r="M191" t="n">
-        <v>0.209143872066406</v>
+        <v>0.1056540736938016</v>
       </c>
       <c r="N191" t="n">
-        <v>0.07839990120775447</v>
+        <v>0.07905381935943473</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2092457874908219</v>
+        <v>0.1045864315242764</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02260533977186725</v>
+        <v>0.009391803233088872</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2093421344388361</v>
+        <v>0.05312483061050761</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02613912900529204</v>
+        <v>0.02604713142925867</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2105078981492</v>
+        <v>0.1096961654031637</v>
       </c>
       <c r="L192" t="n">
-        <v>0.05246538098092166</v>
+        <v>0.05265503365558538</v>
       </c>
       <c r="M192" t="n">
-        <v>0.210803744066933</v>
+        <v>0.1064925980881969</v>
       </c>
       <c r="N192" t="n">
-        <v>0.07889130869016886</v>
+        <v>0.07828048048317732</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2109064683439237</v>
+        <v>0.1054164825681199</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02165753157581125</v>
+        <v>0.009246495983088951</v>
       </c>
       <c r="G193" t="n">
-        <v>0.210990497702134</v>
+        <v>0.05312456208204359</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02600051245220852</v>
+        <v>0.02621069007467264</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2121654406543119</v>
+        <v>0.1105599147370469</v>
       </c>
       <c r="L193" t="n">
-        <v>0.05268935104574993</v>
+        <v>0.05260800887941702</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2124636160674601</v>
+        <v>0.1073311224825921</v>
       </c>
       <c r="N193" t="n">
-        <v>0.07857787783596754</v>
+        <v>0.07901408665253012</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2125671491970254</v>
+        <v>0.1062465336119633</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02270832911671417</v>
+        <v>0.009103423619673458</v>
       </c>
       <c r="G194" t="n">
-        <v>0.212638860965432</v>
+        <v>0.05312429355357958</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02626027371356772</v>
+        <v>0.02608016840159912</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2138229831594237</v>
+        <v>0.1114236640709301</v>
       </c>
       <c r="L194" t="n">
-        <v>0.05251005386060939</v>
+        <v>0.05226377494787937</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2141234880679871</v>
+        <v>0.1081696468769873</v>
       </c>
       <c r="N194" t="n">
-        <v>0.07905953456708781</v>
+        <v>0.07824976952917251</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2142278300501272</v>
+        <v>0.1070765846558068</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02075771168978684</v>
+        <v>0.008963027552169635</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2142872242287299</v>
+        <v>0.05312402502511557</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02631838842272176</v>
+        <v>0.02605571422346349</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2154805256645355</v>
+        <v>0.1122874134048133</v>
       </c>
       <c r="L195" t="n">
-        <v>0.0526274402057999</v>
+        <v>0.05252093874462851</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2157833600685141</v>
+        <v>0.1090081712713826</v>
       </c>
       <c r="N195" t="n">
-        <v>0.07893620480546704</v>
+        <v>0.07868746475810728</v>
       </c>
       <c r="O195" t="n">
-        <v>0.215888510903229</v>
+        <v>0.1079066356996503</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02180565859024014</v>
+        <v>0.008825749189898792</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2159355874920278</v>
+        <v>0.05312375649665154</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02637483221302288</v>
+        <v>0.02593301762690206</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2171380681696473</v>
+        <v>0.1131511627386964</v>
       </c>
       <c r="L196" t="n">
-        <v>0.05284146086162139</v>
+        <v>0.05237945612288128</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2174432320690412</v>
+        <v>0.1098466956657778</v>
       </c>
       <c r="N196" t="n">
-        <v>0.07960781447304238</v>
+        <v>0.07842710798433722</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2175491917563307</v>
+        <v>0.1087366867434937</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02185214911328492</v>
+        <v>0.008692029942200134</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2175839507553257</v>
+        <v>0.05312348796818753</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02622958071782321</v>
+        <v>0.02591105940811823</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2187956106747591</v>
+        <v>0.1140149120725796</v>
       </c>
       <c r="L197" t="n">
-        <v>0.05285206660837388</v>
+        <v>0.0522392829358542</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2191031040695682</v>
+        <v>0.1106852200601731</v>
       </c>
       <c r="N197" t="n">
-        <v>0.07917428949175109</v>
+        <v>0.0786686348528654</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2192098726094325</v>
+        <v>0.1095667377873372</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02289716255413204</v>
+        <v>0.00856231121839484</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2192323140186236</v>
+        <v>0.05312321943972351</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02628260957047494</v>
+        <v>0.02598981557868703</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2204531531798709</v>
+        <v>0.1148786614064628</v>
       </c>
       <c r="L198" t="n">
-        <v>0.05305920822635712</v>
+        <v>0.05190037503676412</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2207629760700952</v>
+        <v>0.1115237444545683</v>
       </c>
       <c r="N198" t="n">
-        <v>0.07983555578353047</v>
+        <v>0.07821198100869453</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2208705534625342</v>
+        <v>0.1103967888311806</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02094067820799235</v>
+        <v>0.008437034427810131</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2208806772819215</v>
+        <v>0.05312295091125949</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02633389440433025</v>
+        <v>0.02596926215018339</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2221106956849827</v>
+        <v>0.115742410740346</v>
       </c>
       <c r="L199" t="n">
-        <v>0.05296283649587108</v>
+        <v>0.05236268827882762</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2224228480706222</v>
+        <v>0.1123622688489636</v>
       </c>
       <c r="N199" t="n">
-        <v>0.08019153927031769</v>
+        <v>0.07825708209682747</v>
       </c>
       <c r="O199" t="n">
-        <v>0.222531234315636</v>
+        <v>0.1112268398750241</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02098267537007673</v>
+        <v>0.008316640979768093</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2225290405452195</v>
+        <v>0.05312268238279547</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02648341085274133</v>
+        <v>0.02584937513418233</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2237682381900945</v>
+        <v>0.1166061600742292</v>
       </c>
       <c r="L200" t="n">
-        <v>0.05346290219721575</v>
+        <v>0.05202617851526142</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2240827200711493</v>
+        <v>0.1132007932433589</v>
       </c>
       <c r="N200" t="n">
-        <v>0.08004216587405011</v>
+        <v>0.07830387376226711</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2241919151687378</v>
+        <v>0.1120568909188676</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02302313333559601</v>
+        <v>0.008201572283606469</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2241774038085174</v>
+        <v>0.05312241385433145</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02643113454906033</v>
+        <v>0.02593013054225879</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2254257806952064</v>
+        <v>0.1174699094081123</v>
       </c>
       <c r="L201" t="n">
-        <v>0.05325935611069099</v>
+        <v>0.05189080159928219</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2257425920716763</v>
+        <v>0.1140393176377541</v>
       </c>
       <c r="N201" t="n">
-        <v>0.07968736151666495</v>
+        <v>0.07805229165001643</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2258525960218395</v>
+        <v>0.112886941962711</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02206203139976105</v>
+        <v>0.008092269748647116</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2258257670718153</v>
+        <v>0.05312214532586744</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02647704112663947</v>
+        <v>0.02601150438598782</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2270833232003182</v>
+        <v>0.1183336587419955</v>
       </c>
       <c r="L202" t="n">
-        <v>0.05315214901659673</v>
+        <v>0.05195651338410667</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2274024640722034</v>
+        <v>0.1148778420321493</v>
       </c>
       <c r="N202" t="n">
-        <v>0.08012705212009946</v>
+        <v>0.07840227140507805</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2275132768749413</v>
+        <v>0.1137169930065545</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02309934885778271</v>
+        <v>0.007989174784217283</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2274741303351133</v>
+        <v>0.05312187679740343</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02652110621883087</v>
+        <v>0.02579347267694433</v>
       </c>
       <c r="K203" t="n">
-        <v>0.22874086570543</v>
+        <v>0.1191974080758787</v>
       </c>
       <c r="L203" t="n">
-        <v>0.05334123169523289</v>
+        <v>0.0519232697229515</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2290623360727304</v>
+        <v>0.1157163664265446</v>
       </c>
       <c r="N203" t="n">
-        <v>0.08056116360629106</v>
+        <v>0.07775374867245505</v>
       </c>
       <c r="O203" t="n">
-        <v>0.229173957728043</v>
+        <v>0.114547044050398</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02213506500487186</v>
+        <v>0.007892728799640127</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2291224935984112</v>
+        <v>0.0531216082689394</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02676330545898677</v>
+        <v>0.02587601142670334</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2303984082105418</v>
+        <v>0.1200611574097619</v>
       </c>
       <c r="L204" t="n">
-        <v>0.05362655492689936</v>
+        <v>0.05199102646903339</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2307222080732574</v>
+        <v>0.1165548908209399</v>
       </c>
       <c r="N204" t="n">
-        <v>0.08088962189717674</v>
+        <v>0.07780665909715018</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2308346385811448</v>
+        <v>0.1153770950942414</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02316915913623935</v>
+        <v>0.007803373204251285</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2307708568617091</v>
+        <v>0.05312133974047539</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02660361448045928</v>
+        <v>0.02585909664683983</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2320559507156536</v>
+        <v>0.120924906743645</v>
       </c>
       <c r="L205" t="n">
-        <v>0.05350806949189607</v>
+        <v>0.05175973947556903</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2323820800737844</v>
+        <v>0.1173934152153351</v>
       </c>
       <c r="N205" t="n">
-        <v>0.08101235291469394</v>
+        <v>0.07816093832416626</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2324953194342466</v>
+        <v>0.1162071461380849</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02320161054709603</v>
+        <v>0.007721549407373657</v>
       </c>
       <c r="G206" t="n">
-        <v>0.232419220125007</v>
+        <v>0.05312107121201137</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02674200891660063</v>
+        <v>0.02584270434892878</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2337134932207654</v>
+        <v>0.1217886560775282</v>
       </c>
       <c r="L206" t="n">
-        <v>0.05388572617052298</v>
+        <v>0.0517293645957751</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2340419520743115</v>
+        <v>0.1182319396097304</v>
       </c>
       <c r="N206" t="n">
-        <v>0.08112928258077984</v>
+        <v>0.07811652199850633</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2341560002873483</v>
+        <v>0.1170371971819284</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02123239853265275</v>
+        <v>0.007647698818334443</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2340675833883049</v>
+        <v>0.05312080268354736</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02687846440076298</v>
+        <v>0.02592681054454515</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2353710357258772</v>
+        <v>0.1226524054114114</v>
       </c>
       <c r="L207" t="n">
-        <v>0.05405947574307998</v>
+        <v>0.05179985768286832</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2357018240748385</v>
+        <v>0.1190704640041256</v>
       </c>
       <c r="N207" t="n">
-        <v>0.08064033681737171</v>
+        <v>0.07827334576517303</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2358166811404501</v>
+        <v>0.1178672482257718</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.0212615023881204</v>
+        <v>0.007582262846458229</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2357159466516029</v>
+        <v>0.05312053415508333</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02681295656629852</v>
+        <v>0.02581139124526395</v>
       </c>
       <c r="K208" t="n">
-        <v>0.237028578230989</v>
+        <v>0.1235161547452946</v>
       </c>
       <c r="L208" t="n">
-        <v>0.05402926898986699</v>
+        <v>0.05177117459006533</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2373616960753656</v>
+        <v>0.1199089883985209</v>
       </c>
       <c r="N208" t="n">
-        <v>0.08134544154640688</v>
+        <v>0.07763134526916937</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2374773619935519</v>
+        <v>0.1186972992696153</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02228890140870982</v>
+        <v>0.007525682901077947</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2373643099149008</v>
+        <v>0.05312026562661932</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02694546104655939</v>
+        <v>0.02569642246266014</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2386861207361008</v>
+        <v>0.1243799040791777</v>
       </c>
       <c r="L209" t="n">
-        <v>0.05399505669118387</v>
+        <v>0.05194327117058284</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2390215680758926</v>
+        <v>0.1207475127929161</v>
       </c>
       <c r="N209" t="n">
-        <v>0.08104452268982254</v>
+        <v>0.07819045615549813</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2391380428466536</v>
+        <v>0.1195273503134587</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02331457488963183</v>
+        <v>0.007478400391517787</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2390126731781987</v>
+        <v>0.05311999709815531</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02677595347489779</v>
+        <v>0.02568188020830872</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2403436632412126</v>
+        <v>0.1252436534130609</v>
       </c>
       <c r="L210" t="n">
-        <v>0.05395678962733058</v>
+        <v>0.05191610327763757</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2406814400764196</v>
+        <v>0.1215860371873114</v>
       </c>
       <c r="N210" t="n">
-        <v>0.08133750616955593</v>
+        <v>0.07775061406916228</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2407987236997554</v>
+        <v>0.1203574013573022</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02233850212609736</v>
+        <v>0.007440856727104976</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2406610364414966</v>
+        <v>0.05311972856969129</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02680440948466591</v>
+        <v>0.02566774049378465</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2420012057463245</v>
+        <v>0.1261074027469441</v>
       </c>
       <c r="L211" t="n">
-        <v>0.05381441857860708</v>
+        <v>0.05148962676444616</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2423413120769466</v>
+        <v>0.1224245615817066</v>
       </c>
       <c r="N211" t="n">
-        <v>0.08092431790754434</v>
+        <v>0.0773117546551646</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2424594045528571</v>
+        <v>0.1211874524011457</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02136066241331722</v>
+        <v>0.007413493317165766</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2423093997047945</v>
+        <v>0.05311946004122726</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02693080470921592</v>
+        <v>0.02565397933066293</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2436587482514363</v>
+        <v>0.1269711520808273</v>
       </c>
       <c r="L212" t="n">
-        <v>0.05386789432531325</v>
+        <v>0.05176379748422533</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2440011840774736</v>
+        <v>0.1232630859761019</v>
       </c>
       <c r="N212" t="n">
-        <v>0.08170488382572511</v>
+        <v>0.07777381355850793</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2441200854059589</v>
+        <v>0.1220175034449891</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02338103504650225</v>
+        <v>0.007396751571029793</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2439577629680925</v>
+        <v>0.05311919151276325</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02685511478189997</v>
+        <v>0.02574057273051854</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2453162907565481</v>
+        <v>0.1278349014147105</v>
       </c>
       <c r="L213" t="n">
-        <v>0.05411716764774899</v>
+        <v>0.05163857129019178</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2456610560780007</v>
+        <v>0.1241016103704971</v>
       </c>
       <c r="N213" t="n">
-        <v>0.08127912984603536</v>
+        <v>0.07743672642419525</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2457807662590607</v>
+        <v>0.1228475544888326</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02339959932086337</v>
+        <v>0.007391072898022863</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2456061262313904</v>
+        <v>0.05311892298429923</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02687731533607028</v>
+        <v>0.02562749670492644</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2469738332616599</v>
+        <v>0.1286986507485937</v>
       </c>
       <c r="L214" t="n">
-        <v>0.05406218932621421</v>
+        <v>0.05161390403556215</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2473209280785277</v>
+        <v>0.1249401347648924</v>
       </c>
       <c r="N214" t="n">
-        <v>0.08104698189041237</v>
+        <v>0.07800042889722925</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2474414471121624</v>
+        <v>0.1236776055326761</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02141633453161136</v>
+        <v>0.00739107289802287</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2472544894946883</v>
+        <v>0.05311892298429923</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02709738200507901</v>
+        <v>0.02581472726546163</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2486313757667717</v>
+        <v>0.1295624000824768</v>
       </c>
       <c r="L215" t="n">
-        <v>0.05420291014100889</v>
+        <v>0.05178975157355317</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2489808000790548</v>
+        <v>0.1257786591592876</v>
       </c>
       <c r="N215" t="n">
-        <v>0.08150836588079358</v>
+        <v>0.07796485662261282</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2491021279652642</v>
+        <v>0.1245076565765195</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02143121997395714</v>
+        <v>0.007140040247772615</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2489028527579862</v>
+        <v>0.05309058774894717</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02701529042227832</v>
+        <v>0.02580224042369912</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2502889182718835</v>
+        <v>0.13042614941636</v>
       </c>
       <c r="L216" t="n">
-        <v>0.05413928087243286</v>
+        <v>0.05176606975738152</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2506406720795818</v>
+        <v>0.1266171835536829</v>
       </c>
       <c r="N216" t="n">
-        <v>0.08116320773911595</v>
+        <v>0.077129945245349</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2507628088183659</v>
+        <v>0.125337707620363</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02344423494311153</v>
+        <v>0.006893858773642889</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2505512160212842</v>
+        <v>0.05306225251359511</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02693101622102041</v>
+        <v>0.02569001219121385</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2519464607769953</v>
+        <v>0.1312898987502432</v>
       </c>
       <c r="L217" t="n">
-        <v>0.05447125230078614</v>
+        <v>0.05134281444026387</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2523005440801088</v>
+        <v>0.1274557079480781</v>
       </c>
       <c r="N217" t="n">
-        <v>0.08201143338731703</v>
+        <v>0.07709563041044043</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2524234896714677</v>
+        <v>0.1261677586642065</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.0224553587342854</v>
+        <v>0.006653016246456665</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2521995792845821</v>
+        <v>0.05303391727824305</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02704453503465747</v>
+        <v>0.02577801857958077</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2536040032821071</v>
+        <v>0.1321536480841264</v>
       </c>
       <c r="L218" t="n">
-        <v>0.05459877520636858</v>
+        <v>0.0514199414754169</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2539604160806359</v>
+        <v>0.1282942323424734</v>
       </c>
       <c r="N218" t="n">
-        <v>0.08165296874733385</v>
+        <v>0.07736184776289023</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2540841705245695</v>
+        <v>0.1269978097080499</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02246457064268961</v>
+        <v>0.006418000437036928</v>
       </c>
       <c r="G219" t="n">
-        <v>0.25384794254788</v>
+        <v>0.05300558204289098</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02715582249654162</v>
+        <v>0.02576623560037496</v>
       </c>
       <c r="K219" t="n">
-        <v>0.255261545787219</v>
+        <v>0.1330173974180096</v>
       </c>
       <c r="L219" t="n">
-        <v>0.05412180036948011</v>
+        <v>0.0514974067160574</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2556202880811629</v>
+        <v>0.1291327567368686</v>
       </c>
       <c r="N219" t="n">
-        <v>0.08178773974110382</v>
+        <v>0.07782853294770092</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2557448513776713</v>
+        <v>0.1278278607518934</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02247184996353502</v>
+        <v>0.006189299116206547</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2554963058111779</v>
+        <v>0.05297724680753892</v>
       </c>
       <c r="J220" t="n">
-        <v>0.0271648542400251</v>
+        <v>0.02565463926517129</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2569190882923308</v>
+        <v>0.1338811467518927</v>
       </c>
       <c r="L220" t="n">
-        <v>0.05424027857042063</v>
+        <v>0.05127516601540191</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2572801600816899</v>
+        <v>0.1299712811312639</v>
       </c>
       <c r="N220" t="n">
-        <v>0.08161567229056416</v>
+        <v>0.07739562160987562</v>
       </c>
       <c r="O220" t="n">
-        <v>0.257405532230773</v>
+        <v>0.1286579117957369</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02247717599203249</v>
+        <v>0.005967400054788713</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2571446690744759</v>
+        <v>0.05294891157218685</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02697160589846002</v>
+        <v>0.02574320558554484</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2585766307974426</v>
+        <v>0.1347448960857759</v>
       </c>
       <c r="L221" t="n">
-        <v>0.05435416058949011</v>
+        <v>0.05125317522666725</v>
       </c>
       <c r="M221" t="n">
-        <v>0.258940032082217</v>
+        <v>0.1308098055256591</v>
       </c>
       <c r="N221" t="n">
-        <v>0.08203669231765209</v>
+        <v>0.07746304939441712</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2590662130838747</v>
+        <v>0.1294879628395803</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02248052802339284</v>
+        <v>0.005752791023606284</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2587930323377738</v>
+        <v>0.05292057633683479</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02697605310519866</v>
+        <v>0.02573191057307052</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2602341733025544</v>
+        <v>0.1356086454196591</v>
       </c>
       <c r="L222" t="n">
-        <v>0.05436339720698841</v>
+        <v>0.05153139020307002</v>
       </c>
       <c r="M222" t="n">
-        <v>0.260599904082744</v>
+        <v>0.1316483299200544</v>
       </c>
       <c r="N222" t="n">
-        <v>0.08145072574430495</v>
+        <v>0.07703075194632836</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2607268939369765</v>
+        <v>0.1303180138834238</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02248188535282698</v>
+        <v>0.005545959793482241</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2604413956010717</v>
+        <v>0.05289224110148273</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02697817149359309</v>
+        <v>0.02572073023932335</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2618917158076662</v>
+        <v>0.1364723947535423</v>
       </c>
       <c r="L223" t="n">
-        <v>0.05436793920321548</v>
+        <v>0.05130976679782695</v>
       </c>
       <c r="M223" t="n">
-        <v>0.262259776083271</v>
+        <v>0.1324868543144496</v>
       </c>
       <c r="N223" t="n">
-        <v>0.0817576984924599</v>
+        <v>0.07749866491061203</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2623875747900783</v>
+        <v>0.1311480649272672</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02146077877954759</v>
+        <v>0.005347394135239582</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2620897588643696</v>
+        <v>0.05286390586613067</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02696522369036382</v>
+        <v>0.02560964059587829</v>
       </c>
       <c r="K224" t="n">
-        <v>0.263549258312778</v>
+        <v>0.1373361440874254</v>
       </c>
       <c r="L224" t="n">
-        <v>0.05464669863449351</v>
+        <v>0.0514882608641547</v>
       </c>
       <c r="M224" t="n">
-        <v>0.263919648083798</v>
+        <v>0.1333253787088449</v>
       </c>
       <c r="N224" t="n">
-        <v>0.08162813154416709</v>
+        <v>0.07686672393227101</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2640482556431801</v>
+        <v>0.1319781159711107</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02338205891821758</v>
+        <v>0.005157581819701267</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2637381221276676</v>
+        <v>0.05283557063077861</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02698795720154462</v>
+        <v>0.02569861765431035</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2652068008178898</v>
+        <v>0.1381998934213086</v>
       </c>
       <c r="L225" t="n">
-        <v>0.0544985143459194</v>
+        <v>0.05146682825527005</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2655795200843251</v>
+        <v>0.1341639031032401</v>
       </c>
       <c r="N225" t="n">
-        <v>0.08160923190776781</v>
+        <v>0.07733486465630829</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2657089364962818</v>
+        <v>0.1328081670149542</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02325122679663902</v>
+        <v>0.004977010617690271</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2653864853909655</v>
+        <v>0.05280723539542655</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02684806089563119</v>
+        <v>0.02558763742619447</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2668643433230016</v>
+        <v>0.1390636427551918</v>
       </c>
       <c r="L226" t="n">
-        <v>0.05422315793607857</v>
+        <v>0.05134542482438958</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2672393920848521</v>
+        <v>0.1350024274976354</v>
       </c>
       <c r="N226" t="n">
-        <v>0.08069858654823853</v>
+        <v>0.07730302272772671</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2673696173493836</v>
+        <v>0.1336382180587976</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02107473699581343</v>
+        <v>0.004806168300029591</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2670348486542634</v>
+        <v>0.05277890016007449</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02675313091383615</v>
+        <v>0.02557667592310567</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2685218858281134</v>
+        <v>0.139927392089075</v>
       </c>
       <c r="L227" t="n">
-        <v>0.05363597332076073</v>
+        <v>0.05152400642473001</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2688992640853791</v>
+        <v>0.1358409518920306</v>
       </c>
       <c r="N227" t="n">
-        <v>0.08041928881142746</v>
+        <v>0.0773711337915291</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2690302982024853</v>
+        <v>0.1344682691026411</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02185904409674233</v>
+        <v>0.004645542637542126</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2686832119175613</v>
+        <v>0.05275056492472241</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02641076339737213</v>
+        <v>0.0255657091566189</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2701794283332253</v>
+        <v>0.1407911414229581</v>
       </c>
       <c r="L228" t="n">
-        <v>0.05315230441575572</v>
+        <v>0.05150252890950804</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2705591360859061</v>
+        <v>0.1366794762864259</v>
       </c>
       <c r="N228" t="n">
-        <v>0.07959443204318289</v>
+        <v>0.07683913349271831</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2706909790555871</v>
+        <v>0.1352983201464845</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02261060268042721</v>
+        <v>0.004495621401050989</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2703315751808592</v>
+        <v>0.05272222968937035</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02622855448745175</v>
+        <v>0.02555471313830918</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2718369708383371</v>
+        <v>0.1416548907568413</v>
       </c>
       <c r="L229" t="n">
-        <v>0.05228749513685327</v>
+        <v>0.05158094813194036</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2722190080864332</v>
+        <v>0.1375180006808211</v>
       </c>
       <c r="N229" t="n">
-        <v>0.07914710958935334</v>
+        <v>0.0770069574762971</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2723516599086889</v>
+        <v>0.136128371190328</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02133586732786957</v>
+        <v>0.004356892361379087</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2719799384441572</v>
+        <v>0.05269389445401829</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02581410032528762</v>
+        <v>0.02564366387975145</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2734945133434489</v>
+        <v>0.1425186400907245</v>
       </c>
       <c r="L230" t="n">
-        <v>0.0516568893998432</v>
+        <v>0.05105921994524362</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2738788800869603</v>
+        <v>0.1383565250752164</v>
       </c>
       <c r="N230" t="n">
-        <v>0.07830041479578687</v>
+        <v>0.07667454138726859</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2740123407617906</v>
+        <v>0.1369584222341715</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02204129262007093</v>
+        <v>0.004229843289349416</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2736283017074551</v>
+        <v>0.05266555921866622</v>
       </c>
       <c r="J231" t="n">
-        <v>0.0254749970520924</v>
+        <v>0.0255325373925207</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2751520558485607</v>
+        <v>0.1433823894246077</v>
       </c>
       <c r="L231" t="n">
-        <v>0.05127583112051523</v>
+        <v>0.05153730020263458</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2755387520874873</v>
+        <v>0.1391950494696116</v>
       </c>
       <c r="N231" t="n">
-        <v>0.07687744100833199</v>
+        <v>0.07694182087063539</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2756730216148924</v>
+        <v>0.1377884732780149</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01973333313803277</v>
+        <v>0.004114961955784931</v>
       </c>
       <c r="G232" t="n">
-        <v>0.275276664970753</v>
+        <v>0.05263722398331416</v>
       </c>
       <c r="J232" t="n">
-        <v>0.0251188408090787</v>
+        <v>0.02542130968819194</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2768095983536725</v>
+        <v>0.1442461387584909</v>
       </c>
       <c r="L232" t="n">
-        <v>0.05045966421465925</v>
+        <v>0.05131514577056046</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2771986240880143</v>
+        <v>0.1400335738640069</v>
       </c>
       <c r="N232" t="n">
-        <v>0.07620128157283701</v>
+        <v>0.0767087852763087</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2773337024679941</v>
+        <v>0.1386185243218584</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.0194184434627566</v>
+        <v>0.004012736131508619</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2769250282340509</v>
+        <v>0.0526088887479621</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02475322773745912</v>
+        <v>0.02550995884509406</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2784671408587843</v>
+        <v>0.145109888092374</v>
       </c>
       <c r="L233" t="n">
-        <v>0.04992373259806496</v>
+        <v>0.05099298354625126</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2788584960885413</v>
+        <v>0.1408720982584021</v>
       </c>
       <c r="N233" t="n">
-        <v>0.0750950298351501</v>
+        <v>0.07707590588652519</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2789943833210959</v>
+        <v>0.1394485753657019</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02110307817524394</v>
+        <v>0.00392365358734343</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2785733914973488</v>
+        <v>0.05258055351261003</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02428575397844632</v>
+        <v>0.02539861753432172</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2801246833638961</v>
+        <v>0.1459736374262572</v>
       </c>
       <c r="L234" t="n">
-        <v>0.04918338018652213</v>
+        <v>0.05107101389088714</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2805183680890684</v>
+        <v>0.1417106226527974</v>
       </c>
       <c r="N234" t="n">
-        <v>0.07378177914111977</v>
+        <v>0.07694331184718922</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2806550641741977</v>
+        <v>0.1402786264095453</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01879369185649626</v>
+        <v>0.003848202094112407</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2802217547606468</v>
+        <v>0.05255221827725797</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02402401567325289</v>
+        <v>0.02548737800267231</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2817822258690079</v>
+        <v>0.1468373867601404</v>
       </c>
       <c r="L235" t="n">
-        <v>0.0482539508958206</v>
+        <v>0.05134924063557114</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2821782400895954</v>
+        <v>0.1425491470471926</v>
       </c>
       <c r="N235" t="n">
-        <v>0.07228462283659431</v>
+        <v>0.0768110087430931</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2823157450272994</v>
+        <v>0.1411086774533888</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02049673908751512</v>
+        <v>0.003786869422638485</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2818701180239447</v>
+        <v>0.05252388304190591</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02377560896309149</v>
+        <v>0.02557624233188581</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2834397683741198</v>
+        <v>0.1477011360940236</v>
       </c>
       <c r="L236" t="n">
-        <v>0.04755078864175014</v>
+        <v>0.05142766761140613</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2838381120901224</v>
+        <v>0.1433876714415879</v>
       </c>
       <c r="N236" t="n">
-        <v>0.07172665426742203</v>
+        <v>0.07707900215902924</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2839764258804012</v>
+        <v>0.1419387284972323</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02021867444930195</v>
+        <v>0.003740143343744652</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2835184812872426</v>
+        <v>0.05249554780655385</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02334812998917472</v>
+        <v>0.02536521260370225</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2850973108792316</v>
+        <v>0.1485648854279068</v>
       </c>
       <c r="L237" t="n">
-        <v>0.04668923734010053</v>
+        <v>0.05110629864949509</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2854979840906495</v>
+        <v>0.1442261958359831</v>
       </c>
       <c r="N237" t="n">
-        <v>0.07043096677945121</v>
+        <v>0.07674729767979005</v>
       </c>
       <c r="O237" t="n">
-        <v>0.285637106733503</v>
+        <v>0.1427687795410757</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01996442599277345</v>
+        <v>0.00370851162825387</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2851668445505405</v>
+        <v>0.05246721257120178</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02314867276636839</v>
+        <v>0.02555429089986169</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2867548533843434</v>
+        <v>0.1494286347617899</v>
       </c>
       <c r="L238" t="n">
-        <v>0.04648402781027269</v>
+        <v>0.05128513758094089</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2871578560911765</v>
+        <v>0.1450647202303784</v>
       </c>
       <c r="N238" t="n">
-        <v>0.06971990452267107</v>
+        <v>0.07651590089016769</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2872977875866047</v>
+        <v>0.1435988305849192</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01771616324125361</v>
+        <v>0.003692462046989142</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2868152078138384</v>
+        <v>0.05243887733584972</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02265988470901703</v>
+        <v>0.0255434793021041</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2884123958894552</v>
+        <v>0.1502923840956731</v>
       </c>
       <c r="L239" t="n">
-        <v>0.04600240251731777</v>
+        <v>0.05126418823684653</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2888177280917035</v>
+        <v>0.1459032446247736</v>
       </c>
       <c r="N239" t="n">
-        <v>0.06874542387138299</v>
+        <v>0.0771848173749547</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2889584684397065</v>
+        <v>0.1444288816287627</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01946695070929418</v>
+        <v>0.003690490639912947</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2884635710771364</v>
+        <v>0.05241054210049766</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02256998757402988</v>
+        <v>0.02553277989216948</v>
       </c>
       <c r="K240" t="n">
-        <v>0.290069938394567</v>
+        <v>0.1511561334295563</v>
       </c>
       <c r="L240" t="n">
-        <v>0.04501854134924002</v>
+        <v>0.05084345444831487</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2904776000922306</v>
+        <v>0.1467417690191689</v>
       </c>
       <c r="N240" t="n">
-        <v>0.06746758042354462</v>
+        <v>0.07715405271894343</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2906191492928082</v>
+        <v>0.1452589326726061</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01921677310575344</v>
+        <v>0.003691134792685284</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2901119343404343</v>
+        <v>0.05238220686514559</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02217896336586669</v>
+        <v>0.02532219475179791</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2917274808996788</v>
+        <v>0.1520198827634395</v>
       </c>
       <c r="L241" t="n">
-        <v>0.04443240795573386</v>
+        <v>0.05082294004644894</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2921374720927576</v>
+        <v>0.1475802934135641</v>
       </c>
       <c r="N241" t="n">
-        <v>0.06708631947016341</v>
+        <v>0.0765236125069263</v>
       </c>
       <c r="O241" t="n">
-        <v>0.29227983014591</v>
+        <v>0.1460889837164496</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01896561513948963</v>
+        <v>0.003692890545268647</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2917602976037322</v>
+        <v>0.05235387162979353</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02198679408898727</v>
+        <v>0.02541172596272936</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2933850234047906</v>
+        <v>0.1528836320973227</v>
       </c>
       <c r="L242" t="n">
-        <v>0.04384396598649387</v>
+        <v>0.05110264886235158</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2937973440932846</v>
+        <v>0.1484188178079594</v>
       </c>
       <c r="N242" t="n">
-        <v>0.06630158630224658</v>
+        <v>0.07639350232369552</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2939405109990118</v>
+        <v>0.1469190347602931</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01671346151936101</v>
+        <v>0.003696245668486017</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2934086608670302</v>
+        <v>0.05232553639444146</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02149346174785137</v>
+        <v>0.02550137560670389</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2950425659099024</v>
+        <v>0.1537473814312058</v>
       </c>
       <c r="L243" t="n">
-        <v>0.04365317909121447</v>
+        <v>0.05108258472712576</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2954572160938116</v>
+        <v>0.1492573422023546</v>
       </c>
       <c r="N243" t="n">
-        <v>0.06541332621080148</v>
+        <v>0.07666372775404345</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2956011918521135</v>
+        <v>0.1477490858041365</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01746029695422583</v>
+        <v>0.003701687933160364</v>
       </c>
       <c r="G244" t="n">
-        <v>0.295057024130328</v>
+        <v>0.0522972011590894</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02119894834691878</v>
+        <v>0.02549114576546146</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2967001084150143</v>
+        <v>0.154611130765089</v>
       </c>
       <c r="L244" t="n">
-        <v>0.04306001091959014</v>
+        <v>0.05126275147187448</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2971170880943387</v>
+        <v>0.1500958665967499</v>
       </c>
       <c r="N244" t="n">
-        <v>0.06432148448683528</v>
+        <v>0.07663429438276259</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2972618727052153</v>
+        <v>0.14857913684798</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01820610615294233</v>
+        <v>0.003709705110114682</v>
       </c>
       <c r="G245" t="n">
-        <v>0.296705387393626</v>
+        <v>0.05226886592373734</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02100323589064929</v>
+        <v>0.02548103852074214</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2983576509201261</v>
+        <v>0.1554748800989722</v>
       </c>
       <c r="L245" t="n">
-        <v>0.0422644251213154</v>
+        <v>0.05084315292770056</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2987769600948657</v>
+        <v>0.1509343909911451</v>
       </c>
       <c r="N245" t="n">
-        <v>0.06382600642135555</v>
+        <v>0.07700520779464531</v>
       </c>
       <c r="O245" t="n">
-        <v>0.298922553558317</v>
+        <v>0.1494091878918234</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01595087382436875</v>
+        <v>0.003720784970171934</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2983537506569239</v>
+        <v>0.05224053068838528</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02060630638350264</v>
+        <v>0.02527105595428593</v>
       </c>
       <c r="K246" t="n">
-        <v>0.3000151934252379</v>
+        <v>0.1563386294328554</v>
       </c>
       <c r="L246" t="n">
-        <v>0.04156638534608473</v>
+        <v>0.05122379292570703</v>
       </c>
       <c r="M246" t="n">
-        <v>0.3004368320953927</v>
+        <v>0.1517729153855404</v>
       </c>
       <c r="N246" t="n">
-        <v>0.06292683730536935</v>
+        <v>0.07697647357448389</v>
       </c>
       <c r="O246" t="n">
-        <v>0.3005832344114188</v>
+        <v>0.1502392389356669</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01769458467736336</v>
+        <v>0.003735415284155101</v>
       </c>
       <c r="G247" t="n">
-        <v>0.3000021139202218</v>
+        <v>0.05221219545303322</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02050814182993864</v>
+        <v>0.02546120014783282</v>
       </c>
       <c r="K247" t="n">
-        <v>0.3016727359303497</v>
+        <v>0.1572023787667386</v>
       </c>
       <c r="L247" t="n">
-        <v>0.04106585524359257</v>
+        <v>0.05070467529699674</v>
       </c>
       <c r="M247" t="n">
-        <v>0.3020967040959198</v>
+        <v>0.1526114397799356</v>
       </c>
       <c r="N247" t="n">
-        <v>0.06202392242988408</v>
+        <v>0.07684809730707071</v>
       </c>
       <c r="O247" t="n">
-        <v>0.3022439152645205</v>
+        <v>0.1510692899795104</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01543722342078439</v>
+        <v>0.003754083822887166</v>
       </c>
       <c r="G248" t="n">
-        <v>0.3016504771835197</v>
+        <v>0.05218386021768116</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02020872423441705</v>
+        <v>0.02535147318312288</v>
       </c>
       <c r="K248" t="n">
-        <v>0.3033302784354615</v>
+        <v>0.1580661281006217</v>
       </c>
       <c r="L248" t="n">
-        <v>0.04016279846353352</v>
+        <v>0.05088580387267272</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3037565760964468</v>
+        <v>0.1534499641743309</v>
       </c>
       <c r="N248" t="n">
-        <v>0.06101720708590713</v>
+        <v>0.07612008457719804</v>
       </c>
       <c r="O248" t="n">
-        <v>0.3039045961176223</v>
+        <v>0.1518993410233538</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01717877476349011</v>
+        <v>0.003777278357191098</v>
       </c>
       <c r="G249" t="n">
-        <v>0.3032988404468177</v>
+        <v>0.05215552498232909</v>
       </c>
       <c r="J249" t="n">
-        <v>0.01990803560139766</v>
+        <v>0.02544187714189609</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3049878209405733</v>
+        <v>0.1589298774345049</v>
       </c>
       <c r="L249" t="n">
-        <v>0.03965717865560198</v>
+        <v>0.05066718248383781</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3054164480969738</v>
+        <v>0.1542884885687262</v>
       </c>
       <c r="N249" t="n">
-        <v>0.0594066365644455</v>
+        <v>0.0765924409696585</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3055652769707241</v>
+        <v>0.1527293920671973</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01691922341433875</v>
+        <v>0.003805486657889885</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3049472037101156</v>
+        <v>0.05212718974697703</v>
       </c>
       <c r="J250" t="n">
-        <v>0.0196060579353402</v>
+        <v>0.02533241410589249</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3066453634456852</v>
+        <v>0.1597936267683881</v>
       </c>
       <c r="L250" t="n">
-        <v>0.03934895946949246</v>
+        <v>0.05094881496159501</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3070763200975009</v>
+        <v>0.1551270129631214</v>
       </c>
       <c r="N250" t="n">
-        <v>0.05889215615650689</v>
+        <v>0.07676517206924421</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3072259578238258</v>
+        <v>0.1535594431110407</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01565855408218857</v>
+        <v>0.003839196495806503</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3065955669734136</v>
+        <v>0.05209885451162496</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01930277324070452</v>
+        <v>0.02522308615685205</v>
       </c>
       <c r="K251" t="n">
-        <v>0.3083029059507969</v>
+        <v>0.1606573761022713</v>
       </c>
       <c r="L251" t="n">
-        <v>0.03833810455489944</v>
+        <v>0.05083070513704721</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3087361920980279</v>
+        <v>0.1559655373575166</v>
       </c>
       <c r="N251" t="n">
-        <v>0.05827371115309837</v>
+        <v>0.0760382834607477</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3088866386769276</v>
+        <v>0.1543894941548842</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01539675147589781</v>
+        <v>0.00387889564176392</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3082439302367114</v>
+        <v>0.0520705192762729</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01879816352195034</v>
+        <v>0.02531389537651488</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3099604484559088</v>
+        <v>0.1615211254361545</v>
       </c>
       <c r="L252" t="n">
-        <v>0.03822457756151745</v>
+        <v>0.05101285684129742</v>
       </c>
       <c r="M252" t="n">
-        <v>0.310396064098555</v>
+        <v>0.1568040617519119</v>
       </c>
       <c r="N252" t="n">
-        <v>0.05745124684522723</v>
+        <v>0.0766117807289613</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3105473195300293</v>
+        <v>0.1552195451987277</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01513380030432474</v>
+        <v>0.003925071866585125</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3098922935000094</v>
+        <v>0.05204218404092084</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01849221078353744</v>
+        <v>0.0252048438466209</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3116179909610206</v>
+        <v>0.1623848747700376</v>
       </c>
       <c r="L253" t="n">
-        <v>0.03760834213904093</v>
+        <v>0.05089527390544843</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3120559360990819</v>
+        <v>0.1576425861463072</v>
       </c>
       <c r="N253" t="n">
-        <v>0.05592470852390086</v>
+        <v>0.07668566945867716</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3122080003831311</v>
+        <v>0.1560495962425711</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01386968527632758</v>
+        <v>0.003978212941093115</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3115406567633073</v>
+        <v>0.05201384880556877</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01828489702992563</v>
+        <v>0.0252959336489102</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3132755334661324</v>
+        <v>0.1632486241039208</v>
       </c>
       <c r="L254" t="n">
-        <v>0.03658936193716433</v>
+        <v>0.05087796016060331</v>
       </c>
       <c r="M254" t="n">
-        <v>0.313715808099609</v>
+        <v>0.1584811105407024</v>
       </c>
       <c r="N254" t="n">
-        <v>0.05559404148012653</v>
+        <v>0.076559955234688</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3138686812362328</v>
+        <v>0.1568796472864146</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01460439110076461</v>
+        <v>0.00403880663611083</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3131890200266052</v>
+        <v>0.05198551357021671</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01797620426557463</v>
+        <v>0.02518716686512273</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3149330759712441</v>
+        <v>0.164112373437804</v>
       </c>
       <c r="L255" t="n">
-        <v>0.03596760060558224</v>
+        <v>0.05076091943786495</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3153756801001361</v>
+        <v>0.1593196349350977</v>
       </c>
       <c r="N255" t="n">
-        <v>0.05425919100491156</v>
+        <v>0.07653464364178592</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3155293620893347</v>
+        <v>0.1577096983302581</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01333790248649404</v>
+        <v>0.004107340722461258</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3148373832899031</v>
+        <v>0.05195717833486465</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01756611449494429</v>
+        <v>0.02527854557699859</v>
       </c>
       <c r="K256" t="n">
-        <v>0.316590618476356</v>
+        <v>0.1649761227716872</v>
       </c>
       <c r="L256" t="n">
-        <v>0.03564302179398915</v>
+        <v>0.05064415556833632</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3170355521006631</v>
+        <v>0.1601581593294929</v>
       </c>
       <c r="N256" t="n">
-        <v>0.0529201023892632</v>
+        <v>0.07600974026476343</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3171900429424364</v>
+        <v>0.1585397493741015</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01507020414237416</v>
+        <v>0.004184302970967384</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3164857465532011</v>
+        <v>0.05192884309951259</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01745460972249434</v>
+        <v>0.02517007186627772</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3182481609814678</v>
+        <v>0.1658398721055703</v>
       </c>
       <c r="L257" t="n">
-        <v>0.03481558915207941</v>
+        <v>0.05092767238312026</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3186954241011901</v>
+        <v>0.1609966837238881</v>
       </c>
       <c r="N257" t="n">
-        <v>0.05207672092418891</v>
+        <v>0.07638525068841273</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3188507237955382</v>
+        <v>0.159369800417945</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01380128077726318</v>
+        <v>0.004270181152452202</v>
       </c>
       <c r="G258" t="n">
-        <v>0.318134109816499</v>
+        <v>0.05190050786416052</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01694167195268453</v>
+        <v>0.02536174781470019</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3199057034865796</v>
+        <v>0.1667036214394535</v>
       </c>
       <c r="L258" t="n">
-        <v>0.03428526632954765</v>
+        <v>0.0507114737133198</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3203552961017171</v>
+        <v>0.1618352081182834</v>
       </c>
       <c r="N258" t="n">
-        <v>0.05172899190069574</v>
+        <v>0.0761611804975264</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3205114046486399</v>
+        <v>0.1601998514617885</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01253111710001939</v>
+        <v>0.004365463037738659</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3197824730797969</v>
+        <v>0.05187217262880846</v>
       </c>
       <c r="J259" t="n">
-        <v>0.0167272831899747</v>
+        <v>0.02515357550400599</v>
       </c>
       <c r="K259" t="n">
-        <v>0.3215632459916914</v>
+        <v>0.1675673707733367</v>
       </c>
       <c r="L259" t="n">
-        <v>0.03345201697608827</v>
+        <v>0.05079556339003777</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3220151681022441</v>
+        <v>0.1626737325126786</v>
       </c>
       <c r="N259" t="n">
-        <v>0.05067686060979126</v>
+        <v>0.07603753527689666</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3221720855017416</v>
+        <v>0.1610299025056319</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01325969781950101</v>
+        <v>0.00447063639764974</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3214308363430948</v>
+        <v>0.0518438373934564</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01651142543882458</v>
+        <v>0.02534555701593516</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3232207884968032</v>
+        <v>0.1684311201072199</v>
       </c>
       <c r="L260" t="n">
-        <v>0.03311580474139583</v>
+        <v>0.05097994524437724</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3236750401027712</v>
+        <v>0.1635122569070739</v>
       </c>
       <c r="N260" t="n">
-        <v>0.04972027234248255</v>
+        <v>0.07601432061131597</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3238327663548435</v>
+        <v>0.1618599535494754</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.0119870076445663</v>
+        <v>0.004586189003008445</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3230791996063928</v>
+        <v>0.05181550215810433</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01609408070369395</v>
+        <v>0.02533769443222769</v>
       </c>
       <c r="K261" t="n">
-        <v>0.324878331001915</v>
+        <v>0.1692948694411031</v>
       </c>
       <c r="L261" t="n">
-        <v>0.03257659327516471</v>
+        <v>0.05056462310744103</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3253349121032982</v>
+        <v>0.1643507813014692</v>
       </c>
       <c r="N261" t="n">
-        <v>0.04835917238977711</v>
+        <v>0.07609154208557661</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3254934472079452</v>
+        <v>0.1626900045933188</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01171303128407351</v>
+        <v>0.004712608624637751</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3247275628696907</v>
+        <v>0.05178716692275227</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01577523098904263</v>
+        <v>0.02532998983462362</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3265358735070268</v>
+        <v>0.1701586187749863</v>
       </c>
       <c r="L262" t="n">
-        <v>0.03153434622708956</v>
+        <v>0.05084960081033213</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3269947841038253</v>
+        <v>0.1651893056958644</v>
       </c>
       <c r="N262" t="n">
-        <v>0.047893506042682</v>
+        <v>0.07656920528447092</v>
       </c>
       <c r="O262" t="n">
-        <v>0.327154128061047</v>
+        <v>0.1635200556371623</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01343775344688089</v>
+        <v>0.004850383033360606</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3263759261329885</v>
+        <v>0.0517588316874002</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01555485829933033</v>
+        <v>0.02532244530486297</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3281934160121387</v>
+        <v>0.1710223681088694</v>
       </c>
       <c r="L263" t="n">
-        <v>0.03128902724686472</v>
+        <v>0.0508348821841535</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3286546561043522</v>
+        <v>0.1660278300902596</v>
       </c>
       <c r="N263" t="n">
-        <v>0.04622321859220474</v>
+        <v>0.07604731579279134</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3288148089141487</v>
+        <v>0.1643501066810058</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01116115884184665</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3280242893962865</v>
+        <v>0.05173049645204814</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01513294463901686</v>
+        <v>0.02531506292468573</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3298509585172504</v>
+        <v>0.1718861174427526</v>
       </c>
       <c r="L264" t="n">
-        <v>0.03044059998418475</v>
+        <v>0.05082047106000795</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3303145281048793</v>
+        <v>0.1668663544846549</v>
       </c>
       <c r="N264" t="n">
-        <v>0.04574825532935262</v>
+        <v>0.07602587919533021</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3304754897672504</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1651801577248492</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.0517173385573113</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005298950073203544</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05171760708577532</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.00559495375620659</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05171787561423934</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005887919107758717</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05171814414270335</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006177754186635159</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05171841267116737</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006464367051585783</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05171868119963139</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006747665761385517</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05171894972809541</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.007027558374784526</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05171921825655942</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007303952950557455</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05171948678502344</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007576757547454752</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05171975531348746</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.00784588022425077</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05172002384195148</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.008111229039696258</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05172029237041549</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008372712052565255</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05172056089887951</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.008630237321608843</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05172082942734352</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.008883712905600707</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05172109795580754</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.009133046863292298</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05172136648427156</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.009378147253456925</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05172163501273558</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.009618922134846414</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.0517219035411996</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.009855279566228607</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05172217206966361</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.010087127606371</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05172244059812763</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01031437431402595</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05172270912659165</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01053692774796584</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05172297765505567</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01075469596694344</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05172324618351968</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01096758702973073</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.0517235147119837</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01117550899508091</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05172378324044771</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01137874534848537</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05172405176891173</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.0115794567090171</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05172432029737575</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01177792656216723</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05172458882583977</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01197406296668959</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05172485735430379</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01216777398135519</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05172512588276781</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01235896766491808</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05172539441123182</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01254755207614906</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05172566293969584</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01273343527380238</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05172593146815985</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01291652531664467</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05172619999662387</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01309673026344228</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05172646852508789</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01327395817294985</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.0517267370535519</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01344811710393757</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05172700558201592</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01361911511516033</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05172727411047993</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01378686026538804</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05172754263894395</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.0139512606133759</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05172781116740797</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.0141122242178935</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05172807969587199</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01426965913769634</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05172834822433601</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01442347343155373</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05172861675280003</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01457357515822147</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05172888528126404</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01471987237646855</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05172915380972806</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01486227314505107</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05172942233819208</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01500068552273771</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.0517296908666561</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01513501756828493</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05172995939512011</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01526517734046105</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05173022792358413</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01539107289802287</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05173049645204814</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01539107289802287</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.0517173385573113</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01551652263845882</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.0517462108495914</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01564000821688569</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05177508314187149</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01576124585911459</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.0518039554341516</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01587995179095653</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.0518328277264317</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01599584223822263</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05186170001871179</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01610863342672397</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05189057231099189</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01621804158227161</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05191944460327198</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01632378293067666</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05194831689555209</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01642557369775015</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05197718918783218</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.01652313010930319</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05200606148011228</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01661616839114684</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05203493377239238</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.0167044047690922</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05206380606467247</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01678755546895034</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05209267835695258</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01686533671653233</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05212155064923267</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01693746473764923</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05215042294151277</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01700365575811215</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05217929523379286</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01706362600373214</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05220816752607296</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01711709170032032</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05223703981835306</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01716376907368772</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05226591211063316</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01720337434964544</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05229478440291326</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.01723562375400454</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05232365669519335</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01726023351257613</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05235252898747345</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.01727691985117127</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05238140127975355</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01728539899560102</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05241027357203364</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01728646790386622</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05243914586431374</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01728635644957204</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05246801815659383</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01728593635261699</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05249689044887394</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01728500185122721</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05252576274115404</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.0172833471836288</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05255463503343413</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.01728076658804784</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05258350732571423</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01727705430271046</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05261237961799432</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01727200456584275</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05264125191027443</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01726541161567081</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05267012420255451</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01725706969042076</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05269899649483462</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01724677302831868</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05272786878711472</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01723431586759069</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05275674107939481</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.01721949244646289</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05278561337167492</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.01720209700316139</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.052814485663955</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01718192377591228</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05284335795623511</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01715876700294167</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05287223024851521</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01713242092247567</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.0529011025407953</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01710267977274036</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.0529299748330754</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.01706933779196188</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05295884712535549</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.0170321892183663</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.0529877194176356</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.01699102829017973</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.0530165917099157</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.0169456492456283</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05304546400219579</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.01689584632293809</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05307433629447589</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.01684141376033521</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05310320858675598</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01678214579604574</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05313208087903608</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01678214579604574</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05313208087903608</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01712125953216972</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05471442538027368</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01745361945425245</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05629676988151128</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.01777908118357491</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05787911438274888</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.01809750034141814</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05946145888398648</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.01840873254906313</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06104380338522408</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.01871263342779088</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06262614788646169</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.01900905859888237</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06420849238769928</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.01929786368361865</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06579083688893687</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.0195789043032807</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06737318139017448</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.01985203607914954</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06895552589141209</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.02011711463250616</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07053787039264969</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.02037399558463159</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07212021489388727</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.02062253455680679</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07370255939512488</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.02086258717031281</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07528490389636248</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.02109400904643062</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07686724839760009</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02131665580644125</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.07844959289883768</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.02153038307162566</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08003193740007528</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02173504646326493</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08161428190131288</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02193050160264001</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08319662640255049</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02211660411103193</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08477897090378808</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02229320960972168</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08636131540502569</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02246017371999028</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.08794365990626328</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02261735206311871</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.08952600440750089</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.02276460026038798</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.09110834890873849</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.02290177393307913</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09269069340997609</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02302872870247313</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09427303791121369</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02314532018985098</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09585538241245128</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02325140401649373</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09743772691368889</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02334683580368231</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.09902007141492648</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.0234314711726978</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1006024159161641</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02350516574482116</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1021847604174017</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.0235677751413334</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1037671049186393</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02361915498351556</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1053494494198769</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02365916089264861</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1069317939211145</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02368764849001355</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1085141384223521</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02370952772806099</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1100964829235897</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.02370951111942016</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1116788274248273</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.02370644234517076</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1132611719260649</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02369833996212733</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1148435164273025</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.0236855862653602</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1164258609285401</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02366856354993963</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1180082054297777</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02364765411093593</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1195905499310153</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.0236232402434194</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1211728944322529</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.02359570424246034</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1227552389334905</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.02356542840312906</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1243375834347281</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.02353279502049584</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1259199279359657</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02349818638963097</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1275022724372033</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.02346198480560477</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1290846169384409</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.02342457256348755</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1306669614396785</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02338633195834958</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1322493059409161</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.02334738746193289</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1338316504421537</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.02329628276026312</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1354139949433913</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02322956218313038</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1369963394446289</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.02315120228271685</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1385786839458665</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.02306517961120484</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1401610284471041</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.02297547072077656</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1417433729483417</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02288605216361429</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1433257174495793</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.02280090049190027</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1449080619508169</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.02272399225781675</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1464904064520545</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.02265930401354598</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1480727509532921</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.02261081231127023</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02257455901169433</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1512374399557673</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.02254052115472786</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1528197844570049</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02250848171171864</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1544021289582425</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02247831325845601</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1559844734594801</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02244988837072932</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1575668179607177</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02242307962432791</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1591491624619553</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.0223977595950411</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1607315069631929</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02237380085865824</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1623138514644305</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.02235107599096869</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1638961959656681</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02232945756776175</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1654785404669057</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02230881816482679</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1670608849681433</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02228903035795311</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1686432294693809</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.02226996672293008</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1702255739706185</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02225149983554704</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1718079184718561</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02223350227159331</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1733902629730937</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.02221584660685823</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1749726074743313</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02219840541713113</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1765549519755689</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02218105127820139</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1781372964768065</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.0221636567658583</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1797196409780441</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02214609445589119</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1813019854792817</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02212823692408944</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1828843299805193</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02211032996953112</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1844666744817569</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02209272227094901</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1860490189829945</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02207542490616002</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1876313634842321</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02205844893316726</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1892137079854697</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02204180540997387</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1907960524867073</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02202550539458292</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1923783969879449</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02200955994499756</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1939607414891825</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02199398011922092</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1955430859904201</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02197877697525608</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.1971254304916577</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02196396157110617</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.1987077749928953</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02194954496477428</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2002901194941329</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02193553821426354</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2018724639953705</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02192195237757708</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2034548084966081</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02190879851271801</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2050371529978457</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02189608767768945</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2066194974990833</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02188383093049448</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2082018420003209</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02187203932913627</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2097841865015585</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
